--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="250">
   <si>
     <t>Deadline</t>
   </si>
@@ -888,6 +888,12 @@
   </si>
   <si>
     <t>Floor is is not waterproof.</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>A landlord may not turn off or interfere with a tenant's water, hot water, heat, light, power, or gas. The only time a landlord may shut off utilities temporarily, is to make necessary repairs. And the landlord must give you reasonable notice.</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1019"/>
+  <dimension ref="A1:AC1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" topLeftCell="C83" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1214,12 +1220,12 @@
     <col min="1" max="2" width="20.4140625" customWidth="1"/>
     <col min="3" max="3" width="36.25" customWidth="1"/>
     <col min="4" max="4" width="73.1640625" customWidth="1"/>
-    <col min="5" max="5" width="51" customWidth="1"/>
-    <col min="6" max="6" width="28.4140625" customWidth="1"/>
-    <col min="7" max="26" width="7.6640625" customWidth="1"/>
+    <col min="5" max="6" width="51" customWidth="1"/>
+    <col min="7" max="7" width="28.4140625" customWidth="1"/>
+    <col min="8" max="27" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,10 +1241,12 @@
       <c r="E1" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -1260,8 +1268,9 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-    </row>
-    <row r="2" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC1" s="3"/>
+    </row>
+    <row r="2" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1275,11 +1284,14 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
         <v>410.20100000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1293,11 +1305,14 @@
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1311,9 +1326,12 @@
       <c r="E4" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1327,11 +1345,14 @@
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
         <v>410.35399999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1345,11 +1366,14 @@
       <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1363,9 +1387,12 @@
       <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1379,11 +1406,14 @@
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1397,11 +1427,14 @@
       <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4">
         <v>410.18</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1415,11 +1448,14 @@
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1433,11 +1469,14 @@
       <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1451,9 +1490,12 @@
       <c r="E12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1467,10 +1509,12 @@
       <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1490,8 +1534,9 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1550,9 @@
       <c r="E14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1526,8 +1573,9 @@
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1541,10 +1589,12 @@
       <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1564,8 +1614,9 @@
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1579,11 +1630,14 @@
       <c r="E16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -1597,11 +1651,14 @@
       <c r="E17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="4">
         <v>410.5</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1615,9 +1672,12 @@
       <c r="E18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1631,9 +1691,12 @@
       <c r="E19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1647,11 +1710,14 @@
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="4">
         <v>410.351</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1665,9 +1731,12 @@
       <c r="E21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -1681,9 +1750,12 @@
       <c r="E22" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1697,11 +1769,14 @@
       <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -1715,11 +1790,14 @@
       <c r="E24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="4">
         <v>410.48200000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -1733,9 +1811,12 @@
       <c r="E25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
@@ -1749,11 +1830,14 @@
       <c r="E26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="4">
         <v>410.35300000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>3</v>
       </c>
@@ -1767,10 +1851,12 @@
       <c r="E27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -1792,8 +1878,9 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
       <c r="AB27" s="11"/>
-    </row>
-    <row r="28" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC27" s="11"/>
+    </row>
+    <row r="28" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -1807,11 +1894,14 @@
       <c r="E28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="4">
         <v>410.1</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
@@ -1825,9 +1915,12 @@
       <c r="E29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>57</v>
       </c>
@@ -1841,11 +1934,14 @@
       <c r="E30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -1859,9 +1955,12 @@
       <c r="E31" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -1875,11 +1974,14 @@
       <c r="E32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
@@ -1893,11 +1995,14 @@
       <c r="E33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>57</v>
       </c>
@@ -1911,11 +2016,14 @@
       <c r="E34" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="5">
         <v>410.55</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>57</v>
       </c>
@@ -1929,11 +2037,14 @@
       <c r="E35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="5">
         <v>410.55</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>75</v>
       </c>
@@ -1947,11 +2058,14 @@
       <c r="E36" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
@@ -1965,9 +2079,12 @@
       <c r="E37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>75</v>
       </c>
@@ -1981,9 +2098,12 @@
       <c r="E38" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
@@ -1997,11 +2117,14 @@
       <c r="E39" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>75</v>
       </c>
@@ -2015,11 +2138,14 @@
       <c r="E40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="5">
         <v>410.351</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>75</v>
       </c>
@@ -2033,11 +2159,14 @@
       <c r="E41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="5">
         <v>410.25099999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
@@ -2051,11 +2180,14 @@
       <c r="E42" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="5">
         <v>410.25099999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
@@ -2069,11 +2201,14 @@
       <c r="E43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" s="5">
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>75</v>
       </c>
@@ -2087,11 +2222,14 @@
       <c r="E44" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="5">
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>75</v>
       </c>
@@ -2105,9 +2243,12 @@
       <c r="E45" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>75</v>
       </c>
@@ -2121,11 +2262,14 @@
       <c r="E46" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="5">
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>75</v>
       </c>
@@ -2139,11 +2283,14 @@
       <c r="E47" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
@@ -2157,12 +2304,15 @@
       <c r="E48" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>75</v>
       </c>
@@ -2176,11 +2326,14 @@
       <c r="E49" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>75</v>
       </c>
@@ -2194,11 +2347,14 @@
       <c r="E50" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>75</v>
       </c>
@@ -2212,11 +2368,14 @@
       <c r="E51" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="4">
         <v>410.25200000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>75</v>
       </c>
@@ -2230,11 +2389,14 @@
       <c r="E52" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="5">
         <v>410.28</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>75</v>
       </c>
@@ -2248,11 +2410,14 @@
       <c r="E53" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>75</v>
       </c>
@@ -2266,9 +2431,12 @@
       <c r="E54" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F54" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>75</v>
       </c>
@@ -2282,11 +2450,14 @@
       <c r="E55" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>75</v>
       </c>
@@ -2300,11 +2471,14 @@
       <c r="E56" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>75</v>
       </c>
@@ -2318,11 +2492,14 @@
       <c r="E57" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>75</v>
       </c>
@@ -2336,11 +2513,14 @@
       <c r="E58" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" s="5">
         <v>410.18</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>75</v>
       </c>
@@ -2354,11 +2534,14 @@
       <c r="E59" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G59" s="5">
         <v>410.19</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>75</v>
       </c>
@@ -2372,11 +2555,14 @@
       <c r="E60" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="5">
         <v>410.19</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>75</v>
       </c>
@@ -2390,11 +2576,14 @@
       <c r="E61" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="5">
         <v>410.202</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>75</v>
       </c>
@@ -2408,11 +2597,14 @@
       <c r="E62" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="5">
         <v>410.35</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>75</v>
       </c>
@@ -2426,11 +2618,14 @@
       <c r="E63" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>75</v>
       </c>
@@ -2444,12 +2639,15 @@
       <c r="E64" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>75</v>
       </c>
@@ -2463,11 +2661,14 @@
       <c r="E65" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
@@ -2481,11 +2682,14 @@
       <c r="E66" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>75</v>
       </c>
@@ -2499,11 +2703,14 @@
       <c r="E67" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G67" s="5">
         <v>410.351</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>75</v>
       </c>
@@ -2517,11 +2724,14 @@
       <c r="E68" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G68" s="5">
         <v>410.202</v>
       </c>
     </row>
-    <row r="69" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -2535,11 +2745,14 @@
       <c r="E69" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G69" s="5">
         <v>410.20100000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>75</v>
       </c>
@@ -2553,11 +2766,14 @@
       <c r="E70" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70" s="5">
         <v>410.20100000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>75</v>
       </c>
@@ -2571,10 +2787,12 @@
       <c r="E71" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="13">
         <v>410.28</v>
       </c>
-      <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -2596,8 +2814,9 @@
       <c r="Z71" s="14"/>
       <c r="AA71" s="14"/>
       <c r="AB71" s="14"/>
-    </row>
-    <row r="72" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AC71" s="14"/>
+    </row>
+    <row r="72" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>75</v>
       </c>
@@ -2611,11 +2830,14 @@
       <c r="E72" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>75</v>
       </c>
@@ -2629,11 +2851,14 @@
       <c r="E73" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G73" s="5">
         <v>410.483</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>75</v>
       </c>
@@ -2647,11 +2872,14 @@
       <c r="E74" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="75" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>75</v>
       </c>
@@ -2665,11 +2893,14 @@
       <c r="E75" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="5">
         <v>410.255</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>75</v>
       </c>
@@ -2683,11 +2914,14 @@
       <c r="E76" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>75</v>
       </c>
@@ -2701,11 +2935,14 @@
       <c r="E77" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="78" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>75</v>
       </c>
@@ -2719,11 +2956,14 @@
       <c r="E78" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>75</v>
       </c>
@@ -2737,11 +2977,14 @@
       <c r="E79" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>75</v>
       </c>
@@ -2755,11 +2998,14 @@
       <c r="E80" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>75</v>
       </c>
@@ -2773,11 +3019,14 @@
       <c r="E81" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>75</v>
       </c>
@@ -2791,11 +3040,14 @@
       <c r="E82" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>75</v>
       </c>
@@ -2809,11 +3061,14 @@
       <c r="E83" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>75</v>
       </c>
@@ -2827,11 +3082,14 @@
       <c r="E84" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G84" s="5">
         <v>410.25599999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>75</v>
       </c>
@@ -2845,11 +3103,14 @@
       <c r="E85" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G85" s="5">
         <v>410.25599999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>75</v>
       </c>
@@ -2863,11 +3124,14 @@
       <c r="E86" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>75</v>
       </c>
@@ -2881,11 +3145,14 @@
       <c r="E87" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>75</v>
       </c>
@@ -2899,11 +3166,14 @@
       <c r="E88" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>75</v>
       </c>
@@ -2917,11 +3187,14 @@
       <c r="E89" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>75</v>
       </c>
@@ -2935,11 +3208,14 @@
       <c r="E90" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>75</v>
       </c>
@@ -2953,11 +3229,14 @@
       <c r="E91" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>75</v>
       </c>
@@ -2971,11 +3250,14 @@
       <c r="E92" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G92" s="5">
         <v>410.45100000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>75</v>
       </c>
@@ -2989,11 +3271,14 @@
       <c r="E93" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F93" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G93" s="5">
         <v>410.45100000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>75</v>
       </c>
@@ -3007,11 +3292,14 @@
       <c r="E94" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G94" s="5">
         <v>410.452</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>75</v>
       </c>
@@ -3025,11 +3313,14 @@
       <c r="E95" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>75</v>
       </c>
@@ -3043,11 +3334,14 @@
       <c r="E96" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>75</v>
       </c>
@@ -3061,11 +3355,14 @@
       <c r="E97" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>75</v>
       </c>
@@ -3079,11 +3376,14 @@
       <c r="E98" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>75</v>
       </c>
@@ -3097,11 +3397,14 @@
       <c r="E99" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>75</v>
       </c>
@@ -3115,11 +3418,14 @@
       <c r="E100" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>75</v>
       </c>
@@ -3133,11 +3439,14 @@
       <c r="E101" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>75</v>
       </c>
@@ -3151,11 +3460,14 @@
       <c r="E102" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G102" s="4">
         <v>410.5</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>75</v>
       </c>
@@ -3169,11 +3481,14 @@
       <c r="E103" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G103" s="4">
         <v>410.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>75</v>
       </c>
@@ -3187,11 +3502,14 @@
       <c r="E104" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G104" s="4">
         <v>410.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>75</v>
       </c>
@@ -3205,11 +3523,14 @@
       <c r="E105" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G105" s="4">
         <v>410.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>75</v>
       </c>
@@ -3223,11 +3544,14 @@
       <c r="E106" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>75</v>
       </c>
@@ -3241,11 +3565,14 @@
       <c r="E107" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G107" s="4">
         <v>410.5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>75</v>
       </c>
@@ -3259,11 +3586,14 @@
       <c r="E108" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G108" s="4">
         <v>410.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>75</v>
       </c>
@@ -3277,11 +3607,14 @@
       <c r="E109" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>75</v>
       </c>
@@ -3295,11 +3628,14 @@
       <c r="E110" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>75</v>
       </c>
@@ -3313,11 +3649,14 @@
       <c r="E111" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>75</v>
       </c>
@@ -3331,11 +3670,14 @@
       <c r="E112" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>75</v>
       </c>
@@ -3349,11 +3691,14 @@
       <c r="E113" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>75</v>
       </c>
@@ -3362,16 +3707,19 @@
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="15" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G114" s="5">
         <v>410.62</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>75</v>
       </c>
@@ -3385,11 +3733,14 @@
       <c r="E115" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>75</v>
       </c>
@@ -3403,11 +3754,14 @@
       <c r="E116" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>75</v>
       </c>
@@ -3421,11 +3775,14 @@
       <c r="E117" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G117" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>75</v>
       </c>
@@ -3439,11 +3796,14 @@
       <c r="E118" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F118" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>75</v>
       </c>
@@ -3457,11 +3817,14 @@
       <c r="E119" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>75</v>
       </c>
@@ -3475,11 +3838,14 @@
       <c r="E120" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>75</v>
       </c>
@@ -3493,11 +3859,14 @@
       <c r="E121" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>75</v>
       </c>
@@ -3511,11 +3880,14 @@
       <c r="E122" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G122" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>75</v>
       </c>
@@ -3529,11 +3901,14 @@
       <c r="E123" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G123" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>75</v>
       </c>
@@ -3547,11 +3922,14 @@
       <c r="E124" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G124" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>75</v>
       </c>
@@ -3565,11 +3943,14 @@
       <c r="E125" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="G125" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>75</v>
       </c>
@@ -3583,11 +3964,14 @@
       <c r="E126" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G126" s="5">
         <v>410.55</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>75</v>
       </c>
@@ -3601,11 +3985,14 @@
       <c r="E127" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G127" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>75</v>
       </c>
@@ -3619,11 +4006,14 @@
       <c r="E128" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G128" s="5">
         <v>410.601</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>75</v>
       </c>
@@ -3637,11 +4027,14 @@
       <c r="E129" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F129" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G129" s="5">
         <v>410.50200000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>75</v>
       </c>
@@ -3655,4454 +4048,5346 @@
       <c r="E130" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G130" s="17" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C131" s="5"/>
       <c r="D131" s="15"/>
       <c r="E131" s="5"/>
-    </row>
-    <row r="132" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C132" s="5"/>
       <c r="D132" s="15"/>
       <c r="E132" s="5"/>
-    </row>
-    <row r="133" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C133" s="5"/>
       <c r="D133" s="15"/>
       <c r="E133" s="5"/>
-    </row>
-    <row r="134" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C134" s="5"/>
       <c r="D134" s="15"/>
       <c r="E134" s="5"/>
-    </row>
-    <row r="135" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C135" s="5"/>
       <c r="D135" s="15"/>
       <c r="E135" s="5"/>
-    </row>
-    <row r="136" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C136" s="5"/>
       <c r="D136" s="15"/>
       <c r="E136" s="5"/>
-    </row>
-    <row r="137" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C137" s="5"/>
       <c r="D137" s="15"/>
       <c r="E137" s="5"/>
-    </row>
-    <row r="138" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C138" s="5"/>
       <c r="D138" s="15"/>
       <c r="E138" s="5"/>
-    </row>
-    <row r="139" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C139" s="5"/>
       <c r="D139" s="15"/>
       <c r="E139" s="5"/>
-    </row>
-    <row r="140" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C140" s="5"/>
       <c r="D140" s="15"/>
       <c r="E140" s="5"/>
-    </row>
-    <row r="141" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F140" s="6"/>
+    </row>
+    <row r="141" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C141" s="5"/>
       <c r="D141" s="15"/>
       <c r="E141" s="5"/>
-    </row>
-    <row r="142" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F141" s="6"/>
+    </row>
+    <row r="142" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C142" s="5"/>
       <c r="D142" s="15"/>
       <c r="E142" s="5"/>
-    </row>
-    <row r="143" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C143" s="5"/>
       <c r="D143" s="15"/>
       <c r="E143" s="5"/>
-    </row>
-    <row r="144" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C144" s="5"/>
       <c r="D144" s="15"/>
       <c r="E144" s="5"/>
-    </row>
-    <row r="145" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C145" s="5"/>
       <c r="D145" s="15"/>
       <c r="E145" s="5"/>
-    </row>
-    <row r="146" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C146" s="5"/>
       <c r="D146" s="15"/>
       <c r="E146" s="5"/>
-    </row>
-    <row r="147" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C147" s="5"/>
       <c r="D147" s="15"/>
       <c r="E147" s="5"/>
-    </row>
-    <row r="148" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C148" s="5"/>
       <c r="D148" s="15"/>
       <c r="E148" s="5"/>
-    </row>
-    <row r="149" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C149" s="5"/>
       <c r="D149" s="15"/>
       <c r="E149" s="5"/>
-    </row>
-    <row r="150" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C150" s="5"/>
       <c r="D150" s="15"/>
       <c r="E150" s="5"/>
-    </row>
-    <row r="151" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C151" s="5"/>
       <c r="D151" s="15"/>
       <c r="E151" s="5"/>
-    </row>
-    <row r="152" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C152" s="5"/>
       <c r="D152" s="15"/>
       <c r="E152" s="5"/>
-    </row>
-    <row r="153" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C153" s="5"/>
       <c r="D153" s="15"/>
       <c r="E153" s="5"/>
-    </row>
-    <row r="154" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C154" s="5"/>
       <c r="D154" s="15"/>
       <c r="E154" s="5"/>
-    </row>
-    <row r="155" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F154" s="6"/>
+    </row>
+    <row r="155" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C155" s="5"/>
       <c r="D155" s="15"/>
       <c r="E155" s="5"/>
-    </row>
-    <row r="156" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F155" s="6"/>
+    </row>
+    <row r="156" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C156" s="5"/>
       <c r="D156" s="15"/>
       <c r="E156" s="5"/>
-    </row>
-    <row r="157" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F156" s="6"/>
+    </row>
+    <row r="157" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C157" s="5"/>
       <c r="D157" s="15"/>
       <c r="E157" s="5"/>
-    </row>
-    <row r="158" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C158" s="5"/>
       <c r="D158" s="15"/>
       <c r="E158" s="5"/>
-    </row>
-    <row r="159" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C159" s="5"/>
       <c r="D159" s="15"/>
       <c r="E159" s="5"/>
-    </row>
-    <row r="160" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C160" s="5"/>
       <c r="D160" s="15"/>
       <c r="E160" s="5"/>
-    </row>
-    <row r="161" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F160" s="6"/>
+    </row>
+    <row r="161" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C161" s="5"/>
       <c r="D161" s="15"/>
       <c r="E161" s="5"/>
-    </row>
-    <row r="162" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C162" s="5"/>
       <c r="D162" s="15"/>
       <c r="E162" s="5"/>
-    </row>
-    <row r="163" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C163" s="5"/>
       <c r="D163" s="15"/>
       <c r="E163" s="5"/>
-    </row>
-    <row r="164" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C164" s="5"/>
       <c r="D164" s="15"/>
       <c r="E164" s="5"/>
-    </row>
-    <row r="165" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F164" s="6"/>
+    </row>
+    <row r="165" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C165" s="5"/>
       <c r="D165" s="15"/>
       <c r="E165" s="5"/>
-    </row>
-    <row r="166" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F165" s="6"/>
+    </row>
+    <row r="166" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C166" s="5"/>
       <c r="D166" s="15"/>
       <c r="E166" s="5"/>
-    </row>
-    <row r="167" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F166" s="6"/>
+    </row>
+    <row r="167" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C167" s="5"/>
       <c r="D167" s="15"/>
       <c r="E167" s="5"/>
-    </row>
-    <row r="168" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C168" s="5"/>
       <c r="D168" s="15"/>
       <c r="E168" s="5"/>
-    </row>
-    <row r="169" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C169" s="5"/>
       <c r="D169" s="15"/>
       <c r="E169" s="5"/>
-    </row>
-    <row r="170" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C170" s="5"/>
       <c r="D170" s="15"/>
       <c r="E170" s="5"/>
-    </row>
-    <row r="171" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F170" s="6"/>
+    </row>
+    <row r="171" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C171" s="5"/>
       <c r="D171" s="15"/>
       <c r="E171" s="5"/>
-    </row>
-    <row r="172" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F171" s="6"/>
+    </row>
+    <row r="172" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C172" s="5"/>
       <c r="D172" s="15"/>
       <c r="E172" s="5"/>
-    </row>
-    <row r="173" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F172" s="6"/>
+    </row>
+    <row r="173" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C173" s="5"/>
       <c r="D173" s="15"/>
       <c r="E173" s="5"/>
-    </row>
-    <row r="174" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F173" s="6"/>
+    </row>
+    <row r="174" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C174" s="5"/>
       <c r="D174" s="15"/>
       <c r="E174" s="5"/>
-    </row>
-    <row r="175" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C175" s="5"/>
       <c r="D175" s="15"/>
       <c r="E175" s="5"/>
-    </row>
-    <row r="176" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C176" s="5"/>
       <c r="D176" s="15"/>
       <c r="E176" s="5"/>
-    </row>
-    <row r="177" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F176" s="6"/>
+    </row>
+    <row r="177" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C177" s="5"/>
       <c r="D177" s="15"/>
       <c r="E177" s="5"/>
-    </row>
-    <row r="178" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C178" s="5"/>
       <c r="D178" s="15"/>
       <c r="E178" s="5"/>
-    </row>
-    <row r="179" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C179" s="5"/>
       <c r="D179" s="15"/>
       <c r="E179" s="5"/>
-    </row>
-    <row r="180" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C180" s="5"/>
       <c r="D180" s="15"/>
       <c r="E180" s="5"/>
-    </row>
-    <row r="181" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F180" s="6"/>
+    </row>
+    <row r="181" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C181" s="5"/>
       <c r="D181" s="15"/>
       <c r="E181" s="5"/>
-    </row>
-    <row r="182" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C182" s="5"/>
       <c r="D182" s="15"/>
       <c r="E182" s="5"/>
-    </row>
-    <row r="183" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F182" s="6"/>
+    </row>
+    <row r="183" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C183" s="5"/>
       <c r="D183" s="15"/>
       <c r="E183" s="5"/>
-    </row>
-    <row r="184" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F183" s="6"/>
+    </row>
+    <row r="184" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C184" s="5"/>
       <c r="D184" s="15"/>
       <c r="E184" s="5"/>
-    </row>
-    <row r="185" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F184" s="6"/>
+    </row>
+    <row r="185" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C185" s="5"/>
       <c r="D185" s="15"/>
       <c r="E185" s="5"/>
-    </row>
-    <row r="186" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F185" s="6"/>
+    </row>
+    <row r="186" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C186" s="5"/>
       <c r="D186" s="15"/>
       <c r="E186" s="5"/>
-    </row>
-    <row r="187" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F186" s="6"/>
+    </row>
+    <row r="187" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C187" s="5"/>
       <c r="D187" s="15"/>
       <c r="E187" s="5"/>
-    </row>
-    <row r="188" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F187" s="6"/>
+    </row>
+    <row r="188" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C188" s="5"/>
       <c r="D188" s="15"/>
       <c r="E188" s="5"/>
-    </row>
-    <row r="189" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F188" s="6"/>
+    </row>
+    <row r="189" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C189" s="5"/>
       <c r="D189" s="15"/>
       <c r="E189" s="5"/>
-    </row>
-    <row r="190" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F189" s="6"/>
+    </row>
+    <row r="190" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C190" s="5"/>
       <c r="D190" s="15"/>
       <c r="E190" s="5"/>
-    </row>
-    <row r="191" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C191" s="5"/>
       <c r="D191" s="15"/>
       <c r="E191" s="5"/>
-    </row>
-    <row r="192" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C192" s="5"/>
       <c r="D192" s="15"/>
       <c r="E192" s="5"/>
-    </row>
-    <row r="193" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F192" s="6"/>
+    </row>
+    <row r="193" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C193" s="5"/>
       <c r="D193" s="15"/>
       <c r="E193" s="5"/>
-    </row>
-    <row r="194" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F193" s="6"/>
+    </row>
+    <row r="194" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C194" s="5"/>
       <c r="D194" s="15"/>
       <c r="E194" s="5"/>
-    </row>
-    <row r="195" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F194" s="6"/>
+    </row>
+    <row r="195" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C195" s="5"/>
       <c r="D195" s="15"/>
       <c r="E195" s="5"/>
-    </row>
-    <row r="196" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F195" s="6"/>
+    </row>
+    <row r="196" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C196" s="5"/>
       <c r="D196" s="15"/>
       <c r="E196" s="5"/>
-    </row>
-    <row r="197" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F196" s="6"/>
+    </row>
+    <row r="197" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C197" s="5"/>
       <c r="D197" s="15"/>
       <c r="E197" s="5"/>
-    </row>
-    <row r="198" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F197" s="6"/>
+    </row>
+    <row r="198" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C198" s="5"/>
       <c r="D198" s="15"/>
       <c r="E198" s="5"/>
-    </row>
-    <row r="199" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C199" s="5"/>
       <c r="D199" s="15"/>
       <c r="E199" s="5"/>
-    </row>
-    <row r="200" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F199" s="6"/>
+    </row>
+    <row r="200" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C200" s="5"/>
       <c r="D200" s="15"/>
       <c r="E200" s="5"/>
-    </row>
-    <row r="201" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F200" s="6"/>
+    </row>
+    <row r="201" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C201" s="5"/>
       <c r="D201" s="15"/>
       <c r="E201" s="5"/>
-    </row>
-    <row r="202" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F201" s="6"/>
+    </row>
+    <row r="202" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C202" s="5"/>
       <c r="D202" s="15"/>
       <c r="E202" s="5"/>
-    </row>
-    <row r="203" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F202" s="6"/>
+    </row>
+    <row r="203" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C203" s="5"/>
       <c r="D203" s="15"/>
       <c r="E203" s="5"/>
-    </row>
-    <row r="204" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C204" s="5"/>
       <c r="D204" s="15"/>
       <c r="E204" s="5"/>
-    </row>
-    <row r="205" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F204" s="6"/>
+    </row>
+    <row r="205" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C205" s="5"/>
       <c r="D205" s="15"/>
       <c r="E205" s="5"/>
-    </row>
-    <row r="206" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C206" s="5"/>
       <c r="D206" s="15"/>
       <c r="E206" s="5"/>
-    </row>
-    <row r="207" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C207" s="5"/>
       <c r="D207" s="15"/>
       <c r="E207" s="5"/>
-    </row>
-    <row r="208" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F207" s="6"/>
+    </row>
+    <row r="208" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C208" s="5"/>
       <c r="D208" s="15"/>
       <c r="E208" s="5"/>
-    </row>
-    <row r="209" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F208" s="6"/>
+    </row>
+    <row r="209" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C209" s="5"/>
       <c r="D209" s="15"/>
       <c r="E209" s="5"/>
-    </row>
-    <row r="210" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F209" s="6"/>
+    </row>
+    <row r="210" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C210" s="5"/>
       <c r="D210" s="15"/>
       <c r="E210" s="5"/>
-    </row>
-    <row r="211" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F210" s="6"/>
+    </row>
+    <row r="211" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C211" s="5"/>
       <c r="D211" s="15"/>
       <c r="E211" s="5"/>
-    </row>
-    <row r="212" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F211" s="6"/>
+    </row>
+    <row r="212" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C212" s="5"/>
       <c r="D212" s="15"/>
       <c r="E212" s="5"/>
-    </row>
-    <row r="213" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F212" s="6"/>
+    </row>
+    <row r="213" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C213" s="5"/>
       <c r="D213" s="15"/>
       <c r="E213" s="5"/>
-    </row>
-    <row r="214" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F213" s="6"/>
+    </row>
+    <row r="214" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C214" s="5"/>
       <c r="D214" s="15"/>
       <c r="E214" s="5"/>
-    </row>
-    <row r="215" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F214" s="6"/>
+    </row>
+    <row r="215" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C215" s="5"/>
       <c r="D215" s="15"/>
       <c r="E215" s="5"/>
-    </row>
-    <row r="216" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F215" s="6"/>
+    </row>
+    <row r="216" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C216" s="5"/>
       <c r="D216" s="15"/>
       <c r="E216" s="5"/>
-    </row>
-    <row r="217" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F216" s="6"/>
+    </row>
+    <row r="217" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C217" s="5"/>
       <c r="D217" s="15"/>
       <c r="E217" s="5"/>
-    </row>
-    <row r="218" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F217" s="6"/>
+    </row>
+    <row r="218" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C218" s="5"/>
       <c r="D218" s="15"/>
       <c r="E218" s="5"/>
-    </row>
-    <row r="219" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C219" s="5"/>
       <c r="D219" s="15"/>
       <c r="E219" s="5"/>
-    </row>
-    <row r="220" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F219" s="6"/>
+    </row>
+    <row r="220" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C220" s="5"/>
       <c r="D220" s="15"/>
       <c r="E220" s="5"/>
-    </row>
-    <row r="221" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F220" s="6"/>
+    </row>
+    <row r="221" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C221" s="5"/>
       <c r="D221" s="15"/>
       <c r="E221" s="5"/>
-    </row>
-    <row r="222" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C222" s="5"/>
       <c r="D222" s="15"/>
       <c r="E222" s="5"/>
-    </row>
-    <row r="223" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C223" s="5"/>
       <c r="D223" s="15"/>
       <c r="E223" s="5"/>
-    </row>
-    <row r="224" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C224" s="5"/>
       <c r="D224" s="15"/>
       <c r="E224" s="5"/>
-    </row>
-    <row r="225" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C225" s="5"/>
       <c r="D225" s="15"/>
       <c r="E225" s="5"/>
-    </row>
-    <row r="226" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F225" s="6"/>
+    </row>
+    <row r="226" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C226" s="5"/>
       <c r="D226" s="15"/>
       <c r="E226" s="5"/>
-    </row>
-    <row r="227" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F226" s="6"/>
+    </row>
+    <row r="227" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C227" s="5"/>
       <c r="D227" s="15"/>
       <c r="E227" s="5"/>
-    </row>
-    <row r="228" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F227" s="6"/>
+    </row>
+    <row r="228" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C228" s="5"/>
       <c r="D228" s="15"/>
       <c r="E228" s="5"/>
-    </row>
-    <row r="229" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F228" s="6"/>
+    </row>
+    <row r="229" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C229" s="5"/>
       <c r="D229" s="15"/>
       <c r="E229" s="5"/>
-    </row>
-    <row r="230" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C230" s="5"/>
       <c r="D230" s="15"/>
       <c r="E230" s="5"/>
-    </row>
-    <row r="231" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F230" s="6"/>
+    </row>
+    <row r="231" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C231" s="5"/>
       <c r="D231" s="15"/>
       <c r="E231" s="5"/>
-    </row>
-    <row r="232" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F231" s="6"/>
+    </row>
+    <row r="232" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C232" s="5"/>
       <c r="D232" s="15"/>
       <c r="E232" s="5"/>
-    </row>
-    <row r="233" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F232" s="6"/>
+    </row>
+    <row r="233" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C233" s="5"/>
       <c r="D233" s="15"/>
       <c r="E233" s="5"/>
-    </row>
-    <row r="234" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C234" s="5"/>
       <c r="D234" s="15"/>
       <c r="E234" s="5"/>
-    </row>
-    <row r="235" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F234" s="6"/>
+    </row>
+    <row r="235" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C235" s="5"/>
       <c r="D235" s="15"/>
       <c r="E235" s="5"/>
-    </row>
-    <row r="236" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F235" s="6"/>
+    </row>
+    <row r="236" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C236" s="5"/>
       <c r="D236" s="15"/>
       <c r="E236" s="5"/>
-    </row>
-    <row r="237" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F236" s="6"/>
+    </row>
+    <row r="237" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C237" s="5"/>
       <c r="D237" s="15"/>
       <c r="E237" s="5"/>
-    </row>
-    <row r="238" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F237" s="6"/>
+    </row>
+    <row r="238" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C238" s="5"/>
       <c r="D238" s="15"/>
       <c r="E238" s="5"/>
-    </row>
-    <row r="239" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F238" s="6"/>
+    </row>
+    <row r="239" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C239" s="5"/>
       <c r="D239" s="15"/>
       <c r="E239" s="5"/>
-    </row>
-    <row r="240" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F239" s="6"/>
+    </row>
+    <row r="240" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C240" s="5"/>
       <c r="D240" s="15"/>
       <c r="E240" s="5"/>
-    </row>
-    <row r="241" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F240" s="6"/>
+    </row>
+    <row r="241" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C241" s="5"/>
       <c r="D241" s="15"/>
       <c r="E241" s="5"/>
-    </row>
-    <row r="242" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F241" s="6"/>
+    </row>
+    <row r="242" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C242" s="5"/>
       <c r="D242" s="15"/>
       <c r="E242" s="5"/>
-    </row>
-    <row r="243" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F242" s="6"/>
+    </row>
+    <row r="243" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C243" s="5"/>
       <c r="D243" s="15"/>
       <c r="E243" s="5"/>
-    </row>
-    <row r="244" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F243" s="6"/>
+    </row>
+    <row r="244" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C244" s="5"/>
       <c r="D244" s="15"/>
       <c r="E244" s="5"/>
-    </row>
-    <row r="245" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F244" s="6"/>
+    </row>
+    <row r="245" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C245" s="5"/>
       <c r="D245" s="15"/>
       <c r="E245" s="5"/>
-    </row>
-    <row r="246" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F245" s="6"/>
+    </row>
+    <row r="246" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C246" s="5"/>
       <c r="D246" s="15"/>
       <c r="E246" s="5"/>
-    </row>
-    <row r="247" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F246" s="6"/>
+    </row>
+    <row r="247" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C247" s="5"/>
       <c r="D247" s="15"/>
       <c r="E247" s="5"/>
-    </row>
-    <row r="248" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F247" s="6"/>
+    </row>
+    <row r="248" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C248" s="5"/>
       <c r="D248" s="15"/>
       <c r="E248" s="5"/>
-    </row>
-    <row r="249" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F248" s="6"/>
+    </row>
+    <row r="249" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C249" s="5"/>
       <c r="D249" s="15"/>
       <c r="E249" s="5"/>
-    </row>
-    <row r="250" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F249" s="6"/>
+    </row>
+    <row r="250" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C250" s="5"/>
       <c r="D250" s="15"/>
       <c r="E250" s="5"/>
-    </row>
-    <row r="251" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F250" s="6"/>
+    </row>
+    <row r="251" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C251" s="5"/>
       <c r="D251" s="15"/>
       <c r="E251" s="5"/>
-    </row>
-    <row r="252" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F251" s="6"/>
+    </row>
+    <row r="252" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C252" s="5"/>
       <c r="D252" s="15"/>
       <c r="E252" s="5"/>
-    </row>
-    <row r="253" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F252" s="6"/>
+    </row>
+    <row r="253" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C253" s="5"/>
       <c r="D253" s="15"/>
       <c r="E253" s="5"/>
-    </row>
-    <row r="254" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F253" s="6"/>
+    </row>
+    <row r="254" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C254" s="5"/>
       <c r="D254" s="15"/>
       <c r="E254" s="5"/>
-    </row>
-    <row r="255" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F254" s="6"/>
+    </row>
+    <row r="255" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C255" s="5"/>
       <c r="D255" s="15"/>
       <c r="E255" s="5"/>
-    </row>
-    <row r="256" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F255" s="6"/>
+    </row>
+    <row r="256" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C256" s="5"/>
       <c r="D256" s="15"/>
       <c r="E256" s="5"/>
-    </row>
-    <row r="257" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F256" s="6"/>
+    </row>
+    <row r="257" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C257" s="5"/>
       <c r="D257" s="15"/>
       <c r="E257" s="5"/>
-    </row>
-    <row r="258" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F257" s="6"/>
+    </row>
+    <row r="258" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C258" s="5"/>
       <c r="D258" s="15"/>
       <c r="E258" s="5"/>
-    </row>
-    <row r="259" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F258" s="6"/>
+    </row>
+    <row r="259" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C259" s="5"/>
       <c r="D259" s="15"/>
       <c r="E259" s="5"/>
-    </row>
-    <row r="260" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F259" s="6"/>
+    </row>
+    <row r="260" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C260" s="5"/>
       <c r="D260" s="15"/>
       <c r="E260" s="5"/>
-    </row>
-    <row r="261" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F260" s="6"/>
+    </row>
+    <row r="261" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C261" s="5"/>
       <c r="D261" s="15"/>
       <c r="E261" s="5"/>
-    </row>
-    <row r="262" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F261" s="6"/>
+    </row>
+    <row r="262" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C262" s="5"/>
       <c r="D262" s="15"/>
       <c r="E262" s="5"/>
-    </row>
-    <row r="263" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F262" s="6"/>
+    </row>
+    <row r="263" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C263" s="5"/>
       <c r="D263" s="15"/>
       <c r="E263" s="5"/>
-    </row>
-    <row r="264" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F263" s="6"/>
+    </row>
+    <row r="264" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C264" s="5"/>
       <c r="D264" s="15"/>
       <c r="E264" s="5"/>
-    </row>
-    <row r="265" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F264" s="6"/>
+    </row>
+    <row r="265" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C265" s="5"/>
       <c r="D265" s="15"/>
       <c r="E265" s="5"/>
-    </row>
-    <row r="266" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F265" s="6"/>
+    </row>
+    <row r="266" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C266" s="5"/>
       <c r="D266" s="15"/>
       <c r="E266" s="5"/>
-    </row>
-    <row r="267" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F266" s="6"/>
+    </row>
+    <row r="267" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C267" s="5"/>
       <c r="D267" s="15"/>
       <c r="E267" s="5"/>
-    </row>
-    <row r="268" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F267" s="6"/>
+    </row>
+    <row r="268" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C268" s="5"/>
       <c r="D268" s="15"/>
       <c r="E268" s="5"/>
-    </row>
-    <row r="269" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F268" s="6"/>
+    </row>
+    <row r="269" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C269" s="5"/>
       <c r="D269" s="15"/>
       <c r="E269" s="5"/>
-    </row>
-    <row r="270" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F269" s="6"/>
+    </row>
+    <row r="270" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C270" s="5"/>
       <c r="D270" s="15"/>
       <c r="E270" s="5"/>
-    </row>
-    <row r="271" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F270" s="6"/>
+    </row>
+    <row r="271" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C271" s="5"/>
       <c r="D271" s="15"/>
       <c r="E271" s="5"/>
-    </row>
-    <row r="272" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F271" s="6"/>
+    </row>
+    <row r="272" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C272" s="5"/>
       <c r="D272" s="15"/>
       <c r="E272" s="5"/>
-    </row>
-    <row r="273" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F272" s="6"/>
+    </row>
+    <row r="273" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C273" s="5"/>
       <c r="D273" s="15"/>
       <c r="E273" s="5"/>
-    </row>
-    <row r="274" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F273" s="6"/>
+    </row>
+    <row r="274" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C274" s="5"/>
       <c r="D274" s="15"/>
       <c r="E274" s="5"/>
-    </row>
-    <row r="275" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F274" s="6"/>
+    </row>
+    <row r="275" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C275" s="5"/>
       <c r="D275" s="15"/>
       <c r="E275" s="5"/>
-    </row>
-    <row r="276" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F275" s="6"/>
+    </row>
+    <row r="276" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C276" s="5"/>
       <c r="D276" s="15"/>
       <c r="E276" s="5"/>
-    </row>
-    <row r="277" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F276" s="6"/>
+    </row>
+    <row r="277" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C277" s="5"/>
       <c r="D277" s="15"/>
       <c r="E277" s="5"/>
-    </row>
-    <row r="278" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F277" s="6"/>
+    </row>
+    <row r="278" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C278" s="5"/>
       <c r="D278" s="15"/>
       <c r="E278" s="5"/>
-    </row>
-    <row r="279" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F278" s="6"/>
+    </row>
+    <row r="279" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C279" s="5"/>
       <c r="D279" s="15"/>
       <c r="E279" s="5"/>
-    </row>
-    <row r="280" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F279" s="6"/>
+    </row>
+    <row r="280" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C280" s="5"/>
       <c r="D280" s="15"/>
       <c r="E280" s="5"/>
-    </row>
-    <row r="281" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F280" s="6"/>
+    </row>
+    <row r="281" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C281" s="5"/>
       <c r="D281" s="15"/>
       <c r="E281" s="5"/>
-    </row>
-    <row r="282" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F281" s="6"/>
+    </row>
+    <row r="282" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C282" s="5"/>
       <c r="D282" s="15"/>
       <c r="E282" s="5"/>
-    </row>
-    <row r="283" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F282" s="6"/>
+    </row>
+    <row r="283" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C283" s="5"/>
       <c r="D283" s="15"/>
       <c r="E283" s="5"/>
-    </row>
-    <row r="284" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F283" s="6"/>
+    </row>
+    <row r="284" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C284" s="5"/>
       <c r="D284" s="15"/>
       <c r="E284" s="5"/>
-    </row>
-    <row r="285" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F284" s="6"/>
+    </row>
+    <row r="285" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C285" s="5"/>
       <c r="D285" s="15"/>
       <c r="E285" s="5"/>
-    </row>
-    <row r="286" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F285" s="6"/>
+    </row>
+    <row r="286" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C286" s="5"/>
       <c r="D286" s="15"/>
       <c r="E286" s="5"/>
-    </row>
-    <row r="287" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F286" s="6"/>
+    </row>
+    <row r="287" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C287" s="5"/>
       <c r="D287" s="15"/>
       <c r="E287" s="5"/>
-    </row>
-    <row r="288" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F287" s="6"/>
+    </row>
+    <row r="288" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C288" s="5"/>
       <c r="D288" s="15"/>
       <c r="E288" s="5"/>
-    </row>
-    <row r="289" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F288" s="6"/>
+    </row>
+    <row r="289" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C289" s="5"/>
       <c r="D289" s="15"/>
       <c r="E289" s="5"/>
-    </row>
-    <row r="290" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F289" s="6"/>
+    </row>
+    <row r="290" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C290" s="5"/>
       <c r="D290" s="15"/>
       <c r="E290" s="5"/>
-    </row>
-    <row r="291" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F290" s="6"/>
+    </row>
+    <row r="291" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C291" s="5"/>
       <c r="D291" s="15"/>
       <c r="E291" s="5"/>
-    </row>
-    <row r="292" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F291" s="6"/>
+    </row>
+    <row r="292" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C292" s="5"/>
       <c r="D292" s="15"/>
       <c r="E292" s="5"/>
-    </row>
-    <row r="293" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F292" s="6"/>
+    </row>
+    <row r="293" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C293" s="5"/>
       <c r="D293" s="15"/>
       <c r="E293" s="5"/>
-    </row>
-    <row r="294" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F293" s="6"/>
+    </row>
+    <row r="294" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C294" s="5"/>
       <c r="D294" s="15"/>
       <c r="E294" s="5"/>
-    </row>
-    <row r="295" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F294" s="6"/>
+    </row>
+    <row r="295" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C295" s="5"/>
       <c r="D295" s="15"/>
       <c r="E295" s="5"/>
-    </row>
-    <row r="296" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F295" s="6"/>
+    </row>
+    <row r="296" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C296" s="5"/>
       <c r="D296" s="15"/>
       <c r="E296" s="5"/>
-    </row>
-    <row r="297" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F296" s="6"/>
+    </row>
+    <row r="297" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C297" s="5"/>
       <c r="D297" s="15"/>
       <c r="E297" s="5"/>
-    </row>
-    <row r="298" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F297" s="6"/>
+    </row>
+    <row r="298" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C298" s="5"/>
       <c r="D298" s="15"/>
       <c r="E298" s="5"/>
-    </row>
-    <row r="299" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F298" s="6"/>
+    </row>
+    <row r="299" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C299" s="5"/>
       <c r="D299" s="15"/>
       <c r="E299" s="5"/>
-    </row>
-    <row r="300" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F299" s="6"/>
+    </row>
+    <row r="300" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C300" s="5"/>
       <c r="D300" s="15"/>
       <c r="E300" s="5"/>
-    </row>
-    <row r="301" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F300" s="6"/>
+    </row>
+    <row r="301" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C301" s="5"/>
       <c r="D301" s="15"/>
       <c r="E301" s="5"/>
-    </row>
-    <row r="302" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F301" s="6"/>
+    </row>
+    <row r="302" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C302" s="5"/>
       <c r="D302" s="15"/>
       <c r="E302" s="5"/>
-    </row>
-    <row r="303" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F302" s="6"/>
+    </row>
+    <row r="303" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C303" s="5"/>
       <c r="D303" s="15"/>
       <c r="E303" s="5"/>
-    </row>
-    <row r="304" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F303" s="6"/>
+    </row>
+    <row r="304" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C304" s="5"/>
       <c r="D304" s="15"/>
       <c r="E304" s="5"/>
-    </row>
-    <row r="305" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F304" s="6"/>
+    </row>
+    <row r="305" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C305" s="5"/>
       <c r="D305" s="15"/>
       <c r="E305" s="5"/>
-    </row>
-    <row r="306" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F305" s="6"/>
+    </row>
+    <row r="306" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C306" s="5"/>
       <c r="D306" s="15"/>
       <c r="E306" s="5"/>
-    </row>
-    <row r="307" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F306" s="6"/>
+    </row>
+    <row r="307" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C307" s="5"/>
       <c r="D307" s="15"/>
       <c r="E307" s="5"/>
-    </row>
-    <row r="308" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F307" s="6"/>
+    </row>
+    <row r="308" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C308" s="5"/>
       <c r="D308" s="15"/>
       <c r="E308" s="5"/>
-    </row>
-    <row r="309" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F308" s="6"/>
+    </row>
+    <row r="309" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C309" s="5"/>
       <c r="D309" s="15"/>
       <c r="E309" s="5"/>
-    </row>
-    <row r="310" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F309" s="6"/>
+    </row>
+    <row r="310" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C310" s="5"/>
       <c r="D310" s="15"/>
       <c r="E310" s="5"/>
-    </row>
-    <row r="311" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F310" s="6"/>
+    </row>
+    <row r="311" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C311" s="5"/>
       <c r="D311" s="15"/>
       <c r="E311" s="5"/>
-    </row>
-    <row r="312" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F311" s="6"/>
+    </row>
+    <row r="312" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C312" s="5"/>
       <c r="D312" s="15"/>
       <c r="E312" s="5"/>
-    </row>
-    <row r="313" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F312" s="6"/>
+    </row>
+    <row r="313" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C313" s="5"/>
       <c r="D313" s="15"/>
       <c r="E313" s="5"/>
-    </row>
-    <row r="314" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F313" s="6"/>
+    </row>
+    <row r="314" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C314" s="5"/>
       <c r="D314" s="15"/>
       <c r="E314" s="5"/>
-    </row>
-    <row r="315" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F314" s="6"/>
+    </row>
+    <row r="315" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C315" s="5"/>
       <c r="D315" s="15"/>
       <c r="E315" s="5"/>
-    </row>
-    <row r="316" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F315" s="6"/>
+    </row>
+    <row r="316" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C316" s="5"/>
       <c r="D316" s="15"/>
       <c r="E316" s="5"/>
-    </row>
-    <row r="317" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F316" s="6"/>
+    </row>
+    <row r="317" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C317" s="5"/>
       <c r="D317" s="15"/>
       <c r="E317" s="5"/>
-    </row>
-    <row r="318" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F317" s="6"/>
+    </row>
+    <row r="318" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C318" s="5"/>
       <c r="D318" s="15"/>
       <c r="E318" s="5"/>
-    </row>
-    <row r="319" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F318" s="6"/>
+    </row>
+    <row r="319" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C319" s="5"/>
       <c r="D319" s="15"/>
       <c r="E319" s="5"/>
-    </row>
-    <row r="320" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F319" s="6"/>
+    </row>
+    <row r="320" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C320" s="5"/>
       <c r="D320" s="15"/>
       <c r="E320" s="5"/>
-    </row>
-    <row r="321" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F320" s="6"/>
+    </row>
+    <row r="321" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C321" s="5"/>
       <c r="D321" s="15"/>
       <c r="E321" s="5"/>
-    </row>
-    <row r="322" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F321" s="6"/>
+    </row>
+    <row r="322" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C322" s="5"/>
       <c r="D322" s="15"/>
       <c r="E322" s="5"/>
-    </row>
-    <row r="323" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F322" s="6"/>
+    </row>
+    <row r="323" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C323" s="5"/>
       <c r="D323" s="15"/>
       <c r="E323" s="5"/>
-    </row>
-    <row r="324" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F323" s="6"/>
+    </row>
+    <row r="324" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C324" s="5"/>
       <c r="D324" s="15"/>
       <c r="E324" s="5"/>
-    </row>
-    <row r="325" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F324" s="6"/>
+    </row>
+    <row r="325" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C325" s="5"/>
       <c r="D325" s="15"/>
       <c r="E325" s="5"/>
-    </row>
-    <row r="326" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F325" s="6"/>
+    </row>
+    <row r="326" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C326" s="5"/>
       <c r="D326" s="15"/>
       <c r="E326" s="5"/>
-    </row>
-    <row r="327" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F326" s="6"/>
+    </row>
+    <row r="327" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C327" s="5"/>
       <c r="D327" s="15"/>
       <c r="E327" s="5"/>
-    </row>
-    <row r="328" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F327" s="6"/>
+    </row>
+    <row r="328" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C328" s="5"/>
       <c r="D328" s="15"/>
       <c r="E328" s="5"/>
-    </row>
-    <row r="329" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F328" s="6"/>
+    </row>
+    <row r="329" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C329" s="5"/>
       <c r="D329" s="15"/>
       <c r="E329" s="5"/>
-    </row>
-    <row r="330" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F329" s="6"/>
+    </row>
+    <row r="330" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C330" s="5"/>
       <c r="D330" s="15"/>
       <c r="E330" s="5"/>
-    </row>
-    <row r="331" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F330" s="6"/>
+    </row>
+    <row r="331" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C331" s="5"/>
       <c r="D331" s="15"/>
       <c r="E331" s="5"/>
-    </row>
-    <row r="332" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F331" s="6"/>
+    </row>
+    <row r="332" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C332" s="5"/>
       <c r="D332" s="15"/>
       <c r="E332" s="5"/>
-    </row>
-    <row r="333" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F332" s="6"/>
+    </row>
+    <row r="333" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C333" s="5"/>
       <c r="D333" s="15"/>
       <c r="E333" s="5"/>
-    </row>
-    <row r="334" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F333" s="6"/>
+    </row>
+    <row r="334" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C334" s="5"/>
       <c r="D334" s="15"/>
       <c r="E334" s="5"/>
-    </row>
-    <row r="335" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F334" s="6"/>
+    </row>
+    <row r="335" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C335" s="5"/>
       <c r="D335" s="15"/>
       <c r="E335" s="5"/>
-    </row>
-    <row r="336" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F335" s="6"/>
+    </row>
+    <row r="336" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C336" s="5"/>
       <c r="D336" s="15"/>
       <c r="E336" s="5"/>
-    </row>
-    <row r="337" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F336" s="6"/>
+    </row>
+    <row r="337" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C337" s="5"/>
       <c r="D337" s="15"/>
       <c r="E337" s="5"/>
-    </row>
-    <row r="338" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F337" s="6"/>
+    </row>
+    <row r="338" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C338" s="5"/>
       <c r="D338" s="15"/>
       <c r="E338" s="5"/>
-    </row>
-    <row r="339" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F338" s="6"/>
+    </row>
+    <row r="339" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C339" s="5"/>
       <c r="D339" s="15"/>
       <c r="E339" s="5"/>
-    </row>
-    <row r="340" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F339" s="6"/>
+    </row>
+    <row r="340" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C340" s="5"/>
       <c r="D340" s="15"/>
       <c r="E340" s="5"/>
-    </row>
-    <row r="341" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F340" s="6"/>
+    </row>
+    <row r="341" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C341" s="5"/>
       <c r="D341" s="15"/>
       <c r="E341" s="5"/>
-    </row>
-    <row r="342" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F341" s="6"/>
+    </row>
+    <row r="342" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C342" s="5"/>
       <c r="D342" s="15"/>
       <c r="E342" s="5"/>
-    </row>
-    <row r="343" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F342" s="6"/>
+    </row>
+    <row r="343" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C343" s="5"/>
       <c r="D343" s="15"/>
       <c r="E343" s="5"/>
-    </row>
-    <row r="344" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F343" s="6"/>
+    </row>
+    <row r="344" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C344" s="5"/>
       <c r="D344" s="15"/>
       <c r="E344" s="5"/>
-    </row>
-    <row r="345" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F344" s="6"/>
+    </row>
+    <row r="345" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C345" s="5"/>
       <c r="D345" s="15"/>
       <c r="E345" s="5"/>
-    </row>
-    <row r="346" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F345" s="6"/>
+    </row>
+    <row r="346" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C346" s="5"/>
       <c r="D346" s="15"/>
       <c r="E346" s="5"/>
-    </row>
-    <row r="347" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F346" s="6"/>
+    </row>
+    <row r="347" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C347" s="5"/>
       <c r="D347" s="15"/>
       <c r="E347" s="5"/>
-    </row>
-    <row r="348" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F347" s="6"/>
+    </row>
+    <row r="348" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C348" s="5"/>
       <c r="D348" s="15"/>
       <c r="E348" s="5"/>
-    </row>
-    <row r="349" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F348" s="6"/>
+    </row>
+    <row r="349" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C349" s="5"/>
       <c r="D349" s="15"/>
       <c r="E349" s="5"/>
-    </row>
-    <row r="350" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F349" s="6"/>
+    </row>
+    <row r="350" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C350" s="5"/>
       <c r="D350" s="15"/>
       <c r="E350" s="5"/>
-    </row>
-    <row r="351" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F350" s="6"/>
+    </row>
+    <row r="351" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C351" s="5"/>
       <c r="D351" s="15"/>
       <c r="E351" s="5"/>
-    </row>
-    <row r="352" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F351" s="6"/>
+    </row>
+    <row r="352" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C352" s="5"/>
       <c r="D352" s="15"/>
       <c r="E352" s="5"/>
-    </row>
-    <row r="353" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F352" s="6"/>
+    </row>
+    <row r="353" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C353" s="5"/>
       <c r="D353" s="15"/>
       <c r="E353" s="5"/>
-    </row>
-    <row r="354" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F353" s="6"/>
+    </row>
+    <row r="354" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C354" s="5"/>
       <c r="D354" s="15"/>
       <c r="E354" s="5"/>
-    </row>
-    <row r="355" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F354" s="6"/>
+    </row>
+    <row r="355" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C355" s="5"/>
       <c r="D355" s="15"/>
       <c r="E355" s="5"/>
-    </row>
-    <row r="356" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F355" s="6"/>
+    </row>
+    <row r="356" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C356" s="5"/>
       <c r="D356" s="15"/>
       <c r="E356" s="5"/>
-    </row>
-    <row r="357" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F356" s="6"/>
+    </row>
+    <row r="357" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C357" s="5"/>
       <c r="D357" s="15"/>
       <c r="E357" s="5"/>
-    </row>
-    <row r="358" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F357" s="6"/>
+    </row>
+    <row r="358" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C358" s="5"/>
       <c r="D358" s="15"/>
       <c r="E358" s="5"/>
-    </row>
-    <row r="359" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F358" s="6"/>
+    </row>
+    <row r="359" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C359" s="5"/>
       <c r="D359" s="15"/>
       <c r="E359" s="5"/>
-    </row>
-    <row r="360" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F359" s="6"/>
+    </row>
+    <row r="360" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C360" s="5"/>
       <c r="D360" s="15"/>
       <c r="E360" s="5"/>
-    </row>
-    <row r="361" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F360" s="6"/>
+    </row>
+    <row r="361" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C361" s="5"/>
       <c r="D361" s="15"/>
       <c r="E361" s="5"/>
-    </row>
-    <row r="362" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F361" s="6"/>
+    </row>
+    <row r="362" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C362" s="5"/>
       <c r="D362" s="15"/>
       <c r="E362" s="5"/>
-    </row>
-    <row r="363" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F362" s="6"/>
+    </row>
+    <row r="363" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C363" s="5"/>
       <c r="D363" s="15"/>
       <c r="E363" s="5"/>
-    </row>
-    <row r="364" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F363" s="6"/>
+    </row>
+    <row r="364" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C364" s="5"/>
       <c r="D364" s="15"/>
       <c r="E364" s="5"/>
-    </row>
-    <row r="365" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F364" s="6"/>
+    </row>
+    <row r="365" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C365" s="5"/>
       <c r="D365" s="15"/>
       <c r="E365" s="5"/>
-    </row>
-    <row r="366" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F365" s="6"/>
+    </row>
+    <row r="366" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C366" s="5"/>
       <c r="D366" s="15"/>
       <c r="E366" s="5"/>
-    </row>
-    <row r="367" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F366" s="6"/>
+    </row>
+    <row r="367" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C367" s="5"/>
       <c r="D367" s="15"/>
       <c r="E367" s="5"/>
-    </row>
-    <row r="368" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F367" s="6"/>
+    </row>
+    <row r="368" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C368" s="5"/>
       <c r="D368" s="15"/>
       <c r="E368" s="5"/>
-    </row>
-    <row r="369" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F368" s="6"/>
+    </row>
+    <row r="369" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C369" s="5"/>
       <c r="D369" s="15"/>
       <c r="E369" s="5"/>
-    </row>
-    <row r="370" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F369" s="6"/>
+    </row>
+    <row r="370" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C370" s="5"/>
       <c r="D370" s="15"/>
       <c r="E370" s="5"/>
-    </row>
-    <row r="371" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F370" s="6"/>
+    </row>
+    <row r="371" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C371" s="5"/>
       <c r="D371" s="15"/>
       <c r="E371" s="5"/>
-    </row>
-    <row r="372" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F371" s="6"/>
+    </row>
+    <row r="372" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C372" s="5"/>
       <c r="D372" s="15"/>
       <c r="E372" s="5"/>
-    </row>
-    <row r="373" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F372" s="6"/>
+    </row>
+    <row r="373" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C373" s="5"/>
       <c r="D373" s="15"/>
       <c r="E373" s="5"/>
-    </row>
-    <row r="374" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F373" s="6"/>
+    </row>
+    <row r="374" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C374" s="5"/>
       <c r="D374" s="15"/>
       <c r="E374" s="5"/>
-    </row>
-    <row r="375" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F374" s="6"/>
+    </row>
+    <row r="375" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C375" s="5"/>
       <c r="D375" s="15"/>
       <c r="E375" s="5"/>
-    </row>
-    <row r="376" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F375" s="6"/>
+    </row>
+    <row r="376" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C376" s="5"/>
       <c r="D376" s="15"/>
       <c r="E376" s="5"/>
-    </row>
-    <row r="377" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F376" s="6"/>
+    </row>
+    <row r="377" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C377" s="5"/>
       <c r="D377" s="15"/>
       <c r="E377" s="5"/>
-    </row>
-    <row r="378" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F377" s="6"/>
+    </row>
+    <row r="378" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C378" s="5"/>
       <c r="D378" s="15"/>
       <c r="E378" s="5"/>
-    </row>
-    <row r="379" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F378" s="6"/>
+    </row>
+    <row r="379" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C379" s="5"/>
       <c r="D379" s="15"/>
       <c r="E379" s="5"/>
-    </row>
-    <row r="380" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F379" s="6"/>
+    </row>
+    <row r="380" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C380" s="5"/>
       <c r="D380" s="15"/>
       <c r="E380" s="5"/>
-    </row>
-    <row r="381" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F380" s="6"/>
+    </row>
+    <row r="381" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C381" s="5"/>
       <c r="D381" s="15"/>
       <c r="E381" s="5"/>
-    </row>
-    <row r="382" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F381" s="6"/>
+    </row>
+    <row r="382" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C382" s="5"/>
       <c r="D382" s="15"/>
       <c r="E382" s="5"/>
-    </row>
-    <row r="383" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F382" s="6"/>
+    </row>
+    <row r="383" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C383" s="5"/>
       <c r="D383" s="15"/>
       <c r="E383" s="5"/>
-    </row>
-    <row r="384" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F383" s="6"/>
+    </row>
+    <row r="384" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C384" s="5"/>
       <c r="D384" s="15"/>
       <c r="E384" s="5"/>
-    </row>
-    <row r="385" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F384" s="6"/>
+    </row>
+    <row r="385" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C385" s="5"/>
       <c r="D385" s="15"/>
       <c r="E385" s="5"/>
-    </row>
-    <row r="386" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F385" s="6"/>
+    </row>
+    <row r="386" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C386" s="5"/>
       <c r="D386" s="15"/>
       <c r="E386" s="5"/>
-    </row>
-    <row r="387" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F386" s="6"/>
+    </row>
+    <row r="387" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C387" s="5"/>
       <c r="D387" s="15"/>
       <c r="E387" s="5"/>
-    </row>
-    <row r="388" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F387" s="6"/>
+    </row>
+    <row r="388" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C388" s="5"/>
       <c r="D388" s="15"/>
       <c r="E388" s="5"/>
-    </row>
-    <row r="389" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F388" s="6"/>
+    </row>
+    <row r="389" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C389" s="5"/>
       <c r="D389" s="15"/>
       <c r="E389" s="5"/>
-    </row>
-    <row r="390" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F389" s="6"/>
+    </row>
+    <row r="390" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C390" s="5"/>
       <c r="D390" s="15"/>
       <c r="E390" s="5"/>
-    </row>
-    <row r="391" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F390" s="6"/>
+    </row>
+    <row r="391" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C391" s="5"/>
       <c r="D391" s="15"/>
       <c r="E391" s="5"/>
-    </row>
-    <row r="392" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F391" s="6"/>
+    </row>
+    <row r="392" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C392" s="5"/>
       <c r="D392" s="15"/>
       <c r="E392" s="5"/>
-    </row>
-    <row r="393" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F392" s="6"/>
+    </row>
+    <row r="393" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C393" s="5"/>
       <c r="D393" s="15"/>
       <c r="E393" s="5"/>
-    </row>
-    <row r="394" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F393" s="6"/>
+    </row>
+    <row r="394" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C394" s="5"/>
       <c r="D394" s="15"/>
       <c r="E394" s="5"/>
-    </row>
-    <row r="395" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F394" s="6"/>
+    </row>
+    <row r="395" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C395" s="5"/>
       <c r="D395" s="15"/>
       <c r="E395" s="5"/>
-    </row>
-    <row r="396" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F395" s="6"/>
+    </row>
+    <row r="396" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C396" s="5"/>
       <c r="D396" s="15"/>
       <c r="E396" s="5"/>
-    </row>
-    <row r="397" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F396" s="6"/>
+    </row>
+    <row r="397" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C397" s="5"/>
       <c r="D397" s="15"/>
       <c r="E397" s="5"/>
-    </row>
-    <row r="398" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F397" s="6"/>
+    </row>
+    <row r="398" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C398" s="5"/>
       <c r="D398" s="15"/>
       <c r="E398" s="5"/>
-    </row>
-    <row r="399" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F398" s="6"/>
+    </row>
+    <row r="399" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C399" s="5"/>
       <c r="D399" s="15"/>
       <c r="E399" s="5"/>
-    </row>
-    <row r="400" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F399" s="6"/>
+    </row>
+    <row r="400" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C400" s="5"/>
       <c r="D400" s="15"/>
       <c r="E400" s="5"/>
-    </row>
-    <row r="401" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F400" s="6"/>
+    </row>
+    <row r="401" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C401" s="5"/>
       <c r="D401" s="15"/>
       <c r="E401" s="5"/>
-    </row>
-    <row r="402" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F401" s="6"/>
+    </row>
+    <row r="402" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C402" s="5"/>
       <c r="D402" s="15"/>
       <c r="E402" s="5"/>
-    </row>
-    <row r="403" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F402" s="6"/>
+    </row>
+    <row r="403" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C403" s="5"/>
       <c r="D403" s="15"/>
       <c r="E403" s="5"/>
-    </row>
-    <row r="404" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F403" s="6"/>
+    </row>
+    <row r="404" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C404" s="5"/>
       <c r="D404" s="15"/>
       <c r="E404" s="5"/>
-    </row>
-    <row r="405" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F404" s="6"/>
+    </row>
+    <row r="405" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C405" s="5"/>
       <c r="D405" s="15"/>
       <c r="E405" s="5"/>
-    </row>
-    <row r="406" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F405" s="6"/>
+    </row>
+    <row r="406" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C406" s="5"/>
       <c r="D406" s="15"/>
       <c r="E406" s="5"/>
-    </row>
-    <row r="407" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F406" s="6"/>
+    </row>
+    <row r="407" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C407" s="5"/>
       <c r="D407" s="15"/>
       <c r="E407" s="5"/>
-    </row>
-    <row r="408" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F407" s="6"/>
+    </row>
+    <row r="408" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C408" s="5"/>
       <c r="D408" s="15"/>
       <c r="E408" s="5"/>
-    </row>
-    <row r="409" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F408" s="6"/>
+    </row>
+    <row r="409" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C409" s="5"/>
       <c r="D409" s="15"/>
       <c r="E409" s="5"/>
-    </row>
-    <row r="410" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F409" s="6"/>
+    </row>
+    <row r="410" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C410" s="5"/>
       <c r="D410" s="15"/>
       <c r="E410" s="5"/>
-    </row>
-    <row r="411" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F410" s="6"/>
+    </row>
+    <row r="411" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C411" s="5"/>
       <c r="D411" s="15"/>
       <c r="E411" s="5"/>
-    </row>
-    <row r="412" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F411" s="6"/>
+    </row>
+    <row r="412" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C412" s="5"/>
       <c r="D412" s="15"/>
       <c r="E412" s="5"/>
-    </row>
-    <row r="413" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F412" s="6"/>
+    </row>
+    <row r="413" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C413" s="5"/>
       <c r="D413" s="15"/>
       <c r="E413" s="5"/>
-    </row>
-    <row r="414" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F413" s="6"/>
+    </row>
+    <row r="414" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C414" s="5"/>
       <c r="D414" s="15"/>
       <c r="E414" s="5"/>
-    </row>
-    <row r="415" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F414" s="6"/>
+    </row>
+    <row r="415" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C415" s="5"/>
       <c r="D415" s="15"/>
       <c r="E415" s="5"/>
-    </row>
-    <row r="416" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F415" s="6"/>
+    </row>
+    <row r="416" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C416" s="5"/>
       <c r="D416" s="15"/>
       <c r="E416" s="5"/>
-    </row>
-    <row r="417" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F416" s="6"/>
+    </row>
+    <row r="417" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C417" s="5"/>
       <c r="D417" s="15"/>
       <c r="E417" s="5"/>
-    </row>
-    <row r="418" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F417" s="6"/>
+    </row>
+    <row r="418" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C418" s="5"/>
       <c r="D418" s="15"/>
       <c r="E418" s="5"/>
-    </row>
-    <row r="419" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F418" s="6"/>
+    </row>
+    <row r="419" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C419" s="5"/>
       <c r="D419" s="15"/>
       <c r="E419" s="5"/>
-    </row>
-    <row r="420" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F419" s="6"/>
+    </row>
+    <row r="420" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C420" s="5"/>
       <c r="D420" s="15"/>
       <c r="E420" s="5"/>
-    </row>
-    <row r="421" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F420" s="6"/>
+    </row>
+    <row r="421" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C421" s="5"/>
       <c r="D421" s="15"/>
       <c r="E421" s="5"/>
-    </row>
-    <row r="422" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F421" s="6"/>
+    </row>
+    <row r="422" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C422" s="5"/>
       <c r="D422" s="15"/>
       <c r="E422" s="5"/>
-    </row>
-    <row r="423" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F422" s="6"/>
+    </row>
+    <row r="423" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C423" s="5"/>
       <c r="D423" s="15"/>
       <c r="E423" s="5"/>
-    </row>
-    <row r="424" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F423" s="6"/>
+    </row>
+    <row r="424" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C424" s="5"/>
       <c r="D424" s="15"/>
       <c r="E424" s="5"/>
-    </row>
-    <row r="425" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F424" s="6"/>
+    </row>
+    <row r="425" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C425" s="5"/>
       <c r="D425" s="15"/>
       <c r="E425" s="5"/>
-    </row>
-    <row r="426" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F425" s="6"/>
+    </row>
+    <row r="426" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C426" s="5"/>
       <c r="D426" s="15"/>
       <c r="E426" s="5"/>
-    </row>
-    <row r="427" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F426" s="6"/>
+    </row>
+    <row r="427" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C427" s="5"/>
       <c r="D427" s="15"/>
       <c r="E427" s="5"/>
-    </row>
-    <row r="428" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F427" s="6"/>
+    </row>
+    <row r="428" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C428" s="5"/>
       <c r="D428" s="15"/>
       <c r="E428" s="5"/>
-    </row>
-    <row r="429" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F428" s="6"/>
+    </row>
+    <row r="429" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C429" s="5"/>
       <c r="D429" s="15"/>
       <c r="E429" s="5"/>
-    </row>
-    <row r="430" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F429" s="6"/>
+    </row>
+    <row r="430" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C430" s="5"/>
       <c r="D430" s="15"/>
       <c r="E430" s="5"/>
-    </row>
-    <row r="431" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F430" s="6"/>
+    </row>
+    <row r="431" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C431" s="5"/>
       <c r="D431" s="15"/>
       <c r="E431" s="5"/>
-    </row>
-    <row r="432" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F431" s="6"/>
+    </row>
+    <row r="432" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C432" s="5"/>
       <c r="D432" s="15"/>
       <c r="E432" s="5"/>
-    </row>
-    <row r="433" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F432" s="6"/>
+    </row>
+    <row r="433" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C433" s="5"/>
       <c r="D433" s="15"/>
       <c r="E433" s="5"/>
-    </row>
-    <row r="434" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F433" s="6"/>
+    </row>
+    <row r="434" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C434" s="5"/>
       <c r="D434" s="15"/>
       <c r="E434" s="5"/>
-    </row>
-    <row r="435" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F434" s="6"/>
+    </row>
+    <row r="435" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C435" s="5"/>
       <c r="D435" s="15"/>
       <c r="E435" s="5"/>
-    </row>
-    <row r="436" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F435" s="6"/>
+    </row>
+    <row r="436" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C436" s="5"/>
       <c r="D436" s="15"/>
       <c r="E436" s="5"/>
-    </row>
-    <row r="437" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F436" s="6"/>
+    </row>
+    <row r="437" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C437" s="5"/>
       <c r="D437" s="15"/>
       <c r="E437" s="5"/>
-    </row>
-    <row r="438" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F437" s="6"/>
+    </row>
+    <row r="438" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C438" s="5"/>
       <c r="D438" s="15"/>
       <c r="E438" s="5"/>
-    </row>
-    <row r="439" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F438" s="6"/>
+    </row>
+    <row r="439" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C439" s="5"/>
       <c r="D439" s="15"/>
       <c r="E439" s="5"/>
-    </row>
-    <row r="440" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F439" s="6"/>
+    </row>
+    <row r="440" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C440" s="5"/>
       <c r="D440" s="15"/>
       <c r="E440" s="5"/>
-    </row>
-    <row r="441" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F440" s="6"/>
+    </row>
+    <row r="441" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C441" s="5"/>
       <c r="D441" s="15"/>
       <c r="E441" s="5"/>
-    </row>
-    <row r="442" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F441" s="6"/>
+    </row>
+    <row r="442" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C442" s="5"/>
       <c r="D442" s="15"/>
       <c r="E442" s="5"/>
-    </row>
-    <row r="443" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F442" s="6"/>
+    </row>
+    <row r="443" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C443" s="5"/>
       <c r="D443" s="15"/>
       <c r="E443" s="5"/>
-    </row>
-    <row r="444" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F443" s="6"/>
+    </row>
+    <row r="444" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C444" s="5"/>
       <c r="D444" s="15"/>
       <c r="E444" s="5"/>
-    </row>
-    <row r="445" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F444" s="6"/>
+    </row>
+    <row r="445" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C445" s="5"/>
       <c r="D445" s="15"/>
       <c r="E445" s="5"/>
-    </row>
-    <row r="446" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F445" s="6"/>
+    </row>
+    <row r="446" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C446" s="5"/>
       <c r="D446" s="15"/>
       <c r="E446" s="5"/>
-    </row>
-    <row r="447" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F446" s="6"/>
+    </row>
+    <row r="447" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C447" s="5"/>
       <c r="D447" s="15"/>
       <c r="E447" s="5"/>
-    </row>
-    <row r="448" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F447" s="6"/>
+    </row>
+    <row r="448" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C448" s="5"/>
       <c r="D448" s="15"/>
       <c r="E448" s="5"/>
-    </row>
-    <row r="449" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F448" s="6"/>
+    </row>
+    <row r="449" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C449" s="5"/>
       <c r="D449" s="15"/>
       <c r="E449" s="5"/>
-    </row>
-    <row r="450" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F449" s="6"/>
+    </row>
+    <row r="450" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C450" s="5"/>
       <c r="D450" s="15"/>
       <c r="E450" s="5"/>
-    </row>
-    <row r="451" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F450" s="6"/>
+    </row>
+    <row r="451" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C451" s="5"/>
       <c r="D451" s="15"/>
       <c r="E451" s="5"/>
-    </row>
-    <row r="452" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F451" s="6"/>
+    </row>
+    <row r="452" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C452" s="5"/>
       <c r="D452" s="15"/>
       <c r="E452" s="5"/>
-    </row>
-    <row r="453" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F452" s="6"/>
+    </row>
+    <row r="453" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C453" s="5"/>
       <c r="D453" s="15"/>
       <c r="E453" s="5"/>
-    </row>
-    <row r="454" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F453" s="6"/>
+    </row>
+    <row r="454" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C454" s="5"/>
       <c r="D454" s="15"/>
       <c r="E454" s="5"/>
-    </row>
-    <row r="455" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F454" s="6"/>
+    </row>
+    <row r="455" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C455" s="5"/>
       <c r="D455" s="15"/>
       <c r="E455" s="5"/>
-    </row>
-    <row r="456" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F455" s="6"/>
+    </row>
+    <row r="456" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C456" s="5"/>
       <c r="D456" s="15"/>
       <c r="E456" s="5"/>
-    </row>
-    <row r="457" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F456" s="6"/>
+    </row>
+    <row r="457" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C457" s="5"/>
       <c r="D457" s="15"/>
       <c r="E457" s="5"/>
-    </row>
-    <row r="458" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F457" s="6"/>
+    </row>
+    <row r="458" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C458" s="5"/>
       <c r="D458" s="15"/>
       <c r="E458" s="5"/>
-    </row>
-    <row r="459" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F458" s="6"/>
+    </row>
+    <row r="459" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C459" s="5"/>
       <c r="D459" s="15"/>
       <c r="E459" s="5"/>
-    </row>
-    <row r="460" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F459" s="6"/>
+    </row>
+    <row r="460" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C460" s="5"/>
       <c r="D460" s="15"/>
       <c r="E460" s="5"/>
-    </row>
-    <row r="461" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F460" s="6"/>
+    </row>
+    <row r="461" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C461" s="5"/>
       <c r="D461" s="15"/>
       <c r="E461" s="5"/>
-    </row>
-    <row r="462" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F461" s="6"/>
+    </row>
+    <row r="462" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C462" s="5"/>
       <c r="D462" s="15"/>
       <c r="E462" s="5"/>
-    </row>
-    <row r="463" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F462" s="6"/>
+    </row>
+    <row r="463" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C463" s="5"/>
       <c r="D463" s="15"/>
       <c r="E463" s="5"/>
-    </row>
-    <row r="464" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F463" s="6"/>
+    </row>
+    <row r="464" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C464" s="5"/>
       <c r="D464" s="15"/>
       <c r="E464" s="5"/>
-    </row>
-    <row r="465" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F464" s="6"/>
+    </row>
+    <row r="465" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C465" s="5"/>
       <c r="D465" s="15"/>
       <c r="E465" s="5"/>
-    </row>
-    <row r="466" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F465" s="6"/>
+    </row>
+    <row r="466" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C466" s="5"/>
       <c r="D466" s="15"/>
       <c r="E466" s="5"/>
-    </row>
-    <row r="467" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F466" s="6"/>
+    </row>
+    <row r="467" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C467" s="5"/>
       <c r="D467" s="15"/>
       <c r="E467" s="5"/>
-    </row>
-    <row r="468" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F467" s="6"/>
+    </row>
+    <row r="468" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C468" s="5"/>
       <c r="D468" s="15"/>
       <c r="E468" s="5"/>
-    </row>
-    <row r="469" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F468" s="6"/>
+    </row>
+    <row r="469" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C469" s="5"/>
       <c r="D469" s="15"/>
       <c r="E469" s="5"/>
-    </row>
-    <row r="470" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F469" s="6"/>
+    </row>
+    <row r="470" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C470" s="5"/>
       <c r="D470" s="15"/>
       <c r="E470" s="5"/>
-    </row>
-    <row r="471" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F470" s="6"/>
+    </row>
+    <row r="471" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C471" s="5"/>
       <c r="D471" s="15"/>
       <c r="E471" s="5"/>
-    </row>
-    <row r="472" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F471" s="6"/>
+    </row>
+    <row r="472" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C472" s="5"/>
       <c r="D472" s="15"/>
       <c r="E472" s="5"/>
-    </row>
-    <row r="473" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F472" s="6"/>
+    </row>
+    <row r="473" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C473" s="5"/>
       <c r="D473" s="15"/>
       <c r="E473" s="5"/>
-    </row>
-    <row r="474" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F473" s="6"/>
+    </row>
+    <row r="474" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C474" s="5"/>
       <c r="D474" s="15"/>
       <c r="E474" s="5"/>
-    </row>
-    <row r="475" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F474" s="6"/>
+    </row>
+    <row r="475" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C475" s="5"/>
       <c r="D475" s="15"/>
       <c r="E475" s="5"/>
-    </row>
-    <row r="476" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F475" s="6"/>
+    </row>
+    <row r="476" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C476" s="5"/>
       <c r="D476" s="15"/>
       <c r="E476" s="5"/>
-    </row>
-    <row r="477" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F476" s="6"/>
+    </row>
+    <row r="477" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C477" s="5"/>
       <c r="D477" s="15"/>
       <c r="E477" s="5"/>
-    </row>
-    <row r="478" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F477" s="6"/>
+    </row>
+    <row r="478" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C478" s="5"/>
       <c r="D478" s="15"/>
       <c r="E478" s="5"/>
-    </row>
-    <row r="479" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F478" s="6"/>
+    </row>
+    <row r="479" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C479" s="5"/>
       <c r="D479" s="15"/>
       <c r="E479" s="5"/>
-    </row>
-    <row r="480" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F479" s="6"/>
+    </row>
+    <row r="480" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C480" s="5"/>
       <c r="D480" s="15"/>
       <c r="E480" s="5"/>
-    </row>
-    <row r="481" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F480" s="6"/>
+    </row>
+    <row r="481" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C481" s="5"/>
       <c r="D481" s="15"/>
       <c r="E481" s="5"/>
-    </row>
-    <row r="482" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F481" s="6"/>
+    </row>
+    <row r="482" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C482" s="5"/>
       <c r="D482" s="15"/>
       <c r="E482" s="5"/>
-    </row>
-    <row r="483" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F482" s="6"/>
+    </row>
+    <row r="483" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C483" s="5"/>
       <c r="D483" s="15"/>
       <c r="E483" s="5"/>
-    </row>
-    <row r="484" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F483" s="6"/>
+    </row>
+    <row r="484" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C484" s="5"/>
       <c r="D484" s="15"/>
       <c r="E484" s="5"/>
-    </row>
-    <row r="485" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F484" s="6"/>
+    </row>
+    <row r="485" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C485" s="5"/>
       <c r="D485" s="15"/>
       <c r="E485" s="5"/>
-    </row>
-    <row r="486" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F485" s="6"/>
+    </row>
+    <row r="486" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C486" s="5"/>
       <c r="D486" s="15"/>
       <c r="E486" s="5"/>
-    </row>
-    <row r="487" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F486" s="6"/>
+    </row>
+    <row r="487" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C487" s="5"/>
       <c r="D487" s="15"/>
       <c r="E487" s="5"/>
-    </row>
-    <row r="488" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F487" s="6"/>
+    </row>
+    <row r="488" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C488" s="5"/>
       <c r="D488" s="15"/>
       <c r="E488" s="5"/>
-    </row>
-    <row r="489" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F488" s="6"/>
+    </row>
+    <row r="489" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C489" s="5"/>
       <c r="D489" s="15"/>
       <c r="E489" s="5"/>
-    </row>
-    <row r="490" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F489" s="6"/>
+    </row>
+    <row r="490" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C490" s="5"/>
       <c r="D490" s="15"/>
       <c r="E490" s="5"/>
-    </row>
-    <row r="491" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F490" s="6"/>
+    </row>
+    <row r="491" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C491" s="5"/>
       <c r="D491" s="15"/>
       <c r="E491" s="5"/>
-    </row>
-    <row r="492" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F491" s="6"/>
+    </row>
+    <row r="492" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C492" s="5"/>
       <c r="D492" s="15"/>
       <c r="E492" s="5"/>
-    </row>
-    <row r="493" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F492" s="6"/>
+    </row>
+    <row r="493" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C493" s="5"/>
       <c r="D493" s="15"/>
       <c r="E493" s="5"/>
-    </row>
-    <row r="494" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F493" s="6"/>
+    </row>
+    <row r="494" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C494" s="5"/>
       <c r="D494" s="15"/>
       <c r="E494" s="5"/>
-    </row>
-    <row r="495" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F494" s="6"/>
+    </row>
+    <row r="495" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C495" s="5"/>
       <c r="D495" s="15"/>
       <c r="E495" s="5"/>
-    </row>
-    <row r="496" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F495" s="6"/>
+    </row>
+    <row r="496" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C496" s="5"/>
       <c r="D496" s="15"/>
       <c r="E496" s="5"/>
-    </row>
-    <row r="497" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F496" s="6"/>
+    </row>
+    <row r="497" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C497" s="5"/>
       <c r="D497" s="15"/>
       <c r="E497" s="5"/>
-    </row>
-    <row r="498" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F497" s="6"/>
+    </row>
+    <row r="498" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C498" s="5"/>
       <c r="D498" s="15"/>
       <c r="E498" s="5"/>
-    </row>
-    <row r="499" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F498" s="6"/>
+    </row>
+    <row r="499" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C499" s="5"/>
       <c r="D499" s="15"/>
       <c r="E499" s="5"/>
-    </row>
-    <row r="500" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F499" s="6"/>
+    </row>
+    <row r="500" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C500" s="5"/>
       <c r="D500" s="15"/>
       <c r="E500" s="5"/>
-    </row>
-    <row r="501" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F500" s="6"/>
+    </row>
+    <row r="501" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C501" s="5"/>
       <c r="D501" s="15"/>
       <c r="E501" s="5"/>
-    </row>
-    <row r="502" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F501" s="6"/>
+    </row>
+    <row r="502" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C502" s="5"/>
       <c r="D502" s="15"/>
       <c r="E502" s="5"/>
-    </row>
-    <row r="503" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F502" s="6"/>
+    </row>
+    <row r="503" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C503" s="5"/>
       <c r="D503" s="15"/>
       <c r="E503" s="5"/>
-    </row>
-    <row r="504" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F503" s="6"/>
+    </row>
+    <row r="504" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C504" s="5"/>
       <c r="D504" s="15"/>
       <c r="E504" s="5"/>
-    </row>
-    <row r="505" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F504" s="6"/>
+    </row>
+    <row r="505" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C505" s="5"/>
       <c r="D505" s="15"/>
       <c r="E505" s="5"/>
-    </row>
-    <row r="506" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F505" s="6"/>
+    </row>
+    <row r="506" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C506" s="5"/>
       <c r="D506" s="15"/>
       <c r="E506" s="5"/>
-    </row>
-    <row r="507" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F506" s="6"/>
+    </row>
+    <row r="507" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C507" s="5"/>
       <c r="D507" s="15"/>
       <c r="E507" s="5"/>
-    </row>
-    <row r="508" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F507" s="6"/>
+    </row>
+    <row r="508" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C508" s="5"/>
       <c r="D508" s="15"/>
       <c r="E508" s="5"/>
-    </row>
-    <row r="509" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F508" s="6"/>
+    </row>
+    <row r="509" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C509" s="5"/>
       <c r="D509" s="15"/>
       <c r="E509" s="5"/>
-    </row>
-    <row r="510" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F509" s="6"/>
+    </row>
+    <row r="510" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C510" s="5"/>
       <c r="D510" s="15"/>
       <c r="E510" s="5"/>
-    </row>
-    <row r="511" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F510" s="6"/>
+    </row>
+    <row r="511" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C511" s="5"/>
       <c r="D511" s="15"/>
       <c r="E511" s="5"/>
-    </row>
-    <row r="512" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F511" s="6"/>
+    </row>
+    <row r="512" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C512" s="5"/>
       <c r="D512" s="15"/>
       <c r="E512" s="5"/>
-    </row>
-    <row r="513" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F512" s="6"/>
+    </row>
+    <row r="513" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C513" s="5"/>
       <c r="D513" s="15"/>
       <c r="E513" s="5"/>
-    </row>
-    <row r="514" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F513" s="6"/>
+    </row>
+    <row r="514" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C514" s="5"/>
       <c r="D514" s="15"/>
       <c r="E514" s="5"/>
-    </row>
-    <row r="515" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F514" s="6"/>
+    </row>
+    <row r="515" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C515" s="5"/>
       <c r="D515" s="15"/>
       <c r="E515" s="5"/>
-    </row>
-    <row r="516" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F515" s="6"/>
+    </row>
+    <row r="516" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C516" s="5"/>
       <c r="D516" s="15"/>
       <c r="E516" s="5"/>
-    </row>
-    <row r="517" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F516" s="6"/>
+    </row>
+    <row r="517" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C517" s="5"/>
       <c r="D517" s="15"/>
       <c r="E517" s="5"/>
-    </row>
-    <row r="518" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F517" s="6"/>
+    </row>
+    <row r="518" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C518" s="5"/>
       <c r="D518" s="15"/>
       <c r="E518" s="5"/>
-    </row>
-    <row r="519" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F518" s="6"/>
+    </row>
+    <row r="519" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C519" s="5"/>
       <c r="D519" s="15"/>
       <c r="E519" s="5"/>
-    </row>
-    <row r="520" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F519" s="6"/>
+    </row>
+    <row r="520" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C520" s="5"/>
       <c r="D520" s="15"/>
       <c r="E520" s="5"/>
-    </row>
-    <row r="521" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F520" s="6"/>
+    </row>
+    <row r="521" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C521" s="5"/>
       <c r="D521" s="15"/>
       <c r="E521" s="5"/>
-    </row>
-    <row r="522" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F521" s="6"/>
+    </row>
+    <row r="522" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C522" s="5"/>
       <c r="D522" s="15"/>
       <c r="E522" s="5"/>
-    </row>
-    <row r="523" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F522" s="6"/>
+    </row>
+    <row r="523" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C523" s="5"/>
       <c r="D523" s="15"/>
       <c r="E523" s="5"/>
-    </row>
-    <row r="524" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F523" s="6"/>
+    </row>
+    <row r="524" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C524" s="5"/>
       <c r="D524" s="15"/>
       <c r="E524" s="5"/>
-    </row>
-    <row r="525" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F524" s="6"/>
+    </row>
+    <row r="525" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C525" s="5"/>
       <c r="D525" s="15"/>
       <c r="E525" s="5"/>
-    </row>
-    <row r="526" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F525" s="6"/>
+    </row>
+    <row r="526" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C526" s="5"/>
       <c r="D526" s="15"/>
       <c r="E526" s="5"/>
-    </row>
-    <row r="527" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F526" s="6"/>
+    </row>
+    <row r="527" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C527" s="5"/>
       <c r="D527" s="15"/>
       <c r="E527" s="5"/>
-    </row>
-    <row r="528" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F527" s="6"/>
+    </row>
+    <row r="528" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C528" s="5"/>
       <c r="D528" s="15"/>
       <c r="E528" s="5"/>
-    </row>
-    <row r="529" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F528" s="6"/>
+    </row>
+    <row r="529" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C529" s="5"/>
       <c r="D529" s="15"/>
       <c r="E529" s="5"/>
-    </row>
-    <row r="530" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F529" s="6"/>
+    </row>
+    <row r="530" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C530" s="5"/>
       <c r="D530" s="15"/>
       <c r="E530" s="5"/>
-    </row>
-    <row r="531" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F530" s="6"/>
+    </row>
+    <row r="531" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C531" s="5"/>
       <c r="D531" s="15"/>
       <c r="E531" s="5"/>
-    </row>
-    <row r="532" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F531" s="6"/>
+    </row>
+    <row r="532" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C532" s="5"/>
       <c r="D532" s="15"/>
       <c r="E532" s="5"/>
-    </row>
-    <row r="533" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F532" s="6"/>
+    </row>
+    <row r="533" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C533" s="5"/>
       <c r="D533" s="15"/>
       <c r="E533" s="5"/>
-    </row>
-    <row r="534" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F533" s="6"/>
+    </row>
+    <row r="534" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C534" s="5"/>
       <c r="D534" s="15"/>
       <c r="E534" s="5"/>
-    </row>
-    <row r="535" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F534" s="6"/>
+    </row>
+    <row r="535" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C535" s="5"/>
       <c r="D535" s="15"/>
       <c r="E535" s="5"/>
-    </row>
-    <row r="536" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F535" s="6"/>
+    </row>
+    <row r="536" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C536" s="5"/>
       <c r="D536" s="15"/>
       <c r="E536" s="5"/>
-    </row>
-    <row r="537" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F536" s="6"/>
+    </row>
+    <row r="537" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C537" s="5"/>
       <c r="D537" s="15"/>
       <c r="E537" s="5"/>
-    </row>
-    <row r="538" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F537" s="6"/>
+    </row>
+    <row r="538" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C538" s="5"/>
       <c r="D538" s="15"/>
       <c r="E538" s="5"/>
-    </row>
-    <row r="539" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F538" s="6"/>
+    </row>
+    <row r="539" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C539" s="5"/>
       <c r="D539" s="15"/>
       <c r="E539" s="5"/>
-    </row>
-    <row r="540" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F539" s="6"/>
+    </row>
+    <row r="540" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C540" s="5"/>
       <c r="D540" s="15"/>
       <c r="E540" s="5"/>
-    </row>
-    <row r="541" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F540" s="6"/>
+    </row>
+    <row r="541" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C541" s="5"/>
       <c r="D541" s="15"/>
       <c r="E541" s="5"/>
-    </row>
-    <row r="542" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F541" s="6"/>
+    </row>
+    <row r="542" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C542" s="5"/>
       <c r="D542" s="15"/>
       <c r="E542" s="5"/>
-    </row>
-    <row r="543" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F542" s="6"/>
+    </row>
+    <row r="543" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C543" s="5"/>
       <c r="D543" s="15"/>
       <c r="E543" s="5"/>
-    </row>
-    <row r="544" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F543" s="6"/>
+    </row>
+    <row r="544" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C544" s="5"/>
       <c r="D544" s="15"/>
       <c r="E544" s="5"/>
-    </row>
-    <row r="545" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F544" s="6"/>
+    </row>
+    <row r="545" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C545" s="5"/>
       <c r="D545" s="15"/>
       <c r="E545" s="5"/>
-    </row>
-    <row r="546" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F545" s="6"/>
+    </row>
+    <row r="546" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C546" s="5"/>
       <c r="D546" s="15"/>
       <c r="E546" s="5"/>
-    </row>
-    <row r="547" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F546" s="6"/>
+    </row>
+    <row r="547" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C547" s="5"/>
       <c r="D547" s="15"/>
       <c r="E547" s="5"/>
-    </row>
-    <row r="548" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F547" s="6"/>
+    </row>
+    <row r="548" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C548" s="5"/>
       <c r="D548" s="15"/>
       <c r="E548" s="5"/>
-    </row>
-    <row r="549" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F548" s="6"/>
+    </row>
+    <row r="549" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C549" s="5"/>
       <c r="D549" s="15"/>
       <c r="E549" s="5"/>
-    </row>
-    <row r="550" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F549" s="6"/>
+    </row>
+    <row r="550" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C550" s="5"/>
       <c r="D550" s="15"/>
       <c r="E550" s="5"/>
-    </row>
-    <row r="551" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F550" s="6"/>
+    </row>
+    <row r="551" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C551" s="5"/>
       <c r="D551" s="15"/>
       <c r="E551" s="5"/>
-    </row>
-    <row r="552" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F551" s="6"/>
+    </row>
+    <row r="552" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C552" s="5"/>
       <c r="D552" s="15"/>
       <c r="E552" s="5"/>
-    </row>
-    <row r="553" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F552" s="6"/>
+    </row>
+    <row r="553" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C553" s="5"/>
       <c r="D553" s="15"/>
       <c r="E553" s="5"/>
-    </row>
-    <row r="554" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F553" s="6"/>
+    </row>
+    <row r="554" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C554" s="5"/>
       <c r="D554" s="15"/>
       <c r="E554" s="5"/>
-    </row>
-    <row r="555" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F554" s="6"/>
+    </row>
+    <row r="555" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C555" s="5"/>
       <c r="D555" s="15"/>
       <c r="E555" s="5"/>
-    </row>
-    <row r="556" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F555" s="6"/>
+    </row>
+    <row r="556" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C556" s="5"/>
       <c r="D556" s="15"/>
       <c r="E556" s="5"/>
-    </row>
-    <row r="557" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F556" s="6"/>
+    </row>
+    <row r="557" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C557" s="5"/>
       <c r="D557" s="15"/>
       <c r="E557" s="5"/>
-    </row>
-    <row r="558" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F557" s="6"/>
+    </row>
+    <row r="558" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C558" s="5"/>
       <c r="D558" s="15"/>
       <c r="E558" s="5"/>
-    </row>
-    <row r="559" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F558" s="6"/>
+    </row>
+    <row r="559" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C559" s="5"/>
       <c r="D559" s="15"/>
       <c r="E559" s="5"/>
-    </row>
-    <row r="560" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F559" s="6"/>
+    </row>
+    <row r="560" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C560" s="5"/>
       <c r="D560" s="15"/>
       <c r="E560" s="5"/>
-    </row>
-    <row r="561" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F560" s="6"/>
+    </row>
+    <row r="561" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C561" s="5"/>
       <c r="D561" s="15"/>
       <c r="E561" s="5"/>
-    </row>
-    <row r="562" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F561" s="6"/>
+    </row>
+    <row r="562" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C562" s="5"/>
       <c r="D562" s="15"/>
       <c r="E562" s="5"/>
-    </row>
-    <row r="563" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F562" s="6"/>
+    </row>
+    <row r="563" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C563" s="5"/>
       <c r="D563" s="15"/>
       <c r="E563" s="5"/>
-    </row>
-    <row r="564" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F563" s="6"/>
+    </row>
+    <row r="564" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C564" s="5"/>
       <c r="D564" s="15"/>
       <c r="E564" s="5"/>
-    </row>
-    <row r="565" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F564" s="6"/>
+    </row>
+    <row r="565" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C565" s="5"/>
       <c r="D565" s="15"/>
       <c r="E565" s="5"/>
-    </row>
-    <row r="566" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F565" s="6"/>
+    </row>
+    <row r="566" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C566" s="5"/>
       <c r="D566" s="15"/>
       <c r="E566" s="5"/>
-    </row>
-    <row r="567" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F566" s="6"/>
+    </row>
+    <row r="567" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C567" s="5"/>
       <c r="D567" s="15"/>
       <c r="E567" s="5"/>
-    </row>
-    <row r="568" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F567" s="6"/>
+    </row>
+    <row r="568" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C568" s="5"/>
       <c r="D568" s="15"/>
       <c r="E568" s="5"/>
-    </row>
-    <row r="569" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F568" s="6"/>
+    </row>
+    <row r="569" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C569" s="5"/>
       <c r="D569" s="15"/>
       <c r="E569" s="5"/>
-    </row>
-    <row r="570" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F569" s="6"/>
+    </row>
+    <row r="570" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C570" s="5"/>
       <c r="D570" s="15"/>
       <c r="E570" s="5"/>
-    </row>
-    <row r="571" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F570" s="6"/>
+    </row>
+    <row r="571" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C571" s="5"/>
       <c r="D571" s="15"/>
       <c r="E571" s="5"/>
-    </row>
-    <row r="572" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F571" s="6"/>
+    </row>
+    <row r="572" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C572" s="5"/>
       <c r="D572" s="15"/>
       <c r="E572" s="5"/>
-    </row>
-    <row r="573" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F572" s="6"/>
+    </row>
+    <row r="573" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C573" s="5"/>
       <c r="D573" s="15"/>
       <c r="E573" s="5"/>
-    </row>
-    <row r="574" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F573" s="6"/>
+    </row>
+    <row r="574" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C574" s="5"/>
       <c r="D574" s="15"/>
       <c r="E574" s="5"/>
-    </row>
-    <row r="575" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F574" s="6"/>
+    </row>
+    <row r="575" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C575" s="5"/>
       <c r="D575" s="15"/>
       <c r="E575" s="5"/>
-    </row>
-    <row r="576" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F575" s="6"/>
+    </row>
+    <row r="576" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C576" s="5"/>
       <c r="D576" s="15"/>
       <c r="E576" s="5"/>
-    </row>
-    <row r="577" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F576" s="6"/>
+    </row>
+    <row r="577" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C577" s="5"/>
       <c r="D577" s="15"/>
       <c r="E577" s="5"/>
-    </row>
-    <row r="578" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F577" s="6"/>
+    </row>
+    <row r="578" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C578" s="5"/>
       <c r="D578" s="15"/>
       <c r="E578" s="5"/>
-    </row>
-    <row r="579" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F578" s="6"/>
+    </row>
+    <row r="579" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C579" s="5"/>
       <c r="D579" s="15"/>
       <c r="E579" s="5"/>
-    </row>
-    <row r="580" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F579" s="6"/>
+    </row>
+    <row r="580" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C580" s="5"/>
       <c r="D580" s="15"/>
       <c r="E580" s="5"/>
-    </row>
-    <row r="581" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F580" s="6"/>
+    </row>
+    <row r="581" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C581" s="5"/>
       <c r="D581" s="15"/>
       <c r="E581" s="5"/>
-    </row>
-    <row r="582" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F581" s="6"/>
+    </row>
+    <row r="582" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C582" s="5"/>
       <c r="D582" s="15"/>
       <c r="E582" s="5"/>
-    </row>
-    <row r="583" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F582" s="6"/>
+    </row>
+    <row r="583" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C583" s="5"/>
       <c r="D583" s="15"/>
       <c r="E583" s="5"/>
-    </row>
-    <row r="584" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F583" s="6"/>
+    </row>
+    <row r="584" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C584" s="5"/>
       <c r="D584" s="15"/>
       <c r="E584" s="5"/>
-    </row>
-    <row r="585" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F584" s="6"/>
+    </row>
+    <row r="585" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C585" s="5"/>
       <c r="D585" s="15"/>
       <c r="E585" s="5"/>
-    </row>
-    <row r="586" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F585" s="6"/>
+    </row>
+    <row r="586" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C586" s="5"/>
       <c r="D586" s="15"/>
       <c r="E586" s="5"/>
-    </row>
-    <row r="587" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F586" s="6"/>
+    </row>
+    <row r="587" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C587" s="5"/>
       <c r="D587" s="15"/>
       <c r="E587" s="5"/>
-    </row>
-    <row r="588" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F587" s="6"/>
+    </row>
+    <row r="588" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C588" s="5"/>
       <c r="D588" s="15"/>
       <c r="E588" s="5"/>
-    </row>
-    <row r="589" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F588" s="6"/>
+    </row>
+    <row r="589" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C589" s="5"/>
       <c r="D589" s="15"/>
       <c r="E589" s="5"/>
-    </row>
-    <row r="590" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F589" s="6"/>
+    </row>
+    <row r="590" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C590" s="5"/>
       <c r="D590" s="15"/>
       <c r="E590" s="5"/>
-    </row>
-    <row r="591" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F590" s="6"/>
+    </row>
+    <row r="591" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C591" s="5"/>
       <c r="D591" s="15"/>
       <c r="E591" s="5"/>
-    </row>
-    <row r="592" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F591" s="6"/>
+    </row>
+    <row r="592" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C592" s="5"/>
       <c r="D592" s="15"/>
       <c r="E592" s="5"/>
-    </row>
-    <row r="593" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F592" s="6"/>
+    </row>
+    <row r="593" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C593" s="5"/>
       <c r="D593" s="15"/>
       <c r="E593" s="5"/>
-    </row>
-    <row r="594" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F593" s="6"/>
+    </row>
+    <row r="594" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C594" s="5"/>
       <c r="D594" s="15"/>
       <c r="E594" s="5"/>
-    </row>
-    <row r="595" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F594" s="6"/>
+    </row>
+    <row r="595" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C595" s="5"/>
       <c r="D595" s="15"/>
       <c r="E595" s="5"/>
-    </row>
-    <row r="596" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F595" s="6"/>
+    </row>
+    <row r="596" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C596" s="5"/>
       <c r="D596" s="15"/>
       <c r="E596" s="5"/>
-    </row>
-    <row r="597" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F596" s="6"/>
+    </row>
+    <row r="597" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C597" s="5"/>
       <c r="D597" s="15"/>
       <c r="E597" s="5"/>
-    </row>
-    <row r="598" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F597" s="6"/>
+    </row>
+    <row r="598" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C598" s="5"/>
       <c r="D598" s="15"/>
       <c r="E598" s="5"/>
-    </row>
-    <row r="599" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F598" s="6"/>
+    </row>
+    <row r="599" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C599" s="5"/>
       <c r="D599" s="15"/>
       <c r="E599" s="5"/>
-    </row>
-    <row r="600" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F599" s="6"/>
+    </row>
+    <row r="600" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C600" s="5"/>
       <c r="D600" s="15"/>
       <c r="E600" s="5"/>
-    </row>
-    <row r="601" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F600" s="6"/>
+    </row>
+    <row r="601" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C601" s="5"/>
       <c r="D601" s="15"/>
       <c r="E601" s="5"/>
-    </row>
-    <row r="602" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F601" s="6"/>
+    </row>
+    <row r="602" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C602" s="5"/>
       <c r="D602" s="15"/>
       <c r="E602" s="5"/>
-    </row>
-    <row r="603" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F602" s="6"/>
+    </row>
+    <row r="603" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C603" s="5"/>
       <c r="D603" s="15"/>
       <c r="E603" s="5"/>
-    </row>
-    <row r="604" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F603" s="6"/>
+    </row>
+    <row r="604" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C604" s="5"/>
       <c r="D604" s="15"/>
       <c r="E604" s="5"/>
-    </row>
-    <row r="605" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F604" s="6"/>
+    </row>
+    <row r="605" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C605" s="5"/>
       <c r="D605" s="15"/>
       <c r="E605" s="5"/>
-    </row>
-    <row r="606" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F605" s="6"/>
+    </row>
+    <row r="606" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C606" s="5"/>
       <c r="D606" s="15"/>
       <c r="E606" s="5"/>
-    </row>
-    <row r="607" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F606" s="6"/>
+    </row>
+    <row r="607" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C607" s="5"/>
       <c r="D607" s="15"/>
       <c r="E607" s="5"/>
-    </row>
-    <row r="608" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F607" s="6"/>
+    </row>
+    <row r="608" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C608" s="5"/>
       <c r="D608" s="15"/>
       <c r="E608" s="5"/>
-    </row>
-    <row r="609" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F608" s="6"/>
+    </row>
+    <row r="609" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C609" s="5"/>
       <c r="D609" s="15"/>
       <c r="E609" s="5"/>
-    </row>
-    <row r="610" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F609" s="6"/>
+    </row>
+    <row r="610" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C610" s="5"/>
       <c r="D610" s="15"/>
       <c r="E610" s="5"/>
-    </row>
-    <row r="611" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F610" s="6"/>
+    </row>
+    <row r="611" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C611" s="5"/>
       <c r="D611" s="15"/>
       <c r="E611" s="5"/>
-    </row>
-    <row r="612" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F611" s="6"/>
+    </row>
+    <row r="612" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C612" s="5"/>
       <c r="D612" s="15"/>
       <c r="E612" s="5"/>
-    </row>
-    <row r="613" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F612" s="6"/>
+    </row>
+    <row r="613" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C613" s="5"/>
       <c r="D613" s="15"/>
       <c r="E613" s="5"/>
-    </row>
-    <row r="614" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F613" s="6"/>
+    </row>
+    <row r="614" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C614" s="5"/>
       <c r="D614" s="15"/>
       <c r="E614" s="5"/>
-    </row>
-    <row r="615" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F614" s="6"/>
+    </row>
+    <row r="615" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C615" s="5"/>
       <c r="D615" s="15"/>
       <c r="E615" s="5"/>
-    </row>
-    <row r="616" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F615" s="6"/>
+    </row>
+    <row r="616" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C616" s="5"/>
       <c r="D616" s="15"/>
       <c r="E616" s="5"/>
-    </row>
-    <row r="617" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F616" s="6"/>
+    </row>
+    <row r="617" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C617" s="5"/>
       <c r="D617" s="15"/>
       <c r="E617" s="5"/>
-    </row>
-    <row r="618" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F617" s="6"/>
+    </row>
+    <row r="618" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C618" s="5"/>
       <c r="D618" s="15"/>
       <c r="E618" s="5"/>
-    </row>
-    <row r="619" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F618" s="6"/>
+    </row>
+    <row r="619" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C619" s="5"/>
       <c r="D619" s="15"/>
       <c r="E619" s="5"/>
-    </row>
-    <row r="620" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F619" s="6"/>
+    </row>
+    <row r="620" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C620" s="5"/>
       <c r="D620" s="15"/>
       <c r="E620" s="5"/>
-    </row>
-    <row r="621" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F620" s="6"/>
+    </row>
+    <row r="621" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C621" s="5"/>
       <c r="D621" s="15"/>
       <c r="E621" s="5"/>
-    </row>
-    <row r="622" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F621" s="6"/>
+    </row>
+    <row r="622" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C622" s="5"/>
       <c r="D622" s="15"/>
       <c r="E622" s="5"/>
-    </row>
-    <row r="623" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F622" s="6"/>
+    </row>
+    <row r="623" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C623" s="5"/>
       <c r="D623" s="15"/>
       <c r="E623" s="5"/>
-    </row>
-    <row r="624" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F623" s="6"/>
+    </row>
+    <row r="624" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C624" s="5"/>
       <c r="D624" s="15"/>
       <c r="E624" s="5"/>
-    </row>
-    <row r="625" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F624" s="6"/>
+    </row>
+    <row r="625" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C625" s="5"/>
       <c r="D625" s="15"/>
       <c r="E625" s="5"/>
-    </row>
-    <row r="626" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F625" s="6"/>
+    </row>
+    <row r="626" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C626" s="5"/>
       <c r="D626" s="15"/>
       <c r="E626" s="5"/>
-    </row>
-    <row r="627" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F626" s="6"/>
+    </row>
+    <row r="627" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C627" s="5"/>
       <c r="D627" s="15"/>
       <c r="E627" s="5"/>
-    </row>
-    <row r="628" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F627" s="6"/>
+    </row>
+    <row r="628" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C628" s="5"/>
       <c r="D628" s="15"/>
       <c r="E628" s="5"/>
-    </row>
-    <row r="629" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F628" s="6"/>
+    </row>
+    <row r="629" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C629" s="5"/>
       <c r="D629" s="15"/>
       <c r="E629" s="5"/>
-    </row>
-    <row r="630" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F629" s="6"/>
+    </row>
+    <row r="630" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C630" s="5"/>
       <c r="D630" s="15"/>
       <c r="E630" s="5"/>
-    </row>
-    <row r="631" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F630" s="6"/>
+    </row>
+    <row r="631" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C631" s="5"/>
       <c r="D631" s="15"/>
       <c r="E631" s="5"/>
-    </row>
-    <row r="632" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F631" s="6"/>
+    </row>
+    <row r="632" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C632" s="5"/>
       <c r="D632" s="15"/>
       <c r="E632" s="5"/>
-    </row>
-    <row r="633" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F632" s="6"/>
+    </row>
+    <row r="633" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C633" s="5"/>
       <c r="D633" s="15"/>
       <c r="E633" s="5"/>
-    </row>
-    <row r="634" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F633" s="6"/>
+    </row>
+    <row r="634" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C634" s="5"/>
       <c r="D634" s="15"/>
       <c r="E634" s="5"/>
-    </row>
-    <row r="635" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F634" s="6"/>
+    </row>
+    <row r="635" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C635" s="5"/>
       <c r="D635" s="15"/>
       <c r="E635" s="5"/>
-    </row>
-    <row r="636" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F635" s="6"/>
+    </row>
+    <row r="636" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C636" s="5"/>
       <c r="D636" s="15"/>
       <c r="E636" s="5"/>
-    </row>
-    <row r="637" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F636" s="6"/>
+    </row>
+    <row r="637" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C637" s="5"/>
       <c r="D637" s="15"/>
       <c r="E637" s="5"/>
-    </row>
-    <row r="638" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F637" s="6"/>
+    </row>
+    <row r="638" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C638" s="5"/>
       <c r="D638" s="15"/>
       <c r="E638" s="5"/>
-    </row>
-    <row r="639" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F638" s="6"/>
+    </row>
+    <row r="639" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C639" s="5"/>
       <c r="D639" s="15"/>
       <c r="E639" s="5"/>
-    </row>
-    <row r="640" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F639" s="6"/>
+    </row>
+    <row r="640" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C640" s="5"/>
       <c r="D640" s="15"/>
       <c r="E640" s="5"/>
-    </row>
-    <row r="641" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F640" s="6"/>
+    </row>
+    <row r="641" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C641" s="5"/>
       <c r="D641" s="15"/>
       <c r="E641" s="5"/>
-    </row>
-    <row r="642" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F641" s="6"/>
+    </row>
+    <row r="642" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C642" s="5"/>
       <c r="D642" s="15"/>
       <c r="E642" s="5"/>
-    </row>
-    <row r="643" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F642" s="6"/>
+    </row>
+    <row r="643" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C643" s="5"/>
       <c r="D643" s="15"/>
       <c r="E643" s="5"/>
-    </row>
-    <row r="644" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F643" s="6"/>
+    </row>
+    <row r="644" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C644" s="5"/>
       <c r="D644" s="15"/>
       <c r="E644" s="5"/>
-    </row>
-    <row r="645" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F644" s="6"/>
+    </row>
+    <row r="645" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C645" s="5"/>
       <c r="D645" s="15"/>
       <c r="E645" s="5"/>
-    </row>
-    <row r="646" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F645" s="6"/>
+    </row>
+    <row r="646" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C646" s="5"/>
       <c r="D646" s="15"/>
       <c r="E646" s="5"/>
-    </row>
-    <row r="647" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F646" s="6"/>
+    </row>
+    <row r="647" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C647" s="5"/>
       <c r="D647" s="15"/>
       <c r="E647" s="5"/>
-    </row>
-    <row r="648" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F647" s="6"/>
+    </row>
+    <row r="648" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C648" s="5"/>
       <c r="D648" s="15"/>
       <c r="E648" s="5"/>
-    </row>
-    <row r="649" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F648" s="6"/>
+    </row>
+    <row r="649" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C649" s="5"/>
       <c r="D649" s="15"/>
       <c r="E649" s="5"/>
-    </row>
-    <row r="650" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F649" s="6"/>
+    </row>
+    <row r="650" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C650" s="5"/>
       <c r="D650" s="15"/>
       <c r="E650" s="5"/>
-    </row>
-    <row r="651" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F650" s="6"/>
+    </row>
+    <row r="651" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C651" s="5"/>
       <c r="D651" s="15"/>
       <c r="E651" s="5"/>
-    </row>
-    <row r="652" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F651" s="6"/>
+    </row>
+    <row r="652" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C652" s="5"/>
       <c r="D652" s="15"/>
       <c r="E652" s="5"/>
-    </row>
-    <row r="653" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F652" s="6"/>
+    </row>
+    <row r="653" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C653" s="5"/>
       <c r="D653" s="15"/>
       <c r="E653" s="5"/>
-    </row>
-    <row r="654" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F653" s="6"/>
+    </row>
+    <row r="654" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C654" s="5"/>
       <c r="D654" s="15"/>
       <c r="E654" s="5"/>
-    </row>
-    <row r="655" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F654" s="6"/>
+    </row>
+    <row r="655" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C655" s="5"/>
       <c r="D655" s="15"/>
       <c r="E655" s="5"/>
-    </row>
-    <row r="656" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F655" s="6"/>
+    </row>
+    <row r="656" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C656" s="5"/>
       <c r="D656" s="15"/>
       <c r="E656" s="5"/>
-    </row>
-    <row r="657" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F656" s="6"/>
+    </row>
+    <row r="657" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C657" s="5"/>
       <c r="D657" s="15"/>
       <c r="E657" s="5"/>
-    </row>
-    <row r="658" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F657" s="6"/>
+    </row>
+    <row r="658" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C658" s="5"/>
       <c r="D658" s="15"/>
       <c r="E658" s="5"/>
-    </row>
-    <row r="659" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F658" s="6"/>
+    </row>
+    <row r="659" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C659" s="5"/>
       <c r="D659" s="15"/>
       <c r="E659" s="5"/>
-    </row>
-    <row r="660" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F659" s="6"/>
+    </row>
+    <row r="660" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C660" s="5"/>
       <c r="D660" s="15"/>
       <c r="E660" s="5"/>
-    </row>
-    <row r="661" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F660" s="6"/>
+    </row>
+    <row r="661" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C661" s="5"/>
       <c r="D661" s="15"/>
       <c r="E661" s="5"/>
-    </row>
-    <row r="662" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F661" s="6"/>
+    </row>
+    <row r="662" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C662" s="5"/>
       <c r="D662" s="15"/>
       <c r="E662" s="5"/>
-    </row>
-    <row r="663" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F662" s="6"/>
+    </row>
+    <row r="663" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C663" s="5"/>
       <c r="D663" s="15"/>
       <c r="E663" s="5"/>
-    </row>
-    <row r="664" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F663" s="6"/>
+    </row>
+    <row r="664" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C664" s="5"/>
       <c r="D664" s="15"/>
       <c r="E664" s="5"/>
-    </row>
-    <row r="665" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F664" s="6"/>
+    </row>
+    <row r="665" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C665" s="5"/>
       <c r="D665" s="15"/>
       <c r="E665" s="5"/>
-    </row>
-    <row r="666" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F665" s="6"/>
+    </row>
+    <row r="666" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C666" s="5"/>
       <c r="D666" s="15"/>
       <c r="E666" s="5"/>
-    </row>
-    <row r="667" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F666" s="6"/>
+    </row>
+    <row r="667" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C667" s="5"/>
       <c r="D667" s="15"/>
       <c r="E667" s="5"/>
-    </row>
-    <row r="668" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F667" s="6"/>
+    </row>
+    <row r="668" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C668" s="5"/>
       <c r="D668" s="15"/>
       <c r="E668" s="5"/>
-    </row>
-    <row r="669" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F668" s="6"/>
+    </row>
+    <row r="669" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C669" s="5"/>
       <c r="D669" s="15"/>
       <c r="E669" s="5"/>
-    </row>
-    <row r="670" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F669" s="6"/>
+    </row>
+    <row r="670" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C670" s="5"/>
       <c r="D670" s="15"/>
       <c r="E670" s="5"/>
-    </row>
-    <row r="671" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F670" s="6"/>
+    </row>
+    <row r="671" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C671" s="5"/>
       <c r="D671" s="15"/>
       <c r="E671" s="5"/>
-    </row>
-    <row r="672" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F671" s="6"/>
+    </row>
+    <row r="672" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C672" s="5"/>
       <c r="D672" s="15"/>
       <c r="E672" s="5"/>
-    </row>
-    <row r="673" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F672" s="6"/>
+    </row>
+    <row r="673" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C673" s="5"/>
       <c r="D673" s="15"/>
       <c r="E673" s="5"/>
-    </row>
-    <row r="674" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F673" s="6"/>
+    </row>
+    <row r="674" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C674" s="5"/>
       <c r="D674" s="15"/>
       <c r="E674" s="5"/>
-    </row>
-    <row r="675" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F674" s="6"/>
+    </row>
+    <row r="675" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C675" s="5"/>
       <c r="D675" s="15"/>
       <c r="E675" s="5"/>
-    </row>
-    <row r="676" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F675" s="6"/>
+    </row>
+    <row r="676" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C676" s="5"/>
       <c r="D676" s="15"/>
       <c r="E676" s="5"/>
-    </row>
-    <row r="677" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F676" s="6"/>
+    </row>
+    <row r="677" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C677" s="5"/>
       <c r="D677" s="15"/>
       <c r="E677" s="5"/>
-    </row>
-    <row r="678" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F677" s="6"/>
+    </row>
+    <row r="678" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C678" s="5"/>
       <c r="D678" s="15"/>
       <c r="E678" s="5"/>
-    </row>
-    <row r="679" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F678" s="6"/>
+    </row>
+    <row r="679" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C679" s="5"/>
       <c r="D679" s="15"/>
       <c r="E679" s="5"/>
-    </row>
-    <row r="680" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F679" s="6"/>
+    </row>
+    <row r="680" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C680" s="5"/>
       <c r="D680" s="15"/>
       <c r="E680" s="5"/>
-    </row>
-    <row r="681" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F680" s="6"/>
+    </row>
+    <row r="681" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C681" s="5"/>
       <c r="D681" s="15"/>
       <c r="E681" s="5"/>
-    </row>
-    <row r="682" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F681" s="6"/>
+    </row>
+    <row r="682" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C682" s="5"/>
       <c r="D682" s="15"/>
       <c r="E682" s="5"/>
-    </row>
-    <row r="683" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F682" s="6"/>
+    </row>
+    <row r="683" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C683" s="5"/>
       <c r="D683" s="15"/>
       <c r="E683" s="5"/>
-    </row>
-    <row r="684" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F683" s="6"/>
+    </row>
+    <row r="684" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C684" s="5"/>
       <c r="D684" s="15"/>
       <c r="E684" s="5"/>
-    </row>
-    <row r="685" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F684" s="6"/>
+    </row>
+    <row r="685" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C685" s="5"/>
       <c r="D685" s="15"/>
       <c r="E685" s="5"/>
-    </row>
-    <row r="686" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F685" s="6"/>
+    </row>
+    <row r="686" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C686" s="5"/>
       <c r="D686" s="15"/>
       <c r="E686" s="5"/>
-    </row>
-    <row r="687" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F686" s="6"/>
+    </row>
+    <row r="687" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C687" s="5"/>
       <c r="D687" s="15"/>
       <c r="E687" s="5"/>
-    </row>
-    <row r="688" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F687" s="6"/>
+    </row>
+    <row r="688" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C688" s="5"/>
       <c r="D688" s="15"/>
       <c r="E688" s="5"/>
-    </row>
-    <row r="689" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F688" s="6"/>
+    </row>
+    <row r="689" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C689" s="5"/>
       <c r="D689" s="15"/>
       <c r="E689" s="5"/>
-    </row>
-    <row r="690" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F689" s="6"/>
+    </row>
+    <row r="690" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C690" s="5"/>
       <c r="D690" s="15"/>
       <c r="E690" s="5"/>
-    </row>
-    <row r="691" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F690" s="6"/>
+    </row>
+    <row r="691" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C691" s="5"/>
       <c r="D691" s="15"/>
       <c r="E691" s="5"/>
-    </row>
-    <row r="692" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F691" s="6"/>
+    </row>
+    <row r="692" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C692" s="5"/>
       <c r="D692" s="15"/>
       <c r="E692" s="5"/>
-    </row>
-    <row r="693" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F692" s="6"/>
+    </row>
+    <row r="693" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C693" s="5"/>
       <c r="D693" s="15"/>
       <c r="E693" s="5"/>
-    </row>
-    <row r="694" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F693" s="6"/>
+    </row>
+    <row r="694" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C694" s="5"/>
       <c r="D694" s="15"/>
       <c r="E694" s="5"/>
-    </row>
-    <row r="695" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F694" s="6"/>
+    </row>
+    <row r="695" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C695" s="5"/>
       <c r="D695" s="15"/>
       <c r="E695" s="5"/>
-    </row>
-    <row r="696" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F695" s="6"/>
+    </row>
+    <row r="696" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C696" s="5"/>
       <c r="D696" s="15"/>
       <c r="E696" s="5"/>
-    </row>
-    <row r="697" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F696" s="6"/>
+    </row>
+    <row r="697" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C697" s="5"/>
       <c r="D697" s="15"/>
       <c r="E697" s="5"/>
-    </row>
-    <row r="698" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F697" s="6"/>
+    </row>
+    <row r="698" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C698" s="5"/>
       <c r="D698" s="15"/>
       <c r="E698" s="5"/>
-    </row>
-    <row r="699" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F698" s="6"/>
+    </row>
+    <row r="699" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C699" s="5"/>
       <c r="D699" s="15"/>
       <c r="E699" s="5"/>
-    </row>
-    <row r="700" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F699" s="6"/>
+    </row>
+    <row r="700" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C700" s="5"/>
       <c r="D700" s="15"/>
       <c r="E700" s="5"/>
-    </row>
-    <row r="701" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F700" s="6"/>
+    </row>
+    <row r="701" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C701" s="5"/>
       <c r="D701" s="15"/>
       <c r="E701" s="5"/>
-    </row>
-    <row r="702" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F701" s="6"/>
+    </row>
+    <row r="702" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C702" s="5"/>
       <c r="D702" s="15"/>
       <c r="E702" s="5"/>
-    </row>
-    <row r="703" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F702" s="6"/>
+    </row>
+    <row r="703" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C703" s="5"/>
       <c r="D703" s="15"/>
       <c r="E703" s="5"/>
-    </row>
-    <row r="704" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F703" s="6"/>
+    </row>
+    <row r="704" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C704" s="5"/>
       <c r="D704" s="15"/>
       <c r="E704" s="5"/>
-    </row>
-    <row r="705" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F704" s="6"/>
+    </row>
+    <row r="705" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C705" s="5"/>
       <c r="D705" s="15"/>
       <c r="E705" s="5"/>
-    </row>
-    <row r="706" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F705" s="6"/>
+    </row>
+    <row r="706" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C706" s="5"/>
       <c r="D706" s="15"/>
       <c r="E706" s="5"/>
-    </row>
-    <row r="707" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F706" s="6"/>
+    </row>
+    <row r="707" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C707" s="5"/>
       <c r="D707" s="15"/>
       <c r="E707" s="5"/>
-    </row>
-    <row r="708" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F707" s="6"/>
+    </row>
+    <row r="708" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C708" s="5"/>
       <c r="D708" s="15"/>
       <c r="E708" s="5"/>
-    </row>
-    <row r="709" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F708" s="6"/>
+    </row>
+    <row r="709" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C709" s="5"/>
       <c r="D709" s="15"/>
       <c r="E709" s="5"/>
-    </row>
-    <row r="710" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F709" s="6"/>
+    </row>
+    <row r="710" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C710" s="5"/>
       <c r="D710" s="15"/>
       <c r="E710" s="5"/>
-    </row>
-    <row r="711" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F710" s="6"/>
+    </row>
+    <row r="711" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C711" s="5"/>
       <c r="D711" s="15"/>
       <c r="E711" s="5"/>
-    </row>
-    <row r="712" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F711" s="6"/>
+    </row>
+    <row r="712" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C712" s="5"/>
       <c r="D712" s="15"/>
       <c r="E712" s="5"/>
-    </row>
-    <row r="713" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F712" s="6"/>
+    </row>
+    <row r="713" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C713" s="5"/>
       <c r="D713" s="15"/>
       <c r="E713" s="5"/>
-    </row>
-    <row r="714" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F713" s="6"/>
+    </row>
+    <row r="714" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C714" s="5"/>
       <c r="D714" s="15"/>
       <c r="E714" s="5"/>
-    </row>
-    <row r="715" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F714" s="6"/>
+    </row>
+    <row r="715" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C715" s="5"/>
       <c r="D715" s="15"/>
       <c r="E715" s="5"/>
-    </row>
-    <row r="716" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F715" s="6"/>
+    </row>
+    <row r="716" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C716" s="5"/>
       <c r="D716" s="15"/>
       <c r="E716" s="5"/>
-    </row>
-    <row r="717" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F716" s="6"/>
+    </row>
+    <row r="717" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C717" s="5"/>
       <c r="D717" s="15"/>
       <c r="E717" s="5"/>
-    </row>
-    <row r="718" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F717" s="6"/>
+    </row>
+    <row r="718" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C718" s="5"/>
       <c r="D718" s="15"/>
       <c r="E718" s="5"/>
-    </row>
-    <row r="719" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F718" s="6"/>
+    </row>
+    <row r="719" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C719" s="5"/>
       <c r="D719" s="15"/>
       <c r="E719" s="5"/>
-    </row>
-    <row r="720" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F719" s="6"/>
+    </row>
+    <row r="720" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C720" s="5"/>
       <c r="D720" s="15"/>
       <c r="E720" s="5"/>
-    </row>
-    <row r="721" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F720" s="6"/>
+    </row>
+    <row r="721" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C721" s="5"/>
       <c r="D721" s="15"/>
       <c r="E721" s="5"/>
-    </row>
-    <row r="722" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F721" s="6"/>
+    </row>
+    <row r="722" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C722" s="5"/>
       <c r="D722" s="15"/>
       <c r="E722" s="5"/>
-    </row>
-    <row r="723" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F722" s="6"/>
+    </row>
+    <row r="723" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C723" s="5"/>
       <c r="D723" s="15"/>
       <c r="E723" s="5"/>
-    </row>
-    <row r="724" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F723" s="6"/>
+    </row>
+    <row r="724" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C724" s="5"/>
       <c r="D724" s="15"/>
       <c r="E724" s="5"/>
-    </row>
-    <row r="725" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F724" s="6"/>
+    </row>
+    <row r="725" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C725" s="5"/>
       <c r="D725" s="15"/>
       <c r="E725" s="5"/>
-    </row>
-    <row r="726" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F725" s="6"/>
+    </row>
+    <row r="726" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C726" s="5"/>
       <c r="D726" s="15"/>
       <c r="E726" s="5"/>
-    </row>
-    <row r="727" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F726" s="6"/>
+    </row>
+    <row r="727" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C727" s="5"/>
       <c r="D727" s="15"/>
       <c r="E727" s="5"/>
-    </row>
-    <row r="728" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F727" s="6"/>
+    </row>
+    <row r="728" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C728" s="5"/>
       <c r="D728" s="15"/>
       <c r="E728" s="5"/>
-    </row>
-    <row r="729" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F728" s="6"/>
+    </row>
+    <row r="729" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C729" s="5"/>
       <c r="D729" s="15"/>
       <c r="E729" s="5"/>
-    </row>
-    <row r="730" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F729" s="6"/>
+    </row>
+    <row r="730" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C730" s="5"/>
       <c r="D730" s="15"/>
       <c r="E730" s="5"/>
-    </row>
-    <row r="731" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F730" s="6"/>
+    </row>
+    <row r="731" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C731" s="5"/>
       <c r="D731" s="15"/>
       <c r="E731" s="5"/>
-    </row>
-    <row r="732" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F731" s="6"/>
+    </row>
+    <row r="732" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C732" s="5"/>
       <c r="D732" s="15"/>
       <c r="E732" s="5"/>
-    </row>
-    <row r="733" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F732" s="6"/>
+    </row>
+    <row r="733" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C733" s="5"/>
       <c r="D733" s="15"/>
       <c r="E733" s="5"/>
-    </row>
-    <row r="734" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F733" s="6"/>
+    </row>
+    <row r="734" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C734" s="5"/>
       <c r="D734" s="15"/>
       <c r="E734" s="5"/>
-    </row>
-    <row r="735" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F734" s="6"/>
+    </row>
+    <row r="735" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C735" s="5"/>
       <c r="D735" s="15"/>
       <c r="E735" s="5"/>
-    </row>
-    <row r="736" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F735" s="6"/>
+    </row>
+    <row r="736" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C736" s="5"/>
       <c r="D736" s="15"/>
       <c r="E736" s="5"/>
-    </row>
-    <row r="737" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F736" s="6"/>
+    </row>
+    <row r="737" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C737" s="5"/>
       <c r="D737" s="15"/>
       <c r="E737" s="5"/>
-    </row>
-    <row r="738" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F737" s="6"/>
+    </row>
+    <row r="738" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C738" s="5"/>
       <c r="D738" s="15"/>
       <c r="E738" s="5"/>
-    </row>
-    <row r="739" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F738" s="6"/>
+    </row>
+    <row r="739" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C739" s="5"/>
       <c r="D739" s="15"/>
       <c r="E739" s="5"/>
-    </row>
-    <row r="740" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F739" s="6"/>
+    </row>
+    <row r="740" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C740" s="5"/>
       <c r="D740" s="15"/>
       <c r="E740" s="5"/>
-    </row>
-    <row r="741" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F740" s="6"/>
+    </row>
+    <row r="741" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C741" s="5"/>
       <c r="D741" s="15"/>
       <c r="E741" s="5"/>
-    </row>
-    <row r="742" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F741" s="6"/>
+    </row>
+    <row r="742" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C742" s="5"/>
       <c r="D742" s="15"/>
       <c r="E742" s="5"/>
-    </row>
-    <row r="743" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F742" s="6"/>
+    </row>
+    <row r="743" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C743" s="5"/>
       <c r="D743" s="15"/>
       <c r="E743" s="5"/>
-    </row>
-    <row r="744" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F743" s="6"/>
+    </row>
+    <row r="744" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C744" s="5"/>
       <c r="D744" s="15"/>
       <c r="E744" s="5"/>
-    </row>
-    <row r="745" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F744" s="6"/>
+    </row>
+    <row r="745" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C745" s="5"/>
       <c r="D745" s="15"/>
       <c r="E745" s="5"/>
-    </row>
-    <row r="746" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F745" s="6"/>
+    </row>
+    <row r="746" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C746" s="5"/>
       <c r="D746" s="15"/>
       <c r="E746" s="5"/>
-    </row>
-    <row r="747" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F746" s="6"/>
+    </row>
+    <row r="747" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C747" s="5"/>
       <c r="D747" s="15"/>
       <c r="E747" s="5"/>
-    </row>
-    <row r="748" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F747" s="6"/>
+    </row>
+    <row r="748" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C748" s="5"/>
       <c r="D748" s="15"/>
       <c r="E748" s="5"/>
-    </row>
-    <row r="749" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F748" s="6"/>
+    </row>
+    <row r="749" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C749" s="5"/>
       <c r="D749" s="15"/>
       <c r="E749" s="5"/>
-    </row>
-    <row r="750" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F749" s="6"/>
+    </row>
+    <row r="750" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C750" s="5"/>
       <c r="D750" s="15"/>
       <c r="E750" s="5"/>
-    </row>
-    <row r="751" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F750" s="6"/>
+    </row>
+    <row r="751" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C751" s="5"/>
       <c r="D751" s="15"/>
       <c r="E751" s="5"/>
-    </row>
-    <row r="752" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F751" s="6"/>
+    </row>
+    <row r="752" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C752" s="5"/>
       <c r="D752" s="15"/>
       <c r="E752" s="5"/>
-    </row>
-    <row r="753" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F752" s="6"/>
+    </row>
+    <row r="753" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C753" s="5"/>
       <c r="D753" s="15"/>
       <c r="E753" s="5"/>
-    </row>
-    <row r="754" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F753" s="6"/>
+    </row>
+    <row r="754" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C754" s="5"/>
       <c r="D754" s="15"/>
       <c r="E754" s="5"/>
-    </row>
-    <row r="755" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F754" s="6"/>
+    </row>
+    <row r="755" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C755" s="5"/>
       <c r="D755" s="15"/>
       <c r="E755" s="5"/>
-    </row>
-    <row r="756" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F755" s="6"/>
+    </row>
+    <row r="756" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C756" s="5"/>
       <c r="D756" s="15"/>
       <c r="E756" s="5"/>
-    </row>
-    <row r="757" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F756" s="6"/>
+    </row>
+    <row r="757" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C757" s="5"/>
       <c r="D757" s="15"/>
       <c r="E757" s="5"/>
-    </row>
-    <row r="758" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F757" s="6"/>
+    </row>
+    <row r="758" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C758" s="5"/>
       <c r="D758" s="15"/>
       <c r="E758" s="5"/>
-    </row>
-    <row r="759" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F758" s="6"/>
+    </row>
+    <row r="759" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C759" s="5"/>
       <c r="D759" s="15"/>
       <c r="E759" s="5"/>
-    </row>
-    <row r="760" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F759" s="6"/>
+    </row>
+    <row r="760" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C760" s="5"/>
       <c r="D760" s="15"/>
       <c r="E760" s="5"/>
-    </row>
-    <row r="761" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F760" s="6"/>
+    </row>
+    <row r="761" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C761" s="5"/>
       <c r="D761" s="15"/>
       <c r="E761" s="5"/>
-    </row>
-    <row r="762" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F761" s="6"/>
+    </row>
+    <row r="762" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C762" s="5"/>
       <c r="D762" s="15"/>
       <c r="E762" s="5"/>
-    </row>
-    <row r="763" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F762" s="6"/>
+    </row>
+    <row r="763" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C763" s="5"/>
       <c r="D763" s="15"/>
       <c r="E763" s="5"/>
-    </row>
-    <row r="764" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F763" s="6"/>
+    </row>
+    <row r="764" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C764" s="5"/>
       <c r="D764" s="15"/>
       <c r="E764" s="5"/>
-    </row>
-    <row r="765" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F764" s="6"/>
+    </row>
+    <row r="765" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C765" s="5"/>
       <c r="D765" s="15"/>
       <c r="E765" s="5"/>
-    </row>
-    <row r="766" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F765" s="6"/>
+    </row>
+    <row r="766" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C766" s="5"/>
       <c r="D766" s="15"/>
       <c r="E766" s="5"/>
-    </row>
-    <row r="767" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F766" s="6"/>
+    </row>
+    <row r="767" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C767" s="5"/>
       <c r="D767" s="15"/>
       <c r="E767" s="5"/>
-    </row>
-    <row r="768" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F767" s="6"/>
+    </row>
+    <row r="768" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C768" s="5"/>
       <c r="D768" s="15"/>
       <c r="E768" s="5"/>
-    </row>
-    <row r="769" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F768" s="6"/>
+    </row>
+    <row r="769" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C769" s="5"/>
       <c r="D769" s="15"/>
       <c r="E769" s="5"/>
-    </row>
-    <row r="770" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F769" s="6"/>
+    </row>
+    <row r="770" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C770" s="5"/>
       <c r="D770" s="15"/>
       <c r="E770" s="5"/>
-    </row>
-    <row r="771" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F770" s="6"/>
+    </row>
+    <row r="771" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C771" s="5"/>
       <c r="D771" s="15"/>
       <c r="E771" s="5"/>
-    </row>
-    <row r="772" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F771" s="6"/>
+    </row>
+    <row r="772" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C772" s="5"/>
       <c r="D772" s="15"/>
       <c r="E772" s="5"/>
-    </row>
-    <row r="773" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F772" s="6"/>
+    </row>
+    <row r="773" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C773" s="5"/>
       <c r="D773" s="15"/>
       <c r="E773" s="5"/>
-    </row>
-    <row r="774" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F773" s="6"/>
+    </row>
+    <row r="774" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C774" s="5"/>
       <c r="D774" s="15"/>
       <c r="E774" s="5"/>
-    </row>
-    <row r="775" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F774" s="6"/>
+    </row>
+    <row r="775" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C775" s="5"/>
       <c r="D775" s="15"/>
       <c r="E775" s="5"/>
-    </row>
-    <row r="776" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F775" s="6"/>
+    </row>
+    <row r="776" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C776" s="5"/>
       <c r="D776" s="15"/>
       <c r="E776" s="5"/>
-    </row>
-    <row r="777" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F776" s="6"/>
+    </row>
+    <row r="777" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C777" s="5"/>
       <c r="D777" s="15"/>
       <c r="E777" s="5"/>
-    </row>
-    <row r="778" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F777" s="6"/>
+    </row>
+    <row r="778" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C778" s="5"/>
       <c r="D778" s="15"/>
       <c r="E778" s="5"/>
-    </row>
-    <row r="779" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F778" s="6"/>
+    </row>
+    <row r="779" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C779" s="5"/>
       <c r="D779" s="15"/>
       <c r="E779" s="5"/>
-    </row>
-    <row r="780" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F779" s="6"/>
+    </row>
+    <row r="780" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C780" s="5"/>
       <c r="D780" s="15"/>
       <c r="E780" s="5"/>
-    </row>
-    <row r="781" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F780" s="6"/>
+    </row>
+    <row r="781" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C781" s="5"/>
       <c r="D781" s="15"/>
       <c r="E781" s="5"/>
-    </row>
-    <row r="782" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F781" s="6"/>
+    </row>
+    <row r="782" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C782" s="5"/>
       <c r="D782" s="15"/>
       <c r="E782" s="5"/>
-    </row>
-    <row r="783" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F782" s="6"/>
+    </row>
+    <row r="783" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C783" s="5"/>
       <c r="D783" s="15"/>
       <c r="E783" s="5"/>
-    </row>
-    <row r="784" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F783" s="6"/>
+    </row>
+    <row r="784" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C784" s="5"/>
       <c r="D784" s="15"/>
       <c r="E784" s="5"/>
-    </row>
-    <row r="785" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F784" s="6"/>
+    </row>
+    <row r="785" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C785" s="5"/>
       <c r="D785" s="15"/>
       <c r="E785" s="5"/>
-    </row>
-    <row r="786" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F785" s="6"/>
+    </row>
+    <row r="786" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C786" s="5"/>
       <c r="D786" s="15"/>
       <c r="E786" s="5"/>
-    </row>
-    <row r="787" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F786" s="6"/>
+    </row>
+    <row r="787" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C787" s="5"/>
       <c r="D787" s="15"/>
       <c r="E787" s="5"/>
-    </row>
-    <row r="788" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F787" s="6"/>
+    </row>
+    <row r="788" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C788" s="5"/>
       <c r="D788" s="15"/>
       <c r="E788" s="5"/>
-    </row>
-    <row r="789" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F788" s="6"/>
+    </row>
+    <row r="789" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C789" s="5"/>
       <c r="D789" s="15"/>
       <c r="E789" s="5"/>
-    </row>
-    <row r="790" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F789" s="6"/>
+    </row>
+    <row r="790" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C790" s="5"/>
       <c r="D790" s="15"/>
       <c r="E790" s="5"/>
-    </row>
-    <row r="791" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F790" s="6"/>
+    </row>
+    <row r="791" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C791" s="5"/>
       <c r="D791" s="15"/>
       <c r="E791" s="5"/>
-    </row>
-    <row r="792" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F791" s="6"/>
+    </row>
+    <row r="792" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C792" s="5"/>
       <c r="D792" s="15"/>
       <c r="E792" s="5"/>
-    </row>
-    <row r="793" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F792" s="6"/>
+    </row>
+    <row r="793" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C793" s="5"/>
       <c r="D793" s="15"/>
       <c r="E793" s="5"/>
-    </row>
-    <row r="794" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F793" s="6"/>
+    </row>
+    <row r="794" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C794" s="5"/>
       <c r="D794" s="15"/>
       <c r="E794" s="5"/>
-    </row>
-    <row r="795" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F794" s="6"/>
+    </row>
+    <row r="795" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C795" s="5"/>
       <c r="D795" s="15"/>
       <c r="E795" s="5"/>
-    </row>
-    <row r="796" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F795" s="6"/>
+    </row>
+    <row r="796" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C796" s="5"/>
       <c r="D796" s="15"/>
       <c r="E796" s="5"/>
-    </row>
-    <row r="797" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F796" s="6"/>
+    </row>
+    <row r="797" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C797" s="5"/>
       <c r="D797" s="15"/>
       <c r="E797" s="5"/>
-    </row>
-    <row r="798" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F797" s="6"/>
+    </row>
+    <row r="798" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C798" s="5"/>
       <c r="D798" s="15"/>
       <c r="E798" s="5"/>
-    </row>
-    <row r="799" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F798" s="6"/>
+    </row>
+    <row r="799" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C799" s="5"/>
       <c r="D799" s="15"/>
       <c r="E799" s="5"/>
-    </row>
-    <row r="800" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F799" s="6"/>
+    </row>
+    <row r="800" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C800" s="5"/>
       <c r="D800" s="15"/>
       <c r="E800" s="5"/>
-    </row>
-    <row r="801" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F800" s="6"/>
+    </row>
+    <row r="801" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C801" s="5"/>
       <c r="D801" s="15"/>
       <c r="E801" s="5"/>
-    </row>
-    <row r="802" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F801" s="6"/>
+    </row>
+    <row r="802" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C802" s="5"/>
       <c r="D802" s="15"/>
       <c r="E802" s="5"/>
-    </row>
-    <row r="803" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F802" s="6"/>
+    </row>
+    <row r="803" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C803" s="5"/>
       <c r="D803" s="15"/>
       <c r="E803" s="5"/>
-    </row>
-    <row r="804" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F803" s="6"/>
+    </row>
+    <row r="804" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C804" s="5"/>
       <c r="D804" s="15"/>
       <c r="E804" s="5"/>
-    </row>
-    <row r="805" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F804" s="6"/>
+    </row>
+    <row r="805" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C805" s="5"/>
       <c r="D805" s="15"/>
       <c r="E805" s="5"/>
-    </row>
-    <row r="806" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F805" s="6"/>
+    </row>
+    <row r="806" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C806" s="5"/>
       <c r="D806" s="15"/>
       <c r="E806" s="5"/>
-    </row>
-    <row r="807" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F806" s="6"/>
+    </row>
+    <row r="807" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C807" s="5"/>
       <c r="D807" s="15"/>
       <c r="E807" s="5"/>
-    </row>
-    <row r="808" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F807" s="6"/>
+    </row>
+    <row r="808" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C808" s="5"/>
       <c r="D808" s="15"/>
       <c r="E808" s="5"/>
-    </row>
-    <row r="809" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F808" s="6"/>
+    </row>
+    <row r="809" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C809" s="5"/>
       <c r="D809" s="15"/>
       <c r="E809" s="5"/>
-    </row>
-    <row r="810" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F809" s="6"/>
+    </row>
+    <row r="810" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C810" s="5"/>
       <c r="D810" s="15"/>
       <c r="E810" s="5"/>
-    </row>
-    <row r="811" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F810" s="6"/>
+    </row>
+    <row r="811" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C811" s="5"/>
       <c r="D811" s="15"/>
       <c r="E811" s="5"/>
-    </row>
-    <row r="812" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F811" s="6"/>
+    </row>
+    <row r="812" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C812" s="5"/>
       <c r="D812" s="15"/>
       <c r="E812" s="5"/>
-    </row>
-    <row r="813" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F812" s="6"/>
+    </row>
+    <row r="813" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C813" s="5"/>
       <c r="D813" s="15"/>
       <c r="E813" s="5"/>
-    </row>
-    <row r="814" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F813" s="6"/>
+    </row>
+    <row r="814" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C814" s="5"/>
       <c r="D814" s="15"/>
       <c r="E814" s="5"/>
-    </row>
-    <row r="815" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F814" s="6"/>
+    </row>
+    <row r="815" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C815" s="5"/>
       <c r="D815" s="15"/>
       <c r="E815" s="5"/>
-    </row>
-    <row r="816" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F815" s="6"/>
+    </row>
+    <row r="816" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C816" s="5"/>
       <c r="D816" s="15"/>
       <c r="E816" s="5"/>
-    </row>
-    <row r="817" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F816" s="6"/>
+    </row>
+    <row r="817" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C817" s="5"/>
       <c r="D817" s="15"/>
       <c r="E817" s="5"/>
-    </row>
-    <row r="818" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F817" s="6"/>
+    </row>
+    <row r="818" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C818" s="5"/>
       <c r="D818" s="15"/>
       <c r="E818" s="5"/>
-    </row>
-    <row r="819" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F818" s="6"/>
+    </row>
+    <row r="819" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C819" s="5"/>
       <c r="D819" s="15"/>
       <c r="E819" s="5"/>
-    </row>
-    <row r="820" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F819" s="6"/>
+    </row>
+    <row r="820" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C820" s="5"/>
       <c r="D820" s="15"/>
       <c r="E820" s="5"/>
-    </row>
-    <row r="821" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F820" s="6"/>
+    </row>
+    <row r="821" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C821" s="5"/>
       <c r="D821" s="15"/>
       <c r="E821" s="5"/>
-    </row>
-    <row r="822" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F821" s="6"/>
+    </row>
+    <row r="822" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C822" s="5"/>
       <c r="D822" s="15"/>
       <c r="E822" s="5"/>
-    </row>
-    <row r="823" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F822" s="6"/>
+    </row>
+    <row r="823" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C823" s="5"/>
       <c r="D823" s="15"/>
       <c r="E823" s="5"/>
-    </row>
-    <row r="824" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F823" s="6"/>
+    </row>
+    <row r="824" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C824" s="5"/>
       <c r="D824" s="15"/>
       <c r="E824" s="5"/>
-    </row>
-    <row r="825" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F824" s="6"/>
+    </row>
+    <row r="825" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C825" s="5"/>
       <c r="D825" s="15"/>
       <c r="E825" s="5"/>
-    </row>
-    <row r="826" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F825" s="6"/>
+    </row>
+    <row r="826" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C826" s="5"/>
       <c r="D826" s="15"/>
       <c r="E826" s="5"/>
-    </row>
-    <row r="827" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F826" s="6"/>
+    </row>
+    <row r="827" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C827" s="5"/>
       <c r="D827" s="15"/>
       <c r="E827" s="5"/>
-    </row>
-    <row r="828" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F827" s="6"/>
+    </row>
+    <row r="828" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C828" s="5"/>
       <c r="D828" s="15"/>
       <c r="E828" s="5"/>
-    </row>
-    <row r="829" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F828" s="6"/>
+    </row>
+    <row r="829" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C829" s="5"/>
       <c r="D829" s="15"/>
       <c r="E829" s="5"/>
-    </row>
-    <row r="830" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F829" s="6"/>
+    </row>
+    <row r="830" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C830" s="5"/>
       <c r="D830" s="15"/>
       <c r="E830" s="5"/>
-    </row>
-    <row r="831" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F830" s="6"/>
+    </row>
+    <row r="831" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C831" s="5"/>
       <c r="D831" s="15"/>
       <c r="E831" s="5"/>
-    </row>
-    <row r="832" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F831" s="6"/>
+    </row>
+    <row r="832" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C832" s="5"/>
       <c r="D832" s="15"/>
       <c r="E832" s="5"/>
-    </row>
-    <row r="833" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F832" s="6"/>
+    </row>
+    <row r="833" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C833" s="5"/>
       <c r="D833" s="15"/>
       <c r="E833" s="5"/>
-    </row>
-    <row r="834" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F833" s="6"/>
+    </row>
+    <row r="834" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C834" s="5"/>
       <c r="D834" s="15"/>
       <c r="E834" s="5"/>
-    </row>
-    <row r="835" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F834" s="6"/>
+    </row>
+    <row r="835" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C835" s="5"/>
       <c r="D835" s="15"/>
       <c r="E835" s="5"/>
-    </row>
-    <row r="836" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F835" s="6"/>
+    </row>
+    <row r="836" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C836" s="5"/>
       <c r="D836" s="15"/>
       <c r="E836" s="5"/>
-    </row>
-    <row r="837" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F836" s="6"/>
+    </row>
+    <row r="837" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C837" s="5"/>
       <c r="D837" s="15"/>
       <c r="E837" s="5"/>
-    </row>
-    <row r="838" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F837" s="6"/>
+    </row>
+    <row r="838" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C838" s="5"/>
       <c r="D838" s="15"/>
       <c r="E838" s="5"/>
-    </row>
-    <row r="839" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F838" s="6"/>
+    </row>
+    <row r="839" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C839" s="5"/>
       <c r="D839" s="15"/>
       <c r="E839" s="5"/>
-    </row>
-    <row r="840" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F839" s="6"/>
+    </row>
+    <row r="840" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C840" s="5"/>
       <c r="D840" s="15"/>
       <c r="E840" s="5"/>
-    </row>
-    <row r="841" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F840" s="6"/>
+    </row>
+    <row r="841" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C841" s="5"/>
       <c r="D841" s="15"/>
       <c r="E841" s="5"/>
-    </row>
-    <row r="842" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F841" s="6"/>
+    </row>
+    <row r="842" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C842" s="5"/>
       <c r="D842" s="15"/>
       <c r="E842" s="5"/>
-    </row>
-    <row r="843" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F842" s="6"/>
+    </row>
+    <row r="843" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C843" s="5"/>
       <c r="D843" s="15"/>
       <c r="E843" s="5"/>
-    </row>
-    <row r="844" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F843" s="6"/>
+    </row>
+    <row r="844" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C844" s="5"/>
       <c r="D844" s="15"/>
       <c r="E844" s="5"/>
-    </row>
-    <row r="845" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F844" s="6"/>
+    </row>
+    <row r="845" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C845" s="5"/>
       <c r="D845" s="15"/>
       <c r="E845" s="5"/>
-    </row>
-    <row r="846" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F845" s="6"/>
+    </row>
+    <row r="846" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C846" s="5"/>
       <c r="D846" s="15"/>
       <c r="E846" s="5"/>
-    </row>
-    <row r="847" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F846" s="6"/>
+    </row>
+    <row r="847" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C847" s="5"/>
       <c r="D847" s="15"/>
       <c r="E847" s="5"/>
-    </row>
-    <row r="848" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F847" s="6"/>
+    </row>
+    <row r="848" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C848" s="5"/>
       <c r="D848" s="15"/>
       <c r="E848" s="5"/>
-    </row>
-    <row r="849" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F848" s="6"/>
+    </row>
+    <row r="849" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C849" s="5"/>
       <c r="D849" s="15"/>
       <c r="E849" s="5"/>
-    </row>
-    <row r="850" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F849" s="6"/>
+    </row>
+    <row r="850" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C850" s="5"/>
       <c r="D850" s="15"/>
       <c r="E850" s="5"/>
-    </row>
-    <row r="851" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F850" s="6"/>
+    </row>
+    <row r="851" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C851" s="5"/>
       <c r="D851" s="15"/>
       <c r="E851" s="5"/>
-    </row>
-    <row r="852" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F851" s="6"/>
+    </row>
+    <row r="852" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C852" s="5"/>
       <c r="D852" s="15"/>
       <c r="E852" s="5"/>
-    </row>
-    <row r="853" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F852" s="6"/>
+    </row>
+    <row r="853" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C853" s="5"/>
       <c r="D853" s="15"/>
       <c r="E853" s="5"/>
-    </row>
-    <row r="854" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F853" s="6"/>
+    </row>
+    <row r="854" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C854" s="5"/>
       <c r="D854" s="15"/>
       <c r="E854" s="5"/>
-    </row>
-    <row r="855" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F854" s="6"/>
+    </row>
+    <row r="855" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C855" s="5"/>
       <c r="D855" s="15"/>
       <c r="E855" s="5"/>
-    </row>
-    <row r="856" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F855" s="6"/>
+    </row>
+    <row r="856" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C856" s="5"/>
       <c r="D856" s="15"/>
       <c r="E856" s="5"/>
-    </row>
-    <row r="857" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F856" s="6"/>
+    </row>
+    <row r="857" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C857" s="5"/>
       <c r="D857" s="15"/>
       <c r="E857" s="5"/>
-    </row>
-    <row r="858" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F857" s="6"/>
+    </row>
+    <row r="858" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C858" s="5"/>
       <c r="D858" s="15"/>
       <c r="E858" s="5"/>
-    </row>
-    <row r="859" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F858" s="6"/>
+    </row>
+    <row r="859" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C859" s="5"/>
       <c r="D859" s="15"/>
       <c r="E859" s="5"/>
-    </row>
-    <row r="860" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F859" s="6"/>
+    </row>
+    <row r="860" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C860" s="5"/>
       <c r="D860" s="15"/>
       <c r="E860" s="5"/>
-    </row>
-    <row r="861" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F860" s="6"/>
+    </row>
+    <row r="861" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C861" s="5"/>
       <c r="D861" s="15"/>
       <c r="E861" s="5"/>
-    </row>
-    <row r="862" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F861" s="6"/>
+    </row>
+    <row r="862" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C862" s="5"/>
       <c r="D862" s="15"/>
       <c r="E862" s="5"/>
-    </row>
-    <row r="863" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F862" s="6"/>
+    </row>
+    <row r="863" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C863" s="5"/>
       <c r="D863" s="15"/>
       <c r="E863" s="5"/>
-    </row>
-    <row r="864" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F863" s="6"/>
+    </row>
+    <row r="864" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C864" s="5"/>
       <c r="D864" s="15"/>
       <c r="E864" s="5"/>
-    </row>
-    <row r="865" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F864" s="6"/>
+    </row>
+    <row r="865" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C865" s="5"/>
       <c r="D865" s="15"/>
       <c r="E865" s="5"/>
-    </row>
-    <row r="866" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F865" s="6"/>
+    </row>
+    <row r="866" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C866" s="5"/>
       <c r="D866" s="15"/>
       <c r="E866" s="5"/>
-    </row>
-    <row r="867" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F866" s="6"/>
+    </row>
+    <row r="867" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C867" s="5"/>
       <c r="D867" s="15"/>
       <c r="E867" s="5"/>
-    </row>
-    <row r="868" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F867" s="6"/>
+    </row>
+    <row r="868" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C868" s="5"/>
       <c r="D868" s="15"/>
       <c r="E868" s="5"/>
-    </row>
-    <row r="869" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F868" s="6"/>
+    </row>
+    <row r="869" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C869" s="5"/>
       <c r="D869" s="15"/>
       <c r="E869" s="5"/>
-    </row>
-    <row r="870" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F869" s="6"/>
+    </row>
+    <row r="870" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C870" s="5"/>
       <c r="D870" s="15"/>
       <c r="E870" s="5"/>
-    </row>
-    <row r="871" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F870" s="6"/>
+    </row>
+    <row r="871" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C871" s="5"/>
       <c r="D871" s="15"/>
       <c r="E871" s="5"/>
-    </row>
-    <row r="872" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F871" s="6"/>
+    </row>
+    <row r="872" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C872" s="5"/>
       <c r="D872" s="15"/>
       <c r="E872" s="5"/>
-    </row>
-    <row r="873" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F872" s="6"/>
+    </row>
+    <row r="873" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C873" s="5"/>
       <c r="D873" s="15"/>
       <c r="E873" s="5"/>
-    </row>
-    <row r="874" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F873" s="6"/>
+    </row>
+    <row r="874" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C874" s="5"/>
       <c r="D874" s="15"/>
       <c r="E874" s="5"/>
-    </row>
-    <row r="875" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F874" s="6"/>
+    </row>
+    <row r="875" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C875" s="5"/>
       <c r="D875" s="15"/>
       <c r="E875" s="5"/>
-    </row>
-    <row r="876" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F875" s="6"/>
+    </row>
+    <row r="876" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C876" s="5"/>
       <c r="D876" s="15"/>
       <c r="E876" s="5"/>
-    </row>
-    <row r="877" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F876" s="6"/>
+    </row>
+    <row r="877" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C877" s="5"/>
       <c r="D877" s="15"/>
       <c r="E877" s="5"/>
-    </row>
-    <row r="878" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F877" s="6"/>
+    </row>
+    <row r="878" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C878" s="5"/>
       <c r="D878" s="15"/>
       <c r="E878" s="5"/>
-    </row>
-    <row r="879" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F878" s="6"/>
+    </row>
+    <row r="879" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C879" s="5"/>
       <c r="D879" s="15"/>
       <c r="E879" s="5"/>
-    </row>
-    <row r="880" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F879" s="6"/>
+    </row>
+    <row r="880" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C880" s="5"/>
       <c r="D880" s="15"/>
       <c r="E880" s="5"/>
-    </row>
-    <row r="881" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F880" s="6"/>
+    </row>
+    <row r="881" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C881" s="5"/>
       <c r="D881" s="15"/>
       <c r="E881" s="5"/>
-    </row>
-    <row r="882" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F881" s="6"/>
+    </row>
+    <row r="882" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C882" s="5"/>
       <c r="D882" s="15"/>
       <c r="E882" s="5"/>
-    </row>
-    <row r="883" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F882" s="6"/>
+    </row>
+    <row r="883" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C883" s="5"/>
       <c r="D883" s="15"/>
       <c r="E883" s="5"/>
-    </row>
-    <row r="884" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F883" s="6"/>
+    </row>
+    <row r="884" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C884" s="5"/>
       <c r="D884" s="15"/>
       <c r="E884" s="5"/>
-    </row>
-    <row r="885" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F884" s="6"/>
+    </row>
+    <row r="885" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C885" s="5"/>
       <c r="D885" s="15"/>
       <c r="E885" s="5"/>
-    </row>
-    <row r="886" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F885" s="6"/>
+    </row>
+    <row r="886" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C886" s="5"/>
       <c r="D886" s="15"/>
       <c r="E886" s="5"/>
-    </row>
-    <row r="887" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F886" s="6"/>
+    </row>
+    <row r="887" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C887" s="5"/>
       <c r="D887" s="15"/>
       <c r="E887" s="5"/>
-    </row>
-    <row r="888" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F887" s="6"/>
+    </row>
+    <row r="888" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C888" s="5"/>
       <c r="D888" s="15"/>
       <c r="E888" s="5"/>
-    </row>
-    <row r="889" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F888" s="6"/>
+    </row>
+    <row r="889" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C889" s="5"/>
       <c r="D889" s="15"/>
       <c r="E889" s="5"/>
-    </row>
-    <row r="890" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F889" s="6"/>
+    </row>
+    <row r="890" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C890" s="5"/>
       <c r="D890" s="15"/>
       <c r="E890" s="5"/>
-    </row>
-    <row r="891" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F890" s="6"/>
+    </row>
+    <row r="891" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C891" s="5"/>
       <c r="D891" s="15"/>
       <c r="E891" s="5"/>
-    </row>
-    <row r="892" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F891" s="6"/>
+    </row>
+    <row r="892" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C892" s="5"/>
       <c r="D892" s="15"/>
       <c r="E892" s="5"/>
-    </row>
-    <row r="893" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F892" s="6"/>
+    </row>
+    <row r="893" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C893" s="5"/>
       <c r="D893" s="15"/>
       <c r="E893" s="5"/>
-    </row>
-    <row r="894" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F893" s="6"/>
+    </row>
+    <row r="894" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C894" s="5"/>
       <c r="D894" s="15"/>
       <c r="E894" s="5"/>
-    </row>
-    <row r="895" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F894" s="6"/>
+    </row>
+    <row r="895" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C895" s="5"/>
       <c r="D895" s="15"/>
       <c r="E895" s="5"/>
-    </row>
-    <row r="896" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F895" s="6"/>
+    </row>
+    <row r="896" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C896" s="5"/>
       <c r="D896" s="15"/>
       <c r="E896" s="5"/>
-    </row>
-    <row r="897" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F896" s="6"/>
+    </row>
+    <row r="897" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C897" s="5"/>
       <c r="D897" s="15"/>
       <c r="E897" s="5"/>
-    </row>
-    <row r="898" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F897" s="6"/>
+    </row>
+    <row r="898" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C898" s="5"/>
       <c r="D898" s="15"/>
       <c r="E898" s="5"/>
-    </row>
-    <row r="899" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F898" s="6"/>
+    </row>
+    <row r="899" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C899" s="5"/>
       <c r="D899" s="15"/>
       <c r="E899" s="5"/>
-    </row>
-    <row r="900" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F899" s="6"/>
+    </row>
+    <row r="900" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C900" s="5"/>
       <c r="D900" s="15"/>
       <c r="E900" s="5"/>
-    </row>
-    <row r="901" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F900" s="6"/>
+    </row>
+    <row r="901" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C901" s="5"/>
       <c r="D901" s="15"/>
       <c r="E901" s="5"/>
-    </row>
-    <row r="902" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F901" s="6"/>
+    </row>
+    <row r="902" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C902" s="5"/>
       <c r="D902" s="15"/>
       <c r="E902" s="5"/>
-    </row>
-    <row r="903" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F902" s="6"/>
+    </row>
+    <row r="903" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C903" s="5"/>
       <c r="D903" s="15"/>
       <c r="E903" s="5"/>
-    </row>
-    <row r="904" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F903" s="6"/>
+    </row>
+    <row r="904" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C904" s="5"/>
       <c r="D904" s="15"/>
       <c r="E904" s="5"/>
-    </row>
-    <row r="905" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F904" s="6"/>
+    </row>
+    <row r="905" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C905" s="5"/>
       <c r="D905" s="15"/>
       <c r="E905" s="5"/>
-    </row>
-    <row r="906" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F905" s="6"/>
+    </row>
+    <row r="906" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C906" s="5"/>
       <c r="D906" s="15"/>
       <c r="E906" s="5"/>
-    </row>
-    <row r="907" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F906" s="6"/>
+    </row>
+    <row r="907" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C907" s="5"/>
       <c r="D907" s="15"/>
       <c r="E907" s="5"/>
-    </row>
-    <row r="908" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F907" s="6"/>
+    </row>
+    <row r="908" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C908" s="5"/>
       <c r="D908" s="15"/>
       <c r="E908" s="5"/>
-    </row>
-    <row r="909" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F908" s="6"/>
+    </row>
+    <row r="909" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C909" s="5"/>
       <c r="D909" s="15"/>
       <c r="E909" s="5"/>
-    </row>
-    <row r="910" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F909" s="6"/>
+    </row>
+    <row r="910" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C910" s="5"/>
       <c r="D910" s="15"/>
       <c r="E910" s="5"/>
-    </row>
-    <row r="911" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F910" s="6"/>
+    </row>
+    <row r="911" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C911" s="5"/>
       <c r="D911" s="15"/>
       <c r="E911" s="5"/>
-    </row>
-    <row r="912" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F911" s="6"/>
+    </row>
+    <row r="912" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C912" s="5"/>
       <c r="D912" s="15"/>
       <c r="E912" s="5"/>
-    </row>
-    <row r="913" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F912" s="6"/>
+    </row>
+    <row r="913" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C913" s="5"/>
       <c r="D913" s="15"/>
       <c r="E913" s="5"/>
-    </row>
-    <row r="914" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F913" s="6"/>
+    </row>
+    <row r="914" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C914" s="5"/>
       <c r="D914" s="15"/>
       <c r="E914" s="5"/>
-    </row>
-    <row r="915" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F914" s="6"/>
+    </row>
+    <row r="915" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C915" s="5"/>
       <c r="D915" s="15"/>
       <c r="E915" s="5"/>
-    </row>
-    <row r="916" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F915" s="6"/>
+    </row>
+    <row r="916" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C916" s="5"/>
       <c r="D916" s="15"/>
       <c r="E916" s="5"/>
-    </row>
-    <row r="917" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F916" s="6"/>
+    </row>
+    <row r="917" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C917" s="5"/>
       <c r="D917" s="15"/>
       <c r="E917" s="5"/>
-    </row>
-    <row r="918" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F917" s="6"/>
+    </row>
+    <row r="918" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C918" s="5"/>
       <c r="D918" s="15"/>
       <c r="E918" s="5"/>
-    </row>
-    <row r="919" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F918" s="6"/>
+    </row>
+    <row r="919" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C919" s="5"/>
       <c r="D919" s="15"/>
       <c r="E919" s="5"/>
-    </row>
-    <row r="920" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F919" s="6"/>
+    </row>
+    <row r="920" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C920" s="5"/>
       <c r="D920" s="15"/>
       <c r="E920" s="5"/>
-    </row>
-    <row r="921" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F920" s="6"/>
+    </row>
+    <row r="921" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C921" s="5"/>
       <c r="D921" s="15"/>
       <c r="E921" s="5"/>
-    </row>
-    <row r="922" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F921" s="6"/>
+    </row>
+    <row r="922" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C922" s="5"/>
       <c r="D922" s="15"/>
       <c r="E922" s="5"/>
-    </row>
-    <row r="923" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F922" s="6"/>
+    </row>
+    <row r="923" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C923" s="5"/>
       <c r="D923" s="15"/>
       <c r="E923" s="5"/>
-    </row>
-    <row r="924" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F923" s="6"/>
+    </row>
+    <row r="924" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C924" s="5"/>
       <c r="D924" s="15"/>
       <c r="E924" s="5"/>
-    </row>
-    <row r="925" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F924" s="6"/>
+    </row>
+    <row r="925" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C925" s="5"/>
       <c r="D925" s="15"/>
       <c r="E925" s="5"/>
-    </row>
-    <row r="926" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F925" s="6"/>
+    </row>
+    <row r="926" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C926" s="5"/>
       <c r="D926" s="15"/>
       <c r="E926" s="5"/>
-    </row>
-    <row r="927" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F926" s="6"/>
+    </row>
+    <row r="927" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C927" s="5"/>
       <c r="D927" s="15"/>
       <c r="E927" s="5"/>
-    </row>
-    <row r="928" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F927" s="6"/>
+    </row>
+    <row r="928" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C928" s="5"/>
       <c r="D928" s="15"/>
       <c r="E928" s="5"/>
-    </row>
-    <row r="929" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F928" s="6"/>
+    </row>
+    <row r="929" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C929" s="5"/>
       <c r="D929" s="15"/>
       <c r="E929" s="5"/>
-    </row>
-    <row r="930" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F929" s="6"/>
+    </row>
+    <row r="930" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C930" s="5"/>
       <c r="D930" s="15"/>
       <c r="E930" s="5"/>
-    </row>
-    <row r="931" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F930" s="6"/>
+    </row>
+    <row r="931" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C931" s="5"/>
       <c r="D931" s="15"/>
       <c r="E931" s="5"/>
-    </row>
-    <row r="932" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F931" s="6"/>
+    </row>
+    <row r="932" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C932" s="5"/>
       <c r="D932" s="15"/>
       <c r="E932" s="5"/>
-    </row>
-    <row r="933" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F932" s="6"/>
+    </row>
+    <row r="933" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C933" s="5"/>
       <c r="D933" s="15"/>
       <c r="E933" s="5"/>
-    </row>
-    <row r="934" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F933" s="6"/>
+    </row>
+    <row r="934" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C934" s="5"/>
       <c r="D934" s="15"/>
       <c r="E934" s="5"/>
-    </row>
-    <row r="935" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F934" s="6"/>
+    </row>
+    <row r="935" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C935" s="5"/>
       <c r="D935" s="15"/>
       <c r="E935" s="5"/>
-    </row>
-    <row r="936" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F935" s="6"/>
+    </row>
+    <row r="936" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C936" s="5"/>
       <c r="D936" s="15"/>
       <c r="E936" s="5"/>
-    </row>
-    <row r="937" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F936" s="6"/>
+    </row>
+    <row r="937" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C937" s="5"/>
       <c r="D937" s="15"/>
       <c r="E937" s="5"/>
-    </row>
-    <row r="938" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F937" s="6"/>
+    </row>
+    <row r="938" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C938" s="5"/>
       <c r="D938" s="15"/>
       <c r="E938" s="5"/>
-    </row>
-    <row r="939" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F938" s="6"/>
+    </row>
+    <row r="939" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C939" s="5"/>
       <c r="D939" s="15"/>
       <c r="E939" s="5"/>
-    </row>
-    <row r="940" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F939" s="6"/>
+    </row>
+    <row r="940" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C940" s="5"/>
       <c r="D940" s="15"/>
       <c r="E940" s="5"/>
-    </row>
-    <row r="941" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F940" s="6"/>
+    </row>
+    <row r="941" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C941" s="5"/>
       <c r="D941" s="15"/>
       <c r="E941" s="5"/>
-    </row>
-    <row r="942" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F941" s="6"/>
+    </row>
+    <row r="942" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C942" s="5"/>
       <c r="D942" s="15"/>
       <c r="E942" s="5"/>
-    </row>
-    <row r="943" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F942" s="6"/>
+    </row>
+    <row r="943" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C943" s="5"/>
       <c r="D943" s="15"/>
       <c r="E943" s="5"/>
-    </row>
-    <row r="944" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F943" s="6"/>
+    </row>
+    <row r="944" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C944" s="5"/>
       <c r="D944" s="15"/>
       <c r="E944" s="5"/>
-    </row>
-    <row r="945" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F944" s="6"/>
+    </row>
+    <row r="945" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C945" s="5"/>
       <c r="D945" s="15"/>
       <c r="E945" s="5"/>
-    </row>
-    <row r="946" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F945" s="6"/>
+    </row>
+    <row r="946" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C946" s="5"/>
       <c r="D946" s="15"/>
       <c r="E946" s="5"/>
-    </row>
-    <row r="947" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F946" s="6"/>
+    </row>
+    <row r="947" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C947" s="5"/>
       <c r="D947" s="15"/>
       <c r="E947" s="5"/>
-    </row>
-    <row r="948" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F947" s="6"/>
+    </row>
+    <row r="948" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C948" s="5"/>
       <c r="D948" s="15"/>
       <c r="E948" s="5"/>
-    </row>
-    <row r="949" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F948" s="6"/>
+    </row>
+    <row r="949" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C949" s="5"/>
       <c r="D949" s="15"/>
       <c r="E949" s="5"/>
-    </row>
-    <row r="950" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F949" s="6"/>
+    </row>
+    <row r="950" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C950" s="5"/>
       <c r="D950" s="15"/>
       <c r="E950" s="5"/>
-    </row>
-    <row r="951" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F950" s="6"/>
+    </row>
+    <row r="951" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C951" s="5"/>
       <c r="D951" s="15"/>
       <c r="E951" s="5"/>
-    </row>
-    <row r="952" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F951" s="6"/>
+    </row>
+    <row r="952" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C952" s="5"/>
       <c r="D952" s="15"/>
       <c r="E952" s="5"/>
-    </row>
-    <row r="953" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F952" s="6"/>
+    </row>
+    <row r="953" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C953" s="5"/>
       <c r="D953" s="15"/>
       <c r="E953" s="5"/>
-    </row>
-    <row r="954" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F953" s="6"/>
+    </row>
+    <row r="954" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C954" s="5"/>
       <c r="D954" s="15"/>
       <c r="E954" s="5"/>
-    </row>
-    <row r="955" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F954" s="6"/>
+    </row>
+    <row r="955" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C955" s="5"/>
       <c r="D955" s="15"/>
       <c r="E955" s="5"/>
-    </row>
-    <row r="956" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F955" s="6"/>
+    </row>
+    <row r="956" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C956" s="5"/>
       <c r="D956" s="15"/>
       <c r="E956" s="5"/>
-    </row>
-    <row r="957" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F956" s="6"/>
+    </row>
+    <row r="957" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C957" s="5"/>
       <c r="D957" s="15"/>
       <c r="E957" s="5"/>
-    </row>
-    <row r="958" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F957" s="6"/>
+    </row>
+    <row r="958" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C958" s="5"/>
       <c r="D958" s="15"/>
       <c r="E958" s="5"/>
-    </row>
-    <row r="959" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F958" s="6"/>
+    </row>
+    <row r="959" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C959" s="5"/>
       <c r="D959" s="15"/>
       <c r="E959" s="5"/>
-    </row>
-    <row r="960" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F959" s="6"/>
+    </row>
+    <row r="960" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C960" s="5"/>
       <c r="D960" s="15"/>
       <c r="E960" s="5"/>
-    </row>
-    <row r="961" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F960" s="6"/>
+    </row>
+    <row r="961" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C961" s="5"/>
       <c r="D961" s="15"/>
       <c r="E961" s="5"/>
-    </row>
-    <row r="962" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F961" s="6"/>
+    </row>
+    <row r="962" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C962" s="5"/>
       <c r="D962" s="15"/>
       <c r="E962" s="5"/>
-    </row>
-    <row r="963" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F962" s="6"/>
+    </row>
+    <row r="963" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C963" s="5"/>
       <c r="D963" s="15"/>
       <c r="E963" s="5"/>
-    </row>
-    <row r="964" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F963" s="6"/>
+    </row>
+    <row r="964" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C964" s="5"/>
       <c r="D964" s="15"/>
       <c r="E964" s="5"/>
-    </row>
-    <row r="965" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F964" s="6"/>
+    </row>
+    <row r="965" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C965" s="5"/>
       <c r="D965" s="15"/>
       <c r="E965" s="5"/>
-    </row>
-    <row r="966" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F965" s="6"/>
+    </row>
+    <row r="966" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C966" s="5"/>
       <c r="D966" s="15"/>
       <c r="E966" s="5"/>
-    </row>
-    <row r="967" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F966" s="6"/>
+    </row>
+    <row r="967" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C967" s="5"/>
       <c r="D967" s="15"/>
       <c r="E967" s="5"/>
-    </row>
-    <row r="968" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F967" s="6"/>
+    </row>
+    <row r="968" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C968" s="5"/>
       <c r="D968" s="15"/>
       <c r="E968" s="5"/>
-    </row>
-    <row r="969" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F968" s="6"/>
+    </row>
+    <row r="969" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C969" s="5"/>
       <c r="D969" s="15"/>
       <c r="E969" s="5"/>
-    </row>
-    <row r="970" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F969" s="6"/>
+    </row>
+    <row r="970" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C970" s="5"/>
       <c r="D970" s="15"/>
       <c r="E970" s="5"/>
-    </row>
-    <row r="971" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F970" s="6"/>
+    </row>
+    <row r="971" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C971" s="5"/>
       <c r="D971" s="15"/>
       <c r="E971" s="5"/>
-    </row>
-    <row r="972" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F971" s="6"/>
+    </row>
+    <row r="972" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C972" s="5"/>
       <c r="D972" s="15"/>
       <c r="E972" s="5"/>
-    </row>
-    <row r="973" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F972" s="6"/>
+    </row>
+    <row r="973" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C973" s="5"/>
       <c r="D973" s="15"/>
       <c r="E973" s="5"/>
-    </row>
-    <row r="974" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F973" s="6"/>
+    </row>
+    <row r="974" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C974" s="5"/>
       <c r="D974" s="15"/>
       <c r="E974" s="5"/>
-    </row>
-    <row r="975" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F974" s="6"/>
+    </row>
+    <row r="975" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C975" s="5"/>
       <c r="D975" s="15"/>
       <c r="E975" s="5"/>
-    </row>
-    <row r="976" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F975" s="6"/>
+    </row>
+    <row r="976" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C976" s="5"/>
       <c r="D976" s="15"/>
       <c r="E976" s="5"/>
-    </row>
-    <row r="977" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F976" s="6"/>
+    </row>
+    <row r="977" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C977" s="5"/>
       <c r="D977" s="15"/>
       <c r="E977" s="5"/>
-    </row>
-    <row r="978" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F977" s="6"/>
+    </row>
+    <row r="978" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C978" s="5"/>
       <c r="D978" s="15"/>
       <c r="E978" s="5"/>
-    </row>
-    <row r="979" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F978" s="6"/>
+    </row>
+    <row r="979" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C979" s="5"/>
       <c r="D979" s="15"/>
       <c r="E979" s="5"/>
-    </row>
-    <row r="980" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F979" s="6"/>
+    </row>
+    <row r="980" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C980" s="5"/>
       <c r="D980" s="15"/>
       <c r="E980" s="5"/>
-    </row>
-    <row r="981" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F980" s="6"/>
+    </row>
+    <row r="981" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C981" s="5"/>
       <c r="D981" s="15"/>
       <c r="E981" s="5"/>
-    </row>
-    <row r="982" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F981" s="6"/>
+    </row>
+    <row r="982" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C982" s="5"/>
       <c r="D982" s="15"/>
       <c r="E982" s="5"/>
-    </row>
-    <row r="983" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F982" s="6"/>
+    </row>
+    <row r="983" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C983" s="5"/>
       <c r="D983" s="15"/>
       <c r="E983" s="5"/>
-    </row>
-    <row r="984" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F983" s="6"/>
+    </row>
+    <row r="984" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C984" s="5"/>
       <c r="D984" s="15"/>
       <c r="E984" s="5"/>
-    </row>
-    <row r="985" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F984" s="6"/>
+    </row>
+    <row r="985" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C985" s="5"/>
       <c r="D985" s="15"/>
       <c r="E985" s="5"/>
-    </row>
-    <row r="986" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F985" s="6"/>
+    </row>
+    <row r="986" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C986" s="5"/>
       <c r="D986" s="15"/>
       <c r="E986" s="5"/>
-    </row>
-    <row r="987" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F986" s="6"/>
+    </row>
+    <row r="987" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C987" s="5"/>
       <c r="D987" s="15"/>
       <c r="E987" s="5"/>
-    </row>
-    <row r="988" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F987" s="6"/>
+    </row>
+    <row r="988" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C988" s="5"/>
       <c r="D988" s="15"/>
       <c r="E988" s="5"/>
-    </row>
-    <row r="989" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F988" s="6"/>
+    </row>
+    <row r="989" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C989" s="5"/>
       <c r="D989" s="15"/>
       <c r="E989" s="5"/>
-    </row>
-    <row r="990" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F989" s="6"/>
+    </row>
+    <row r="990" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C990" s="5"/>
       <c r="D990" s="15"/>
       <c r="E990" s="5"/>
-    </row>
-    <row r="991" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F990" s="6"/>
+    </row>
+    <row r="991" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C991" s="5"/>
       <c r="D991" s="15"/>
       <c r="E991" s="5"/>
-    </row>
-    <row r="992" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F991" s="6"/>
+    </row>
+    <row r="992" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C992" s="5"/>
       <c r="D992" s="15"/>
       <c r="E992" s="5"/>
-    </row>
-    <row r="993" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F992" s="6"/>
+    </row>
+    <row r="993" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C993" s="5"/>
       <c r="D993" s="15"/>
       <c r="E993" s="5"/>
-    </row>
-    <row r="994" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F993" s="6"/>
+    </row>
+    <row r="994" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C994" s="5"/>
       <c r="D994" s="15"/>
       <c r="E994" s="5"/>
-    </row>
-    <row r="995" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F994" s="6"/>
+    </row>
+    <row r="995" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C995" s="5"/>
       <c r="D995" s="15"/>
       <c r="E995" s="5"/>
-    </row>
-    <row r="996" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F995" s="6"/>
+    </row>
+    <row r="996" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C996" s="5"/>
       <c r="D996" s="15"/>
       <c r="E996" s="5"/>
-    </row>
-    <row r="997" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F996" s="6"/>
+    </row>
+    <row r="997" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C997" s="5"/>
       <c r="D997" s="15"/>
       <c r="E997" s="5"/>
-    </row>
-    <row r="998" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F997" s="6"/>
+    </row>
+    <row r="998" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C998" s="5"/>
       <c r="D998" s="15"/>
       <c r="E998" s="5"/>
-    </row>
-    <row r="999" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F998" s="6"/>
+    </row>
+    <row r="999" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C999" s="5"/>
       <c r="D999" s="15"/>
       <c r="E999" s="5"/>
-    </row>
-    <row r="1000" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F999" s="6"/>
+    </row>
+    <row r="1000" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1000" s="5"/>
       <c r="D1000" s="15"/>
       <c r="E1000" s="5"/>
-    </row>
-    <row r="1001" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1000" s="6"/>
+    </row>
+    <row r="1001" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1001" s="5"/>
       <c r="D1001" s="15"/>
       <c r="E1001" s="5"/>
-    </row>
-    <row r="1002" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1001" s="6"/>
+    </row>
+    <row r="1002" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1002" s="5"/>
       <c r="D1002" s="15"/>
       <c r="E1002" s="5"/>
-    </row>
-    <row r="1003" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1002" s="6"/>
+    </row>
+    <row r="1003" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1003" s="5"/>
       <c r="D1003" s="15"/>
       <c r="E1003" s="5"/>
-    </row>
-    <row r="1004" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1003" s="6"/>
+    </row>
+    <row r="1004" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1004" s="5"/>
       <c r="D1004" s="15"/>
       <c r="E1004" s="5"/>
-    </row>
-    <row r="1005" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1004" s="6"/>
+    </row>
+    <row r="1005" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1005" s="5"/>
       <c r="D1005" s="15"/>
       <c r="E1005" s="5"/>
-    </row>
-    <row r="1006" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1005" s="6"/>
+    </row>
+    <row r="1006" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1006" s="5"/>
       <c r="D1006" s="15"/>
       <c r="E1006" s="5"/>
-    </row>
-    <row r="1007" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1006" s="6"/>
+    </row>
+    <row r="1007" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1007" s="5"/>
       <c r="D1007" s="15"/>
       <c r="E1007" s="5"/>
-    </row>
-    <row r="1008" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1007" s="6"/>
+    </row>
+    <row r="1008" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1008" s="5"/>
       <c r="D1008" s="15"/>
       <c r="E1008" s="5"/>
-    </row>
-    <row r="1009" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1008" s="6"/>
+    </row>
+    <row r="1009" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1009" s="5"/>
       <c r="D1009" s="15"/>
       <c r="E1009" s="5"/>
-    </row>
-    <row r="1010" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1009" s="6"/>
+    </row>
+    <row r="1010" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1010" s="5"/>
       <c r="D1010" s="15"/>
       <c r="E1010" s="5"/>
-    </row>
-    <row r="1011" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1010" s="6"/>
+    </row>
+    <row r="1011" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1011" s="5"/>
       <c r="D1011" s="15"/>
       <c r="E1011" s="5"/>
-    </row>
-    <row r="1012" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1011" s="6"/>
+    </row>
+    <row r="1012" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1012" s="5"/>
       <c r="D1012" s="15"/>
       <c r="E1012" s="5"/>
-    </row>
-    <row r="1013" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1012" s="6"/>
+    </row>
+    <row r="1013" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1013" s="5"/>
       <c r="D1013" s="15"/>
       <c r="E1013" s="5"/>
-    </row>
-    <row r="1014" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1013" s="6"/>
+    </row>
+    <row r="1014" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1014" s="5"/>
       <c r="D1014" s="15"/>
       <c r="E1014" s="5"/>
-    </row>
-    <row r="1015" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1014" s="6"/>
+    </row>
+    <row r="1015" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1015" s="5"/>
       <c r="D1015" s="15"/>
       <c r="E1015" s="5"/>
-    </row>
-    <row r="1016" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1015" s="6"/>
+    </row>
+    <row r="1016" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1016" s="5"/>
       <c r="D1016" s="15"/>
       <c r="E1016" s="5"/>
-    </row>
-    <row r="1017" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1016" s="6"/>
+    </row>
+    <row r="1017" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1017" s="5"/>
       <c r="D1017" s="15"/>
       <c r="E1017" s="5"/>
-    </row>
-    <row r="1018" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1017" s="6"/>
+    </row>
+    <row r="1018" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1018" s="5"/>
       <c r="D1018" s="15"/>
       <c r="E1018" s="5"/>
-    </row>
-    <row r="1019" spans="3:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1018" s="6"/>
+    </row>
+    <row r="1019" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C1019" s="5"/>
       <c r="D1019" s="15"/>
       <c r="E1019" s="5"/>
+      <c r="F1019" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20388"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117BF937-7441-44D8-B3EF-44DE01143CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360395DA-F1D0-4E76-83AB-1CC2FD46C1C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,9 +673,6 @@
     <t>dampness_bedroom</t>
   </si>
   <si>
-    <t>Chronic dampness or mold</t>
-  </si>
-  <si>
     <t xml:space="preserve">Humedad crónica o moho </t>
   </si>
   <si>
@@ -858,9 +855,6 @@
     <t>electric_general_maintenance</t>
   </si>
   <si>
-    <t>Electrical wiring and fixtures are not properly maintained</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1271,9 +1265,6 @@
   </si>
   <si>
     <t>heat_not_working</t>
-  </si>
-  <si>
-    <t>Heat is not working (below 68 degrees F during the day or 64 at night) during winter</t>
   </si>
   <si>
     <r>
@@ -4631,15 +4622,9 @@
     <t>No puede haber otros insectos en el apartamento o edificio. Cuando se encuentren en áreas comunes o en cualquier departamento individual en edificios que tengan dos o más unidades, el dueño debe exterminarlos.</t>
   </si>
   <si>
-    <t>Cockroaches or insects</t>
-  </si>
-  <si>
     <t>Bedbugs</t>
   </si>
   <si>
-    <t>Insects</t>
-  </si>
-  <si>
     <t>Holes or cracks in roof</t>
   </si>
   <si>
@@ -4650,6 +4635,21 @@
   </si>
   <si>
     <t>Mice or rats</t>
+  </si>
+  <si>
+    <t>No heat (between September 16 and June 14th)</t>
+  </si>
+  <si>
+    <t>Mold or chronic dampness</t>
+  </si>
+  <si>
+    <t>Cockroaches</t>
+  </si>
+  <si>
+    <t>Infestation of flies, ants or other insects</t>
+  </si>
+  <si>
+    <t>Problem with electric fixtures or wiring</t>
   </si>
 </sst>
 </file>
@@ -4955,8 +4955,8 @@
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
@@ -5490,22 +5490,22 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
@@ -5514,48 +5514,48 @@
         <v>77</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>53</v>
@@ -5565,16 +5565,16 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="I22" s="4">
         <v>410.5</v>
@@ -5582,7 +5582,7 @@
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>53</v>
@@ -5592,16 +5592,16 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="I23" s="4">
         <v>410.5</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
@@ -5619,24 +5619,24 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>10</v>
@@ -5646,24 +5646,24 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="I25" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>10</v>
@@ -5673,24 +5673,24 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -5700,43 +5700,43 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="I28" s="3">
         <v>410.452</v>
@@ -5744,61 +5744,61 @@
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>10</v>
@@ -5808,16 +5808,16 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>75</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
@@ -5835,16 +5835,16 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>75</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>10</v>
@@ -5862,16 +5862,16 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>75</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>10</v>
@@ -5889,43 +5889,43 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="I35" s="3">
         <v>410.351</v>
@@ -5933,34 +5933,34 @@
     </row>
     <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>10</v>
@@ -5970,24 +5970,24 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="I37" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>10</v>
@@ -5997,24 +5997,24 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="I38" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>10</v>
@@ -6024,19 +6024,19 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="I39" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -6060,26 +6060,26 @@
     </row>
     <row r="40" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="I40" s="4">
         <v>410.20100000000002</v>
@@ -6087,26 +6087,26 @@
     </row>
     <row r="41" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="I41" s="3">
         <v>410.20100000000002</v>
@@ -6114,26 +6114,26 @@
     </row>
     <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="I42" s="3">
         <v>410.202</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>10</v>
@@ -6151,16 +6151,16 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="I43" s="3">
         <v>410.28</v>
@@ -6168,26 +6168,26 @@
     </row>
     <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="I44" s="3">
         <v>410.55</v>
@@ -6195,26 +6195,26 @@
     </row>
     <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="I45" s="3">
         <v>410.255</v>
@@ -6222,26 +6222,26 @@
     </row>
     <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="I46" s="3">
         <v>410.483</v>
@@ -6249,80 +6249,80 @@
     </row>
     <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="I47" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="I49" s="3">
         <v>410.25299999999999</v>
@@ -6330,61 +6330,61 @@
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="I51" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>10</v>
@@ -6394,24 +6394,24 @@
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>10</v>
@@ -6421,70 +6421,70 @@
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>291</v>
-      </c>
       <c r="I54" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="I55" s="3">
         <v>410.18</v>
@@ -6492,26 +6492,26 @@
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="I56" s="3">
         <v>410.28</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>10</v>
@@ -6529,16 +6529,16 @@
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="I57" s="3">
         <v>410.50400000000002</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>10</v>
@@ -6556,16 +6556,16 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="I58" s="3">
         <v>410.50400000000002</v>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>10</v>
@@ -6583,16 +6583,16 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="I59" s="3">
         <v>410.50400000000002</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>10</v>
@@ -6610,16 +6610,16 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="I60" s="3">
         <v>410.25099999999998</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>10</v>
@@ -6637,24 +6637,24 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>46</v>
@@ -6664,16 +6664,16 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="I62" s="4">
         <v>410.1</v>
@@ -6681,7 +6681,7 @@
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>10</v>
@@ -6691,43 +6691,43 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="I64" s="3">
         <v>410.601</v>
@@ -6735,26 +6735,26 @@
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="I65" s="3">
         <v>410.20100000000002</v>
@@ -6762,53 +6762,53 @@
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H66" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="I66" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="I67" s="3">
         <v>410.50200000000001</v>
@@ -6816,34 +6816,34 @@
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="I68" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>10</v>
@@ -6853,24 +6853,24 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>10</v>
@@ -6880,24 +6880,24 @@
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F70" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>372</v>
-      </c>
       <c r="I70" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>53</v>
@@ -6907,24 +6907,24 @@
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>53</v>
@@ -6934,24 +6934,24 @@
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="I72" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>53</v>
@@ -6961,16 +6961,16 @@
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="I73" s="4">
         <v>410.35300000000001</v>
@@ -6978,53 +6978,53 @@
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I75" s="3">
         <v>410.55</v>
@@ -7032,61 +7032,61 @@
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="I76" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="I77" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>53</v>
@@ -7096,16 +7096,16 @@
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="I78" s="4">
         <v>410.48200000000003</v>
@@ -7113,53 +7113,53 @@
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>424</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="I80" s="4">
         <v>410.35399999999998</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="81" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>10</v>
@@ -7177,43 +7177,43 @@
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H81" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H82" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="I82" s="4">
         <v>410.35399999999998</v>
@@ -7221,107 +7221,107 @@
     </row>
     <row r="83" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="H84" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="I84" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="I85" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="I86" s="3">
         <v>410.19</v>
@@ -7329,34 +7329,34 @@
     </row>
     <row r="87" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="I87" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>10</v>
@@ -7366,16 +7366,16 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>468</v>
       </c>
       <c r="I88" s="3">
         <v>410.25099999999998</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="89" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>10</v>
@@ -7393,16 +7393,16 @@
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H89" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="I89" s="4">
         <v>410.25200000000001</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="90" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>10</v>
@@ -7420,105 +7420,105 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H90" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="I90" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H91" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="I91" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H92" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>489</v>
-      </c>
       <c r="I92" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>10</v>
@@ -7528,16 +7528,16 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>103</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="95" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>10</v>
@@ -7555,19 +7555,19 @@
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="H95" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="I95" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>503</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="96" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>10</v>
@@ -7601,19 +7601,19 @@
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="I96" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>53</v>
@@ -7647,16 +7647,16 @@
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H97" s="3" t="s">
         <v>511</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="I97" s="4">
         <v>410.48200000000003</v>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>10</v>
@@ -7674,97 +7674,97 @@
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="I98" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="I99" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="I101" s="4">
         <v>410.18</v>
@@ -7772,161 +7772,161 @@
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H102" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="I102" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="H103" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>545</v>
-      </c>
       <c r="I103" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H104" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>550</v>
-      </c>
       <c r="I104" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="F105" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="H106" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H107" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>567</v>
       </c>
       <c r="I107" s="3">
         <v>410.45100000000002</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>53</v>
@@ -7944,16 +7944,16 @@
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>569</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="I108" s="4">
         <v>410.5</v>
@@ -7961,7 +7961,7 @@
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>10</v>
@@ -7971,24 +7971,24 @@
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>575</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>46</v>
@@ -7998,16 +7998,16 @@
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="I110" s="4">
         <v>410.1</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>10</v>
@@ -8025,43 +8025,43 @@
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H111" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>588</v>
-      </c>
       <c r="I111" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H112" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>593</v>
       </c>
       <c r="I112" s="3">
         <v>410.35</v>
@@ -8069,26 +8069,26 @@
     </row>
     <row r="113" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H113" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>75</v>
@@ -8096,53 +8096,53 @@
     </row>
     <row r="114" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="115" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I115" s="3">
         <v>410.55</v>
@@ -8150,26 +8150,26 @@
     </row>
     <row r="116" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I116" s="9">
         <v>410.55</v>
@@ -8177,26 +8177,26 @@
     </row>
     <row r="117" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I117" s="9">
         <v>410.55</v>
@@ -8204,7 +8204,7 @@
     </row>
     <row r="118" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>10</v>
@@ -8214,16 +8214,16 @@
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>75</v>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="119" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>10</v>
@@ -8241,19 +8241,19 @@
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="I119" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>618</v>
       </c>
       <c r="J119" s="10"/>
       <c r="K119" s="10"/>
@@ -8278,34 +8278,34 @@
     </row>
     <row r="120" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H120" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="I120" s="4" t="s">
         <v>621</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>10</v>
@@ -8315,24 +8315,24 @@
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="H121" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>629</v>
-      </c>
       <c r="I121" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>10</v>
@@ -8342,24 +8342,24 @@
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>634</v>
-      </c>
       <c r="I122" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>10</v>
@@ -8369,97 +8369,97 @@
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="H123" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>639</v>
-      </c>
       <c r="I123" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="H124" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="I124" s="4" t="s">
         <v>642</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H125" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="I125" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="H126" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>655</v>
       </c>
       <c r="I126" s="3">
         <v>410.202</v>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="127" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>10</v>
@@ -8477,16 +8477,16 @@
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H127" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="I127" s="4">
         <v>410.5</v>
@@ -8494,7 +8494,7 @@
     </row>
     <row r="128" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>10</v>
@@ -8504,43 +8504,43 @@
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="I128" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="I128" s="3" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="H129" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>670</v>
       </c>
       <c r="I129" s="3">
         <v>410.25599999999997</v>
@@ -8548,88 +8548,88 @@
     </row>
     <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="H130" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="F130" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="G130" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="H130" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="H131" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="F131" s="3" t="s">
+      <c r="I131" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="G131" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="H131" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H132" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="F132" s="3" t="s">
+      <c r="I132" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="G132" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="H132" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>10</v>
@@ -8639,24 +8639,24 @@
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="H133" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="I133" s="3" t="s">
         <v>691</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>10</v>
@@ -8666,24 +8666,24 @@
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="H134" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="I134" s="3" t="s">
         <v>697</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="H134" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="I134" s="3" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>53</v>
@@ -8693,16 +8693,16 @@
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="H135" s="3" t="s">
         <v>702</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>705</v>
       </c>
       <c r="I135" s="4">
         <v>410.351</v>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>53</v>
@@ -8720,16 +8720,16 @@
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="H136" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>710</v>
       </c>
       <c r="I136" s="4">
         <v>410.351</v>
@@ -8737,7 +8737,7 @@
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>53</v>
@@ -8747,16 +8747,16 @@
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="H137" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>715</v>
       </c>
       <c r="I137" s="4">
         <v>410.351</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>10</v>
@@ -8774,22 +8774,22 @@
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="I138" s="6"/>
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>10</v>
@@ -8799,22 +8799,22 @@
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F139" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="H139" s="3" t="s">
         <v>718</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>721</v>
       </c>
       <c r="I139" s="6"/>
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>10</v>
@@ -8824,16 +8824,16 @@
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H140" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>726</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>75</v>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>10</v>
@@ -8851,16 +8851,16 @@
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>75</v>
@@ -8868,7 +8868,7 @@
     </row>
     <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>10</v>
@@ -8878,16 +8878,16 @@
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>75</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>10</v>
@@ -8905,43 +8905,43 @@
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="H143" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>737</v>
-      </c>
       <c r="I143" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="I144" s="3">
         <v>410.18</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="145" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>10</v>
@@ -8959,24 +8959,24 @@
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="H145" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>746</v>
-      </c>
       <c r="I145" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>10</v>
@@ -8986,22 +8986,22 @@
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I146" s="6"/>
     </row>
     <row r="147" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>10</v>
@@ -9011,43 +9011,43 @@
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H148" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>757</v>
       </c>
       <c r="I148" s="3">
         <v>410.25599999999997</v>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360395DA-F1D0-4E76-83AB-1CC2FD46C1C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E085B709-EC59-4166-80D4-DA2DAAD90A6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21312" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-lt1-booklet-2-housing-co" sheetId="1" r:id="rId1"/>
@@ -4637,9 +4637,6 @@
     <t>Mice or rats</t>
   </si>
   <si>
-    <t>No heat (between September 16 and June 14th)</t>
-  </si>
-  <si>
     <t>Mold or chronic dampness</t>
   </si>
   <si>
@@ -4650,6 +4647,9 @@
   </si>
   <si>
     <t>Problem with electric fixtures or wiring</t>
+  </si>
+  <si>
+    <t>No heat (heat must be provided between September 16 and June 14th)</t>
   </si>
 </sst>
 </file>
@@ -4955,8 +4955,8 @@
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5490,7 +5490,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>105</v>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>105</v>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>105</v>
@@ -5700,7 +5700,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>139</v>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>207</v>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>603</v>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>759</v>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E085B709-EC59-4166-80D4-DA2DAAD90A6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA3C3B9-647B-4003-9807-DA5ADBD3EE79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21312" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="773">
   <si>
     <t>ID</t>
   </si>
@@ -252,9 +252,6 @@
     <t>bathroom_rough_floor</t>
   </si>
   <si>
-    <t>Floor is not smooth or waterproof</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1357,9 +1354,6 @@
     <t>inadequate_ventilation</t>
   </si>
   <si>
-    <t>Indequate ventilation</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1391,9 +1385,6 @@
     <t>Rodents and insects</t>
   </si>
   <si>
-    <t>Insects or mice somewhere in the building</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1524,9 +1515,6 @@
     <t>insufficient_light</t>
   </si>
   <si>
-    <t>Ventilation and Light</t>
-  </si>
-  <si>
     <t>Not enough natural light from windows in a room other than bathroom or kitchen</t>
   </si>
   <si>
@@ -1671,9 +1659,6 @@
     </r>
   </si>
   <si>
-    <t>Every bedroom must have at least 70 square feet of floor space if only one person sleeps there. If more than one person is sleeping in the room, it must have 50 square feet of floor space for each person.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1703,9 +1688,6 @@
       </rPr>
       <t>No hay al menos 100 pies cuadrados de espacio para cada persona que viva en el apartamento, más 50 pies</t>
     </r>
-  </si>
-  <si>
-    <t>Every dwelling unit must have at least 150 square feet of floor space for the first occupant and 100 square feet for each additional occupant. Add up all the floor space in habitable rooms to get the number of square feet in your unit.</t>
   </si>
   <si>
     <r>
@@ -4091,9 +4073,6 @@
     <t>tenant_water_bill</t>
   </si>
   <si>
-    <t>Tenant is being directly billed for water but landlord is not following law</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4650,6 +4629,24 @@
   </si>
   <si>
     <t>No heat (heat must be provided between September 16 and June 14th)</t>
+  </si>
+  <si>
+    <t>Floor has broken tiles or is not waterproof</t>
+  </si>
+  <si>
+    <t>Indequate bathroom ventilation</t>
+  </si>
+  <si>
+    <t>Every bedroom must have at least 70 square feet of floor space if only one person sleeps there. If more than one person is sleeping in the room, it must have 50 square feet of floor space for each person. Warning: reporting overcrowding may result in the Board of Health requiring a tenant to move.</t>
+  </si>
+  <si>
+    <t>Every dwelling unit must have at least 150 square feet of floor space for the first occupant and 100 square feet for each additional occupant. Add up all the floor space in habitable rooms to get the number of square feet in your unit. Warning: reporting overcrowding  to the city inspector may result in the city ordering a tenant to move.</t>
+  </si>
+  <si>
+    <t>Insects, rats or mice in a common area</t>
+  </si>
+  <si>
+    <t>Tenant is being directly billed for water but there are no submeters or other steps required by law</t>
   </si>
 </sst>
 </file>
@@ -4955,8 +4952,8 @@
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5023,110 +5020,108 @@
     </row>
     <row r="2" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
+      </c>
+      <c r="I5" s="4">
+        <v>410.3</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5141,211 +5136,213 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="3">
-        <v>410.351</v>
+        <v>22</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="4">
-        <v>410.3</v>
+        <v>32</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>63</v>
+        <v>81</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>64</v>
+        <v>219</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>768</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I11" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="I11" s="3">
+        <v>410.28</v>
+      </c>
     </row>
     <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>69</v>
+      <c r="A12" s="9" t="s">
+        <v>460</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>461</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>462</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>73</v>
+        <v>463</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>75</v>
+        <v>464</v>
+      </c>
+      <c r="I12" s="4">
+        <v>410.25200000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>76</v>
+        <v>604</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>71</v>
+        <v>605</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>73</v>
+        <v>607</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>75</v>
+        <v>608</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>80</v>
+        <v>679</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
@@ -5355,2220 +5352,2220 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>71</v>
+        <v>680</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>81</v>
+        <v>681</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>682</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>75</v>
+        <v>683</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>755</v>
+        <v>685</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>71</v>
+        <v>686</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>83</v>
+        <v>687</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>73</v>
+        <v>688</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>75</v>
+        <v>689</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>85</v>
+      <c r="A16" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>91</v>
+      <c r="A17" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>93</v>
+        <v>762</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>98</v>
+      <c r="A18" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>99</v>
+        <v>759</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>103</v>
+        <v>162</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>104</v>
+      <c r="A19" s="9" t="s">
+        <v>268</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="6"/>
+        <v>271</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>108</v>
+      <c r="A20" s="5" t="s">
+        <v>358</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="9" t="s">
-        <v>769</v>
+        <v>359</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>105</v>
+        <v>360</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="6"/>
+        <v>361</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>109</v>
+      <c r="A21" s="5" t="s">
+        <v>706</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="9" t="s">
-        <v>769</v>
+        <v>707</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>105</v>
+        <v>708</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>106</v>
+        <v>291</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="3"/>
+        <v>709</v>
+      </c>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>111</v>
+      <c r="A22" s="5" t="s">
+        <v>717</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>112</v>
+        <v>713</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>113</v>
+        <v>718</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>114</v>
+        <v>715</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="4">
-        <v>410.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>116</v>
+        <v>600</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>117</v>
+        <v>758</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>118</v>
+        <v>601</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>119</v>
+        <v>602</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" s="4">
-        <v>410.5</v>
+        <v>603</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>121</v>
+        <v>739</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>122</v>
+        <v>760</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>123</v>
+        <v>740</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>124</v>
+        <v>741</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
+      </c>
+      <c r="I25" s="4">
+        <v>410.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
+      </c>
+      <c r="I26" s="4">
+        <v>410.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>772</v>
+        <v>86</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>137</v>
+        <v>89</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="3">
-        <v>410.452</v>
+        <v>124</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>159</v>
+        <v>170</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>160</v>
+      <c r="A31" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>766</v>
+        <v>560</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>161</v>
+        <v>561</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>162</v>
+        <v>562</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>75</v>
+        <v>563</v>
+      </c>
+      <c r="I31" s="4">
+        <v>410.5</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>164</v>
+      <c r="A32" s="9" t="s">
+        <v>647</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>766</v>
+        <v>648</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>165</v>
+        <v>649</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>162</v>
+        <v>650</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>75</v>
+        <v>651</v>
+      </c>
+      <c r="I32" s="4">
+        <v>410.5</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>167</v>
+        <v>652</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>168</v>
+        <v>653</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>169</v>
+        <v>654</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>170</v>
+        <v>650</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>75</v>
+        <v>655</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>172</v>
+        <v>732</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>173</v>
+        <v>733</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>174</v>
+        <v>734</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>175</v>
+        <v>735</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>177</v>
+        <v>736</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>178</v>
+        <v>414</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>180</v>
+        <v>415</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I35" s="3">
-        <v>410.351</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="I35" s="4">
+        <v>410.35399999999998</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>185</v>
+        <v>425</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>190</v>
+        <v>427</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="I36" s="4">
+        <v>410.35399999999998</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>137</v>
+        <v>233</v>
+      </c>
+      <c r="I37" s="3">
+        <v>410.255</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>204</v>
+        <v>254</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
+        <v>256</v>
+      </c>
+      <c r="I39" s="3">
+        <v>410.25299999999999</v>
+      </c>
     </row>
     <row r="40" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>206</v>
+        <v>408</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>773</v>
+        <v>409</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I40" s="4">
-        <v>410.20100000000002</v>
+        <v>410</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>211</v>
+        <v>431</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>212</v>
+        <v>432</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>213</v>
+        <v>411</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I41" s="3">
-        <v>410.20100000000002</v>
+        <v>433</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>215</v>
+        <v>517</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>216</v>
+        <v>518</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>217</v>
+        <v>519</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>218</v>
+        <v>411</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I42" s="3">
-        <v>410.202</v>
+        <v>520</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>220</v>
+        <v>610</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>18</v>
+        <v>229</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>221</v>
+        <v>611</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>222</v>
+        <v>612</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>223</v>
+        <v>613</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I43" s="3">
-        <v>410.28</v>
+        <v>614</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>225</v>
+        <v>657</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>227</v>
+        <v>658</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>228</v>
+        <v>659</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>229</v>
+        <v>660</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>230</v>
+        <v>661</v>
       </c>
       <c r="I44" s="3">
-        <v>410.55</v>
+        <v>410.25599999999997</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>231</v>
+        <v>743</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>233</v>
+        <v>744</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>234</v>
+        <v>745</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>235</v>
+        <v>746</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>236</v>
+        <v>747</v>
       </c>
       <c r="I45" s="3">
-        <v>410.255</v>
+        <v>410.25599999999997</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>237</v>
+        <v>537</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>239</v>
+        <v>538</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>241</v>
+        <v>539</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="I46" s="3">
-        <v>410.483</v>
+        <v>541</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>243</v>
+        <v>548</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>244</v>
+        <v>549</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>245</v>
+        <v>550</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>246</v>
+        <v>551</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>248</v>
+        <v>552</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>249</v>
+        <v>554</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>250</v>
+        <v>142</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>251</v>
+        <v>555</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>252</v>
+        <v>556</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>253</v>
+        <v>557</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>255</v>
+        <v>558</v>
+      </c>
+      <c r="I48" s="9">
+        <v>410.45100000000002</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>259</v>
+        <v>144</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="I49" s="3">
-        <v>410.25299999999999</v>
+        <v>410.452</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>266</v>
+        <v>151</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>248</v>
+        <v>157</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>70</v>
+        <v>183</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>283</v>
+        <v>334</v>
+      </c>
+      <c r="I53" s="3">
+        <v>410.601</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>284</v>
+        <v>542</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>285</v>
+        <v>543</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>286</v>
+        <v>544</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>287</v>
+        <v>545</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>248</v>
+        <v>546</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>290</v>
+        <v>765</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>292</v>
+        <v>139</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I55" s="3">
-        <v>410.18</v>
+        <v>140</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>294</v>
+        <v>691</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>295</v>
+        <v>692</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>296</v>
+        <v>693</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>297</v>
+        <v>694</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="I56" s="3">
-        <v>410.28</v>
+        <v>695</v>
+      </c>
+      <c r="I56" s="4">
+        <v>410.351</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>299</v>
+        <v>696</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>300</v>
+        <v>697</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>301</v>
+        <v>698</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>302</v>
+        <v>699</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="I57" s="3">
-        <v>410.50400000000002</v>
+        <v>700</v>
+      </c>
+      <c r="I57" s="4">
+        <v>410.351</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>304</v>
+      <c r="A58" s="9" t="s">
+        <v>701</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>305</v>
+        <v>702</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>306</v>
+        <v>703</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>307</v>
+        <v>704</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="I58" s="3">
-        <v>410.50400000000002</v>
+        <v>705</v>
+      </c>
+      <c r="I58" s="4">
+        <v>410.351</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>311</v>
+        <v>13</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I59" s="3">
-        <v>410.50400000000002</v>
+        <v>15</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>314</v>
+        <v>97</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>315</v>
+        <v>98</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>316</v>
+        <v>99</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>317</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I60" s="3">
-        <v>410.25099999999998</v>
+        <v>101</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>319</v>
+        <v>131</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>320</v>
+        <v>132</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>324</v>
+        <v>135</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>327</v>
+        <v>192</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>328</v>
+        <v>193</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="I62" s="4">
-        <v>410.1</v>
+        <v>194</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>331</v>
+        <v>196</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>332</v>
+        <v>197</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>333</v>
+        <v>198</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>334</v>
+        <v>199</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>335</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>336</v>
+        <v>200</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>337</v>
+        <v>201</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>338</v>
+        <v>202</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I64" s="3">
-        <v>410.601</v>
+        <v>204</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>341</v>
+        <v>484</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>342</v>
+        <v>485</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>343</v>
+        <v>486</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>344</v>
+        <v>487</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I65" s="3">
-        <v>410.20100000000002</v>
+        <v>488</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
-        <v>346</v>
+      <c r="A66" s="3" t="s">
+        <v>489</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>352</v>
+        <v>11</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>353</v>
+        <v>495</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>354</v>
+        <v>496</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>355</v>
+        <v>497</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>356</v>
+        <v>498</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="I67" s="3">
-        <v>410.50200000000001</v>
+        <v>499</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>358</v>
+        <v>575</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>359</v>
+        <v>576</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>360</v>
+        <v>577</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>361</v>
+        <v>578</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>362</v>
+        <v>579</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>363</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
-        <v>364</v>
+      <c r="A69" s="9" t="s">
+        <v>626</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>255</v>
+        <v>11</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>368</v>
+        <v>723</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>365</v>
+        <v>724</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>366</v>
+        <v>725</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>253</v>
+        <v>726</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>369</v>
+        <v>727</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>255</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>53</v>
+        <v>205</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>371</v>
+        <v>766</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>375</v>
+        <v>206</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I71" s="4">
+        <v>410.20100000000002</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>53</v>
+        <v>177</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>377</v>
+        <v>179</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>378</v>
+        <v>180</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>379</v>
+        <v>181</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>375</v>
+        <v>182</v>
+      </c>
+      <c r="I72" s="3">
+        <v>410.351</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>381</v>
+        <v>209</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>382</v>
+        <v>210</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>383</v>
+        <v>211</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>384</v>
+        <v>212</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="I73" s="4">
-        <v>410.35300000000001</v>
+        <v>213</v>
+      </c>
+      <c r="I73" s="9">
+        <v>410.20100000000002</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>387</v>
+        <v>178</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>392</v>
+        <v>339</v>
+      </c>
+      <c r="I74" s="3">
+        <v>410.20100000000002</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>393</v>
+        <v>526</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>768</v>
+        <v>527</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="I75" s="3">
-        <v>410.55</v>
+        <v>528</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>397</v>
+        <v>532</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>399</v>
+        <v>533</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>400</v>
+        <v>534</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="I76" s="4" t="s">
-        <v>403</v>
+        <v>536</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>404</v>
+        <v>631</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>398</v>
+        <v>52</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>405</v>
+        <v>632</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>406</v>
+        <v>633</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>407</v>
+        <v>634</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>408</v>
+        <v>635</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>403</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>409</v>
+        <v>637</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>410</v>
+        <v>638</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>411</v>
+        <v>639</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>412</v>
+        <v>640</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I78" s="4">
-        <v>410.48200000000003</v>
+        <v>641</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>414</v>
+        <v>642</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>415</v>
+        <v>643</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>416</v>
+        <v>644</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>417</v>
+        <v>645</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>419</v>
+        <v>646</v>
+      </c>
+      <c r="I79" s="3">
+        <v>410.202</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="I80" s="4">
-        <v>410.35399999999998</v>
+        <v>469</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>425</v>
+        <v>570</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>426</v>
+        <v>571</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>427</v>
+        <v>572</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>428</v>
+        <v>573</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>430</v>
+        <v>574</v>
+      </c>
+      <c r="I81" s="4">
+        <v>410.1</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>433</v>
+        <v>321</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>434</v>
+        <v>322</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>435</v>
+        <v>323</v>
       </c>
       <c r="I82" s="4">
-        <v>410.35399999999998</v>
+        <v>410.1</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>436</v>
+        <v>324</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>437</v>
+        <v>325</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>417</v>
+        <v>327</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>439</v>
+        <v>328</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>419</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>403</v>
+        <v>459</v>
+      </c>
+      <c r="I84" s="9">
+        <v>410.25099999999998</v>
       </c>
     </row>
     <row r="85" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>445</v>
+        <v>38</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>446</v>
+        <v>40</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>447</v>
+        <v>41</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>448</v>
+        <v>42</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>450</v>
+        <v>43</v>
+      </c>
+      <c r="I85" s="9">
+        <v>410.351</v>
       </c>
     </row>
     <row r="86" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>451</v>
+        <v>748</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>452</v>
+        <v>70</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>454</v>
+        <v>72</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="I86" s="3">
-        <v>410.19</v>
+        <v>83</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>456</v>
+        <v>293</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>457</v>
+        <v>294</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>458</v>
+        <v>295</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>459</v>
+        <v>296</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>403</v>
+        <v>297</v>
+      </c>
+      <c r="I87" s="9">
+        <v>410.50400000000002</v>
       </c>
     </row>
     <row r="88" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>461</v>
+        <v>298</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>462</v>
+        <v>299</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>463</v>
+        <v>300</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>464</v>
+        <v>301</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>465</v>
+        <v>302</v>
       </c>
       <c r="I88" s="3">
-        <v>410.25099999999998</v>
+        <v>410.50400000000002</v>
       </c>
     </row>
     <row r="89" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>466</v>
+        <v>303</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>467</v>
+        <v>304</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>468</v>
+        <v>305</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>469</v>
+        <v>306</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="I89" s="4">
-        <v>410.25200000000001</v>
+        <v>307</v>
+      </c>
+      <c r="I89" s="9">
+        <v>410.50400000000002</v>
       </c>
     </row>
     <row r="90" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>471</v>
+        <v>308</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>472</v>
+        <v>309</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>473</v>
+        <v>310</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>474</v>
+        <v>311</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>476</v>
+        <v>312</v>
+      </c>
+      <c r="I90" s="9">
+        <v>410.25099999999998</v>
       </c>
     </row>
     <row r="91" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>477</v>
+        <v>313</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>478</v>
+        <v>314</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>479</v>
+        <v>315</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>480</v>
+        <v>316</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>403</v>
+        <v>317</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>482</v>
+        <v>616</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>483</v>
+        <v>617</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>484</v>
+        <v>618</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>485</v>
+        <v>619</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>403</v>
+        <v>620</v>
+      </c>
+      <c r="I92" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>487</v>
+        <v>621</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>387</v>
+        <v>39</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>483</v>
+        <v>622</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>488</v>
+        <v>623</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>485</v>
+        <v>624</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>403</v>
+        <v>625</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>490</v>
+        <v>712</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>491</v>
+        <v>713</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>492</v>
+        <v>714</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>493</v>
+        <v>715</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>103</v>
+        <v>716</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>495</v>
+        <v>737</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>496</v>
+        <v>707</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>497</v>
+        <v>708</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>498</v>
+        <v>291</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>500</v>
-      </c>
+        <v>738</v>
+      </c>
+      <c r="I95" s="6"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -7591,1466 +7588,1466 @@
     </row>
     <row r="96" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>501</v>
+        <v>352</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>502</v>
+        <v>353</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>503</v>
+        <v>354</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>504</v>
+        <v>355</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="3"/>
-      <c r="T96" s="3"/>
-      <c r="U96" s="3"/>
-      <c r="V96" s="3"/>
-      <c r="W96" s="3"/>
-      <c r="X96" s="3"/>
-      <c r="Y96" s="3"/>
-      <c r="Z96" s="3"/>
-      <c r="AA96" s="3"/>
-      <c r="AB96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>507</v>
+        <v>356</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="I97" s="4">
-        <v>410.48200000000003</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+    </row>
+    <row r="98" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>512</v>
+        <v>347</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>92</v>
+        <v>341</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>513</v>
+        <v>348</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>514</v>
+        <v>349</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>515</v>
+        <v>350</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="I98" s="9">
+        <v>410.50200000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>518</v>
+        <v>662</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>398</v>
+        <v>10</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>519</v>
+        <v>663</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>520</v>
+        <v>664</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>521</v>
+        <v>665</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>523</v>
+        <v>240</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>524</v>
+        <v>241</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>525</v>
+        <v>242</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>417</v>
+        <v>243</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>527</v>
+        <v>263</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>528</v>
+        <v>264</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>529</v>
+        <v>265</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>530</v>
+        <v>266</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="I101" s="4">
-        <v>410.18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>532</v>
+        <v>278</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>533</v>
+        <v>279</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>534</v>
+        <v>280</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>535</v>
+        <v>281</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>538</v>
+        <v>234</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>539</v>
+        <v>236</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>540</v>
+        <v>237</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>541</v>
+        <v>238</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="I103" s="9">
+        <v>410.483</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>543</v>
+        <v>391</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>544</v>
+        <v>393</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>545</v>
+        <v>394</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>546</v>
+        <v>395</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>548</v>
+        <v>398</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>549</v>
+        <v>399</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>551</v>
+        <v>401</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>554</v>
+        <v>434</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>555</v>
+        <v>435</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>556</v>
+        <v>436</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>557</v>
+        <v>437</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>561</v>
+        <v>451</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>562</v>
+        <v>452</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>563</v>
+        <v>453</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="I107" s="3">
-        <v>410.45100000000002</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>565</v>
+        <v>471</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>566</v>
+        <v>472</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>567</v>
+        <v>473</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>568</v>
+        <v>474</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="I108" s="4">
-        <v>410.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>570</v>
+        <v>476</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>571</v>
+        <v>477</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>572</v>
+        <v>478</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>573</v>
+        <v>479</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>46</v>
+        <v>392</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>577</v>
+        <v>513</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>579</v>
+        <v>515</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="I110" s="4">
-        <v>410.1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>581</v>
+        <v>107</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>582</v>
+        <v>762</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>583</v>
+        <v>104</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>584</v>
+        <v>105</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>586</v>
+        <v>75</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>587</v>
+        <v>70</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>588</v>
+        <v>77</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>589</v>
+        <v>72</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="I112" s="3">
-        <v>410.35</v>
+        <v>78</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>591</v>
+        <v>163</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>592</v>
+        <v>759</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>593</v>
+        <v>164</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>594</v>
+        <v>161</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>595</v>
+        <v>165</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>596</v>
+        <v>273</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>597</v>
+        <v>274</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>598</v>
+        <v>275</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>599</v>
+        <v>770</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>600</v>
+        <v>276</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>601</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>602</v>
+        <v>362</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>770</v>
+        <v>359</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="I115" s="3">
-        <v>410.55</v>
+        <v>360</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>756</v>
+        <v>710</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>764</v>
+        <v>707</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>760</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="I116" s="9">
-        <v>410.55</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>757</v>
+        <v>720</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
-        <v>771</v>
+        <v>713</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>761</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="I117" s="9">
-        <v>410.55</v>
+        <v>721</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>86</v>
+        <v>381</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>765</v>
+        <v>591</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>75</v>
+        <v>594</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>610</v>
+        <v>380</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>18</v>
+        <v>381</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>611</v>
+        <v>382</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>612</v>
+        <v>383</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>613</v>
+        <v>384</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="10"/>
-      <c r="O119" s="10"/>
-      <c r="P119" s="10"/>
-      <c r="Q119" s="10"/>
-      <c r="R119" s="10"/>
-      <c r="S119" s="10"/>
-      <c r="T119" s="10"/>
-      <c r="U119" s="10"/>
-      <c r="V119" s="10"/>
-      <c r="W119" s="10"/>
-      <c r="X119" s="10"/>
-      <c r="Y119" s="10"/>
-      <c r="Z119" s="10"/>
-      <c r="AA119" s="10"/>
-      <c r="AB119" s="10"/>
-      <c r="AC119" s="10"/>
+        <v>385</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="120" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>616</v>
+        <v>481</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>232</v>
+        <v>381</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>617</v>
+        <v>477</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>618</v>
+        <v>482</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>619</v>
+        <v>479</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>620</v>
+        <v>483</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>621</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="10"/>
+      <c r="U120" s="10"/>
+      <c r="V120" s="10"/>
+      <c r="W120" s="10"/>
+      <c r="X120" s="10"/>
+      <c r="Y120" s="10"/>
+      <c r="Z120" s="10"/>
+      <c r="AA120" s="10"/>
+      <c r="AB120" s="10"/>
+      <c r="AC120" s="10"/>
     </row>
     <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>622</v>
+        <v>585</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>623</v>
+        <v>586</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>624</v>
+        <v>587</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>625</v>
+        <v>588</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="I121" s="3" t="s">
-        <v>335</v>
+        <v>589</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>627</v>
+        <v>223</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>628</v>
+        <v>771</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>629</v>
+        <v>225</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>630</v>
+        <v>226</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>335</v>
+        <v>227</v>
+      </c>
+      <c r="I122" s="3">
+        <v>410.55</v>
       </c>
     </row>
     <row r="123" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>632</v>
+        <v>387</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>633</v>
+        <v>761</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>137</v>
+        <v>388</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I123" s="9">
+        <v>410.55</v>
       </c>
     </row>
     <row r="124" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>638</v>
+        <v>763</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="I124" s="4" t="s">
-        <v>642</v>
+        <v>597</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="I124" s="9">
+        <v>410.55</v>
       </c>
     </row>
     <row r="125" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>643</v>
+        <v>749</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>644</v>
+        <v>757</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="I125" s="4" t="s">
-        <v>642</v>
+        <v>751</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="I125" s="9">
+        <v>410.55</v>
       </c>
     </row>
     <row r="126" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>648</v>
+        <v>750</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>649</v>
+        <v>764</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>652</v>
+        <v>752</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>756</v>
       </c>
       <c r="I126" s="3">
-        <v>410.202</v>
+        <v>410.55</v>
       </c>
     </row>
     <row r="127" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>653</v>
+        <v>90</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>654</v>
+        <v>92</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>655</v>
+        <v>93</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>656</v>
+        <v>94</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="I127" s="4">
-        <v>410.5</v>
+        <v>95</v>
+      </c>
+      <c r="I127" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>658</v>
+        <v>171</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>659</v>
+        <v>172</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>660</v>
+        <v>173</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>656</v>
+        <v>174</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>661</v>
+        <v>175</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>662</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>663</v>
+        <v>564</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>664</v>
+        <v>565</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>665</v>
+        <v>566</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>666</v>
+        <v>567</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="I129" s="3">
-        <v>410.25599999999997</v>
+        <v>568</v>
+      </c>
+      <c r="I129" s="9" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>10</v>
+        <v>364</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>238</v>
+        <v>91</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>669</v>
+        <v>365</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>670</v>
+        <v>366</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>671</v>
+        <v>367</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>672</v>
+        <v>368</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>673</v>
+        <v>369</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>10</v>
+        <v>370</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>675</v>
+        <v>371</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>676</v>
+        <v>372</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>677</v>
+        <v>373</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>678</v>
+        <v>374</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>679</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>680</v>
+        <v>375</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>681</v>
+        <v>376</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>682</v>
+        <v>377</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>683</v>
+        <v>378</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>685</v>
+        <v>379</v>
+      </c>
+      <c r="I132" s="4">
+        <v>410.35300000000001</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>686</v>
+        <v>403</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>687</v>
+        <v>404</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>688</v>
+        <v>405</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>689</v>
+        <v>406</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>691</v>
+        <v>407</v>
+      </c>
+      <c r="I133" s="4">
+        <v>410.48200000000003</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>692</v>
+        <v>419</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>693</v>
+        <v>420</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>694</v>
+        <v>421</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>695</v>
+        <v>422</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>696</v>
+        <v>423</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>697</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>698</v>
+        <v>501</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>699</v>
+        <v>502</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>700</v>
+        <v>503</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>701</v>
+        <v>504</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>702</v>
+        <v>505</v>
       </c>
       <c r="I135" s="4">
-        <v>410.351</v>
+        <v>410.48200000000003</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>703</v>
+        <v>506</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>704</v>
+        <v>507</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>705</v>
+        <v>508</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>706</v>
+        <v>509</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="I136" s="4">
-        <v>410.351</v>
+        <v>510</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>708</v>
+        <v>246</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>709</v>
+        <v>247</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>710</v>
+        <v>248</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>711</v>
+        <v>249</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="I137" s="4">
-        <v>410.351</v>
+        <v>250</v>
+      </c>
+      <c r="I137" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
-        <v>713</v>
+      <c r="A138" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>714</v>
+        <v>289</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>715</v>
+        <v>290</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="I138" s="6"/>
+        <v>292</v>
+      </c>
+      <c r="I138" s="9">
+        <v>410.28</v>
+      </c>
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>297</v>
+        <v>524</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="I139" s="6"/>
+        <v>731</v>
+      </c>
+      <c r="I139" s="3">
+        <v>410.18</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>719</v>
+        <v>521</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>720</v>
+        <v>522</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>721</v>
+        <v>523</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>722</v>
+        <v>524</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="I140" s="6" t="s">
-        <v>75</v>
+        <v>525</v>
+      </c>
+      <c r="I140" s="4">
+        <v>410.18</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
-        <v>724</v>
+      <c r="A141" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>725</v>
+        <v>104</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>722</v>
+        <v>105</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="I141" s="6" t="s">
-        <v>75</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="I141" s="9"/>
     </row>
     <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>727</v>
+        <v>445</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>720</v>
+        <v>446</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>728</v>
+        <v>447</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>722</v>
+        <v>448</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="I142" s="6" t="s">
-        <v>75</v>
+        <v>449</v>
+      </c>
+      <c r="I142" s="3">
+        <v>410.19</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>730</v>
+        <v>580</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>731</v>
+        <v>581</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>732</v>
+        <v>582</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>733</v>
+        <v>583</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>137</v>
+        <v>584</v>
+      </c>
+      <c r="I143" s="3">
+        <v>410.35</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>735</v>
+        <v>214</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3" t="s">
-        <v>736</v>
+        <v>215</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>737</v>
+        <v>216</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>530</v>
+        <v>217</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="I144" s="3">
-        <v>410.18</v>
+        <v>218</v>
+      </c>
+      <c r="I144" s="9">
+        <v>410.202</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3" t="s">
-        <v>739</v>
+      <c r="A145" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3" t="s">
-        <v>740</v>
+        <v>284</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>741</v>
+        <v>285</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>742</v>
+        <v>286</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>126</v>
+        <v>287</v>
+      </c>
+      <c r="I145" s="9">
+        <v>410.18</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>744</v>
+        <v>439</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3" t="s">
-        <v>714</v>
+        <v>440</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>715</v>
+        <v>441</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>297</v>
+        <v>442</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="I146" s="6"/>
+        <v>443</v>
+      </c>
+      <c r="I146" s="4" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="147" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>746</v>
+        <v>668</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>747</v>
+        <v>669</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>748</v>
+        <v>670</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>126</v>
+        <v>671</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>750</v>
+        <v>673</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>232</v>
+        <v>109</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
-        <v>751</v>
+        <v>674</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>752</v>
+        <v>675</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>753</v>
+        <v>676</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="I148" s="3">
-        <v>410.25599999999997</v>
+        <v>677</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -11291,7 +11288,11 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:I148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I148" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState ref="A2:I148">
+      <sortCondition ref="C1:C148"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA3C3B9-647B-4003-9807-DA5ADBD3EE79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1A0F33-A0E8-4CB0-9679-961C4012081B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21312" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="774">
   <si>
     <t>ID</t>
   </si>
@@ -4647,6 +4647,9 @@
   </si>
   <si>
     <t>Tenant is being directly billed for water but there are no submeters or other steps required by law</t>
+  </si>
+  <si>
+    <t>410.280</t>
   </si>
 </sst>
 </file>
@@ -4949,11 +4952,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5018,7 +5022,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -5068,9 +5072,11 @@
       <c r="H3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="9">
+        <v>410.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -5097,7 +5103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
@@ -5124,7 +5130,7 @@
         <v>410.3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -5151,7 +5157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -5205,7 +5211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -5232,7 +5238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>79</v>
       </c>
@@ -5259,7 +5265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>219</v>
       </c>
@@ -5286,7 +5292,7 @@
         <v>410.28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>460</v>
       </c>
@@ -5313,7 +5319,7 @@
         <v>410.25200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>604</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>679</v>
       </c>
@@ -5367,7 +5373,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>685</v>
       </c>
@@ -5394,7 +5400,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -5444,9 +5450,11 @@
       <c r="H17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
@@ -5473,7 +5481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>268</v>
       </c>
@@ -5500,7 +5508,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>358</v>
       </c>
@@ -5550,9 +5558,11 @@
       <c r="H21" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>717</v>
       </c>
@@ -5579,7 +5589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>600</v>
       </c>
@@ -5606,7 +5616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>739</v>
       </c>
@@ -5633,7 +5643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
@@ -5660,7 +5670,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>115</v>
       </c>
@@ -5687,7 +5697,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
@@ -5714,7 +5724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>120</v>
       </c>
@@ -5741,7 +5751,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -5768,7 +5778,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>166</v>
       </c>
@@ -5795,7 +5805,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>559</v>
       </c>
@@ -5822,7 +5832,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>647</v>
       </c>
@@ -5849,7 +5859,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>652</v>
       </c>
@@ -5876,7 +5886,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>732</v>
       </c>
@@ -5903,7 +5913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>414</v>
       </c>
@@ -5949,7 +5959,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>425</v>
       </c>
@@ -5976,7 +5986,7 @@
         <v>410.35399999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>228</v>
       </c>
@@ -6003,7 +6013,7 @@
         <v>410.255</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>257</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>252</v>
       </c>
@@ -6057,7 +6067,7 @@
         <v>410.25299999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>408</v>
       </c>
@@ -6084,7 +6094,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>430</v>
       </c>
@@ -6111,7 +6121,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>517</v>
       </c>
@@ -6138,7 +6148,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>610</v>
       </c>
@@ -6165,7 +6175,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>657</v>
       </c>
@@ -6192,7 +6202,7 @@
         <v>410.25599999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>743</v>
       </c>
@@ -6219,7 +6229,7 @@
         <v>410.25599999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>537</v>
       </c>
@@ -6246,7 +6256,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>548</v>
       </c>
@@ -6273,7 +6283,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>554</v>
       </c>
@@ -6300,7 +6310,7 @@
         <v>410.45100000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>141</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>410.452</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
@@ -6354,7 +6364,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>153</v>
       </c>
@@ -6381,7 +6391,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>183</v>
       </c>
@@ -6408,7 +6418,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>330</v>
       </c>
@@ -6435,7 +6445,7 @@
         <v>410.601</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>542</v>
       </c>
@@ -6462,7 +6472,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>137</v>
       </c>
@@ -6489,7 +6499,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>691</v>
       </c>
@@ -6516,7 +6526,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>696</v>
       </c>
@@ -6543,7 +6553,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>701</v>
       </c>
@@ -6570,7 +6580,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
@@ -6597,7 +6607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>97</v>
       </c>
@@ -6624,7 +6634,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>131</v>
       </c>
@@ -6651,7 +6661,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>190</v>
       </c>
@@ -6678,7 +6688,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>195</v>
       </c>
@@ -6705,7 +6715,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>200</v>
       </c>
@@ -6732,7 +6742,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>484</v>
       </c>
@@ -6759,7 +6769,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>489</v>
       </c>
@@ -6786,7 +6796,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>495</v>
       </c>
@@ -6813,7 +6823,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>575</v>
       </c>
@@ -6840,7 +6850,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>626</v>
       </c>
@@ -6867,7 +6877,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>723</v>
       </c>
@@ -6894,7 +6904,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>205</v>
       </c>
@@ -6921,7 +6931,7 @@
         <v>410.20100000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>177</v>
       </c>
@@ -6948,7 +6958,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>209</v>
       </c>
@@ -6975,7 +6985,7 @@
         <v>410.20100000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>335</v>
       </c>
@@ -7002,7 +7012,7 @@
         <v>410.20100000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>526</v>
       </c>
@@ -7029,7 +7039,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>532</v>
       </c>
@@ -7056,7 +7066,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>631</v>
       </c>
@@ -7083,7 +7093,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>637</v>
       </c>
@@ -7110,7 +7120,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>642</v>
       </c>
@@ -7137,7 +7147,7 @@
         <v>410.202</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>465</v>
       </c>
@@ -7164,7 +7174,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>570</v>
       </c>
@@ -7191,7 +7201,7 @@
         <v>410.1</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>319</v>
       </c>
@@ -7218,7 +7228,7 @@
         <v>410.1</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>324</v>
       </c>
@@ -7245,7 +7255,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>455</v>
       </c>
@@ -7272,7 +7282,7 @@
         <v>410.25099999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>38</v>
       </c>
@@ -7299,7 +7309,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>748</v>
       </c>
@@ -7326,7 +7336,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>293</v>
       </c>
@@ -7353,7 +7363,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>298</v>
       </c>
@@ -7380,7 +7390,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>303</v>
       </c>
@@ -7407,7 +7417,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>308</v>
       </c>
@@ -7434,7 +7444,7 @@
         <v>410.25099999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>313</v>
       </c>
@@ -7461,7 +7471,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>616</v>
       </c>
@@ -7488,7 +7498,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>621</v>
       </c>
@@ -7515,7 +7525,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>712</v>
       </c>
@@ -7565,7 +7575,9 @@
       <c r="H95" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="I95" s="6"/>
+      <c r="I95" s="6" t="s">
+        <v>773</v>
+      </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -7586,7 +7598,7 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
     </row>
-    <row r="96" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>352</v>
       </c>
@@ -7613,7 +7625,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>340</v>
       </c>
@@ -7659,7 +7671,7 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>347</v>
       </c>
@@ -7686,7 +7698,7 @@
         <v>410.50200000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>662</v>
       </c>
@@ -7713,7 +7725,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>240</v>
       </c>
@@ -7740,7 +7752,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>263</v>
       </c>
@@ -7767,7 +7779,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>278</v>
       </c>
@@ -7794,7 +7806,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>234</v>
       </c>
@@ -7821,7 +7833,7 @@
         <v>410.483</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>391</v>
       </c>
@@ -7848,7 +7860,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>398</v>
       </c>
@@ -7875,7 +7887,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>434</v>
       </c>
@@ -7902,7 +7914,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>450</v>
       </c>
@@ -7929,7 +7941,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>471</v>
       </c>
@@ -7956,7 +7968,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>476</v>
       </c>
@@ -7983,7 +7995,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>512</v>
       </c>
@@ -8033,9 +8045,11 @@
       <c r="H111" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I111" s="6"/>
-    </row>
-    <row r="112" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I111" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>75</v>
       </c>
@@ -8062,7 +8076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>163</v>
       </c>
@@ -8089,7 +8103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>273</v>
       </c>
@@ -8116,7 +8130,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>362</v>
       </c>
@@ -8166,9 +8180,11 @@
       <c r="H116" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="I116" s="6"/>
-    </row>
-    <row r="117" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I116" s="6" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>720</v>
       </c>
@@ -8195,7 +8211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>590</v>
       </c>
@@ -8222,7 +8238,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>380</v>
       </c>
@@ -8249,7 +8265,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>481</v>
       </c>
@@ -8296,7 +8312,7 @@
       <c r="AB120" s="10"/>
       <c r="AC120" s="10"/>
     </row>
-    <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>585</v>
       </c>
@@ -8323,7 +8339,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>223</v>
       </c>
@@ -8350,7 +8366,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>387</v>
       </c>
@@ -8377,7 +8393,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>596</v>
       </c>
@@ -8404,7 +8420,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>749</v>
       </c>
@@ -8431,7 +8447,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>750</v>
       </c>
@@ -8458,7 +8474,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>90</v>
       </c>
@@ -8485,7 +8501,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>171</v>
       </c>
@@ -8512,7 +8528,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>564</v>
       </c>
@@ -8539,7 +8555,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>364</v>
       </c>
@@ -8566,7 +8582,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>370</v>
       </c>
@@ -8593,7 +8609,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>375</v>
       </c>
@@ -8620,7 +8636,7 @@
         <v>410.35300000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>403</v>
       </c>
@@ -8647,7 +8663,7 @@
         <v>410.48200000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>419</v>
       </c>
@@ -8674,7 +8690,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>501</v>
       </c>
@@ -8701,7 +8717,7 @@
         <v>410.48200000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>506</v>
       </c>
@@ -8728,7 +8744,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>246</v>
       </c>
@@ -8755,7 +8771,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>288</v>
       </c>
@@ -8782,7 +8798,7 @@
         <v>410.28</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>728</v>
       </c>
@@ -8809,7 +8825,7 @@
         <v>410.18</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>521</v>
       </c>
@@ -8859,9 +8875,11 @@
       <c r="H141" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I141" s="9"/>
-    </row>
-    <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I141" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>445</v>
       </c>
@@ -8888,7 +8906,7 @@
         <v>410.19</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>580</v>
       </c>
@@ -8915,7 +8933,7 @@
         <v>410.35</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>214</v>
       </c>
@@ -8942,7 +8960,7 @@
         <v>410.202</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>283</v>
       </c>
@@ -8969,7 +8987,7 @@
         <v>410.18</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>439</v>
       </c>
@@ -8996,7 +9014,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>668</v>
       </c>
@@ -9023,7 +9041,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>673</v>
       </c>
@@ -11289,12 +11307,15 @@
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:I148" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState ref="A2:I148">
       <sortCondition ref="C1:C148"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1A0F33-A0E8-4CB0-9679-961C4012081B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C0EBFC-8E43-4813-AE05-FDDE26C71B2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21312" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4952,7 +4952,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5022,7 +5021,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>410.15</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>410.3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -5238,7 +5237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>79</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>219</v>
       </c>
@@ -5292,7 +5291,7 @@
         <v>410.28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>460</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>410.25200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>604</v>
       </c>
@@ -5346,7 +5345,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>679</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>685</v>
       </c>
@@ -5400,7 +5399,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>268</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>358</v>
       </c>
@@ -5562,7 +5561,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>717</v>
       </c>
@@ -5589,7 +5588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>600</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>739</v>
       </c>
@@ -5643,7 +5642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>115</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>120</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>166</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>559</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>647</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>652</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>732</v>
       </c>
@@ -5913,7 +5912,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>414</v>
       </c>
@@ -5959,7 +5958,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>425</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>410.35399999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>228</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>410.255</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>257</v>
       </c>
@@ -6040,7 +6039,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>252</v>
       </c>
@@ -6067,7 +6066,7 @@
         <v>410.25299999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>408</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>430</v>
       </c>
@@ -6121,7 +6120,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>517</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>610</v>
       </c>
@@ -6175,7 +6174,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>657</v>
       </c>
@@ -6202,7 +6201,7 @@
         <v>410.25599999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>743</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>410.25599999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>537</v>
       </c>
@@ -6256,7 +6255,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>548</v>
       </c>
@@ -6283,7 +6282,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>554</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>410.45100000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>141</v>
       </c>
@@ -6337,7 +6336,7 @@
         <v>410.452</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>153</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>183</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>330</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>410.601</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>542</v>
       </c>
@@ -6472,7 +6471,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>137</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>691</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>696</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>701</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>97</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>131</v>
       </c>
@@ -6661,7 +6660,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>190</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>195</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>200</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>484</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>489</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>495</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>575</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>626</v>
       </c>
@@ -6877,7 +6876,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>723</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>205</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>410.20100000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>177</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>209</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>410.20100000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>335</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>410.20100000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>526</v>
       </c>
@@ -7039,7 +7038,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>532</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>631</v>
       </c>
@@ -7093,7 +7092,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>637</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>642</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>410.202</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>465</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>570</v>
       </c>
@@ -7201,7 +7200,7 @@
         <v>410.1</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>319</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>410.1</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>324</v>
       </c>
@@ -7255,7 +7254,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>455</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>410.25099999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>38</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>748</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>293</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>298</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>303</v>
       </c>
@@ -7417,7 +7416,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>308</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>410.25099999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>313</v>
       </c>
@@ -7471,7 +7470,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>616</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>621</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>712</v>
       </c>
@@ -7598,7 +7597,7 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
     </row>
-    <row r="96" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>352</v>
       </c>
@@ -7625,7 +7624,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>340</v>
       </c>
@@ -7671,7 +7670,7 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>347</v>
       </c>
@@ -7698,7 +7697,7 @@
         <v>410.50200000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>662</v>
       </c>
@@ -7725,7 +7724,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>240</v>
       </c>
@@ -7752,7 +7751,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>263</v>
       </c>
@@ -7779,7 +7778,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>278</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>234</v>
       </c>
@@ -7833,7 +7832,7 @@
         <v>410.483</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>391</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>398</v>
       </c>
@@ -7887,7 +7886,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>434</v>
       </c>
@@ -7914,7 +7913,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>450</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>471</v>
       </c>
@@ -7968,7 +7967,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>476</v>
       </c>
@@ -7995,7 +7994,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>512</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>75</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>163</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>273</v>
       </c>
@@ -8130,7 +8129,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>362</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>720</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>590</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>380</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>481</v>
       </c>
@@ -8312,7 +8311,7 @@
       <c r="AB120" s="10"/>
       <c r="AC120" s="10"/>
     </row>
-    <row r="121" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>585</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>223</v>
       </c>
@@ -8366,7 +8365,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>387</v>
       </c>
@@ -8393,7 +8392,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>596</v>
       </c>
@@ -8420,7 +8419,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>749</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>750</v>
       </c>
@@ -8474,7 +8473,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>90</v>
       </c>
@@ -8501,7 +8500,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>171</v>
       </c>
@@ -8528,7 +8527,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>564</v>
       </c>
@@ -8555,7 +8554,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>364</v>
       </c>
@@ -8582,7 +8581,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>370</v>
       </c>
@@ -8609,7 +8608,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>375</v>
       </c>
@@ -8636,7 +8635,7 @@
         <v>410.35300000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>403</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>410.48200000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>419</v>
       </c>
@@ -8690,7 +8689,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>501</v>
       </c>
@@ -8717,7 +8716,7 @@
         <v>410.48200000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>506</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>246</v>
       </c>
@@ -8771,7 +8770,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>288</v>
       </c>
@@ -8798,7 +8797,7 @@
         <v>410.28</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>728</v>
       </c>
@@ -8825,7 +8824,7 @@
         <v>410.18</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>521</v>
       </c>
@@ -8879,7 +8878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>445</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>410.19</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>580</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>410.35</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>214</v>
       </c>
@@ -8960,7 +8959,7 @@
         <v>410.202</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>283</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>410.18</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>439</v>
       </c>
@@ -9014,7 +9013,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>668</v>
       </c>
@@ -9041,7 +9040,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>673</v>
       </c>
@@ -11307,9 +11306,6 @@
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:I148" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters blank="1"/>
-    </filterColumn>
     <sortState ref="A2:I148">
       <sortCondition ref="C1:C148"/>
     </sortState>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C0EBFC-8E43-4813-AE05-FDDE26C71B2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66714EF5-D5FF-4A75-9BA2-6D1C5F49C631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21312" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2834,9 +2834,6 @@
     <t>no_oven</t>
   </si>
   <si>
-    <t>No working oven or stove</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3467,9 +3464,6 @@
   </si>
   <si>
     <t>oven_broken</t>
-  </si>
-  <si>
-    <t>Stove or oven is not working</t>
   </si>
   <si>
     <r>
@@ -4650,6 +4644,12 @@
   </si>
   <si>
     <t>410.280</t>
+  </si>
+  <si>
+    <t>No oven or stove</t>
+  </si>
+  <si>
+    <t>Stove or oven is broken</t>
   </si>
 </sst>
 </file>
@@ -4955,8 +4955,8 @@
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>34</v>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>220</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -5330,24 +5330,24 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" s="9" t="s">
         <v>607</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
@@ -5357,24 +5357,24 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="9" t="s">
         <v>682</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
@@ -5384,19 +5384,19 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="9" t="s">
         <v>688</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>104</v>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>160</v>
@@ -5498,7 +5498,7 @@
         <v>270</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>271</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
@@ -5546,24 +5546,24 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>291</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>10</v>
@@ -5573,16 +5573,16 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>715</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>74</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
@@ -5600,16 +5600,16 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>601</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>74</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
@@ -5627,16 +5627,16 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>125</v>
@@ -5806,7 +5806,7 @@
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>52</v>
@@ -5816,16 +5816,16 @@
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="I31" s="4">
         <v>410.5</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
@@ -5843,16 +5843,16 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>651</v>
       </c>
       <c r="I32" s="4">
         <v>410.5</v>
@@ -5860,7 +5860,7 @@
     </row>
     <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>10</v>
@@ -5870,24 +5870,24 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="I33" s="9" t="s">
         <v>654</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>10</v>
@@ -5897,16 +5897,16 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>125</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>10</v>
@@ -6132,16 +6132,16 @@
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>519</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>411</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>413</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>52</v>
@@ -6159,24 +6159,24 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="I43" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>10</v>
@@ -6186,16 +6186,16 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="G44" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>661</v>
       </c>
       <c r="I44" s="3">
         <v>410.25599999999997</v>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>10</v>
@@ -6213,16 +6213,16 @@
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>747</v>
       </c>
       <c r="I45" s="3">
         <v>410.25599999999997</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>10</v>
@@ -6240,16 +6240,16 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="G46" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="H46" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>158</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>52</v>
@@ -6267,24 +6267,24 @@
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>10</v>
@@ -6294,16 +6294,16 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>558</v>
       </c>
       <c r="I48" s="9">
         <v>410.45100000000002</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>10</v>
@@ -6456,19 +6456,19 @@
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="9" t="s">
         <v>546</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>138</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>52</v>
@@ -6510,16 +6510,16 @@
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>693</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>695</v>
       </c>
       <c r="I56" s="4">
         <v>410.351</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>52</v>
@@ -6537,16 +6537,16 @@
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="I57" s="4">
         <v>410.351</v>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>52</v>
@@ -6564,16 +6564,16 @@
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>705</v>
       </c>
       <c r="I58" s="4">
         <v>410.351</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>10</v>
@@ -6753,16 +6753,16 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>102</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>10</v>
@@ -6780,24 +6780,24 @@
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>10</v>
@@ -6807,24 +6807,24 @@
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="H67" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>10</v>
@@ -6834,16 +6834,16 @@
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>579</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>136</v>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>10</v>
@@ -6861,16 +6861,16 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="G69" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="H69" s="9" t="s">
         <v>628</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>630</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>136</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>10</v>
@@ -6888,16 +6888,16 @@
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="H70" s="3" t="s">
         <v>725</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>727</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>136</v>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>206</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>10</v>
@@ -7023,24 +7023,24 @@
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="G75" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="I75" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>10</v>
@@ -7050,24 +7050,24 @@
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>536</v>
-      </c>
       <c r="I76" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>52</v>
@@ -7077,24 +7077,24 @@
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="H77" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="I77" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="I77" s="4" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>52</v>
@@ -7104,24 +7104,24 @@
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>641</v>
-      </c>
       <c r="I78" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>10</v>
@@ -7131,16 +7131,16 @@
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="I79" s="3">
         <v>410.202</v>
@@ -7158,24 +7158,24 @@
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>45</v>
@@ -7185,16 +7185,16 @@
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="I81" s="4">
         <v>410.1</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="86" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>10</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="92" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>10</v>
@@ -7482,16 +7482,16 @@
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>620</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>329</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="93" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>10</v>
@@ -7509,16 +7509,16 @@
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="I93" s="9" t="s">
         <v>329</v>
@@ -7526,7 +7526,7 @@
     </row>
     <row r="94" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>10</v>
@@ -7536,16 +7536,16 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>716</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>74</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="95" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>10</v>
@@ -7563,19 +7563,19 @@
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>291</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -7699,7 +7699,7 @@
     </row>
     <row r="99" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>10</v>
@@ -7709,19 +7709,19 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="G99" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="H99" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="I99" s="9" t="s">
         <v>665</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7942,7 +7942,7 @@
     </row>
     <row r="108" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>392</v>
@@ -7952,16 +7952,16 @@
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="H108" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>397</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="109" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>392</v>
@@ -7979,16 +7979,16 @@
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>397</v>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="110" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>392</v>
@@ -8006,16 +8006,16 @@
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F110" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="I110" s="4" t="s">
         <v>397</v>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>104</v>
@@ -8087,7 +8087,7 @@
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>164</v>
@@ -8120,7 +8120,7 @@
         <v>275</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>276</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="116" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>10</v>
@@ -8168,24 +8168,24 @@
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G116" s="9" t="s">
         <v>291</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="117" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>10</v>
@@ -8195,16 +8195,16 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="G117" s="9" t="s">
         <v>713</v>
       </c>
-      <c r="F117" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>715</v>
-      </c>
       <c r="H117" s="9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>74</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="118" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>45</v>
@@ -8222,19 +8222,19 @@
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="H118" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="I118" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="119" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8266,7 +8266,7 @@
     </row>
     <row r="120" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>392</v>
@@ -8276,16 +8276,16 @@
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F120" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="H120" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>397</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>10</v>
@@ -8323,16 +8323,16 @@
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="G121" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="H121" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>74</v>
@@ -8350,7 +8350,7 @@
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>225</v>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>388</v>
@@ -8394,7 +8394,7 @@
     </row>
     <row r="124" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>45</v>
@@ -8404,16 +8404,16 @@
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F124" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>599</v>
       </c>
       <c r="I124" s="9">
         <v>410.55</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="125" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>45</v>
@@ -8431,16 +8431,16 @@
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F125" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="G125" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="H125" s="4" t="s">
         <v>753</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>755</v>
       </c>
       <c r="I125" s="9">
         <v>410.55</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="126" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>45</v>
@@ -8458,16 +8458,16 @@
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F126" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="G126" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="G126" s="4" t="s">
+      <c r="H126" s="4" t="s">
         <v>754</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>756</v>
       </c>
       <c r="I126" s="3">
         <v>410.55</v>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>10</v>
@@ -8539,19 +8539,19 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F129" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="H129" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="I129" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="I129" s="9" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8691,7 +8691,7 @@
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>52</v>
@@ -8701,16 +8701,16 @@
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="F135" s="3" t="s">
+      <c r="G135" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="I135" s="4">
         <v>410.48200000000003</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>10</v>
@@ -8728,19 +8728,19 @@
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F136" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="I136" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="I136" s="9" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -8799,7 +8799,7 @@
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>52</v>
@@ -8809,16 +8809,16 @@
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H139" s="3" t="s">
         <v>729</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="I139" s="3">
         <v>410.18</v>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>52</v>
@@ -8836,16 +8836,16 @@
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="G140" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>525</v>
       </c>
       <c r="I140" s="4">
         <v>410.18</v>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>104</v>
@@ -8907,7 +8907,7 @@
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>10</v>
@@ -8917,16 +8917,16 @@
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="G143" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="H143" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="I143" s="3">
         <v>410.35</v>
@@ -9015,7 +9015,7 @@
     </row>
     <row r="147" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>10</v>
@@ -9025,24 +9025,24 @@
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F147" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H147" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="I147" s="9" t="s">
         <v>670</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="I147" s="9" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>10</v>
@@ -9052,19 +9052,19 @@
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="G148" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="H148" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="I148" s="3" t="s">
         <v>676</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66714EF5-D5FF-4A75-9BA2-6D1C5F49C631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87957729-E16E-4A28-B917-19CD8FED2E9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21312" windowHeight="5700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20412" windowHeight="6756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-lt1-booklet-2-housing-co" sheetId="1" r:id="rId1"/>
@@ -4622,9 +4622,6 @@
     <t>Problem with electric fixtures or wiring</t>
   </si>
   <si>
-    <t>No heat (heat must be provided between September 16 and June 14th)</t>
-  </si>
-  <si>
     <t>Floor has broken tiles or is not waterproof</t>
   </si>
   <si>
@@ -4650,6 +4647,9 @@
   </si>
   <si>
     <t>Stove or oven is broken</t>
+  </si>
+  <si>
+    <t>Not enough heat (heat must be provided between September 16 and June 14th)</t>
   </si>
 </sst>
 </file>
@@ -4952,11 +4952,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5021,7 +5022,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>410.15</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -5102,7 +5103,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>410.3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -5141,7 +5142,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>34</v>
@@ -5156,7 +5157,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -5237,7 +5238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>79</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>219</v>
       </c>
@@ -5276,7 +5277,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>220</v>
@@ -5291,7 +5292,7 @@
         <v>410.28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>460</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>410.25200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>602</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>677</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>683</v>
       </c>
@@ -5399,7 +5400,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -5453,7 +5454,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>268</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>270</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>271</v>
@@ -5507,7 +5508,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>358</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>704</v>
       </c>
@@ -5558,10 +5559,10 @@
         <v>707</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>715</v>
       </c>
@@ -5588,7 +5589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>598</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>737</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>115</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
@@ -5723,7 +5724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>120</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -5777,7 +5778,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>166</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>558</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>645</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>650</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>730</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>414</v>
       </c>
@@ -5958,7 +5959,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>425</v>
       </c>
@@ -5985,7 +5986,7 @@
         <v>410.35399999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>228</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>410.255</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>257</v>
       </c>
@@ -6039,7 +6040,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>252</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>410.25299999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>408</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>430</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>516</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>608</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>655</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>410.25599999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>741</v>
       </c>
@@ -6228,7 +6229,7 @@
         <v>410.25599999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>536</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>547</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>553</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>410.45100000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>141</v>
       </c>
@@ -6336,7 +6337,7 @@
         <v>410.452</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>153</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>183</v>
       </c>
@@ -6417,7 +6418,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>330</v>
       </c>
@@ -6444,7 +6445,7 @@
         <v>410.601</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>541</v>
       </c>
@@ -6915,7 +6916,7 @@
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>206</v>
@@ -7146,7 +7147,7 @@
         <v>410.202</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>465</v>
       </c>
@@ -7158,7 +7159,7 @@
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>466</v>
@@ -7173,7 +7174,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>569</v>
       </c>
@@ -7185,7 +7186,7 @@
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>570</v>
@@ -7200,7 +7201,7 @@
         <v>410.1</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>319</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>410.1</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>324</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>455</v>
       </c>
@@ -7281,7 +7282,7 @@
         <v>410.25099999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>38</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>746</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>293</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>298</v>
       </c>
@@ -7389,7 +7390,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>303</v>
       </c>
@@ -7416,7 +7417,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>308</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>410.25099999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>313</v>
       </c>
@@ -7470,7 +7471,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>614</v>
       </c>
@@ -7497,7 +7498,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>619</v>
       </c>
@@ -7524,7 +7525,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>710</v>
       </c>
@@ -7551,7 +7552,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>735</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>736</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -7597,7 +7598,7 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
     </row>
-    <row r="96" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>352</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>340</v>
       </c>
@@ -7670,7 +7671,7 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>347</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>410.50200000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>660</v>
       </c>
@@ -7724,7 +7725,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>240</v>
       </c>
@@ -7751,7 +7752,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>263</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>278</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>234</v>
       </c>
@@ -7832,7 +7833,7 @@
         <v>410.483</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>391</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>398</v>
       </c>
@@ -7886,7 +7887,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>434</v>
       </c>
@@ -7913,7 +7914,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>450</v>
       </c>
@@ -7940,7 +7941,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>470</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>475</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>511</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>75</v>
       </c>
@@ -8075,7 +8076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>163</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>273</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>275</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>276</v>
@@ -8129,7 +8130,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>362</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>708</v>
       </c>
@@ -8180,10 +8181,10 @@
         <v>709</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>718</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>588</v>
       </c>
@@ -8237,7 +8238,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>380</v>
       </c>
@@ -8264,7 +8265,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>480</v>
       </c>
@@ -8311,7 +8312,7 @@
       <c r="AB120" s="10"/>
       <c r="AC120" s="10"/>
     </row>
-    <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>583</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>223</v>
       </c>
@@ -8350,7 +8351,7 @@
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>225</v>
@@ -8365,7 +8366,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>387</v>
       </c>
@@ -8392,7 +8393,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>594</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>747</v>
       </c>
@@ -8446,7 +8447,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>748</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>246</v>
       </c>
@@ -8770,7 +8771,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>288</v>
       </c>
@@ -9025,7 +9026,7 @@
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>667</v>
@@ -11306,6 +11307,14 @@
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:I148" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="General Maintenance"/>
+        <filter val="Heat"/>
+        <filter val="Safety"/>
+        <filter val="Water"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:I148">
       <sortCondition ref="C1:C148"/>
     </sortState>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87957729-E16E-4A28-B917-19CD8FED2E9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E19A16B-4DA2-4174-8E1C-10EB1FDC7976}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20412" windowHeight="6756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19908" windowHeight="8304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-lt1-booklet-2-housing-co" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabula-lt1-booklet-2-housing-co'!$A$1:$I$148</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhUpc0DqE+LxhSKSzAefAnQDq1tfg=="/>
@@ -40,6 +40,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>Adding an invariant keyword so that we can keep changing wording/translating w/o breaking older interviews
 ======</t>
@@ -53,6 +54,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>This column should state the rule so when someone clicks the help icon, they get an explanation of what the landlord is supposed to do.
 ======</t>
@@ -66,6 +68,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAANA0iU1A
@@ -4649,14 +4652,14 @@
     <t>Stove or oven is broken</t>
   </si>
   <si>
-    <t>Not enough heat (heat must be provided between September 16 and June 14th)</t>
+    <t>No heat or tot enough heat (heat must be provided between September 16 and June 14th)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4679,6 +4682,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4952,12 +4961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5022,7 +5030,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -5049,7 +5057,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -5076,7 +5084,7 @@
         <v>410.15</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -5103,7 +5111,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
@@ -5130,7 +5138,7 @@
         <v>410.3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -5157,7 +5165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -5184,7 +5192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -5211,7 +5219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -5238,7 +5246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>79</v>
       </c>
@@ -5265,7 +5273,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>219</v>
       </c>
@@ -5292,7 +5300,7 @@
         <v>410.28</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>460</v>
       </c>
@@ -5319,7 +5327,7 @@
         <v>410.25200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>602</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>677</v>
       </c>
@@ -5373,7 +5381,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>683</v>
       </c>
@@ -5400,7 +5408,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
@@ -5427,7 +5435,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>103</v>
       </c>
@@ -5454,7 +5462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>159</v>
       </c>
@@ -5481,7 +5489,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>268</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>358</v>
       </c>
@@ -5535,7 +5543,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>704</v>
       </c>
@@ -5562,7 +5570,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>715</v>
       </c>
@@ -5589,7 +5597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>598</v>
       </c>
@@ -5616,7 +5624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>737</v>
       </c>
@@ -5643,7 +5651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>110</v>
       </c>
@@ -5670,7 +5678,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>115</v>
       </c>
@@ -5697,7 +5705,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>84</v>
       </c>
@@ -5724,7 +5732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>120</v>
       </c>
@@ -5751,7 +5759,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>126</v>
       </c>
@@ -5778,7 +5786,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>166</v>
       </c>
@@ -5805,7 +5813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>558</v>
       </c>
@@ -5832,7 +5840,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>645</v>
       </c>
@@ -5859,7 +5867,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>650</v>
       </c>
@@ -5886,7 +5894,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>730</v>
       </c>
@@ -5913,7 +5921,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>414</v>
       </c>
@@ -5959,7 +5967,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>425</v>
       </c>
@@ -5986,7 +5994,7 @@
         <v>410.35399999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>228</v>
       </c>
@@ -6013,7 +6021,7 @@
         <v>410.255</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>257</v>
       </c>
@@ -6040,7 +6048,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>252</v>
       </c>
@@ -6067,7 +6075,7 @@
         <v>410.25299999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>408</v>
       </c>
@@ -6094,7 +6102,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>430</v>
       </c>
@@ -6121,7 +6129,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>516</v>
       </c>
@@ -6148,7 +6156,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>608</v>
       </c>
@@ -6175,7 +6183,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>655</v>
       </c>
@@ -6202,7 +6210,7 @@
         <v>410.25599999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>741</v>
       </c>
@@ -6229,7 +6237,7 @@
         <v>410.25599999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>536</v>
       </c>
@@ -6256,7 +6264,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>547</v>
       </c>
@@ -6283,7 +6291,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>553</v>
       </c>
@@ -6310,7 +6318,7 @@
         <v>410.45100000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>141</v>
       </c>
@@ -6337,7 +6345,7 @@
         <v>410.452</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
@@ -6364,7 +6372,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>153</v>
       </c>
@@ -6391,7 +6399,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>183</v>
       </c>
@@ -6418,7 +6426,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>330</v>
       </c>
@@ -6445,7 +6453,7 @@
         <v>410.601</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>541</v>
       </c>
@@ -7147,7 +7155,7 @@
         <v>410.202</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>465</v>
       </c>
@@ -7174,7 +7182,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>569</v>
       </c>
@@ -7201,7 +7209,7 @@
         <v>410.1</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>319</v>
       </c>
@@ -7228,7 +7236,7 @@
         <v>410.1</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>324</v>
       </c>
@@ -7255,7 +7263,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="84" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>455</v>
       </c>
@@ -7282,7 +7290,7 @@
         <v>410.25099999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>38</v>
       </c>
@@ -7309,7 +7317,7 @@
         <v>410.351</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>746</v>
       </c>
@@ -7336,7 +7344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>293</v>
       </c>
@@ -7363,7 +7371,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>298</v>
       </c>
@@ -7390,7 +7398,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>303</v>
       </c>
@@ -7417,7 +7425,7 @@
         <v>410.50400000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>308</v>
       </c>
@@ -7444,7 +7452,7 @@
         <v>410.25099999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>313</v>
       </c>
@@ -7471,7 +7479,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>614</v>
       </c>
@@ -7498,7 +7506,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>619</v>
       </c>
@@ -7525,7 +7533,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>710</v>
       </c>
@@ -7552,7 +7560,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>735</v>
       </c>
@@ -7598,7 +7606,7 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
     </row>
-    <row r="96" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>352</v>
       </c>
@@ -7625,7 +7633,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>340</v>
       </c>
@@ -7671,7 +7679,7 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>347</v>
       </c>
@@ -7698,7 +7706,7 @@
         <v>410.50200000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>660</v>
       </c>
@@ -7725,7 +7733,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>240</v>
       </c>
@@ -7752,7 +7760,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>263</v>
       </c>
@@ -7779,7 +7787,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>278</v>
       </c>
@@ -7806,7 +7814,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>234</v>
       </c>
@@ -7833,7 +7841,7 @@
         <v>410.483</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>391</v>
       </c>
@@ -7860,7 +7868,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>398</v>
       </c>
@@ -7887,7 +7895,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>434</v>
       </c>
@@ -7914,7 +7922,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>450</v>
       </c>
@@ -7941,7 +7949,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>470</v>
       </c>
@@ -7968,7 +7976,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>475</v>
       </c>
@@ -7995,7 +8003,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>511</v>
       </c>
@@ -8022,7 +8030,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>107</v>
       </c>
@@ -8049,7 +8057,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>75</v>
       </c>
@@ -8076,7 +8084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>163</v>
       </c>
@@ -8103,7 +8111,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>273</v>
       </c>
@@ -8130,7 +8138,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>362</v>
       </c>
@@ -8157,7 +8165,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>708</v>
       </c>
@@ -8184,7 +8192,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>718</v>
       </c>
@@ -8211,7 +8219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>588</v>
       </c>
@@ -8238,7 +8246,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>380</v>
       </c>
@@ -8265,7 +8273,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>480</v>
       </c>
@@ -8312,7 +8320,7 @@
       <c r="AB120" s="10"/>
       <c r="AC120" s="10"/>
     </row>
-    <row r="121" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>583</v>
       </c>
@@ -8339,7 +8347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>223</v>
       </c>
@@ -8366,7 +8374,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>387</v>
       </c>
@@ -8393,7 +8401,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>594</v>
       </c>
@@ -8420,7 +8428,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>747</v>
       </c>
@@ -8447,7 +8455,7 @@
         <v>410.55</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>748</v>
       </c>
@@ -8744,7 +8752,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>246</v>
       </c>
@@ -8771,7 +8779,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>288</v>
       </c>
@@ -11307,14 +11315,6 @@
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:I148" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="General Maintenance"/>
-        <filter val="Heat"/>
-        <filter val="Safety"/>
-        <filter val="Water"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:I148">
       <sortCondition ref="C1:C148"/>
     </sortState>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\quinten\docassemble-HousingCodeChecklist\docassemble\HousingCodeChecklist\data\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E19A16B-4DA2-4174-8E1C-10EB1FDC7976}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51129B47-2033-4571-A79D-0A9F824E59DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19908" windowHeight="8304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4652,7 +4652,7 @@
     <t>Stove or oven is broken</t>
   </si>
   <si>
-    <t>No heat or tot enough heat (heat must be provided between September 16 and June 14th)</t>
+    <t>No heat or not enough heat (heat must be provided between September 16 and June 14th)</t>
   </si>
 </sst>
 </file>
@@ -4964,8 +4964,8 @@
   <dimension ref="A1:AC1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miabonardi/Documents/Lemma Legal/Clients/UpToCode/Updated Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E2EF81-5A39-954C-9380-ED7F29416F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A80592B-C28A-6447-82E0-1800D82B3607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="800" windowWidth="24920" windowHeight="19020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2300" windowWidth="25300" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-lt1-booklet-2-housing-co" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabula-lt1-booklet-2-housing-co'!$A$1:$I$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabula-lt1-booklet-2-housing-co'!$A$1:$I$148</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B107" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="797">
   <si>
     <t>ID</t>
   </si>
@@ -3803,6 +3803,20 @@
     </r>
   </si>
   <si>
+    <t>walls_bedroom</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Las paredes tienen orificios o grietas y no son impermeables</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3814,7 +3828,7 @@
     </r>
   </si>
   <si>
-    <t>walls_bedroom</t>
+    <t>walls_living_room</t>
   </si>
   <si>
     <r>
@@ -3839,31 +3853,6 @@
     </r>
   </si>
   <si>
-    <t>walls_living_room</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Las paredes tienen orificios o grietas y no son impermeables</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Las paredes deben ser impermeables, estar libres de humedad crónica, ser a prueba de insectos o roedores. No pueden tener orificios, grietas, yeso suelto ni otros defectos.</t>
-    </r>
-  </si>
-  <si>
     <t>water_general_maintenance</t>
   </si>
   <si>
@@ -4429,25 +4418,113 @@
     <t>105 C.M.R. 410.130(E)</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.310, c. 143, § 21D</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.140, 410, 630(A)(13)</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.470, c. 111, § 190-199</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.470, c. 111, § 197</t>
-  </si>
-  <si>
-    <t>c. 148, § 26A</t>
-  </si>
-  <si>
     <t>527 C.M.R. 1.00</t>
   </si>
   <si>
-    <t>c. 186, §§ 14, 22; 105 C.M.R. 410.130(C)</t>
+    <t>105 C.M.R. 410.310, G.L. c. 143, § 21D</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.470, G.L. c. 111, § 190-199</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.470, G.L. c. 111, § 197</t>
+  </si>
+  <si>
+    <t>G.L. c. 148, § 26A</t>
+  </si>
+  <si>
+    <t>G.L. c. 186, §§ 14, 22; 105 C.M.R. 410.130(C)</t>
+  </si>
+  <si>
+    <t>bathroom_rough_floor</t>
+  </si>
+  <si>
+    <t>Floor has broken tiles or is not waterproof</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>El piso no es liso ni impermeable</t>
+    </r>
+  </si>
+  <si>
+    <t>Floor must be smooth, nonabsorbent, and have a waterproof covering.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>El piso debe ser liso, no absorbente y tener una cubierta impermeable.</t>
+    </r>
+  </si>
+  <si>
+    <t>Walls are not waterproof and do not have smooth material</t>
+  </si>
+  <si>
+    <t>Walls above bathtubs with showers do not have a waterproof covering</t>
+  </si>
+  <si>
+    <t>Las paredes no son impermeables y no tienen material liso</t>
+  </si>
+  <si>
+    <t>Walls must be nonabsorbent, waterproof, and have smooth material.</t>
+  </si>
+  <si>
+    <t>Las paredes deben ser de material no absorbente, impermeable y liso.</t>
+  </si>
+  <si>
+    <t>bathroom_walls_porous</t>
+  </si>
+  <si>
+    <t>bathroom_walls_porous_bathtubs</t>
+  </si>
+  <si>
+    <t>bathroom_walls_porous_showers</t>
+  </si>
+  <si>
+    <t>Las paredes de las bañeras con duchas no tienen una cubierta impermeable</t>
+  </si>
+  <si>
+    <t>Walls above bathtubs with showers or shower stalls must have nonabsorbent, waterproof covering.</t>
+  </si>
+  <si>
+    <t>Las paredes de las bañeras con duchas o cuartos de ducha deben tener una cubierta no absorbente e impermeable.</t>
+  </si>
+  <si>
+    <t>Los cuartos de ducha no tienen una cubierta impermeable</t>
+  </si>
+  <si>
+    <t>kitchen_carpet_not_waterproof</t>
+  </si>
+  <si>
+    <t>Carpet in kitchen is not waterproof</t>
+  </si>
+  <si>
+    <t>La alfombra de la cocina no es impermeable</t>
+  </si>
+  <si>
+    <t>Las paredes deben ser impermeables, estar libres de humedad crónica, ser a prueba de insectos o roedores. No pueden tener orificios, grietas, yeso suelto ni otros defectos.</t>
+  </si>
+  <si>
+    <t>Floors must be weathertight and free from excess moisture.</t>
+  </si>
+  <si>
+    <t>Los pisos deben ser impermeables y libres de exceso de humedad.</t>
+  </si>
+  <si>
+    <t>Shower stalls do not have waterproof covering</t>
   </si>
 </sst>
 </file>
@@ -4524,7 +4601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4559,12 +4636,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4781,11 +4852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1008"/>
+  <dimension ref="A1:AA1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4872,7 +4943,7 @@
         <v>39</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4899,7 +4970,7 @@
         <v>44</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4926,7 +4997,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4953,7 +5024,7 @@
         <v>34</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4974,13 +5045,13 @@
         <v>55</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>707</v>
+      <c r="I6" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4995,7 +5066,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>178</v>
@@ -5007,7 +5078,7 @@
         <v>180</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5034,7 +5105,7 @@
         <v>394</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5061,12 +5132,12 @@
         <v>508</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>567</v>
+        <v>773</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -5076,24 +5147,24 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>568</v>
+        <v>774</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>569</v>
+        <v>775</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>570</v>
+        <v>776</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>710</v>
+        <v>777</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>572</v>
+        <v>783</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -5103,132 +5174,132 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>573</v>
+        <v>778</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>574</v>
+        <v>780</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>575</v>
+        <v>781</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>711</v>
+        <v>782</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>45</v>
+      <c r="A12" s="3" t="s">
+        <v>784</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>779</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>786</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>662</v>
+        <v>787</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>712</v>
+        <v>788</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>75</v>
+      <c r="A13" s="3" t="s">
+        <v>785</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>656</v>
+        <v>796</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>76</v>
+        <v>789</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>699</v>
+        <v>787</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>713</v>
+        <v>788</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>125</v>
+      <c r="A14" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>643</v>
+        <v>568</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>126</v>
+        <v>569</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>663</v>
+        <v>570</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>712</v>
+        <v>571</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>223</v>
+        <v>572</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>224</v>
+        <v>573</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>670</v>
+        <v>574</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>225</v>
+        <v>576</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>296</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
@@ -5238,24 +5309,24 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>297</v>
+        <v>47</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>298</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>206</v>
+        <v>661</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>715</v>
+        <v>49</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>592</v>
+        <v>75</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>10</v>
@@ -5265,24 +5336,24 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>593</v>
+        <v>655</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>594</v>
+        <v>76</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>595</v>
+        <v>77</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>602</v>
+        <v>125</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>10</v>
@@ -5292,132 +5363,132 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>603</v>
+        <v>126</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>604</v>
+        <v>127</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>501</v>
+        <v>223</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>642</v>
+        <v>224</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>502</v>
+        <v>669</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>712</v>
+        <v>225</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>623</v>
+      <c r="A20" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>644</v>
+        <v>297</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>624</v>
+        <v>298</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>625</v>
+        <v>206</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>626</v>
+        <v>299</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>81</v>
+      <c r="A21" s="5" t="s">
+        <v>592</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
-        <v>82</v>
+        <v>593</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>83</v>
+        <v>594</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>84</v>
+        <v>670</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>707</v>
+        <v>595</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>86</v>
+      <c r="A22" s="5" t="s">
+        <v>601</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>599</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>88</v>
+        <v>602</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>89</v>
+        <v>663</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>707</v>
+        <v>603</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>501</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
@@ -5427,24 +5498,24 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
-        <v>61</v>
+        <v>641</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>62</v>
+        <v>502</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>63</v>
+        <v>503</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>91</v>
+        <v>622</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
@@ -5454,105 +5525,105 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>92</v>
+        <v>643</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>93</v>
+        <v>623</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>94</v>
+        <v>624</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>95</v>
+        <v>625</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>720</v>
+        <v>85</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>667</v>
+        <v>89</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>718</v>
+        <v>90</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>464</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>466</v>
+        <v>62</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>467</v>
+        <v>665</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>707</v>
+        <v>63</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>544</v>
+        <v>91</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -5562,24 +5633,24 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>545</v>
+        <v>92</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>546</v>
+        <v>93</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>547</v>
+        <v>94</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>721</v>
+        <v>95</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>549</v>
+        <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -5589,24 +5660,24 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>550</v>
+        <v>97</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>551</v>
+        <v>98</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>547</v>
+        <v>99</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>552</v>
+        <v>100</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>617</v>
+        <v>131</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>10</v>
@@ -5616,46 +5687,46 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>618</v>
+        <v>132</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>619</v>
+        <v>133</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>722</v>
+        <v>134</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>346</v>
+        <v>464</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>347</v>
+        <v>465</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>348</v>
+        <v>466</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>349</v>
+        <v>467</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>350</v>
+        <v>468</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -5677,88 +5748,88 @@
     </row>
     <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>356</v>
+        <v>544</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>357</v>
+        <v>545</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>358</v>
+        <v>546</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>359</v>
+        <v>547</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>360</v>
+        <v>548</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>186</v>
+        <v>549</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>188</v>
+        <v>550</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>189</v>
+        <v>551</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>190</v>
+        <v>547</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>191</v>
+        <v>552</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>213</v>
+        <v>616</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>214</v>
+        <v>617</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>215</v>
+        <v>618</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>216</v>
+        <v>671</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>217</v>
+        <v>619</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>208</v>
+        <v>346</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>30</v>
@@ -5768,51 +5839,51 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>209</v>
+        <v>347</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>211</v>
+        <v>348</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>726</v>
+        <v>350</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>723</v>
+        <v>360</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>361</v>
+        <v>186</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>10</v>
@@ -5822,16 +5893,16 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>362</v>
+        <v>188</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>363</v>
+        <v>189</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>364</v>
+        <v>191</v>
       </c>
       <c r="I37" s="11" t="s">
         <v>723</v>
@@ -5839,34 +5910,34 @@
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>434</v>
+        <v>213</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>435</v>
+        <v>214</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>436</v>
+        <v>215</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>344</v>
+        <v>216</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>437</v>
+        <v>217</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>509</v>
+        <v>208</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>30</v>
@@ -5876,24 +5947,24 @@
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>510</v>
+        <v>209</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>512</v>
+        <v>210</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>727</v>
+        <v>212</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>553</v>
+        <v>341</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>10</v>
@@ -5903,24 +5974,24 @@
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>554</v>
+        <v>342</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>555</v>
+        <v>343</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>556</v>
+        <v>344</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>557</v>
+        <v>345</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>627</v>
+        <v>361</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>10</v>
@@ -5930,132 +6001,132 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>628</v>
+        <v>362</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>629</v>
+        <v>363</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>630</v>
+        <v>344</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>631</v>
+        <v>364</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>451</v>
+        <v>344</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>730</v>
+        <v>513</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>462</v>
+        <v>556</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>463</v>
+        <v>557</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>626</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="s">
-        <v>111</v>
+        <v>627</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>112</v>
+        <v>628</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>113</v>
+        <v>629</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>114</v>
+        <v>630</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>115</v>
+        <v>448</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>10</v>
@@ -6065,24 +6136,24 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>116</v>
+        <v>449</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>117</v>
+        <v>450</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>118</v>
+        <v>451</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>119</v>
+        <v>452</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>767</v>
+        <v>728</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>120</v>
+        <v>454</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>30</v>
@@ -6092,16 +6163,16 @@
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>121</v>
+        <v>455</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>122</v>
+        <v>456</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>123</v>
+        <v>457</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>124</v>
+        <v>458</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>729</v>
@@ -6109,196 +6180,196 @@
     </row>
     <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>147</v>
+        <v>459</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="s">
-        <v>148</v>
+        <v>460</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>149</v>
+        <v>461</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>150</v>
+        <v>462</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>151</v>
+        <v>463</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>274</v>
+        <v>109</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>674</v>
+        <v>111</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>676</v>
+        <v>112</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>673</v>
+        <v>113</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>677</v>
+        <v>114</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>453</v>
+        <v>115</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>657</v>
+        <v>116</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>675</v>
+        <v>117</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>668</v>
+        <v>118</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>669</v>
+        <v>119</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>731</v>
+        <v>768</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>648</v>
+        <v>121</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>732</v>
+        <v>124</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B52" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>11</v>
+      <c r="C52" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="s">
-        <v>578</v>
+        <v>148</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>579</v>
+        <v>149</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>732</v>
+        <v>151</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>582</v>
+        <v>274</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>583</v>
+        <v>673</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>584</v>
+        <v>675</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>585</v>
+        <v>672</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>733</v>
+        <v>676</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>587</v>
+        <v>453</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>589</v>
+        <v>674</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>768</v>
+        <v>668</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>10</v>
@@ -6308,105 +6379,105 @@
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>12</v>
+        <v>647</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>734</v>
+        <v>108</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>577</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="s">
-        <v>71</v>
+        <v>578</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>72</v>
+        <v>579</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>73</v>
+        <v>580</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>735</v>
+        <v>581</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>101</v>
+        <v>582</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>102</v>
+        <v>583</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>103</v>
+        <v>584</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>701</v>
+        <v>585</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>104</v>
+        <v>586</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>152</v>
+        <v>587</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>153</v>
+        <v>588</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>154</v>
+        <v>589</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>155</v>
+        <v>590</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>156</v>
+        <v>591</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>10</v>
@@ -6416,24 +6487,24 @@
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>734</v>
+        <v>15</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>10</v>
@@ -6443,24 +6514,24 @@
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I60" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" s="11" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>412</v>
+        <v>101</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>10</v>
@@ -6470,24 +6541,24 @@
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>413</v>
+        <v>102</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>414</v>
+        <v>103</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>700</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>736</v>
+        <v>104</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>416</v>
+        <v>152</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>10</v>
@@ -6497,24 +6568,24 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>417</v>
+        <v>153</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>679</v>
+        <v>154</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>680</v>
+        <v>155</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>737</v>
+        <v>156</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>418</v>
+        <v>157</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>10</v>
@@ -6524,24 +6595,24 @@
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>658</v>
+        <v>158</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>678</v>
+        <v>159</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>659</v>
+        <v>160</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>737</v>
+        <v>161</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>478</v>
+        <v>162</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>10</v>
@@ -6551,24 +6622,24 @@
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
-        <v>479</v>
+        <v>163</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>480</v>
+        <v>164</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>481</v>
+        <v>165</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>660</v>
+        <v>166</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>524</v>
+        <v>412</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>10</v>
@@ -6578,24 +6649,24 @@
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>525</v>
+        <v>413</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>526</v>
+        <v>414</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>527</v>
+        <v>699</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>734</v>
+        <v>415</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>608</v>
+        <v>416</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>10</v>
@@ -6605,159 +6676,159 @@
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>609</v>
+        <v>417</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>610</v>
+        <v>678</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>611</v>
+        <v>679</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>734</v>
+        <v>680</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>167</v>
+        <v>418</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>738</v>
+        <v>677</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>140</v>
+        <v>478</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>142</v>
+        <v>479</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>143</v>
+        <v>480</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>144</v>
+        <v>481</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>145</v>
+        <v>659</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>168</v>
+        <v>524</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>169</v>
+        <v>525</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>686</v>
+        <v>526</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>170</v>
+        <v>527</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>171</v>
+        <v>528</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>275</v>
+        <v>607</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>276</v>
+        <v>608</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>277</v>
+        <v>609</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>278</v>
+        <v>610</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>279</v>
+        <v>611</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>444</v>
+        <v>681</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>690</v>
+        <v>682</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>684</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>445</v>
+        <v>140</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>10</v>
@@ -6767,78 +6838,78 @@
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>446</v>
+        <v>142</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>447</v>
+        <v>143</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>689</v>
+        <v>144</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>691</v>
+        <v>145</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>529</v>
+        <v>168</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>530</v>
+        <v>169</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>531</v>
+        <v>685</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>532</v>
+        <v>170</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>533</v>
+        <v>171</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>534</v>
+        <v>275</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>141</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>535</v>
+        <v>276</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>536</v>
+        <v>277</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>537</v>
+        <v>278</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>538</v>
+        <v>279</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>539</v>
+        <v>443</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>10</v>
@@ -6848,132 +6919,132 @@
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>540</v>
+        <v>444</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>541</v>
+        <v>686</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>542</v>
+        <v>687</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>741</v>
+        <v>689</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>654</v>
+        <v>446</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>397</v>
+        <v>688</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>742</v>
+        <v>690</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>655</v>
+        <v>530</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>476</v>
+        <v>532</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>477</v>
+        <v>533</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>264</v>
+        <v>534</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>265</v>
+        <v>535</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>266</v>
+        <v>536</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>267</v>
+        <v>537</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>268</v>
+        <v>538</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>269</v>
+        <v>539</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>271</v>
+        <v>541</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>272</v>
+        <v>542</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I79" s="10" t="s">
-        <v>743</v>
+        <v>543</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>10</v>
@@ -6983,78 +7054,78 @@
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3" t="s">
-        <v>386</v>
+        <v>653</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="81" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>17</v>
+        <v>474</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>19</v>
+        <v>654</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>20</v>
+        <v>475</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>21</v>
+        <v>476</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>743</v>
+        <v>477</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="82" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>632</v>
+        <v>264</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>47</v>
+        <v>265</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>57</v>
+        <v>266</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>662</v>
+        <v>267</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I82" s="15" t="s">
-        <v>707</v>
+        <v>268</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="83" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>10</v>
@@ -7064,24 +7135,24 @@
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>746</v>
+        <v>273</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>249</v>
+        <v>385</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>10</v>
@@ -7091,24 +7162,24 @@
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>250</v>
+        <v>386</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>251</v>
+        <v>387</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>252</v>
+        <v>388</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>254</v>
+        <v>17</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>10</v>
@@ -7118,24 +7189,24 @@
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>255</v>
+        <v>19</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>259</v>
+        <v>631</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>10</v>
@@ -7145,24 +7216,24 @@
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>260</v>
+        <v>47</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>262</v>
+        <v>661</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>747</v>
+        <v>58</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="87" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>514</v>
+        <v>244</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>10</v>
@@ -7172,24 +7243,24 @@
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>515</v>
+        <v>245</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>516</v>
+        <v>246</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>517</v>
+        <v>247</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>518</v>
+        <v>248</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>519</v>
+        <v>249</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>10</v>
@@ -7199,24 +7270,24 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>521</v>
+        <v>251</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>522</v>
+        <v>252</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>523</v>
+        <v>253</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>598</v>
+        <v>254</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>10</v>
@@ -7226,24 +7297,24 @@
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>692</v>
+        <v>255</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>600</v>
+        <v>256</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>664</v>
+        <v>257</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="I89" s="15" t="s">
-        <v>707</v>
+        <v>258</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="90" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>621</v>
+        <v>259</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>10</v>
@@ -7253,19 +7324,19 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>593</v>
+        <v>260</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>594</v>
+        <v>261</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>671</v>
+        <v>262</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="I90" s="12" t="s">
-        <v>716</v>
+        <v>263</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>746</v>
       </c>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -7287,56 +7358,56 @@
     </row>
     <row r="91" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>291</v>
+        <v>514</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>292</v>
+        <v>515</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>293</v>
+        <v>516</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>294</v>
+        <v>517</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="I91" s="10" t="s">
-        <v>769</v>
+        <v>518</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
-        <v>280</v>
+      <c r="A92" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>770</v>
+        <v>18</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>747</v>
       </c>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -7358,304 +7429,304 @@
     </row>
     <row r="93" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>286</v>
+        <v>598</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>281</v>
+        <v>18</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3" t="s">
-        <v>287</v>
+        <v>691</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>288</v>
+        <v>600</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>289</v>
+        <v>663</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>749</v>
+        <v>793</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="94" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>558</v>
+        <v>790</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>694</v>
+        <v>794</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>750</v>
+        <v>795</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>198</v>
+        <v>620</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>199</v>
+        <v>593</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>200</v>
+        <v>594</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>201</v>
+        <v>670</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="I95" s="10" t="s">
-        <v>751</v>
+        <v>621</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="96" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>221</v>
+        <v>294</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>230</v>
+      <c r="A97" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>751</v>
+        <v>281</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>192</v>
+        <v>286</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>193</v>
+        <v>281</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>325</v>
+        <v>558</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3" t="s">
-        <v>327</v>
+        <v>694</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>329</v>
+        <v>693</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="I99" s="10" t="s">
-        <v>752</v>
+        <v>692</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3" t="s">
-        <v>332</v>
+        <v>199</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>334</v>
+        <v>201</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>335</v>
+        <v>202</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>365</v>
+        <v>218</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3" t="s">
-        <v>366</v>
+        <v>219</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>367</v>
+        <v>220</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>368</v>
+        <v>221</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>369</v>
+        <v>222</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>382</v>
+        <v>232</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>383</v>
+        <v>233</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>384</v>
+        <v>234</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>399</v>
+        <v>192</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>193</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3" t="s">
-        <v>400</v>
+        <v>194</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>401</v>
+        <v>195</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>402</v>
+        <v>196</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>752</v>
+        <v>197</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>326</v>
@@ -7665,24 +7736,24 @@
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3" t="s">
-        <v>405</v>
+        <v>327</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>407</v>
+        <v>329</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>408</v>
+        <v>330</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>429</v>
+        <v>331</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>326</v>
@@ -7692,159 +7763,159 @@
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>430</v>
+        <v>332</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>431</v>
+        <v>333</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>432</v>
+        <v>334</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3" t="s">
-        <v>656</v>
+        <v>366</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>699</v>
+        <v>368</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I106" s="15" t="s">
-        <v>707</v>
+        <v>369</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3" t="s">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>52</v>
+        <v>382</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>662</v>
+        <v>383</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>707</v>
+        <v>384</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>128</v>
+        <v>399</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3" t="s">
-        <v>643</v>
+        <v>400</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>129</v>
+        <v>401</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>663</v>
+        <v>402</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="I108" s="15" t="s">
-        <v>707</v>
+        <v>403</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>226</v>
+        <v>404</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3" t="s">
-        <v>227</v>
+        <v>405</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>228</v>
+        <v>406</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>651</v>
+        <v>407</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>714</v>
+        <v>408</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>300</v>
+        <v>429</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3" t="s">
-        <v>297</v>
+        <v>430</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>206</v>
+        <v>432</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="I110" s="11" t="s">
-        <v>715</v>
+        <v>433</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>596</v>
+        <v>78</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>10</v>
@@ -7854,24 +7925,24 @@
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3" t="s">
-        <v>593</v>
+        <v>655</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>594</v>
+        <v>76</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="I111" s="12" t="s">
-        <v>716</v>
+        <v>77</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>605</v>
+        <v>50</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>10</v>
@@ -7881,474 +7952,474 @@
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3" t="s">
-        <v>599</v>
+        <v>47</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>606</v>
+        <v>52</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>707</v>
+        <v>53</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="113" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>492</v>
+        <v>128</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3" t="s">
-        <v>493</v>
+        <v>642</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>494</v>
+        <v>129</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>495</v>
+        <v>662</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>754</v>
+        <v>130</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="114" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>318</v>
+        <v>227</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>697</v>
+        <v>228</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>319</v>
+        <v>650</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>754</v>
+        <v>713</v>
       </c>
     </row>
     <row r="115" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>409</v>
+        <v>300</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3" t="s">
-        <v>405</v>
+        <v>297</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>410</v>
+        <v>298</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>407</v>
+        <v>206</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="I115" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="8"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="8"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="8"/>
-      <c r="X115" s="8"/>
-      <c r="Y115" s="8"/>
-      <c r="Z115" s="8"/>
-      <c r="AA115" s="8"/>
+        <v>301</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="116" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>487</v>
+        <v>596</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>489</v>
+        <v>594</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>490</v>
+        <v>670</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="I116" s="15" t="s">
-        <v>707</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="J116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
     </row>
     <row r="117" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>181</v>
+        <v>604</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3" t="s">
-        <v>652</v>
+        <v>599</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>183</v>
+        <v>605</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>184</v>
+        <v>663</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I117" s="11" t="s">
-        <v>756</v>
+        <v>606</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="118" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>321</v>
+        <v>492</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3" t="s">
-        <v>645</v>
+        <v>493</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>324</v>
+        <v>494</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>496</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="119" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>497</v>
+        <v>316</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3" t="s">
-        <v>646</v>
+        <v>318</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>500</v>
+        <v>696</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="120" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>633</v>
+        <v>409</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>24</v>
+        <v>326</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3" t="s">
-        <v>641</v>
+        <v>405</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="I120" s="11" t="s">
-        <v>756</v>
+        <v>410</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="121" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>634</v>
+        <v>487</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3" t="s">
-        <v>647</v>
+        <v>488</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="I121" s="11" t="s">
-        <v>756</v>
+        <v>489</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="122" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3" t="s">
-        <v>66</v>
+        <v>651</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="123" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3" t="s">
-        <v>136</v>
+        <v>644</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>139</v>
+        <v>322</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="124" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3" t="s">
-        <v>470</v>
+        <v>645</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>473</v>
+        <v>498</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="125" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>30</v>
+        <v>632</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3" t="s">
-        <v>303</v>
+        <v>640</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>306</v>
+        <v>634</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>638</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="126" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>30</v>
+        <v>633</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3" t="s">
-        <v>308</v>
+        <v>646</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>310</v>
+        <v>635</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>639</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
     </row>
     <row r="127" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>311</v>
+        <v>64</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3" t="s">
-        <v>312</v>
+        <v>66</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I127" s="10" t="s">
-        <v>758</v>
+        <v>69</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="128" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3" t="s">
-        <v>337</v>
+        <v>136</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>338</v>
+        <v>137</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>339</v>
+        <v>138</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I128" s="10" t="s">
-        <v>759</v>
+        <v>139</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>351</v>
+        <v>469</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>10</v>
@@ -8358,26 +8429,26 @@
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3" t="s">
-        <v>352</v>
+        <v>470</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>353</v>
+        <v>471</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>354</v>
+        <v>472</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>355</v>
+        <v>473</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B130" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C130" s="4" t="s">
@@ -8385,321 +8456,321 @@
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3" t="s">
-        <v>420</v>
+        <v>303</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>421</v>
+        <v>304</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="I130" s="10" t="s">
-        <v>759</v>
+        <v>306</v>
+      </c>
+      <c r="I130" s="11" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>10</v>
+        <v>307</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3" t="s">
-        <v>425</v>
+        <v>308</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>426</v>
+        <v>309</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>427</v>
+        <v>697</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>428</v>
+        <v>310</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>715</v>
+        <v>315</v>
+      </c>
+      <c r="I132" s="10" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3" t="s">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>242</v>
+        <v>338</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>671</v>
+        <v>339</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>716</v>
+        <v>340</v>
+      </c>
+      <c r="I133" s="10" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>613</v>
+        <v>351</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3" t="s">
-        <v>614</v>
+        <v>352</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>615</v>
+        <v>353</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>616</v>
+        <v>355</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3" t="s">
-        <v>656</v>
+        <v>425</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>76</v>
+        <v>426</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>699</v>
+        <v>427</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I136" s="12" t="s">
-        <v>713</v>
+        <v>428</v>
+      </c>
+      <c r="I136" s="11" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>375</v>
+        <v>203</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3" t="s">
-        <v>376</v>
+        <v>204</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>377</v>
+        <v>205</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>378</v>
+        <v>206</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>379</v>
+        <v>207</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>761</v>
+        <v>714</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>482</v>
+        <v>240</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3" t="s">
-        <v>483</v>
+        <v>241</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>485</v>
+        <v>670</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="I138" s="11" t="s">
-        <v>762</v>
+        <v>243</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>172</v>
+        <v>612</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3" t="s">
-        <v>173</v>
+        <v>613</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>174</v>
+        <v>614</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>175</v>
+        <v>441</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>176</v>
+        <v>615</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>235</v>
+        <v>438</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3" t="s">
-        <v>236</v>
+        <v>439</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>237</v>
+        <v>440</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>238</v>
+        <v>441</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="I140" s="11" t="s">
-        <v>764</v>
+        <v>442</v>
+      </c>
+      <c r="I140" s="10" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3" t="s">
-        <v>371</v>
+        <v>655</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>373</v>
+        <v>698</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="I141" s="10" t="s">
-        <v>765</v>
+        <v>77</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>559</v>
+        <v>375</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>10</v>
@@ -8708,25 +8779,25 @@
         <v>80</v>
       </c>
       <c r="D142" s="3"/>
-      <c r="E142" s="16" t="s">
-        <v>653</v>
+      <c r="E142" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>702</v>
+        <v>377</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>560</v>
+        <v>378</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>561</v>
+        <v>379</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>562</v>
+        <v>482</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>10</v>
@@ -8735,63 +8806,158 @@
         <v>80</v>
       </c>
       <c r="D143" s="3"/>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="G148" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H148" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="I143" s="11" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-    </row>
-    <row r="145" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
-    </row>
-    <row r="146" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-    </row>
-    <row r="147" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-    </row>
-    <row r="148" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-    </row>
-    <row r="149" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I148" s="11" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="D149" s="3"/>
       <c r="E149" s="5"/>
@@ -8799,7 +8965,7 @@
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="D150" s="3"/>
       <c r="E150" s="5"/>
@@ -8807,7 +8973,7 @@
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="D151" s="3"/>
       <c r="E151" s="5"/>
@@ -8815,7 +8981,7 @@
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="D152" s="3"/>
       <c r="E152" s="5"/>
@@ -8823,7 +8989,7 @@
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="D153" s="3"/>
       <c r="E153" s="5"/>
@@ -8831,7 +8997,7 @@
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="D154" s="3"/>
       <c r="E154" s="5"/>
@@ -8839,7 +9005,7 @@
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="D155" s="3"/>
       <c r="E155" s="5"/>
@@ -8847,7 +9013,7 @@
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="D156" s="3"/>
       <c r="E156" s="5"/>
@@ -8855,7 +9021,7 @@
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="D157" s="3"/>
       <c r="E157" s="5"/>
@@ -8863,7 +9029,7 @@
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="D158" s="3"/>
       <c r="E158" s="5"/>
@@ -8871,7 +9037,7 @@
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="D159" s="3"/>
       <c r="E159" s="5"/>
@@ -8879,7 +9045,7 @@
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="D160" s="3"/>
       <c r="E160" s="5"/>
@@ -10319,11 +10485,46 @@
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
     </row>
-    <row r="340" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="5"/>
+      <c r="D340" s="3"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="5"/>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
+    </row>
+    <row r="341" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="5"/>
+      <c r="D341" s="3"/>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+    </row>
+    <row r="342" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="5"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="5"/>
+      <c r="F342" s="5"/>
+      <c r="G342" s="3"/>
+      <c r="H342" s="3"/>
+    </row>
+    <row r="343" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="5"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="5"/>
+      <c r="F343" s="5"/>
+      <c r="G343" s="3"/>
+      <c r="H343" s="3"/>
+    </row>
+    <row r="344" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="5"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="5"/>
+      <c r="F344" s="5"/>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
+    </row>
     <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="346" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="347" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10988,10 +11189,11 @@
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:I143" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I143">
-      <sortCondition ref="C1:C143"/>
+  <autoFilter ref="A1:I148" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I148">
+      <sortCondition ref="C1:C148"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miabonardi/Documents/Lemma Legal/Clients/UpToCode/Updated Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keliza/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916E1311-C67D-304F-B8AE-4D40DFF3217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13CFFEE-75C8-3D41-A13B-E23702819DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19280" yWindow="620" windowWidth="19120" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-lt1-booklet-2-housing-co" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabula-lt1-booklet-2-housing-co'!$A$1:$I$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabula-lt1-booklet-2-housing-co'!$A$1:$I$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="822">
   <si>
     <t>ID</t>
   </si>
@@ -1193,9 +1193,6 @@
     </r>
   </si>
   <si>
-    <t>Landlord must provide enough lighting for 24 hours a day in hallways.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1302,9 +1299,6 @@
     </r>
   </si>
   <si>
-    <t>Landlord must provide enough lighting for 24 hours a day in interior passageways.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1367,9 +1361,6 @@
       </rPr>
       <t>Las escaleras no tienen buena iluminación las 24 horas del día</t>
     </r>
-  </si>
-  <si>
-    <t>Landlord must provide enough lighting for 24 hours a day in stairways.</t>
   </si>
   <si>
     <r>
@@ -3761,24 +3752,12 @@
     <t>105 C.M.R. 410.110(B)(1), 130(B)</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.11</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.110(B)(2)</t>
   </si>
   <si>
     <t>105 C.M.R. 410.130(B)</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.5</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.22</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.3</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.110(A)</t>
   </si>
   <si>
@@ -3794,9 +3773,6 @@
     <t>105 C.M.R. 410.420(D)</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.43</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.220(A)</t>
   </si>
   <si>
@@ -3812,15 +3788,9 @@
     <t>105 C.M.R. 410.500, 530(B)</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.52</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.500, 530</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.2</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.320(B)</t>
   </si>
   <si>
@@ -3839,30 +3809,12 @@
     <t>105 C.M.R. 410.260, 780 C.M.R. 10.00</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.26</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.56</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.32</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.16</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.235</t>
   </si>
   <si>
     <t>105 C.M.R. 410.570(C)</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.4</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.54</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.160, 180</t>
   </si>
   <si>
@@ -3896,9 +3848,6 @@
     <t>105 C.M.R. 410.100(A)(3), 235, 140(A)</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.47</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.300(F)</t>
   </si>
   <si>
@@ -3917,30 +3866,9 @@
     <t>105 C.M.R. 410.300(D)(2)(a)</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.55</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.330, 527 C.M.R. 31.00, 32.00</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.25</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.33</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.13</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.15</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.14</t>
-  </si>
-  <si>
-    <t>105 C.M.R. 410.17</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.130, 140</t>
   </si>
   <si>
@@ -4044,9 +3972,6 @@
     <t>30 days</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.27</t>
-  </si>
-  <si>
     <t>No working toilet.</t>
   </si>
   <si>
@@ -4059,9 +3984,6 @@
     <t>Sewage system does not work.</t>
   </si>
   <si>
-    <t>Bathroom does not have enough ventilation.</t>
-  </si>
-  <si>
     <t>Shower or bathtub is in a room used for living, sleeping, or eating.</t>
   </si>
   <si>
@@ -4155,9 +4077,6 @@
     <t>Exits are not clear of snow or ice.</t>
   </si>
   <si>
-    <t>The building has at least 10 units. Primary and secondary exits are not marked clearly with a lighted sign.</t>
-  </si>
-  <si>
     <t>Exits, common areas, or hallways are not wide enough or are blocked.</t>
   </si>
   <si>
@@ -4284,9 +4203,6 @@
     <t>Lead paint is used on at least one surface in the building.</t>
   </si>
   <si>
-    <t>Cellar is not lit safely.</t>
-  </si>
-  <si>
     <t>Closet or storage space is not lit safely.</t>
   </si>
   <si>
@@ -4413,15 +4329,6 @@
     <t>No space with the right kind of electrical outlet for a refrigerator.</t>
   </si>
   <si>
-    <t>Hallways are not lit safely 24 hours a day.</t>
-  </si>
-  <si>
-    <t>Interior passageways are not lit safely 24 hours a day.</t>
-  </si>
-  <si>
-    <t>Stairways are not lit safely 24 hours a day.</t>
-  </si>
-  <si>
     <t>Building has 2 or 3 units and the tenant pays for lights outside the apartment.</t>
   </si>
   <si>
@@ -4513,13 +4420,163 @@
   </si>
   <si>
     <t xml:space="preserve">In buildings with 2 or 3 units, the light fixtures in common hallways, stairways, and other common passages may be wired to the service for the apartment next to the fixture. The landlord must pay for electricity to the fixture if the tenant does not have a written agreement that says the tenant must pay for it. </t>
+  </si>
+  <si>
+    <t>floor_basement</t>
+  </si>
+  <si>
+    <t>dampness_basement</t>
+  </si>
+  <si>
+    <t>walls_basement</t>
+  </si>
+  <si>
+    <t>danger_foundation_basement</t>
+  </si>
+  <si>
+    <t>foundation_basement</t>
+  </si>
+  <si>
+    <t>other_danger_basement</t>
+  </si>
+  <si>
+    <t>exits_too_narrow_basement</t>
+  </si>
+  <si>
+    <t>garbage_basement</t>
+  </si>
+  <si>
+    <t>unsafe_furnace_basement</t>
+  </si>
+  <si>
+    <t>basement_common_area_not_sanitary</t>
+  </si>
+  <si>
+    <t>heat_not_maintained_basement</t>
+  </si>
+  <si>
+    <t>sewer_basement</t>
+  </si>
+  <si>
+    <t>no_cellar_light_basement</t>
+  </si>
+  <si>
+    <t>no_laundry_room_light_basement</t>
+  </si>
+  <si>
+    <t>insects_mice_in_basement</t>
+  </si>
+  <si>
+    <t>no_hot_water_heater_basement</t>
+  </si>
+  <si>
+    <t>hot_water_open_flame_basement</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.110</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.220</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.300(C)</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.560</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.550</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.160</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.150</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.170</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.520</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.430</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.200</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.260</t>
+  </si>
+  <si>
+    <t>The building has at least 10 units and primary and secondary exits are not marked clearly with a lighted sign.</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.320</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.400</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.540</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.470</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.270</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.250</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.330</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.130</t>
+  </si>
+  <si>
+    <t>105 C.M.R. 410.140</t>
+  </si>
+  <si>
+    <t>Common hallways are not lit safely 24 hours a day.</t>
+  </si>
+  <si>
+    <t>Landlord must provide enough lighting for 24 hours a day in common hallways.</t>
+  </si>
+  <si>
+    <t>Landlord must provide enough lighting for 24 hours a day in common interior passageways.</t>
+  </si>
+  <si>
+    <t>Landlord must provide enough lighting for 24 hours a day in common stairways.</t>
+  </si>
+  <si>
+    <t>Common stairways are not lit safely 24 hours a day.</t>
+  </si>
+  <si>
+    <t>Common interior passageways are not lit safely 24 hours a day.</t>
+  </si>
+  <si>
+    <t>Not enough ventilation in bathroom.</t>
+  </si>
+  <si>
+    <t>Basement/cellar is not lit safely.</t>
+  </si>
+  <si>
+    <t>Landlord must provide and place electric light fixtures and switches that allow safe and reasonable use of the basement/cellar.</t>
+  </si>
+  <si>
+    <t>Basement/Cellar</t>
+  </si>
+  <si>
+    <t>Basement/Cellar is not lit safely.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4552,6 +4609,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -4606,10 +4669,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4622,13 +4684,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4931,25 +5057,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA344"/>
+  <dimension ref="A1:AA361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A26:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="9" customWidth="1"/>
-    <col min="2" max="3" width="20.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="51.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="50.83203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="50.83203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" customWidth="1"/>
     <col min="9" max="9" width="45.5" style="5" customWidth="1"/>
-    <col min="10" max="26" width="7.6640625" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="12.6640625" style="9"/>
+    <col min="10" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -4971,7 +5096,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -5011,19 +5136,19 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5038,19 +5163,19 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>35</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>557</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5065,19 +5190,19 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5092,19 +5217,19 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5119,19 +5244,19 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>794</v>
+      <c r="G6" s="10" t="s">
+        <v>763</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5146,24 +5271,24 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>651</v>
+        <v>817</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>150</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>151</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>561</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>25</v>
@@ -5173,24 +5298,24 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>562</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>25</v>
@@ -5200,24 +5325,24 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>25</v>
@@ -5227,24 +5352,24 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>629</v>
+        <v>604</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>605</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>25</v>
@@ -5254,24 +5379,24 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>783</v>
+        <v>607</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>752</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>25</v>
@@ -5281,24 +5406,24 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>637</v>
+        <v>612</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>613</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>25</v>
@@ -5308,24 +5433,24 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>784</v>
+        <v>615</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>753</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>25</v>
@@ -5335,24 +5460,24 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>25</v>
@@ -5362,4728 +5487,5249 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>462</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>37</v>
+      <c r="A16" s="7" t="s">
+        <v>781</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>38</v>
+        <v>820</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>754</v>
+        <v>666</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>529</v>
+        <v>60</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>565</v>
+        <v>62</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>63</v>
+      <c r="A17" s="7" t="s">
+        <v>779</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>38</v>
+        <v>820</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>756</v>
+        <v>658</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>797</v>
+        <v>125</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>566</v>
+        <v>127</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>105</v>
+      <c r="A18" s="7" t="s">
+        <v>786</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>38</v>
+        <v>820</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>795</v>
+        <v>154</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>565</v>
+        <v>156</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>186</v>
+        <v>784</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
+        <v>820</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>758</v>
+        <v>821</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>524</v>
+        <v>264</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>819</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>243</v>
+      <c r="A20" s="7" t="s">
+        <v>785</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>38</v>
+        <v>820</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>173</v>
+        <v>307</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>479</v>
+      <c r="A21" s="7" t="s">
+        <v>783</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>820</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>785</v>
+        <v>490</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>569</v>
+        <v>492</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>486</v>
+      <c r="A22" s="7" t="s">
+        <v>780</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>38</v>
+        <v>820</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>759</v>
+        <v>663</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>798</v>
+        <v>469</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>470</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>565</v>
+        <v>471</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>406</v>
+        <v>782</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>760</v>
+        <v>670</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>531</v>
+        <v>137</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>565</v>
+        <v>139</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>504</v>
+        <v>787</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>761</v>
+        <v>720</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>506</v>
+        <v>303</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>304</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>507</v>
+        <v>305</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>570</v>
+        <v>795</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>69</v>
+        <v>788</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>762</v>
+        <v>722</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>71</v>
+        <v>145</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>560</v>
+        <v>796</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>73</v>
+        <v>772</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>763</v>
+        <v>729</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>75</v>
+        <v>106</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>764</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>560</v>
+        <v>107</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>50</v>
+      <c r="A27" s="15" t="s">
+        <v>773</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>661</v>
+        <v>728</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>532</v>
+        <v>64</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>766</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>77</v>
+        <v>774</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>662</v>
+        <v>731</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>79</v>
+        <v>482</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>767</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>572</v>
+        <v>485</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>81</v>
+        <v>778</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>83</v>
+        <v>102</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>111</v>
+        <v>775</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>664</v>
+        <v>734</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>533</v>
+        <v>70</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>571</v>
+        <v>72</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>376</v>
+        <v>776</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>378</v>
+        <v>112</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>530</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>440</v>
+        <v>777</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>51</v>
+        <v>820</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>442</v>
+        <v>374</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>444</v>
+        <v>563</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+    </row>
+    <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>667</v>
+        <v>726</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>442</v>
+        <v>39</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>446</v>
+        <v>40</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>499</v>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>63</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>786</v>
+        <v>64</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>766</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>282</v>
+        <v>65</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>105</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>669</v>
+        <v>729</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>284</v>
+        <v>106</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>764</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>292</v>
+        <v>533</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>521</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>157</v>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>240</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>160</v>
+        <v>241</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>179</v>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>476</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>764</v>
+        <v>634</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>787</v>
+        <v>477</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>754</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>175</v>
+        <v>478</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>483</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>672</v>
+        <v>731</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>177</v>
+        <v>484</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>767</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>673</v>
+        <v>732</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>280</v>
+        <v>404</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>528</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>294</v>
+        <v>501</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>674</v>
+        <v>733</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>280</v>
+        <v>502</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>503</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>296</v>
+        <v>504</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>353</v>
+        <v>69</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>675</v>
+        <v>734</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>280</v>
+        <v>70</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>413</v>
+        <v>73</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>676</v>
+        <v>735</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>415</v>
+        <v>74</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>447</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>449</v>
+        <v>52</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>529</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>508</v>
+        <v>77</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>678</v>
+        <v>636</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>510</v>
+        <v>78</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>363</v>
+        <v>81</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>679</v>
+        <v>637</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>365</v>
+        <v>82</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>366</v>
+        <v>84</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>368</v>
+        <v>111</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>680</v>
+        <v>638</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>370</v>
+        <v>112</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>530</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G48" s="11" t="s">
         <v>374</v>
       </c>
+      <c r="G48" s="10" t="s">
+        <v>375</v>
+      </c>
       <c r="H48" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>583</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
     </row>
     <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>92</v>
+        <v>437</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>682</v>
+        <v>640</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>95</v>
+        <v>438</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>583</v>
+        <v>797</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>99</v>
+        <v>442</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>100</v>
+        <v>443</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>622</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>101</v>
+        <v>496</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>103</v>
+        <v>497</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>755</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>104</v>
+        <v>498</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>685</v>
+        <v>643</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>126</v>
+        <v>280</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>584</v>
+        <v>799</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B53" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>686</v>
+        <v>644</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>788</v>
+        <v>288</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>289</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>539</v>
+        <v>290</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>584</v>
+        <v>799</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>25</v>
+        <v>157</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>621</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>534</v>
+        <v>159</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>535</v>
+        <v>161</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>90</v>
+        <v>179</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>756</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>467</v>
+        <v>174</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>689</v>
+        <v>646</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>469</v>
+        <v>175</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>470</v>
+        <v>177</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>471</v>
+        <v>275</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
-        <v>690</v>
+        <v>647</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>473</v>
+        <v>276</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>474</v>
+        <v>278</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>586</v>
+        <v>799</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>475</v>
+        <v>291</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
-        <v>691</v>
+        <v>648</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>477</v>
+        <v>292</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>478</v>
+        <v>293</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>620</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>9</v>
+        <v>350</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7" t="s">
-        <v>692</v>
+        <v>649</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>12</v>
+        <v>351</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>587</v>
+        <v>799</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
-        <v>693</v>
+        <v>650</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>61</v>
+        <v>411</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>62</v>
+        <v>413</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>85</v>
+        <v>444</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
-        <v>694</v>
+        <v>651</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>554</v>
+        <v>445</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>446</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>87</v>
+        <v>447</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>128</v>
+        <v>505</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
-        <v>695</v>
+        <v>652</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>130</v>
+        <v>506</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>507</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>131</v>
+        <v>508</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>696</v>
+        <v>653</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>134</v>
+        <v>361</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>136</v>
+        <v>365</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>697</v>
+        <v>654</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>138</v>
+        <v>366</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>139</v>
+        <v>368</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>587</v>
+        <v>800</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>698</v>
+        <v>655</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>553</v>
+        <v>370</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>371</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>589</v>
+        <v>800</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>339</v>
+        <v>92</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>699</v>
+        <v>656</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>542</v>
+        <v>94</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>543</v>
+        <v>96</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>590</v>
+        <v>800</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>700</v>
+        <v>801</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>526</v>
+        <v>98</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>528</v>
+        <v>100</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>388</v>
+        <v>101</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>701</v>
+        <v>657</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>799</v>
+        <v>102</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>527</v>
+        <v>104</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>425</v>
+        <v>123</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
-        <v>702</v>
+        <v>658</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>800</v>
+        <v>125</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>427</v>
+        <v>127</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>587</v>
+        <v>792</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>645</v>
+        <v>222</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
-        <v>703</v>
+        <v>659</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>494</v>
+        <v>535</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>757</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>587</v>
+        <v>792</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>765</v>
+        <v>660</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>545</v>
+        <v>534</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>532</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>591</v>
+        <v>792</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>704</v>
+        <v>661</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>121</v>
+        <v>89</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>592</v>
+        <v>802</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>141</v>
+        <v>464</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>705</v>
+        <v>662</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>142</v>
+        <v>465</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>466</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>143</v>
+        <v>467</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>591</v>
+        <v>802</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>766</v>
+        <v>663</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>228</v>
+        <v>469</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>470</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>229</v>
+        <v>471</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>593</v>
+        <v>794</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>360</v>
+        <v>472</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>790</v>
+        <v>473</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>474</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>548</v>
+        <v>475</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>361</v>
+        <v>9</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>791</v>
+        <v>11</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>428</v>
+        <v>59</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>430</v>
+        <v>60</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>431</v>
+        <v>62</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>432</v>
+        <v>85</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>434</v>
+        <v>86</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>551</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>435</v>
+        <v>87</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>436</v>
+        <v>128</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>438</v>
+        <v>129</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>439</v>
+        <v>131</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>323</v>
+        <v>133</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>324</v>
+        <v>135</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>384</v>
+        <v>136</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>386</v>
+        <v>137</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>387</v>
+        <v>139</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
-        <v>712</v>
+        <v>671</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>219</v>
+        <v>334</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>550</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>221</v>
+        <v>336</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>223</v>
+        <v>538</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>539</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>224</v>
+        <v>540</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
-        <v>714</v>
+        <v>673</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>315</v>
+        <v>537</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>523</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>15</v>
+        <v>385</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>715</v>
+        <v>674</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>18</v>
+        <v>386</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>768</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>19</v>
+        <v>524</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>716</v>
+        <v>675</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>794</v>
+        <v>423</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>769</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>49</v>
+        <v>424</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>202</v>
+        <v>489</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7" t="s">
-        <v>717</v>
+        <v>676</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>204</v>
+        <v>490</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>205</v>
+        <v>492</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>207</v>
+        <v>541</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>209</v>
+        <v>758</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>542</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>801</v>
+        <v>120</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>212</v>
+        <v>122</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7" t="s">
-        <v>768</v>
+        <v>678</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>215</v>
+        <v>543</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
-      <c r="Y90" s="7"/>
-      <c r="Z90" s="7"/>
-    </row>
-    <row r="91" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>417</v>
+        <v>223</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>419</v>
+        <v>224</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>420</v>
+        <v>226</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7" t="s">
-        <v>721</v>
+        <v>679</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>423</v>
+        <v>544</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>759</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>424</v>
+        <v>545</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
-      <c r="Z92" s="7"/>
-    </row>
-    <row r="93" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>484</v>
+        <v>358</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7" t="s">
-        <v>759</v>
+        <v>680</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="G93" s="11" t="s">
-        <v>530</v>
+        <v>359</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>760</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>642</v>
+        <v>546</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>640</v>
+        <v>425</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7" t="s">
-        <v>722</v>
+        <v>681</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>643</v>
+        <v>426</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>644</v>
+        <v>428</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>502</v>
+        <v>429</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>785</v>
+        <v>430</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>239</v>
+        <v>433</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7" t="s">
-        <v>723</v>
+        <v>683</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>241</v>
+        <v>434</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>242</v>
+        <v>436</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
-        <v>230</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>235</v>
+        <v>381</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7" t="s">
-        <v>725</v>
+        <v>684</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>237</v>
+        <v>382</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>238</v>
+        <v>384</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>451</v>
+        <v>214</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7" t="s">
-        <v>772</v>
+        <v>685</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>802</v>
+        <v>215</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>216</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>550</v>
+        <v>217</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G100" s="11" t="s">
-        <v>169</v>
+        <v>219</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7" t="s">
-        <v>770</v>
+        <v>687</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>184</v>
+        <v>311</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>185</v>
+        <v>313</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7" t="s">
-        <v>771</v>
+        <v>688</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G102" s="11" t="s">
-        <v>193</v>
+        <v>17</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>162</v>
+        <v>509</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7" t="s">
-        <v>773</v>
+        <v>689</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>165</v>
+        <v>48</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>763</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7" t="s">
-        <v>726</v>
+        <v>690</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>268</v>
+        <v>200</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7" t="s">
-        <v>727</v>
+        <v>691</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>272</v>
+        <v>204</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>205</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>273</v>
+        <v>206</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>297</v>
+        <v>207</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>299</v>
+        <v>208</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>770</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>311</v>
+        <v>211</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+      <c r="J107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="7"/>
+    </row>
+    <row r="108" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>325</v>
+        <v>414</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
-        <v>730</v>
+        <v>693</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>327</v>
+        <v>415</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>328</v>
+        <v>417</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>329</v>
+        <v>418</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>331</v>
+        <v>419</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>420</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>585</v>
+      </c>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="7"/>
+    </row>
+    <row r="110" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>349</v>
+        <v>481</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>351</v>
+        <v>482</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>527</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>352</v>
+        <v>618</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>66</v>
+        <v>616</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7" t="s">
-        <v>733</v>
+        <v>695</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>796</v>
+        <v>617</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>619</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>65</v>
+        <v>620</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G112" s="10" t="s">
         <v>754</v>
       </c>
-      <c r="F112" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>782</v>
-      </c>
       <c r="H112" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7" t="s">
-        <v>757</v>
+        <v>696</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>795</v>
+        <v>237</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>238</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>188</v>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>189</v>
+        <v>228</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7" t="s">
-        <v>659</v>
+        <v>698</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>173</v>
+        <v>233</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>660</v>
+        <v>741</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>785</v>
+        <v>548</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>771</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
-      <c r="N116" s="15"/>
-      <c r="O116" s="15"/>
-      <c r="P116" s="15"/>
-      <c r="Q116" s="15"/>
-      <c r="R116" s="15"/>
-      <c r="S116" s="15"/>
-      <c r="T116" s="15"/>
-      <c r="U116" s="15"/>
-      <c r="V116" s="15"/>
-      <c r="W116" s="15"/>
-      <c r="X116" s="15"/>
-      <c r="Y116" s="15"/>
-      <c r="Z116" s="15"/>
-      <c r="AA116" s="15"/>
-    </row>
-    <row r="117" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>489</v>
+        <v>167</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7" t="s">
-        <v>759</v>
+        <v>811</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>798</v>
+        <v>168</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>812</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>491</v>
+        <v>169</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>398</v>
+        <v>181</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>735</v>
+        <v>816</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>400</v>
+        <v>182</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>813</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>401</v>
+        <v>183</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7" t="s">
-        <v>774</v>
+        <v>815</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>260</v>
+        <v>190</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>814</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>333</v>
+        <v>162</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>331</v>
+        <v>164</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>335</v>
+        <v>166</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>394</v>
+        <v>263</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7" t="s">
-        <v>736</v>
+        <v>818</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G121" s="11" t="s">
-        <v>396</v>
+        <v>264</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>397</v>
+        <v>266</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7" t="s">
-        <v>775</v>
+        <v>699</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>155</v>
+        <v>268</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>269</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7" t="s">
-        <v>522</v>
+        <v>700</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G123" s="11" t="s">
-        <v>264</v>
+        <v>295</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7" t="s">
-        <v>523</v>
+        <v>701</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>404</v>
+        <v>307</v>
+      </c>
+      <c r="G124" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>513</v>
+        <v>322</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7" t="s">
-        <v>521</v>
+        <v>702</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>517</v>
+        <v>323</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>519</v>
+        <v>325</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>514</v>
+        <v>326</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7" t="s">
-        <v>776</v>
+        <v>703</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>518</v>
+        <v>327</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>520</v>
+        <v>329</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>54</v>
+        <v>346</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7" t="s">
-        <v>737</v>
+        <v>704</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G127" s="11" t="s">
-        <v>57</v>
+        <v>347</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>348</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>58</v>
+        <v>349</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>116</v>
+        <v>171</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>382</v>
+        <v>197</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>754</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7" t="s">
-        <v>740</v>
+        <v>705</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>792</v>
+        <v>64</v>
+      </c>
+      <c r="G130" s="10" t="s">
+        <v>765</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G131" s="11" t="s">
-        <v>793</v>
+        <v>43</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>751</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>256</v>
+        <v>109</v>
+      </c>
+      <c r="G132" s="10" t="s">
+        <v>764</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>25</v>
+        <v>621</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7" t="s">
-        <v>743</v>
+        <v>706</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>276</v>
+        <v>187</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>277</v>
+        <v>188</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7" t="s">
-        <v>744</v>
+        <v>633</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>288</v>
+        <v>241</v>
+      </c>
+      <c r="G134" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="I134" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B135" s="7" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="C135" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7" t="s">
-        <v>745</v>
+        <v>634</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>343</v>
+        <v>477</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>754</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14"/>
+      <c r="O135" s="14"/>
+      <c r="P135" s="14"/>
+      <c r="Q135" s="14"/>
+      <c r="R135" s="14"/>
+      <c r="S135" s="14"/>
+      <c r="T135" s="14"/>
+      <c r="U135" s="14"/>
+      <c r="V135" s="14"/>
+      <c r="W135" s="14"/>
+      <c r="X135" s="14"/>
+      <c r="Y135" s="14"/>
+      <c r="Z135" s="14"/>
+      <c r="AA135" s="14"/>
+    </row>
+    <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>345</v>
+        <v>486</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7" t="s">
-        <v>777</v>
+        <v>731</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G136" s="11" t="s">
-        <v>347</v>
+        <v>487</v>
+      </c>
+      <c r="G136" s="10" t="s">
+        <v>767</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>348</v>
+        <v>488</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>171</v>
+        <v>395</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7" t="s">
-        <v>778</v>
+        <v>707</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G137" s="11" t="s">
-        <v>173</v>
+        <v>396</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>174</v>
+        <v>398</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>785</v>
+        <v>549</v>
+      </c>
+      <c r="G138" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>496</v>
+        <v>330</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7" t="s">
-        <v>746</v>
+        <v>703</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G139" s="11" t="s">
-        <v>358</v>
+        <v>331</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>498</v>
+        <v>332</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>68</v>
+        <v>256</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7" t="s">
-        <v>747</v>
+        <v>708</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>358</v>
+        <v>392</v>
+      </c>
+      <c r="G140" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>796</v>
+        <v>154</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7" t="s">
-        <v>748</v>
+        <v>519</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>307</v>
+        <v>260</v>
+      </c>
+      <c r="G142" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7" t="s">
-        <v>749</v>
+        <v>520</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G143" s="11" t="s">
-        <v>392</v>
+        <v>400</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>144</v>
+        <v>510</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7" t="s">
-        <v>750</v>
+        <v>518</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>146</v>
+        <v>512</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>514</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>147</v>
+        <v>516</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>616</v>
+        <v>793</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>195</v>
+        <v>511</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>197</v>
+        <v>513</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>198</v>
+        <v>517</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>617</v>
+        <v>793</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>301</v>
+        <v>54</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7" t="s">
-        <v>752</v>
+        <v>709</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>303</v>
+        <v>56</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>452</v>
+        <v>114</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7" t="s">
-        <v>781</v>
+        <v>710</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>453</v>
+        <v>115</v>
+      </c>
+      <c r="G147" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>454</v>
+        <v>117</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>626</v>
+        <v>806</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>455</v>
+        <v>377</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>457</v>
+        <v>378</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>458</v>
+        <v>380</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>619</v>
+        <v>806</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D149" s="7"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="7"/>
+      <c r="E149" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G149" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D150" s="7"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="7"/>
+      <c r="E150" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D151" s="7"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="7"/>
+      <c r="E151" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D152" s="7"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="7"/>
+      <c r="E152" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D153" s="7"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="7"/>
-    </row>
-    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="E153" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G153" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D154" s="7"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="7"/>
+      <c r="E154" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G154" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="D155" s="7"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="7"/>
+      <c r="E155" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G155" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D156" s="7"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="7"/>
+      <c r="E156" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D157" s="7"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="7"/>
+      <c r="E157" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D158" s="7"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="7"/>
+      <c r="E158" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D159" s="7"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="7"/>
+      <c r="E159" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D160" s="7"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="7"/>
-    </row>
-    <row r="161" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="E160" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G160" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D161" s="7"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="7"/>
-    </row>
-    <row r="162" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="E161" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G161" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D162" s="7"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="7"/>
-    </row>
-    <row r="163" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="E162" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D163" s="7"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="7"/>
-    </row>
-    <row r="164" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="E163" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D164" s="7"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="7"/>
-    </row>
-    <row r="165" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="E164" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G164" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="D165" s="7"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="7"/>
-    </row>
-    <row r="166" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="E165" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G165" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D166" s="7"/>
-      <c r="G166" s="11"/>
+      <c r="G166" s="10"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D167" s="7"/>
-      <c r="G167" s="11"/>
+      <c r="G167" s="10"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D168" s="7"/>
-      <c r="G168" s="11"/>
+      <c r="G168" s="10"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D169" s="7"/>
-      <c r="G169" s="11"/>
+      <c r="G169" s="10"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D170" s="7"/>
-      <c r="G170" s="11"/>
+      <c r="G170" s="10"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D171" s="7"/>
-      <c r="G171" s="11"/>
+      <c r="G171" s="10"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D172" s="7"/>
-      <c r="G172" s="11"/>
+      <c r="G172" s="10"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D173" s="7"/>
-      <c r="G173" s="11"/>
+      <c r="G173" s="10"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D174" s="7"/>
-      <c r="G174" s="11"/>
+      <c r="G174" s="10"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D175" s="7"/>
-      <c r="G175" s="11"/>
+      <c r="G175" s="10"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D176" s="7"/>
-      <c r="G176" s="11"/>
+      <c r="G176" s="10"/>
       <c r="H176" s="7"/>
     </row>
     <row r="177" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D177" s="7"/>
-      <c r="G177" s="11"/>
+      <c r="G177" s="10"/>
       <c r="H177" s="7"/>
     </row>
     <row r="178" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D178" s="7"/>
-      <c r="G178" s="11"/>
+      <c r="G178" s="10"/>
       <c r="H178" s="7"/>
     </row>
     <row r="179" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D179" s="7"/>
-      <c r="G179" s="11"/>
+      <c r="G179" s="10"/>
       <c r="H179" s="7"/>
     </row>
     <row r="180" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D180" s="7"/>
-      <c r="G180" s="11"/>
+      <c r="G180" s="10"/>
       <c r="H180" s="7"/>
     </row>
     <row r="181" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D181" s="7"/>
-      <c r="G181" s="11"/>
+      <c r="G181" s="10"/>
       <c r="H181" s="7"/>
     </row>
     <row r="182" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D182" s="7"/>
-      <c r="G182" s="11"/>
+      <c r="G182" s="10"/>
       <c r="H182" s="7"/>
     </row>
     <row r="183" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D183" s="7"/>
-      <c r="G183" s="11"/>
+      <c r="G183" s="10"/>
       <c r="H183" s="7"/>
     </row>
     <row r="184" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D184" s="7"/>
-      <c r="G184" s="11"/>
+      <c r="G184" s="10"/>
       <c r="H184" s="7"/>
     </row>
     <row r="185" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D185" s="7"/>
-      <c r="G185" s="11"/>
+      <c r="G185" s="10"/>
       <c r="H185" s="7"/>
     </row>
     <row r="186" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D186" s="7"/>
-      <c r="G186" s="11"/>
+      <c r="G186" s="10"/>
       <c r="H186" s="7"/>
     </row>
     <row r="187" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D187" s="7"/>
-      <c r="G187" s="11"/>
+      <c r="G187" s="10"/>
       <c r="H187" s="7"/>
     </row>
     <row r="188" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D188" s="7"/>
-      <c r="G188" s="11"/>
+      <c r="G188" s="10"/>
       <c r="H188" s="7"/>
     </row>
     <row r="189" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D189" s="7"/>
-      <c r="G189" s="11"/>
+      <c r="G189" s="10"/>
       <c r="H189" s="7"/>
     </row>
     <row r="190" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D190" s="7"/>
-      <c r="G190" s="11"/>
+      <c r="G190" s="10"/>
       <c r="H190" s="7"/>
     </row>
     <row r="191" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D191" s="7"/>
-      <c r="G191" s="11"/>
+      <c r="G191" s="10"/>
       <c r="H191" s="7"/>
     </row>
     <row r="192" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D192" s="7"/>
-      <c r="G192" s="11"/>
+      <c r="G192" s="10"/>
       <c r="H192" s="7"/>
     </row>
     <row r="193" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D193" s="7"/>
-      <c r="G193" s="11"/>
+      <c r="G193" s="10"/>
       <c r="H193" s="7"/>
     </row>
     <row r="194" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D194" s="7"/>
-      <c r="G194" s="11"/>
+      <c r="G194" s="10"/>
       <c r="H194" s="7"/>
     </row>
     <row r="195" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D195" s="7"/>
-      <c r="G195" s="11"/>
+      <c r="G195" s="10"/>
       <c r="H195" s="7"/>
     </row>
     <row r="196" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D196" s="7"/>
-      <c r="G196" s="11"/>
+      <c r="G196" s="10"/>
       <c r="H196" s="7"/>
     </row>
     <row r="197" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D197" s="7"/>
-      <c r="G197" s="11"/>
+      <c r="G197" s="10"/>
       <c r="H197" s="7"/>
     </row>
     <row r="198" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D198" s="7"/>
-      <c r="G198" s="11"/>
+      <c r="G198" s="10"/>
       <c r="H198" s="7"/>
     </row>
     <row r="199" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D199" s="7"/>
-      <c r="G199" s="11"/>
+      <c r="G199" s="10"/>
       <c r="H199" s="7"/>
     </row>
     <row r="200" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D200" s="7"/>
-      <c r="G200" s="11"/>
+      <c r="G200" s="10"/>
       <c r="H200" s="7"/>
     </row>
     <row r="201" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D201" s="7"/>
-      <c r="G201" s="11"/>
+      <c r="G201" s="10"/>
       <c r="H201" s="7"/>
     </row>
     <row r="202" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D202" s="7"/>
-      <c r="G202" s="11"/>
+      <c r="G202" s="10"/>
       <c r="H202" s="7"/>
     </row>
     <row r="203" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D203" s="7"/>
-      <c r="G203" s="11"/>
+      <c r="G203" s="10"/>
       <c r="H203" s="7"/>
     </row>
     <row r="204" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D204" s="7"/>
-      <c r="G204" s="11"/>
+      <c r="G204" s="10"/>
       <c r="H204" s="7"/>
     </row>
     <row r="205" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D205" s="7"/>
-      <c r="G205" s="11"/>
+      <c r="G205" s="10"/>
       <c r="H205" s="7"/>
     </row>
     <row r="206" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D206" s="7"/>
-      <c r="G206" s="11"/>
+      <c r="G206" s="10"/>
       <c r="H206" s="7"/>
     </row>
     <row r="207" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D207" s="7"/>
-      <c r="G207" s="11"/>
+      <c r="G207" s="10"/>
       <c r="H207" s="7"/>
     </row>
     <row r="208" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D208" s="7"/>
-      <c r="G208" s="11"/>
+      <c r="G208" s="10"/>
       <c r="H208" s="7"/>
     </row>
     <row r="209" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D209" s="7"/>
-      <c r="G209" s="11"/>
+      <c r="G209" s="10"/>
       <c r="H209" s="7"/>
     </row>
     <row r="210" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D210" s="7"/>
-      <c r="G210" s="11"/>
+      <c r="G210" s="10"/>
       <c r="H210" s="7"/>
     </row>
     <row r="211" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D211" s="7"/>
-      <c r="G211" s="11"/>
+      <c r="G211" s="10"/>
       <c r="H211" s="7"/>
     </row>
     <row r="212" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D212" s="7"/>
-      <c r="G212" s="11"/>
+      <c r="G212" s="10"/>
       <c r="H212" s="7"/>
     </row>
     <row r="213" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D213" s="7"/>
-      <c r="G213" s="11"/>
+      <c r="G213" s="10"/>
       <c r="H213" s="7"/>
     </row>
     <row r="214" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D214" s="7"/>
-      <c r="G214" s="11"/>
+      <c r="G214" s="10"/>
       <c r="H214" s="7"/>
     </row>
     <row r="215" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D215" s="7"/>
-      <c r="G215" s="11"/>
+      <c r="G215" s="10"/>
       <c r="H215" s="7"/>
     </row>
     <row r="216" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D216" s="7"/>
-      <c r="G216" s="11"/>
+      <c r="G216" s="10"/>
       <c r="H216" s="7"/>
     </row>
     <row r="217" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D217" s="7"/>
-      <c r="G217" s="11"/>
+      <c r="G217" s="10"/>
       <c r="H217" s="7"/>
     </row>
     <row r="218" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D218" s="7"/>
-      <c r="G218" s="11"/>
+      <c r="G218" s="10"/>
       <c r="H218" s="7"/>
     </row>
     <row r="219" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D219" s="7"/>
-      <c r="G219" s="11"/>
+      <c r="G219" s="10"/>
       <c r="H219" s="7"/>
     </row>
     <row r="220" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D220" s="7"/>
-      <c r="G220" s="11"/>
+      <c r="G220" s="10"/>
       <c r="H220" s="7"/>
     </row>
     <row r="221" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D221" s="7"/>
-      <c r="G221" s="11"/>
+      <c r="G221" s="10"/>
       <c r="H221" s="7"/>
     </row>
     <row r="222" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D222" s="7"/>
-      <c r="G222" s="11"/>
+      <c r="G222" s="10"/>
       <c r="H222" s="7"/>
     </row>
     <row r="223" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D223" s="7"/>
-      <c r="G223" s="11"/>
+      <c r="G223" s="10"/>
       <c r="H223" s="7"/>
     </row>
     <row r="224" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D224" s="7"/>
-      <c r="G224" s="11"/>
+      <c r="G224" s="10"/>
       <c r="H224" s="7"/>
     </row>
     <row r="225" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D225" s="7"/>
-      <c r="G225" s="11"/>
+      <c r="G225" s="10"/>
       <c r="H225" s="7"/>
     </row>
     <row r="226" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D226" s="7"/>
-      <c r="G226" s="11"/>
+      <c r="G226" s="10"/>
       <c r="H226" s="7"/>
     </row>
     <row r="227" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D227" s="7"/>
-      <c r="G227" s="11"/>
+      <c r="G227" s="10"/>
       <c r="H227" s="7"/>
     </row>
     <row r="228" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D228" s="7"/>
-      <c r="G228" s="11"/>
+      <c r="G228" s="10"/>
       <c r="H228" s="7"/>
     </row>
     <row r="229" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D229" s="7"/>
-      <c r="G229" s="11"/>
+      <c r="G229" s="10"/>
       <c r="H229" s="7"/>
     </row>
     <row r="230" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D230" s="7"/>
-      <c r="G230" s="11"/>
+      <c r="G230" s="10"/>
       <c r="H230" s="7"/>
     </row>
     <row r="231" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D231" s="7"/>
-      <c r="G231" s="11"/>
+      <c r="G231" s="10"/>
       <c r="H231" s="7"/>
     </row>
     <row r="232" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D232" s="7"/>
-      <c r="G232" s="11"/>
+      <c r="G232" s="10"/>
       <c r="H232" s="7"/>
     </row>
     <row r="233" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D233" s="7"/>
-      <c r="G233" s="11"/>
+      <c r="G233" s="10"/>
       <c r="H233" s="7"/>
     </row>
     <row r="234" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D234" s="7"/>
-      <c r="G234" s="11"/>
+      <c r="G234" s="10"/>
       <c r="H234" s="7"/>
     </row>
     <row r="235" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D235" s="7"/>
-      <c r="G235" s="11"/>
+      <c r="G235" s="10"/>
       <c r="H235" s="7"/>
     </row>
     <row r="236" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D236" s="7"/>
-      <c r="G236" s="11"/>
+      <c r="G236" s="10"/>
       <c r="H236" s="7"/>
     </row>
     <row r="237" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D237" s="7"/>
-      <c r="G237" s="11"/>
+      <c r="G237" s="10"/>
       <c r="H237" s="7"/>
     </row>
     <row r="238" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D238" s="7"/>
-      <c r="G238" s="11"/>
+      <c r="G238" s="10"/>
       <c r="H238" s="7"/>
     </row>
     <row r="239" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D239" s="7"/>
-      <c r="G239" s="11"/>
+      <c r="G239" s="10"/>
       <c r="H239" s="7"/>
     </row>
     <row r="240" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D240" s="7"/>
-      <c r="G240" s="11"/>
+      <c r="G240" s="10"/>
       <c r="H240" s="7"/>
     </row>
     <row r="241" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D241" s="7"/>
-      <c r="G241" s="11"/>
+      <c r="G241" s="10"/>
       <c r="H241" s="7"/>
     </row>
     <row r="242" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D242" s="7"/>
-      <c r="G242" s="11"/>
+      <c r="G242" s="10"/>
       <c r="H242" s="7"/>
     </row>
     <row r="243" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D243" s="7"/>
-      <c r="G243" s="11"/>
+      <c r="G243" s="10"/>
       <c r="H243" s="7"/>
     </row>
     <row r="244" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D244" s="7"/>
-      <c r="G244" s="11"/>
+      <c r="G244" s="10"/>
       <c r="H244" s="7"/>
     </row>
     <row r="245" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D245" s="7"/>
-      <c r="G245" s="11"/>
+      <c r="G245" s="10"/>
       <c r="H245" s="7"/>
     </row>
     <row r="246" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D246" s="7"/>
-      <c r="G246" s="11"/>
+      <c r="G246" s="10"/>
       <c r="H246" s="7"/>
     </row>
     <row r="247" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D247" s="7"/>
-      <c r="G247" s="11"/>
+      <c r="G247" s="10"/>
       <c r="H247" s="7"/>
     </row>
     <row r="248" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D248" s="7"/>
-      <c r="G248" s="11"/>
+      <c r="G248" s="10"/>
       <c r="H248" s="7"/>
     </row>
     <row r="249" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D249" s="7"/>
-      <c r="G249" s="11"/>
+      <c r="G249" s="10"/>
       <c r="H249" s="7"/>
     </row>
     <row r="250" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D250" s="7"/>
-      <c r="G250" s="11"/>
+      <c r="G250" s="10"/>
       <c r="H250" s="7"/>
     </row>
     <row r="251" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D251" s="7"/>
-      <c r="G251" s="11"/>
+      <c r="G251" s="10"/>
       <c r="H251" s="7"/>
     </row>
     <row r="252" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D252" s="7"/>
-      <c r="G252" s="11"/>
+      <c r="G252" s="10"/>
       <c r="H252" s="7"/>
     </row>
     <row r="253" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D253" s="7"/>
-      <c r="G253" s="11"/>
+      <c r="G253" s="10"/>
       <c r="H253" s="7"/>
     </row>
     <row r="254" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D254" s="7"/>
-      <c r="G254" s="11"/>
+      <c r="G254" s="10"/>
       <c r="H254" s="7"/>
     </row>
     <row r="255" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D255" s="7"/>
-      <c r="G255" s="11"/>
+      <c r="G255" s="10"/>
       <c r="H255" s="7"/>
     </row>
     <row r="256" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D256" s="7"/>
-      <c r="G256" s="11"/>
+      <c r="G256" s="10"/>
       <c r="H256" s="7"/>
     </row>
     <row r="257" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D257" s="7"/>
-      <c r="G257" s="11"/>
+      <c r="G257" s="10"/>
       <c r="H257" s="7"/>
     </row>
     <row r="258" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D258" s="7"/>
-      <c r="G258" s="11"/>
+      <c r="G258" s="10"/>
       <c r="H258" s="7"/>
     </row>
     <row r="259" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D259" s="7"/>
-      <c r="G259" s="11"/>
+      <c r="G259" s="10"/>
       <c r="H259" s="7"/>
     </row>
     <row r="260" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D260" s="7"/>
-      <c r="G260" s="11"/>
+      <c r="G260" s="10"/>
       <c r="H260" s="7"/>
     </row>
     <row r="261" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D261" s="7"/>
-      <c r="G261" s="11"/>
+      <c r="G261" s="10"/>
       <c r="H261" s="7"/>
     </row>
     <row r="262" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D262" s="7"/>
-      <c r="G262" s="11"/>
+      <c r="G262" s="10"/>
       <c r="H262" s="7"/>
     </row>
     <row r="263" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D263" s="7"/>
-      <c r="G263" s="11"/>
+      <c r="G263" s="10"/>
       <c r="H263" s="7"/>
     </row>
     <row r="264" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D264" s="7"/>
-      <c r="G264" s="11"/>
+      <c r="G264" s="10"/>
       <c r="H264" s="7"/>
     </row>
     <row r="265" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D265" s="7"/>
-      <c r="G265" s="11"/>
+      <c r="G265" s="10"/>
       <c r="H265" s="7"/>
     </row>
     <row r="266" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D266" s="7"/>
-      <c r="G266" s="11"/>
+      <c r="G266" s="10"/>
       <c r="H266" s="7"/>
     </row>
     <row r="267" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D267" s="7"/>
-      <c r="G267" s="11"/>
+      <c r="G267" s="10"/>
       <c r="H267" s="7"/>
     </row>
     <row r="268" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D268" s="7"/>
-      <c r="G268" s="11"/>
+      <c r="G268" s="10"/>
       <c r="H268" s="7"/>
     </row>
     <row r="269" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D269" s="7"/>
-      <c r="G269" s="11"/>
+      <c r="G269" s="10"/>
       <c r="H269" s="7"/>
     </row>
     <row r="270" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D270" s="7"/>
-      <c r="G270" s="11"/>
+      <c r="G270" s="10"/>
       <c r="H270" s="7"/>
     </row>
     <row r="271" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D271" s="7"/>
-      <c r="G271" s="11"/>
+      <c r="G271" s="10"/>
       <c r="H271" s="7"/>
     </row>
     <row r="272" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D272" s="7"/>
-      <c r="G272" s="11"/>
+      <c r="G272" s="10"/>
       <c r="H272" s="7"/>
     </row>
     <row r="273" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D273" s="7"/>
-      <c r="G273" s="11"/>
+      <c r="G273" s="10"/>
       <c r="H273" s="7"/>
     </row>
     <row r="274" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D274" s="7"/>
-      <c r="G274" s="11"/>
+      <c r="G274" s="10"/>
       <c r="H274" s="7"/>
     </row>
     <row r="275" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D275" s="7"/>
-      <c r="G275" s="11"/>
+      <c r="G275" s="10"/>
       <c r="H275" s="7"/>
     </row>
     <row r="276" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D276" s="7"/>
-      <c r="G276" s="11"/>
+      <c r="G276" s="10"/>
       <c r="H276" s="7"/>
     </row>
     <row r="277" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D277" s="7"/>
-      <c r="G277" s="11"/>
+      <c r="G277" s="10"/>
       <c r="H277" s="7"/>
     </row>
     <row r="278" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D278" s="7"/>
-      <c r="G278" s="11"/>
+      <c r="G278" s="10"/>
       <c r="H278" s="7"/>
     </row>
     <row r="279" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D279" s="7"/>
-      <c r="G279" s="11"/>
+      <c r="G279" s="10"/>
       <c r="H279" s="7"/>
     </row>
     <row r="280" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D280" s="7"/>
-      <c r="G280" s="11"/>
+      <c r="G280" s="10"/>
       <c r="H280" s="7"/>
     </row>
     <row r="281" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D281" s="7"/>
-      <c r="G281" s="11"/>
+      <c r="G281" s="10"/>
       <c r="H281" s="7"/>
     </row>
     <row r="282" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D282" s="7"/>
-      <c r="G282" s="11"/>
+      <c r="G282" s="10"/>
       <c r="H282" s="7"/>
     </row>
     <row r="283" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D283" s="7"/>
-      <c r="G283" s="11"/>
+      <c r="G283" s="10"/>
       <c r="H283" s="7"/>
     </row>
     <row r="284" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D284" s="7"/>
-      <c r="G284" s="11"/>
+      <c r="G284" s="10"/>
       <c r="H284" s="7"/>
     </row>
     <row r="285" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D285" s="7"/>
-      <c r="G285" s="11"/>
+      <c r="G285" s="10"/>
       <c r="H285" s="7"/>
     </row>
     <row r="286" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D286" s="7"/>
-      <c r="G286" s="11"/>
+      <c r="G286" s="10"/>
       <c r="H286" s="7"/>
     </row>
     <row r="287" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D287" s="7"/>
-      <c r="G287" s="11"/>
+      <c r="G287" s="10"/>
       <c r="H287" s="7"/>
     </row>
     <row r="288" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D288" s="7"/>
-      <c r="G288" s="11"/>
+      <c r="G288" s="10"/>
       <c r="H288" s="7"/>
     </row>
     <row r="289" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D289" s="7"/>
-      <c r="G289" s="11"/>
+      <c r="G289" s="10"/>
       <c r="H289" s="7"/>
     </row>
     <row r="290" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D290" s="7"/>
-      <c r="G290" s="11"/>
+      <c r="G290" s="10"/>
       <c r="H290" s="7"/>
     </row>
     <row r="291" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D291" s="7"/>
-      <c r="G291" s="11"/>
+      <c r="G291" s="10"/>
       <c r="H291" s="7"/>
     </row>
     <row r="292" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D292" s="7"/>
-      <c r="G292" s="11"/>
+      <c r="G292" s="10"/>
       <c r="H292" s="7"/>
     </row>
     <row r="293" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D293" s="7"/>
-      <c r="G293" s="11"/>
+      <c r="G293" s="10"/>
       <c r="H293" s="7"/>
     </row>
     <row r="294" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D294" s="7"/>
-      <c r="G294" s="11"/>
+      <c r="G294" s="10"/>
       <c r="H294" s="7"/>
     </row>
     <row r="295" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D295" s="7"/>
-      <c r="G295" s="11"/>
+      <c r="G295" s="10"/>
       <c r="H295" s="7"/>
     </row>
     <row r="296" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D296" s="7"/>
-      <c r="G296" s="11"/>
+      <c r="G296" s="10"/>
       <c r="H296" s="7"/>
     </row>
     <row r="297" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D297" s="7"/>
-      <c r="G297" s="11"/>
+      <c r="G297" s="10"/>
       <c r="H297" s="7"/>
     </row>
     <row r="298" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D298" s="7"/>
-      <c r="G298" s="11"/>
+      <c r="G298" s="10"/>
       <c r="H298" s="7"/>
     </row>
     <row r="299" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D299" s="7"/>
-      <c r="G299" s="11"/>
+      <c r="G299" s="10"/>
       <c r="H299" s="7"/>
     </row>
     <row r="300" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D300" s="7"/>
-      <c r="G300" s="11"/>
+      <c r="G300" s="10"/>
       <c r="H300" s="7"/>
     </row>
     <row r="301" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D301" s="7"/>
-      <c r="G301" s="11"/>
+      <c r="G301" s="10"/>
       <c r="H301" s="7"/>
     </row>
     <row r="302" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D302" s="7"/>
-      <c r="G302" s="11"/>
+      <c r="G302" s="10"/>
       <c r="H302" s="7"/>
     </row>
     <row r="303" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D303" s="7"/>
-      <c r="G303" s="11"/>
+      <c r="G303" s="10"/>
       <c r="H303" s="7"/>
     </row>
     <row r="304" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D304" s="7"/>
-      <c r="G304" s="11"/>
+      <c r="G304" s="10"/>
       <c r="H304" s="7"/>
     </row>
     <row r="305" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D305" s="7"/>
-      <c r="G305" s="11"/>
+      <c r="G305" s="10"/>
       <c r="H305" s="7"/>
     </row>
     <row r="306" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D306" s="7"/>
-      <c r="G306" s="11"/>
+      <c r="G306" s="10"/>
       <c r="H306" s="7"/>
     </row>
     <row r="307" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D307" s="7"/>
-      <c r="G307" s="11"/>
+      <c r="G307" s="10"/>
       <c r="H307" s="7"/>
     </row>
     <row r="308" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D308" s="7"/>
-      <c r="G308" s="11"/>
+      <c r="G308" s="10"/>
       <c r="H308" s="7"/>
     </row>
     <row r="309" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D309" s="7"/>
-      <c r="G309" s="11"/>
+      <c r="G309" s="10"/>
       <c r="H309" s="7"/>
     </row>
     <row r="310" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D310" s="7"/>
-      <c r="G310" s="11"/>
+      <c r="G310" s="10"/>
       <c r="H310" s="7"/>
     </row>
     <row r="311" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D311" s="7"/>
-      <c r="G311" s="11"/>
+      <c r="G311" s="10"/>
       <c r="H311" s="7"/>
     </row>
     <row r="312" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D312" s="7"/>
-      <c r="G312" s="11"/>
+      <c r="G312" s="10"/>
       <c r="H312" s="7"/>
     </row>
     <row r="313" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D313" s="7"/>
-      <c r="G313" s="11"/>
+      <c r="G313" s="10"/>
       <c r="H313" s="7"/>
     </row>
     <row r="314" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D314" s="7"/>
-      <c r="G314" s="11"/>
+      <c r="G314" s="10"/>
       <c r="H314" s="7"/>
     </row>
     <row r="315" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D315" s="7"/>
-      <c r="G315" s="11"/>
+      <c r="G315" s="10"/>
       <c r="H315" s="7"/>
     </row>
     <row r="316" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D316" s="7"/>
-      <c r="G316" s="11"/>
+      <c r="G316" s="10"/>
       <c r="H316" s="7"/>
     </row>
     <row r="317" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D317" s="7"/>
-      <c r="G317" s="11"/>
+      <c r="G317" s="10"/>
       <c r="H317" s="7"/>
     </row>
     <row r="318" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D318" s="7"/>
-      <c r="G318" s="11"/>
+      <c r="G318" s="10"/>
       <c r="H318" s="7"/>
     </row>
     <row r="319" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D319" s="7"/>
-      <c r="G319" s="11"/>
+      <c r="G319" s="10"/>
       <c r="H319" s="7"/>
     </row>
     <row r="320" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D320" s="7"/>
-      <c r="G320" s="11"/>
+      <c r="G320" s="10"/>
       <c r="H320" s="7"/>
     </row>
     <row r="321" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D321" s="7"/>
-      <c r="G321" s="11"/>
+      <c r="G321" s="10"/>
       <c r="H321" s="7"/>
     </row>
     <row r="322" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D322" s="7"/>
-      <c r="G322" s="11"/>
+      <c r="G322" s="10"/>
       <c r="H322" s="7"/>
     </row>
     <row r="323" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D323" s="7"/>
-      <c r="G323" s="11"/>
+      <c r="G323" s="10"/>
       <c r="H323" s="7"/>
     </row>
     <row r="324" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D324" s="7"/>
-      <c r="G324" s="11"/>
+      <c r="G324" s="10"/>
       <c r="H324" s="7"/>
     </row>
     <row r="325" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D325" s="7"/>
-      <c r="G325" s="11"/>
+      <c r="G325" s="10"/>
       <c r="H325" s="7"/>
     </row>
     <row r="326" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D326" s="7"/>
-      <c r="G326" s="11"/>
+      <c r="G326" s="10"/>
       <c r="H326" s="7"/>
     </row>
     <row r="327" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D327" s="7"/>
-      <c r="G327" s="11"/>
+      <c r="G327" s="10"/>
       <c r="H327" s="7"/>
     </row>
     <row r="328" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D328" s="7"/>
-      <c r="G328" s="11"/>
+      <c r="G328" s="10"/>
       <c r="H328" s="7"/>
     </row>
     <row r="329" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D329" s="7"/>
-      <c r="G329" s="11"/>
+      <c r="G329" s="10"/>
       <c r="H329" s="7"/>
     </row>
     <row r="330" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D330" s="7"/>
-      <c r="G330" s="11"/>
+      <c r="G330" s="10"/>
       <c r="H330" s="7"/>
     </row>
     <row r="331" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D331" s="7"/>
-      <c r="G331" s="11"/>
+      <c r="G331" s="10"/>
       <c r="H331" s="7"/>
     </row>
     <row r="332" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D332" s="7"/>
-      <c r="G332" s="11"/>
+      <c r="G332" s="10"/>
       <c r="H332" s="7"/>
     </row>
     <row r="333" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D333" s="7"/>
-      <c r="G333" s="11"/>
+      <c r="G333" s="10"/>
       <c r="H333" s="7"/>
     </row>
     <row r="334" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D334" s="7"/>
-      <c r="G334" s="11"/>
+      <c r="G334" s="10"/>
       <c r="H334" s="7"/>
     </row>
     <row r="335" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D335" s="7"/>
-      <c r="G335" s="11"/>
+      <c r="G335" s="10"/>
       <c r="H335" s="7"/>
     </row>
     <row r="336" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D336" s="7"/>
-      <c r="G336" s="11"/>
+      <c r="G336" s="10"/>
       <c r="H336" s="7"/>
     </row>
     <row r="337" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D337" s="7"/>
-      <c r="G337" s="11"/>
+      <c r="G337" s="10"/>
       <c r="H337" s="7"/>
     </row>
     <row r="338" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D338" s="7"/>
-      <c r="G338" s="11"/>
+      <c r="G338" s="10"/>
       <c r="H338" s="7"/>
     </row>
     <row r="339" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D339" s="7"/>
-      <c r="G339" s="11"/>
+      <c r="G339" s="10"/>
       <c r="H339" s="7"/>
     </row>
     <row r="340" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D340" s="7"/>
-      <c r="G340" s="11"/>
+      <c r="G340" s="10"/>
       <c r="H340" s="7"/>
     </row>
     <row r="341" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D341" s="7"/>
-      <c r="G341" s="11"/>
+      <c r="G341" s="10"/>
       <c r="H341" s="7"/>
     </row>
     <row r="342" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D342" s="7"/>
-      <c r="G342" s="11"/>
+      <c r="G342" s="10"/>
       <c r="H342" s="7"/>
     </row>
     <row r="343" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D343" s="7"/>
-      <c r="G343" s="11"/>
+      <c r="G343" s="10"/>
       <c r="H343" s="7"/>
     </row>
     <row r="344" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D344" s="7"/>
-      <c r="G344" s="11"/>
+      <c r="G344" s="10"/>
       <c r="H344" s="7"/>
     </row>
+    <row r="345" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D345" s="7"/>
+      <c r="G345" s="10"/>
+      <c r="H345" s="7"/>
+    </row>
+    <row r="346" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D346" s="7"/>
+      <c r="G346" s="10"/>
+      <c r="H346" s="7"/>
+    </row>
+    <row r="347" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D347" s="7"/>
+      <c r="G347" s="10"/>
+      <c r="H347" s="7"/>
+    </row>
+    <row r="348" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D348" s="7"/>
+      <c r="G348" s="10"/>
+      <c r="H348" s="7"/>
+    </row>
+    <row r="349" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D349" s="7"/>
+      <c r="G349" s="10"/>
+      <c r="H349" s="7"/>
+    </row>
+    <row r="350" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D350" s="7"/>
+      <c r="G350" s="10"/>
+      <c r="H350" s="7"/>
+    </row>
+    <row r="351" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D351" s="7"/>
+      <c r="G351" s="10"/>
+      <c r="H351" s="7"/>
+    </row>
+    <row r="352" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D352" s="7"/>
+      <c r="G352" s="10"/>
+      <c r="H352" s="7"/>
+    </row>
+    <row r="353" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D353" s="7"/>
+      <c r="G353" s="10"/>
+      <c r="H353" s="7"/>
+    </row>
+    <row r="354" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D354" s="7"/>
+      <c r="G354" s="10"/>
+      <c r="H354" s="7"/>
+    </row>
+    <row r="355" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D355" s="7"/>
+      <c r="G355" s="10"/>
+      <c r="H355" s="7"/>
+    </row>
+    <row r="356" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D356" s="7"/>
+      <c r="G356" s="10"/>
+      <c r="H356" s="7"/>
+    </row>
+    <row r="357" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D357" s="7"/>
+      <c r="G357" s="10"/>
+      <c r="H357" s="7"/>
+    </row>
+    <row r="358" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D358" s="7"/>
+      <c r="G358" s="10"/>
+      <c r="H358" s="7"/>
+    </row>
+    <row r="359" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D359" s="7"/>
+      <c r="G359" s="10"/>
+      <c r="H359" s="7"/>
+    </row>
+    <row r="360" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D360" s="7"/>
+      <c r="G360" s="10"/>
+      <c r="H360" s="7"/>
+    </row>
+    <row r="361" spans="4:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="D361" s="7"/>
+      <c r="G361" s="10"/>
+      <c r="H361" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I148" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I148">
-      <sortCondition ref="C1:C148"/>
+  <autoFilter ref="A1:I165" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I165">
+      <sortCondition ref="C1:C165"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E18:E37 E39:E54 E66:E67 E81:E83 E85 E93:E94 E97 E112:E113 E117 E122:E125 E136:E138">
-    <cfRule type="expression" dxfId="12" priority="13">
+  <conditionalFormatting sqref="E155 E128:E129 G131:G157 G128:G129 G27 G29 G1:G25 E1:E54">
+    <cfRule type="expression" dxfId="21" priority="19">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E17">
-    <cfRule type="expression" dxfId="11" priority="10">
+  <conditionalFormatting sqref="E27">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>E27&lt;&gt;E27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>E34&lt;&gt;E34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E71 E83:E84 E98:E100 E110:E111 E114 E136 E141:E144">
+    <cfRule type="expression" dxfId="18" priority="33">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="10" priority="9">
-      <formula>E17&lt;&gt;E17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="8" priority="11">
-      <formula>E86&lt;&gt;E86</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+  <conditionalFormatting sqref="E102:E103">
+    <cfRule type="expression" dxfId="17" priority="32">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>E111&lt;&gt;E111</formula>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="expression" dxfId="16" priority="31">
+      <formula>E103&lt;&gt;E103</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>E141&lt;&gt;E141</formula>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="expression" dxfId="15" priority="27">
+      <formula>E130&lt;&gt;E130</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="expression" dxfId="5" priority="8">
+  <conditionalFormatting sqref="E130:E132">
+    <cfRule type="expression" dxfId="14" priority="28">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E141">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="E158">
+    <cfRule type="expression" dxfId="13" priority="25">
+      <formula>E158&lt;&gt;E158</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G22:G37 G39:G52 G55:G60 G62:G65 G68:G94 G97:G110 G112:G140 G142:G148">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="G33:G34">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G17">
+  <conditionalFormatting sqref="G38:G54">
+    <cfRule type="expression" dxfId="10" priority="22">
+      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56:G69 G72:G77 G79:G82 G159:G165">
+    <cfRule type="expression" dxfId="9" priority="24">
+      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G85:G129">
+    <cfRule type="expression" dxfId="8" priority="21">
+      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="expression" dxfId="7" priority="17">
+      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G31">
+    <cfRule type="expression" dxfId="6" priority="15">
+      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="expression" dxfId="4" priority="11">
+      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G95:G96">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="G18">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="0" priority="2">
+  <conditionalFormatting sqref="G24:G25">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keliza/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13CFFEE-75C8-3D41-A13B-E23702819DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5E6D6A-EBF1-3942-824C-C048EB7C5011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="tabula-lt1-booklet-2-housing-co" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabula-lt1-booklet-2-housing-co'!$A$1:$I$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabula-lt1-booklet-2-housing-co'!$A$1:$I$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="816">
   <si>
     <t>ID</t>
   </si>
@@ -2010,34 +2010,6 @@
         <family val="2"/>
       </rPr>
       <t>Debe haber electricidad.</t>
-    </r>
-  </si>
-  <si>
-    <t>no_extinguisher</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>No hay extintores de incendios que funcionen</t>
-    </r>
-  </si>
-  <si>
-    <t>The landlord must install and maintain fire extinguishers as required by the local fire chief.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>El dueño debe instalar y mantener los extintores de incendios según de acuerdo con los requisitos del jefe de bomberos local.</t>
     </r>
   </si>
   <si>
@@ -3881,9 +3853,6 @@
     <t>105 C.M.R. 410.140, 410, 630(A)(13)</t>
   </si>
   <si>
-    <t>527 C.M.R. 1.00</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.310, G.L. c. 143, § 21D</t>
   </si>
   <si>
@@ -4252,9 +4221,6 @@
   </si>
   <si>
     <t>No working carbon monoxide detector.</t>
-  </si>
-  <si>
-    <t>No working fire extinguishers.</t>
   </si>
   <si>
     <t>No working smoke detectors.</t>
@@ -4691,63 +4657,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -5057,11 +4967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA361"/>
+  <dimension ref="A1:AA360"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A26:XFD27"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5136,7 +5046,7 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>30</v>
@@ -5148,7 +5058,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5163,7 +5073,7 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>34</v>
@@ -5175,7 +5085,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5190,7 +5100,7 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
@@ -5202,7 +5112,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5217,7 +5127,7 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
@@ -5229,7 +5139,7 @@
         <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5244,19 +5154,19 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5271,7 +5181,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>149</v>
@@ -5283,12 +5193,12 @@
         <v>151</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>25</v>
@@ -5298,24 +5208,24 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>25</v>
@@ -5325,24 +5235,24 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>25</v>
@@ -5352,24 +5262,24 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>25</v>
@@ -5379,24 +5289,24 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>25</v>
@@ -5406,24 +5316,24 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>25</v>
@@ -5433,24 +5343,24 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>25</v>
@@ -5460,24 +5370,24 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>25</v>
@@ -5487,34 +5397,34 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>60</v>
@@ -5526,22 +5436,22 @@
         <v>62</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>125</v>
@@ -5553,22 +5463,22 @@
         <v>127</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>154</v>
@@ -5580,130 +5490,130 @@
         <v>156</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>264</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>266</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>137</v>
@@ -5715,49 +5625,49 @@
         <v>139</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>145</v>
@@ -5769,103 +5679,103 @@
         <v>147</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>107</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>102</v>
@@ -5877,22 +5787,22 @@
         <v>104</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>70</v>
@@ -5904,61 +5814,61 @@
         <v>72</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>113</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
@@ -5990,19 +5900,19 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6017,19 +5927,19 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6044,19 +5954,19 @@
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>107</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6064,26 +5974,26 @@
         <v>184</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>185</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6098,7 +6008,7 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>241</v>
@@ -6110,12 +6020,12 @@
         <v>242</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>25</v>
@@ -6125,24 +6035,24 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>25</v>
@@ -6152,24 +6062,24 @@
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>25</v>
@@ -6179,24 +6089,24 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>25</v>
@@ -6206,19 +6116,19 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6233,7 +6143,7 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>70</v>
@@ -6245,7 +6155,7 @@
         <v>72</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6260,7 +6170,7 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>74</v>
@@ -6272,7 +6182,7 @@
         <v>76</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6287,19 +6197,19 @@
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>53</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6314,7 +6224,7 @@
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>78</v>
@@ -6326,7 +6236,7 @@
         <v>80</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6341,7 +6251,7 @@
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>82</v>
@@ -6353,7 +6263,7 @@
         <v>84</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6368,24 +6278,24 @@
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>112</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>113</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>25</v>
@@ -6395,19 +6305,19 @@
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -6429,7 +6339,7 @@
     </row>
     <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>25</v>
@@ -6439,24 +6349,24 @@
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>25</v>
@@ -6466,24 +6376,24 @@
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G50" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>443</v>
-      </c>
       <c r="I50" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>25</v>
@@ -6493,19 +6403,19 @@
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -6520,7 +6430,7 @@
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>280</v>
@@ -6532,12 +6442,12 @@
         <v>282</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>25</v>
@@ -6547,19 +6457,19 @@
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -6567,14 +6477,14 @@
         <v>157</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>159</v>
@@ -6586,7 +6496,7 @@
         <v>161</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -6601,19 +6511,19 @@
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>180</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -6628,7 +6538,7 @@
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>175</v>
@@ -6640,7 +6550,7 @@
         <v>177</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -6648,14 +6558,14 @@
         <v>275</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>276</v>
@@ -6667,66 +6577,66 @@
         <v>278</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>277</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>158</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>277</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>25</v>
@@ -6736,24 +6646,24 @@
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>25</v>
@@ -6763,24 +6673,24 @@
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>25</v>
@@ -6790,24 +6700,24 @@
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>25</v>
@@ -6817,24 +6727,24 @@
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>25</v>
@@ -6844,24 +6754,24 @@
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>25</v>
@@ -6871,19 +6781,19 @@
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -6898,7 +6808,7 @@
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>94</v>
@@ -6910,7 +6820,7 @@
         <v>96</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -6918,14 +6828,14 @@
         <v>97</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>98</v>
@@ -6937,7 +6847,7 @@
         <v>100</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -6952,7 +6862,7 @@
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>102</v>
@@ -6964,7 +6874,7 @@
         <v>104</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -6979,7 +6889,7 @@
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>125</v>
@@ -6991,7 +6901,7 @@
         <v>127</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7006,24 +6916,24 @@
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>25</v>
@@ -7033,19 +6943,19 @@
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7053,14 +6963,14 @@
         <v>88</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>89</v>
@@ -7072,12 +6982,12 @@
         <v>91</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>25</v>
@@ -7087,24 +6997,24 @@
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>25</v>
@@ -7114,24 +7024,24 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>25</v>
@@ -7141,19 +7051,19 @@
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7161,14 +7071,14 @@
         <v>9</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>11</v>
@@ -7180,7 +7090,7 @@
         <v>13</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7195,7 +7105,7 @@
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>60</v>
@@ -7207,7 +7117,7 @@
         <v>62</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7215,26 +7125,26 @@
         <v>85</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>86</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7249,7 +7159,7 @@
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>129</v>
@@ -7261,7 +7171,7 @@
         <v>131</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7269,14 +7179,14 @@
         <v>132</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>133</v>
@@ -7288,7 +7198,7 @@
         <v>135</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7303,7 +7213,7 @@
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>137</v>
@@ -7315,169 +7225,169 @@
         <v>139</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7492,19 +7402,19 @@
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7519,7 +7429,7 @@
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>120</v>
@@ -7531,7 +7441,7 @@
         <v>122</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7546,10 +7456,10 @@
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>142</v>
@@ -7558,7 +7468,7 @@
         <v>143</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -7566,14 +7476,14 @@
         <v>223</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>224</v>
@@ -7585,12 +7495,12 @@
         <v>226</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>25</v>
@@ -7600,24 +7510,24 @@
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>25</v>
@@ -7627,24 +7537,24 @@
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>25</v>
@@ -7654,24 +7564,24 @@
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>25</v>
@@ -7681,24 +7591,24 @@
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>25</v>
@@ -7708,24 +7618,24 @@
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>25</v>
@@ -7735,24 +7645,24 @@
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>25</v>
@@ -7762,19 +7672,19 @@
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -7789,7 +7699,7 @@
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>215</v>
@@ -7801,7 +7711,7 @@
         <v>217</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -7816,7 +7726,7 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>219</v>
@@ -7828,12 +7738,12 @@
         <v>221</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>25</v>
@@ -7843,19 +7753,19 @@
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -7870,7 +7780,7 @@
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>17</v>
@@ -7882,12 +7792,12 @@
         <v>19</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>25</v>
@@ -7897,19 +7807,19 @@
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -7917,14 +7827,14 @@
         <v>199</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>200</v>
@@ -7936,7 +7846,7 @@
         <v>202</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -7944,14 +7854,14 @@
         <v>203</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>204</v>
@@ -7963,7 +7873,7 @@
         <v>206</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -7978,19 +7888,19 @@
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>208</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>209</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -8005,7 +7915,7 @@
       </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>211</v>
@@ -8017,7 +7927,7 @@
         <v>213</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
@@ -8039,7 +7949,7 @@
     </row>
     <row r="108" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>25</v>
@@ -8049,24 +7959,24 @@
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>25</v>
@@ -8076,19 +7986,19 @@
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
@@ -8110,7 +8020,7 @@
     </row>
     <row r="110" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>25</v>
@@ -8120,73 +8030,73 @@
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B111" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>621</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -8201,7 +8111,7 @@
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>237</v>
@@ -8213,7 +8123,7 @@
         <v>239</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -8228,7 +8138,7 @@
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>229</v>
@@ -8240,7 +8150,7 @@
         <v>231</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -8255,7 +8165,7 @@
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F115" s="7" t="s">
         <v>233</v>
@@ -8267,34 +8177,34 @@
         <v>235</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -8302,26 +8212,26 @@
         <v>167</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="F117" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>169</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -8329,26 +8239,26 @@
         <v>181</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>182</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>183</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -8356,26 +8266,26 @@
         <v>189</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F119" s="7" t="s">
         <v>190</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>191</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -8383,14 +8293,14 @@
         <v>162</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>164</v>
@@ -8402,7 +8312,7 @@
         <v>166</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -8417,7 +8327,7 @@
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>264</v>
@@ -8429,7 +8339,7 @@
         <v>266</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -8444,7 +8354,7 @@
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F122" s="7" t="s">
         <v>268</v>
@@ -8456,12 +8366,12 @@
         <v>270</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>25</v>
@@ -8471,24 +8381,24 @@
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>25</v>
@@ -8498,24 +8408,24 @@
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>25</v>
@@ -8525,24 +8435,24 @@
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>25</v>
@@ -8552,24 +8462,24 @@
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>25</v>
@@ -8579,19 +8489,19 @@
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -8599,14 +8509,14 @@
         <v>170</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>171</v>
@@ -8618,7 +8528,7 @@
         <v>173</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -8626,26 +8536,26 @@
         <v>196</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>163</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>197</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>198</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -8660,19 +8570,19 @@
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F130" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>65</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -8687,19 +8597,19 @@
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -8714,19 +8624,19 @@
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>109</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>110</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -8734,26 +8644,26 @@
         <v>186</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F133" s="7" t="s">
         <v>187</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>188</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -8761,14 +8671,14 @@
         <v>243</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>241</v>
@@ -8780,34 +8690,34 @@
         <v>244</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="J135" s="14"/>
       <c r="K135" s="14"/>
@@ -8830,7 +8740,7 @@
     </row>
     <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>25</v>
@@ -8840,24 +8750,24 @@
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>25</v>
@@ -8867,19 +8777,19 @@
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -8894,10 +8804,10 @@
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>257</v>
@@ -8906,12 +8816,12 @@
         <v>258</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>25</v>
@@ -8921,24 +8831,24 @@
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G139" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="H139" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H139" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="I139" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>25</v>
@@ -8948,19 +8858,19 @@
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -8975,7 +8885,7 @@
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="F141" s="7" t="s">
         <v>154</v>
@@ -8987,7 +8897,7 @@
         <v>156</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -9002,7 +8912,7 @@
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F142" s="7" t="s">
         <v>260</v>
@@ -9014,12 +8924,12 @@
         <v>262</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>25</v>
@@ -9029,24 +8939,24 @@
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>25</v>
@@ -9056,24 +8966,24 @@
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F144" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="H144" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="G144" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>516</v>
-      </c>
       <c r="I144" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>25</v>
@@ -9083,19 +8993,19 @@
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F145" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="H145" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G145" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>517</v>
-      </c>
       <c r="I145" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -9110,7 +9020,7 @@
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>56</v>
@@ -9122,7 +9032,7 @@
         <v>58</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -9137,7 +9047,7 @@
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F147" s="7" t="s">
         <v>115</v>
@@ -9149,12 +9059,12 @@
         <v>117</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>25</v>
@@ -9164,19 +9074,19 @@
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -9191,19 +9101,19 @@
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>246</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>247</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -9218,19 +9128,19 @@
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>250</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -9245,7 +9155,7 @@
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>252</v>
@@ -9257,7 +9167,7 @@
         <v>254</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -9272,7 +9182,7 @@
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>272</v>
@@ -9284,49 +9194,49 @@
         <v>274</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>621</v>
+        <v>25</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>338</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>25</v>
+        <v>616</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7" t="s">
-        <v>717</v>
+        <v>740</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>339</v>
@@ -9338,39 +9248,39 @@
         <v>341</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>808</v>
+        <v>596</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
-        <v>342</v>
+        <v>489</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>621</v>
+        <v>25</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>343</v>
+        <v>490</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>345</v>
+        <v>491</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>601</v>
+        <v>803</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
-        <v>493</v>
+        <v>349</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>25</v>
@@ -9380,24 +9290,24 @@
       </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>494</v>
+        <v>350</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>495</v>
+        <v>352</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
-        <v>353</v>
+        <v>67</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>25</v>
@@ -9407,24 +9317,24 @@
       </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>354</v>
+        <v>64</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>355</v>
+        <v>759</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>809</v>
+        <v>65</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>25</v>
@@ -9434,78 +9344,78 @@
       </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7" t="s">
-        <v>749</v>
+        <v>714</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>765</v>
+        <v>300</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>559</v>
+        <v>301</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>25</v>
+        <v>616</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>303</v>
+        <v>384</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
-        <v>387</v>
+        <v>144</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>621</v>
+        <v>25</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F160" s="7" t="s">
-        <v>388</v>
+        <v>145</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>389</v>
+        <v>146</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>390</v>
+        <v>147</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>25</v>
@@ -9515,24 +9425,24 @@
       </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>796</v>
+        <v>589</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
-        <v>192</v>
+        <v>294</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>25</v>
@@ -9542,64 +9452,64 @@
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F162" s="7" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>194</v>
+        <v>296</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
-        <v>298</v>
+        <v>445</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>25</v>
+        <v>616</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>299</v>
+        <v>548</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>300</v>
+        <v>446</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>301</v>
+        <v>447</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="7" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>552</v>
+        <v>449</v>
       </c>
       <c r="G164" s="10" t="s">
         <v>450</v>
@@ -9608,35 +9518,13 @@
         <v>451</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D165" s="7"/>
-      <c r="E165" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="I165" s="2" t="s">
-        <v>595</v>
-      </c>
+      <c r="G165" s="10"/>
+      <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D166" s="7"/>
@@ -10613,123 +10501,78 @@
       <c r="G360" s="10"/>
       <c r="H360" s="7"/>
     </row>
-    <row r="361" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D361" s="7"/>
-      <c r="G361" s="10"/>
-      <c r="H361" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I165" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I165">
-      <sortCondition ref="C1:C165"/>
+  <autoFilter ref="A1:I164" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I164">
+      <sortCondition ref="C1:C164"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E155 E128:E129 G131:G157 G128:G129 G27 G29 G1:G25 E1:E54">
-    <cfRule type="expression" dxfId="21" priority="19">
+  <conditionalFormatting sqref="E1:E54 G131:G156">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="12" priority="20">
       <formula>E27&lt;&gt;E27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="19" priority="29">
+    <cfRule type="expression" dxfId="11" priority="29">
       <formula>E34&lt;&gt;E34</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56:E71 E83:E84 E98:E100 E110:E111 E114 E136 E141:E144">
-    <cfRule type="expression" dxfId="18" priority="33">
+    <cfRule type="expression" dxfId="10" priority="33">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:E103">
-    <cfRule type="expression" dxfId="17" priority="32">
+    <cfRule type="expression" dxfId="9" priority="32">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="16" priority="31">
+    <cfRule type="expression" dxfId="8" priority="31">
       <formula>E103&lt;&gt;E103</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="7" priority="27">
       <formula>E130&lt;&gt;E130</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E132">
-    <cfRule type="expression" dxfId="14" priority="28">
+  <conditionalFormatting sqref="E157">
+    <cfRule type="expression" dxfId="6" priority="25">
+      <formula>E157&lt;&gt;E157</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="26">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="expression" dxfId="13" priority="25">
-      <formula>E158&lt;&gt;E158</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26">
+  <conditionalFormatting sqref="G1:G25">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G34">
-    <cfRule type="expression" dxfId="11" priority="18">
+  <conditionalFormatting sqref="G27:G34">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38:G54">
-    <cfRule type="expression" dxfId="10" priority="22">
+    <cfRule type="expression" dxfId="2" priority="22">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G69 G72:G77 G79:G82 G159:G165">
-    <cfRule type="expression" dxfId="9" priority="24">
+  <conditionalFormatting sqref="G56:G69 G72:G77 G79:G82 G158:G164">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85:G129">
-    <cfRule type="expression" dxfId="8" priority="21">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="7" priority="17">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="6" priority="15">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="expression" dxfId="5" priority="12">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="4" priority="11">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G25">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="G85:G129 E128:E132 E154">
+    <cfRule type="expression" dxfId="0" priority="19">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_checklist.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Keliza/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5E6D6A-EBF1-3942-824C-C048EB7C5011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADF1A03-BDA5-D84F-8B61-CF4BFCF79C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28320" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-lt1-booklet-2-housing-co" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabula-lt1-booklet-2-housing-co'!$A$1:$I$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tabula-lt1-booklet-2-housing-co'!$A$1:$I$152</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="786">
   <si>
     <t>ID</t>
   </si>
@@ -503,9 +503,6 @@
     <t>dampness_living_room</t>
   </si>
   <si>
-    <t>dampness_water</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
@@ -1310,45 +1307,6 @@
     </r>
   </si>
   <si>
-    <t>insufficient_space_bedroom</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>La superficie del piso de cada habitación debe ser de al menos 70 pies cuadrados para una sola persona. Si más de una persona duerme en la habitación, la superficie del piso debe ser de 50 pies cuadrados para cada persona.</t>
-    </r>
-  </si>
-  <si>
-    <t>insufficient_space_unit</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>No hay al menos 100 pies cuadrados de espacio para cada persona que viva en el apartamento, más 50 pies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cada unidad de vivienda debe tener al menos 150 pies cuadrados de espacio para el primer ocupante y 100 pies cuadrados para cada ocupante adicional. Para obtener la cantidad de pies cuadrados en su unidad, sume todo el espacio de la superficie del piso en las habitaciones habitables.</t>
-    </r>
-  </si>
-  <si>
     <t>insufficient_stairway_light</t>
   </si>
   <si>
@@ -1439,9 +1397,6 @@
       </rPr>
       <t>Los pisos no son lisos, impermeables ni están acabados con una capa protectora (como concreto sin acabado)</t>
     </r>
-  </si>
-  <si>
-    <t>Floors must be smooth, non-corrosive, and waterproof.</t>
   </si>
   <si>
     <r>
@@ -1733,20 +1688,6 @@
     </r>
   </si>
   <si>
-    <t>light_living_room</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cada habitación debe tener un vidrio transparente o translúcido que admita la luz del exterior. La superficie del vidrio debe ser igual que al menos el 8 % de la superficie del piso de esa habitación. Esto no se aplica a un baño o una cocina que midan menos de 70 pies cuadrados.</t>
-    </r>
-  </si>
-  <si>
     <t>locks_missing_building</t>
   </si>
   <si>
@@ -2402,34 +2343,6 @@
     </r>
   </si>
   <si>
-    <t>no_sprinkler</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>No hay un sistema de rociadores automáticos en un edificio de más de 70 pies de altura</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Buildings over 70 feet high must have an automatic sprinkler system in accordance with the state Building Code. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Los edificios de más de 70 pies de altura deben tener un sistema de rociadores automáticos de acuerdo con el Código de construcción del estado. </t>
-    </r>
-  </si>
-  <si>
     <t>no_stairway_light</t>
   </si>
   <si>
@@ -2528,34 +2441,6 @@
     </r>
   </si>
   <si>
-    <t>not_enough_exits</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>No hay suficientes salidas seguras</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">There must be as many exits as necessary for safe passage of all people as defined by the state Building Code. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Debe haber tantas salidas como sea necesario para garantizar el paso seguro de todas las personas según lo define el Código de construcción del estado. </t>
-    </r>
-  </si>
-  <si>
     <t>not_enough_garbage_cans</t>
   </si>
   <si>
@@ -2683,12 +2568,6 @@
       </rPr>
       <t>La estufa o el horno no funcionan</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Landlord must provide a stove and oven in good working
-condition (unless written agreement requires tenant to
-provide these). 
-</t>
   </si>
   <si>
     <r>
@@ -3346,37 +3225,6 @@
     </r>
   </si>
   <si>
-    <t>ventilation_bedroom</t>
-  </si>
-  <si>
-    <t>No hay suficientes ventanas o puertas que se abran u otra ventilación</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cada habitación debe tener ventanas, tragaluces, puertas o travesaños en la pared exterior o en el techo que se abran fácilmente como mínimo a un 4 % del área del piso de esa habitación, o debe tener un sistema de ventilación mecánica adecuado.</t>
-    </r>
-  </si>
-  <si>
-    <t>ventilation_living_room</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cada habitación debe tener ventanas, tragaluces, puertas o travesaños en la pared exterior o en el techo que se abran fácilmente como mínimo a un 4 % del área del piso de esa habitación, o debe tener un sistema de ventilación mecánica adecuado.</t>
-    </r>
-  </si>
-  <si>
     <t>wall_structural</t>
   </si>
   <si>
@@ -3519,20 +3367,6 @@
     </r>
   </si>
   <si>
-    <t>window_kitchen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cada habitación debe tener ventanas, tragaluces, puertas o travesaños en la pared exterior o en el techo que se abran fácilmente como mínimo a un 4 % del área del piso de esa habitación, o debe tener un sistema de ventilación mecánica adecuado.</t>
-    </r>
-  </si>
-  <si>
     <t>window_structural</t>
   </si>
   <si>
@@ -3625,12 +3459,6 @@
     <t>Cockroaches</t>
   </si>
   <si>
-    <t>Every bedroom must have at least 70 square feet of floor space if only one person sleeps there. If more than one person is sleeping in the room, it must have 50 square feet of floor space for each person. Warning: reporting overcrowding may result in the Board of Health requiring a tenant to move.</t>
-  </si>
-  <si>
-    <t>Every dwelling unit must have at least 150 square feet of floor space for the first occupant and 100 square feet for each additional occupant. Add up all the floor space in habitable rooms to get the number of square feet in your unit. Warning: reporting overcrowding  to the city inspector may result in the city ordering a tenant to move.</t>
-  </si>
-  <si>
     <t>All windows that open to the outside must have screens between April 1 and October 31.</t>
   </si>
   <si>
@@ -3661,9 +3489,6 @@
     <t>En edificios que tengan 2 o más unidades, el dueño debe proporcionar suficientes tachos de basura herméticos. Los tachos deben tener tapas bien ajustadas. El dueño debe colocar los tachos en lugares que sean convenientes para los inquilinos y que no permitan que los olores entren al espacio habitado.</t>
   </si>
   <si>
-    <t>No hay al menos 50 pies de espacio en cada habitación para cada persona que vive allí, más 20 pies</t>
-  </si>
-  <si>
     <t>No hay suficientes tachos de basura en un edificio con 2 o más unidades</t>
   </si>
   <si>
@@ -3742,9 +3567,6 @@
     <t>105 C.M.R. 410.500(A)(1)</t>
   </si>
   <si>
-    <t>105 C.M.R. 410.420(D)</t>
-  </si>
-  <si>
     <t>105 C.M.R. 410.220(A)</t>
   </si>
   <si>
@@ -3862,9 +3684,6 @@
     <t>105 C.M.R. 410.470, G.L. c. 111, § 197</t>
   </si>
   <si>
-    <t>G.L. c. 148, § 26A</t>
-  </si>
-  <si>
     <t>G.L. c. 186, §§ 14, 22; 105 C.M.R. 410.130(C)</t>
   </si>
   <si>
@@ -3956,12 +3775,6 @@
     <t>Shower or bathtub is in a room used for living, sleeping, or eating.</t>
   </si>
   <si>
-    <t>Floor has broken tiles or is not waterproof.</t>
-  </si>
-  <si>
-    <t>Walls are not waterproof or their surface is rough and prone to mildew and mold.</t>
-  </si>
-  <si>
     <t>Walls above bathtubs with showers do not have a waterproof surface.</t>
   </si>
   <si>
@@ -3974,12 +3787,6 @@
     <t>Rooms with a toilet, bathtub, or shower do not have doors that close.</t>
   </si>
   <si>
-    <t>Not enough natural light from windows.</t>
-  </si>
-  <si>
-    <t>Not enough windows or doors that open, or not enough other ventilation.</t>
-  </si>
-  <si>
     <t>Chimney has holes or cracks so weather can get in.</t>
   </si>
   <si>
@@ -4010,9 +3817,6 @@
     <t>No gas.</t>
   </si>
   <si>
-    <t>Not enough electricity for tenant's reasonable needs.</t>
-  </si>
-  <si>
     <t>Common areas in the building do not have enough outlets or light switches.</t>
   </si>
   <si>
@@ -4034,12 +3838,6 @@
     <t>Wiring is covered by a rug or carpet or goes through a doorway.</t>
   </si>
   <si>
-    <t>Not enough safe exits.</t>
-  </si>
-  <si>
-    <t>Too many exits are blocked.</t>
-  </si>
-  <si>
     <t>Building has 2 or more units and 1 or more exits are not kept clear.</t>
   </si>
   <si>
@@ -4052,9 +3850,6 @@
     <t>Common areas have built up garbage that can attract pests.</t>
   </si>
   <si>
-    <t>Building has at least 2 units and the landlord does not collect garbage..</t>
-  </si>
-  <si>
     <t>Building has at least 2 units and does not have enough garbage cans.</t>
   </si>
   <si>
@@ -4079,27 +3874,12 @@
     <t>Drains and vents are not properly maintained.</t>
   </si>
   <si>
-    <t>Gas pipes are not properly maintained.</t>
-  </si>
-  <si>
-    <t>Water heating equipment and water pipes are not properly maintained.</t>
-  </si>
-  <si>
     <t>Heating equipment is not properly maintained.</t>
   </si>
   <si>
-    <t>No sign with the landlord's contact information is clearly posted inside the building.</t>
-  </si>
-  <si>
-    <t>Doors that open to the outside do not have screens.</t>
-  </si>
-  <si>
     <t>Windows do not have screens.</t>
   </si>
   <si>
-    <t>Stoves and ovens are not properly maintained.</t>
-  </si>
-  <si>
     <t>Smoke and carbon monoxide detectors are not properly maintained.</t>
   </si>
   <si>
@@ -4136,30 +3916,12 @@
     <t>Sink is not large enough to wash dishes.</t>
   </si>
   <si>
-    <t>No working light fixture.</t>
-  </si>
-  <si>
     <t>At least 1 of the appliances the landlord installed is not working.</t>
   </si>
   <si>
-    <t>Ceiling has holes or cracks and lets in the weather.</t>
-  </si>
-  <si>
-    <t>Floors are not smooth, waterproof, or finished with a protective coating. Unfinished concrete is an example of a problem floor.</t>
-  </si>
-  <si>
     <t>Wooden floors do not have a water-resistant finish or have cracks.</t>
   </si>
   <si>
-    <t>Fewer than 2 wall outlets.</t>
-  </si>
-  <si>
-    <t>Sink does not have proper drainage.</t>
-  </si>
-  <si>
-    <t>Sink does not get hot and cold water.</t>
-  </si>
-  <si>
     <t>Kitchen carpet is not waterproof.</t>
   </si>
   <si>
@@ -4190,12 +3952,6 @@
     <t>Outside stairways and passageways are not lit safely.</t>
   </si>
   <si>
-    <t>The room is so damp you can see mold, wet spots, or fungus.</t>
-  </si>
-  <si>
-    <t>The apartment does not have at least 100 square feet of space for each person who lives there, plus 50 feet.</t>
-  </si>
-  <si>
     <t>Porch, balcony, or roof is missing railings or the railings are not safe.</t>
   </si>
   <si>
@@ -4208,9 +3964,6 @@
     <t>Front door does not lock automatically.</t>
   </si>
   <si>
-    <t>Outside windows or doors do not lock.</t>
-  </si>
-  <si>
     <t>Locks for the building are missing or not secure.</t>
   </si>
   <si>
@@ -4250,24 +4003,9 @@
     <t>Tenant does not have access to water submeter.</t>
   </si>
   <si>
-    <t>Ceiling has holes or cracks so weather, moisture, or pests can get in.</t>
-  </si>
-  <si>
-    <t>Lights do not work, are not bright enough, or are not safe.</t>
-  </si>
-  <si>
-    <t>Room is so damp that sometimes you can see mold, wet spots, or fungus.</t>
-  </si>
-  <si>
     <t>Floor has holes or cracks so weather, moisture, or pests can get in.</t>
   </si>
   <si>
-    <t>All bedrooms do not have 50 feet for each person who sleeps in the room, plus 20 feet.</t>
-  </si>
-  <si>
-    <t>Walls have holes or cracks so weather, moisture, or pests can get in.</t>
-  </si>
-  <si>
     <t>Roof has holes or cracks so weather, moisture, or pests can get in.</t>
   </si>
   <si>
@@ -4280,9 +4018,6 @@
     <t>Roof has a dangerous problem.</t>
   </si>
   <si>
-    <t>Some of the rooms tenant lives in do not have at least 2 outlets, or 1 outlet and 1 light fixture.</t>
-  </si>
-  <si>
     <t>No heat or not enough heat between September 15 and May 31.</t>
   </si>
   <si>
@@ -4295,9 +4030,6 @@
     <t>No space with the right kind of electrical outlet for a refrigerator.</t>
   </si>
   <si>
-    <t>Building has 2 or 3 units and the tenant pays for lights outside the apartment.</t>
-  </si>
-  <si>
     <t>Building has more than 10 units and no emergency lights.</t>
   </si>
   <si>
@@ -4310,21 +4042,12 @@
     <t>Flies, ants, or other insects infestation.</t>
   </si>
   <si>
-    <t>Building is more than 70 feet tall and does not have an automatic sprinkler system.</t>
-  </si>
-  <si>
     <t>Not enough natural light from windows in a room other than bathroom or kitchen.</t>
   </si>
   <si>
     <t>Not enough windows or doors that open or other ventilation in a room.</t>
   </si>
   <si>
-    <t>Place is so damp you can see mold, wet spots, or fungus.</t>
-  </si>
-  <si>
-    <t>Water company bills the tenant, but there are no submeters or other steps the law requires.</t>
-  </si>
-  <si>
     <t>Ceiling must be weathertight, free from excess moisture, insect-proof, or rodent-proof. It cannot have holes, cracks, loose plaster and other defects.</t>
   </si>
   <si>
@@ -4397,12 +4120,6 @@
     <t>walls_basement</t>
   </si>
   <si>
-    <t>danger_foundation_basement</t>
-  </si>
-  <si>
-    <t>foundation_basement</t>
-  </si>
-  <si>
     <t>other_danger_basement</t>
   </si>
   <si>
@@ -4412,9 +4129,6 @@
     <t>garbage_basement</t>
   </si>
   <si>
-    <t>unsafe_furnace_basement</t>
-  </si>
-  <si>
     <t>basement_common_area_not_sanitary</t>
   </si>
   <si>
@@ -4523,9 +4237,6 @@
     <t>Common interior passageways are not lit safely 24 hours a day.</t>
   </si>
   <si>
-    <t>Not enough ventilation in bathroom.</t>
-  </si>
-  <si>
     <t>Basement/cellar is not lit safely.</t>
   </si>
   <si>
@@ -4535,14 +4246,122 @@
     <t>Basement/Cellar</t>
   </si>
   <si>
-    <t>Basement/Cellar is not lit safely.</t>
+    <t>Bathroom floor has broken tiles or is not waterproof.</t>
+  </si>
+  <si>
+    <t>Not enough ventilation in bathroom (need working fan OR window that opens).</t>
+  </si>
+  <si>
+    <t>Bathroom lights do not work, are not bright enough, or are not safe.</t>
+  </si>
+  <si>
+    <t>Bathroom walls are not waterproof or their surface is rough and prone to mildew and mold.</t>
+  </si>
+  <si>
+    <t>Basement is so damp that sometimes you can see mold, wet spots, or fungus.</t>
+  </si>
+  <si>
+    <t>Ceiling in bedroom has holes or cracks so weather, moisture, or pests can get in.</t>
+  </si>
+  <si>
+    <t>Bedroom is so damp that sometimes you can see mold, wet spots, or fungus.</t>
+  </si>
+  <si>
+    <t>Not enough natural light from bedroom windows.</t>
+  </si>
+  <si>
+    <t>Not enough electricity for Tenant's reasonable needs.</t>
+  </si>
+  <si>
+    <t>Some of the rooms Tenant lives in do not have at least 2 outlets, or 1 outlet and 1 light fixture.</t>
+  </si>
+  <si>
+    <t>Building has at least 2 units and the landlord does not collect garbage.</t>
+  </si>
+  <si>
+    <t>No sign with Landlord's contact information is clearly posted inside the building.</t>
+  </si>
+  <si>
+    <t>Stove and oven are not properly maintained.</t>
+  </si>
+  <si>
+    <t>No working light fixture in kitchen.</t>
+  </si>
+  <si>
+    <t>Water company bills the Tenant, but there are no submeters, water-saving devices or other steps the law requires.</t>
+  </si>
+  <si>
+    <t>Living room is so damp you can see mold, wet spots, or fungus.</t>
+  </si>
+  <si>
+    <t>Living room ceiling has holes or cracks so weather, moisture, or pests can get in.</t>
+  </si>
+  <si>
+    <t>Living room walls have holes or cracks so weather, moisture, or pests can get in.</t>
+  </si>
+  <si>
+    <t>Bathroom ceiling has holes or cracks so weather, moisture, or pests can get in.</t>
+  </si>
+  <si>
+    <t>Basement is not lit safely.</t>
+  </si>
+  <si>
+    <t>Basement floor has holes or cracks so weather, moisture, or pests can get in.</t>
+  </si>
+  <si>
+    <t>Basement walls have holes or cracks so weather, moisture, or pests can get in.</t>
+  </si>
+  <si>
+    <t>Bedroom floor has holes or cracks so weather, moisture, or pests can get in.</t>
+  </si>
+  <si>
+    <t>Bedroom walls have holes or cracks so weather, moisture, or pests can get in.</t>
+  </si>
+  <si>
+    <t>Exits are blocked.</t>
+  </si>
+  <si>
+    <t>Doors that swing open to the outside do not have screens.</t>
+  </si>
+  <si>
+    <t>Gas leaks, or gas pipes are not properly maintained.</t>
+  </si>
+  <si>
+    <t>Water heating equipment or water pipes are not properly maintained.</t>
+  </si>
+  <si>
+    <t>Kitchen ceiling has holes or cracks and lets in the weather.</t>
+  </si>
+  <si>
+    <t>Kitchen has fewer than 2 wall outlets.</t>
+  </si>
+  <si>
+    <t>Kitchen sink does not drain properly.</t>
+  </si>
+  <si>
+    <t>Kitchen sink does not get hot and cold water.</t>
+  </si>
+  <si>
+    <t>Kitchen walls have holes or cracks so weather, moisture, or pests can get in.</t>
+  </si>
+  <si>
+    <t>Kitchen floors are not smooth, waterproof, or finished with a protective coating.</t>
+  </si>
+  <si>
+    <t>Floors must be smooth, non-corrosive, and waterproof. Unfinished concrete is an example of a problem floor.</t>
+  </si>
+  <si>
+    <t>Building has 2 or 3 units and the Tenant pays for lights in common areas of the apartment.</t>
+  </si>
+  <si>
+    <t>Common area windows or doors do not lock.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4557,13 +4376,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4618,7 +4430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4651,48 +4463,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -4767,6 +4543,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4967,11 +4747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA360"/>
+  <dimension ref="A1:AA348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5046,7 +4826,7 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>30</v>
@@ -5058,7 +4838,7 @@
         <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5073,7 +4853,7 @@
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>34</v>
@@ -5085,7 +4865,7 @@
         <v>36</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>783</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5100,7 +4880,7 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
@@ -5112,7 +4892,7 @@
         <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5127,7 +4907,7 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
@@ -5139,7 +4919,7 @@
         <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.2">
@@ -5154,24 +4934,24 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>720</v>
+        <v>767</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>757</v>
+        <v>695</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>25</v>
@@ -5181,24 +4961,24 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>811</v>
+        <v>750</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>784</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>25</v>
@@ -5208,24 +4988,24 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>785</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>25</v>
@@ -5235,24 +5015,24 @@
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>25</v>
@@ -5262,24 +5042,24 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>622</v>
+        <v>749</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>25</v>
@@ -5289,24 +5069,24 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>623</v>
+        <v>752</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>746</v>
+        <v>684</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>25</v>
@@ -5316,24 +5096,24 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>25</v>
@@ -5343,24 +5123,24 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>747</v>
+        <v>685</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>25</v>
@@ -5370,24 +5150,24 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>25</v>
@@ -5397,34 +5177,34 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>775</v>
+        <v>710</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>661</v>
+        <v>623</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>60</v>
@@ -5436,461 +5216,461 @@
         <v>62</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>773</v>
+        <v>709</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>653</v>
+        <v>616</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>786</v>
+        <v>721</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>780</v>
+        <v>715</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>738</v>
+        <v>679</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>787</v>
+        <v>722</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>778</v>
+        <v>713</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>815</v>
+        <v>768</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>813</v>
+        <v>747</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>779</v>
+        <v>714</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>696</v>
+        <v>647</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>777</v>
+        <v>712</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>671</v>
+        <v>628</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>774</v>
+        <v>711</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>465</v>
+        <v>136</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>466</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>467</v>
+        <v>138</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>788</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>776</v>
+        <v>716</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>290</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>569</v>
+        <v>724</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>781</v>
+        <v>717</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>714</v>
+        <v>664</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>300</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>301</v>
+        <v>146</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>789</v>
+        <v>725</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>782</v>
+        <v>704</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7" t="s">
-        <v>716</v>
+        <v>769</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>146</v>
+        <v>696</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>790</v>
+        <v>106</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>766</v>
+      <c r="A26" s="14" t="s">
+        <v>705</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>758</v>
+        <v>698</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>554</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>767</v>
+      <c r="A27" s="7" t="s">
+        <v>706</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>64</v>
+        <v>455</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>760</v>
+        <v>699</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>65</v>
+        <v>458</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>768</v>
+        <v>708</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
-        <v>725</v>
+        <v>615</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>478</v>
+        <v>101</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>761</v>
+        <v>102</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>554</v>
+        <v>103</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>772</v>
+        <v>707</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
-        <v>652</v>
+        <v>600</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>102</v>
+        <v>353</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>103</v>
+        <v>354</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>104</v>
+        <v>355</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>568</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>769</v>
+      <c r="A30" t="s">
+        <v>37</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>814</v>
+        <v>38</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>71</v>
+        <v>495</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>770</v>
+      <c r="A31" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>814</v>
+        <v>38</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>633</v>
+        <v>755</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>526</v>
+        <v>698</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>559</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>771</v>
+      <c r="A32" t="s">
+        <v>104</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>814</v>
+        <v>38</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>634</v>
+        <v>771</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>370</v>
+        <v>105</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>371</v>
+        <v>696</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>25</v>
@@ -5900,24 +5680,24 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>720</v>
+        <v>756</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>522</v>
+        <v>171</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>559</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>456</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>25</v>
@@ -5927,159 +5707,159 @@
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>722</v>
+        <v>772</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>64</v>
+        <v>457</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>760</v>
+        <v>699</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>65</v>
+        <v>458</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>105</v>
+      <c r="A35" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7" t="s">
-        <v>723</v>
+        <v>669</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>106</v>
+        <v>382</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>758</v>
+        <v>497</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>107</v>
+        <v>383</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>184</v>
+        <v>472</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7" t="s">
-        <v>724</v>
+        <v>670</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="G36" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>556</v>
-      </c>
     </row>
     <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>240</v>
+      <c r="A37" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>242</v>
+        <v>71</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>792</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>472</v>
+      <c r="A38" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>473</v>
+        <v>73</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>748</v>
+        <v>74</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>557</v>
+        <v>75</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>479</v>
+      <c r="A39" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>725</v>
+        <v>596</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>480</v>
+        <v>52</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>761</v>
+        <v>498</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>481</v>
+        <v>53</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>25</v>
@@ -6089,24 +5869,24 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>726</v>
+        <v>597</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>524</v>
+        <v>78</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>560</v>
+        <v>79</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>25</v>
@@ -6116,24 +5896,24 @@
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>727</v>
+        <v>598</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>498</v>
+        <v>81</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>500</v>
+        <v>83</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>25</v>
@@ -6143,24 +5923,24 @@
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>728</v>
+        <v>599</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>71</v>
+        <v>499</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>559</v>
+        <v>112</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>25</v>
@@ -6170,24 +5950,41 @@
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>729</v>
+        <v>600</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>559</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
     </row>
     <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>50</v>
+        <v>415</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>25</v>
@@ -6197,24 +5994,24 @@
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>52</v>
+        <v>416</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>525</v>
+        <v>417</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>559</v>
+        <v>418</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>25</v>
@@ -6224,24 +6021,24 @@
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>25</v>
@@ -6251,770 +6048,753 @@
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>632</v>
+        <v>603</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>82</v>
+        <v>470</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>83</v>
+        <v>687</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>84</v>
+        <v>471</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>111</v>
+        <v>270</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>633</v>
+        <v>604</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>526</v>
+        <v>272</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>559</v>
+        <v>273</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>369</v>
+        <v>274</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>371</v>
+        <v>276</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>372</v>
+        <v>277</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
+        <v>728</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>433</v>
+        <v>156</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>635</v>
+        <v>757</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>434</v>
+        <v>158</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>435</v>
+        <v>159</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>436</v>
+        <v>160</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>791</v>
+        <v>534</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>437</v>
+        <v>177</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>636</v>
+        <v>758</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>438</v>
+        <v>178</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>435</v>
+        <v>688</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>439</v>
+        <v>179</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>492</v>
+        <v>173</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>493</v>
+        <v>174</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>749</v>
+        <v>175</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>494</v>
+        <v>176</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>793</v>
+        <v>728</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>793</v>
+        <v>728</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>563</v>
+        <v>728</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>178</v>
+        <v>388</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>730</v>
+        <v>610</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>179</v>
+        <v>389</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>750</v>
+        <v>390</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>180</v>
+        <v>391</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>564</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>174</v>
+        <v>422</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>175</v>
+        <v>423</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>177</v>
+        <v>425</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>565</v>
+        <v>538</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>275</v>
+        <v>476</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>276</v>
+        <v>477</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>277</v>
+        <v>478</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>278</v>
+        <v>479</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>793</v>
+        <v>538</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
-        <v>643</v>
+        <v>773</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>288</v>
+        <v>345</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>793</v>
+        <v>729</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>793</v>
+        <v>729</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>406</v>
+        <v>91</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>407</v>
+        <v>93</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>408</v>
+        <v>94</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>409</v>
+        <v>95</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>566</v>
+        <v>729</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>440</v>
+        <v>96</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
-        <v>646</v>
+        <v>730</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>441</v>
+        <v>97</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>442</v>
+        <v>98</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>443</v>
+        <v>99</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>501</v>
+        <v>100</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7" t="s">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>502</v>
+        <v>101</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>503</v>
+        <v>102</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>504</v>
+        <v>103</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>356</v>
+        <v>122</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>357</v>
+        <v>124</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>358</v>
+        <v>125</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>359</v>
+        <v>126</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>568</v>
+        <v>721</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B64" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7" t="s">
-        <v>649</v>
+        <v>759</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>362</v>
+        <v>503</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>363</v>
+        <v>689</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>364</v>
+        <v>504</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>794</v>
+        <v>721</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B65" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>366</v>
+        <v>502</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>367</v>
+        <v>500</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>368</v>
+        <v>501</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>794</v>
+        <v>721</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>794</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>97</v>
+        <v>442</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7" t="s">
-        <v>795</v>
+        <v>619</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>98</v>
+        <v>443</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>99</v>
+        <v>444</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>593</v>
+        <v>731</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>101</v>
+        <v>450</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7" t="s">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>102</v>
+        <v>451</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>103</v>
+        <v>452</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>104</v>
+        <v>453</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>123</v>
+        <v>9</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>786</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B70" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>531</v>
+        <v>60</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>751</v>
+        <v>61</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>532</v>
+        <v>62</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>786</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>25</v>
+        <v>84</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>586</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>530</v>
+        <v>85</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>528</v>
+        <v>86</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>786</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7" t="s">
-        <v>656</v>
+        <v>775</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>796</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>460</v>
+        <v>131</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>657</v>
+        <v>776</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>461</v>
+        <v>132</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>462</v>
+        <v>133</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>463</v>
+        <v>134</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>796</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>464</v>
+        <v>135</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>25</v>
@@ -7024,618 +6804,618 @@
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>465</v>
+        <v>136</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>466</v>
+        <v>137</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>467</v>
+        <v>138</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>788</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>468</v>
+        <v>320</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7" t="s">
-        <v>659</v>
+        <v>760</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>469</v>
+        <v>321</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>471</v>
+        <v>322</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>592</v>
+        <v>732</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>9</v>
+        <v>323</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7" t="s">
-        <v>660</v>
+        <v>774</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>11</v>
+        <v>506</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>12</v>
+        <v>507</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>13</v>
+        <v>508</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>569</v>
+        <v>733</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>59</v>
+        <v>324</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>661</v>
+        <v>626</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>60</v>
+        <v>505</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>61</v>
+        <v>492</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>62</v>
+        <v>494</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>570</v>
+        <v>733</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>85</v>
+        <v>363</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>662</v>
+        <v>761</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>86</v>
+        <v>364</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>547</v>
+        <v>700</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>87</v>
+        <v>493</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>128</v>
+        <v>400</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7" t="s">
-        <v>663</v>
+        <v>627</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>129</v>
+        <v>401</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>130</v>
+        <v>701</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>131</v>
+        <v>402</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>132</v>
+        <v>462</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>664</v>
+        <v>628</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>133</v>
+        <v>463</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>134</v>
+        <v>464</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>135</v>
+        <v>465</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>139</v>
+        <v>509</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>510</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>329</v>
+        <v>117</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7" t="s">
-        <v>666</v>
+        <v>629</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>330</v>
+        <v>119</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>546</v>
+        <v>120</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>331</v>
+        <v>121</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>797</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>332</v>
+        <v>140</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7" t="s">
-        <v>667</v>
+        <v>630</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>535</v>
+        <v>141</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>536</v>
+        <v>142</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>798</v>
+        <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>533</v>
+        <v>217</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>519</v>
+        <v>218</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>521</v>
+        <v>219</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>798</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>669</v>
+        <v>631</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>382</v>
+        <v>512</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>762</v>
+        <v>691</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7" t="s">
-        <v>670</v>
+        <v>632</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>419</v>
+        <v>342</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>763</v>
+        <v>692</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7" t="s">
-        <v>671</v>
+        <v>620</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>569</v>
+        <v>723</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>140</v>
+        <v>403</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7" t="s">
-        <v>731</v>
+        <v>633</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>752</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>538</v>
+        <v>404</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>406</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7" t="s">
-        <v>672</v>
+        <v>634</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>120</v>
+        <v>408</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>121</v>
+        <v>409</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>122</v>
+        <v>410</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>572</v>
+        <v>545</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>141</v>
+        <v>411</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7" t="s">
-        <v>673</v>
+        <v>635</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>539</v>
+        <v>412</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>142</v>
+        <v>413</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>143</v>
+        <v>414</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
-        <v>732</v>
+        <v>675</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>573</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7" t="s">
-        <v>674</v>
+        <v>636</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>540</v>
+        <v>361</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>753</v>
+        <v>307</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>541</v>
+        <v>362</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>354</v>
+        <v>207</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7" t="s">
-        <v>675</v>
+        <v>637</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>355</v>
+        <v>208</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>754</v>
+        <v>209</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>542</v>
+        <v>210</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>421</v>
+        <v>211</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7" t="s">
-        <v>676</v>
+        <v>638</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>423</v>
+        <v>213</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>424</v>
+        <v>214</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>425</v>
+        <v>297</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7" t="s">
-        <v>677</v>
+        <v>762</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>426</v>
+        <v>298</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>429</v>
+        <v>15</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7" t="s">
-        <v>678</v>
+        <v>639</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>430</v>
+        <v>17</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>431</v>
+        <v>18</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>432</v>
+        <v>19</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>574</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>314</v>
+        <v>480</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>25</v>
@@ -7645,78 +7425,78 @@
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7" t="s">
-        <v>733</v>
+        <v>777</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>315</v>
+        <v>48</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>316</v>
+        <v>695</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>377</v>
+        <v>193</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7" t="s">
-        <v>679</v>
+        <v>782</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>378</v>
+        <v>194</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>379</v>
+        <v>783</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="G99" s="10" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>577</v>
+        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>25</v>
@@ -7726,24 +7506,24 @@
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7" t="s">
-        <v>681</v>
+        <v>778</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>220</v>
+        <v>702</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>576</v>
+        <v>549</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>25</v>
@@ -7753,24 +7533,41 @@
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>307</v>
+        <v>204</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>308</v>
+        <v>205</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>309</v>
+        <v>206</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>578</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="7"/>
     </row>
     <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>15</v>
+        <v>392</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>25</v>
@@ -7780,24 +7577,24 @@
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7" t="s">
-        <v>683</v>
+        <v>779</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>17</v>
+        <v>393</v>
       </c>
       <c r="G102" s="10" t="s">
-        <v>18</v>
+        <v>394</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>19</v>
+        <v>395</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>505</v>
+        <v>396</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>25</v>
@@ -7807,1776 +7604,1477 @@
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7" t="s">
-        <v>684</v>
+        <v>780</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>48</v>
+        <v>397</v>
       </c>
       <c r="G103" s="10" t="s">
-        <v>757</v>
+        <v>398</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>559</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
     </row>
     <row r="104" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>199</v>
+        <v>454</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7" t="s">
-        <v>685</v>
+        <v>781</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>200</v>
+        <v>455</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>201</v>
+        <v>496</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>202</v>
+        <v>583</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>203</v>
+        <v>581</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="7" t="s">
-        <v>686</v>
+        <v>641</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>204</v>
+        <v>582</v>
       </c>
       <c r="G105" s="10" t="s">
-        <v>205</v>
+        <v>584</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>206</v>
+        <v>585</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7" t="s">
-        <v>687</v>
+        <v>642</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>764</v>
+        <v>231</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
-        <v>210</v>
+      <c r="A107" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="7"/>
-      <c r="W107" s="7"/>
-      <c r="X107" s="7"/>
-      <c r="Y107" s="7"/>
-      <c r="Z107" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="108" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>410</v>
+        <v>225</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7" t="s">
-        <v>688</v>
+        <v>644</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>411</v>
+        <v>226</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>412</v>
+        <v>227</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>413</v>
+        <v>228</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>581</v>
+        <v>734</v>
       </c>
     </row>
     <row r="109" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7" t="s">
-        <v>689</v>
+        <v>784</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>415</v>
+        <v>516</v>
       </c>
       <c r="G109" s="10" t="s">
-        <v>416</v>
+        <v>703</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>417</v>
+        <v>515</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="7"/>
-      <c r="W109" s="7"/>
-      <c r="X109" s="7"/>
-      <c r="Y109" s="7"/>
-      <c r="Z109" s="7"/>
+        <v>553</v>
+      </c>
     </row>
     <row r="110" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>477</v>
+        <v>166</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>478</v>
+        <v>167</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>523</v>
+        <v>741</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>613</v>
+        <v>168</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>611</v>
+        <v>180</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7" t="s">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>612</v>
+        <v>181</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>614</v>
+        <v>742</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>615</v>
+        <v>182</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>495</v>
+        <v>183</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7" t="s">
-        <v>629</v>
+        <v>744</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>473</v>
+        <v>184</v>
       </c>
       <c r="G112" s="10" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>557</v>
+        <v>185</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
-        <v>227</v>
+      <c r="A114" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="H114" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>595</v>
+        <v>162</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7" t="s">
-        <v>693</v>
+        <v>645</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>799</v>
+        <v>555</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>444</v>
+        <v>281</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7" t="s">
-        <v>735</v>
+        <v>646</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>544</v>
+        <v>282</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>765</v>
+        <v>283</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>543</v>
+        <v>284</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7" t="s">
-        <v>805</v>
+        <v>647</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="G117" s="10" t="s">
-        <v>806</v>
+        <v>295</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>810</v>
+        <v>648</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>807</v>
+        <v>311</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>183</v>
+        <v>312</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>189</v>
+        <v>313</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7" t="s">
-        <v>809</v>
+        <v>649</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>190</v>
+        <v>314</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>808</v>
+        <v>315</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>191</v>
+        <v>316</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7" t="s">
-        <v>736</v>
+        <v>650</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="G120" s="10" t="s">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>593</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>263</v>
+        <v>169</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7" t="s">
-        <v>812</v>
+        <v>681</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>266</v>
+        <v>172</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>584</v>
+        <v>727</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="G122" s="10" t="s">
-        <v>269</v>
+        <v>686</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>584</v>
+        <v>192</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="s">
-        <v>290</v>
+        <v>66</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7" t="s">
-        <v>695</v>
+        <v>764</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>292</v>
+        <v>697</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>293</v>
+        <v>65</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>583</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7" t="s">
-        <v>696</v>
+        <v>765</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>303</v>
+        <v>43</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>304</v>
+        <v>683</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>584</v>
+        <v>530</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="s">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7" t="s">
-        <v>697</v>
+        <v>668</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>320</v>
+        <v>696</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>321</v>
+        <v>109</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>584</v>
+        <v>530</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="7" t="s">
-        <v>322</v>
+        <v>459</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7" t="s">
-        <v>698</v>
+        <v>766</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>323</v>
+        <v>460</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>324</v>
+        <v>699</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>325</v>
+        <v>461</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>584</v>
+        <v>530</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7" t="s">
-        <v>699</v>
+        <v>651</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="7" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7" t="s">
-        <v>741</v>
+        <v>678</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>171</v>
+        <v>517</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
-        <v>742</v>
+        <v>649</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>748</v>
+        <v>315</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I129" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="7" t="s">
-        <v>66</v>
+        <v>369</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="D130" s="7"/>
       <c r="E130" s="7" t="s">
-        <v>700</v>
+        <v>652</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>64</v>
+        <v>370</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>759</v>
+        <v>371</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>65</v>
+        <v>372</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7" t="s">
-        <v>720</v>
+        <v>679</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>745</v>
+        <v>154</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7" t="s">
-        <v>723</v>
+        <v>490</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>109</v>
+        <v>251</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>758</v>
+        <v>252</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="s">
-        <v>186</v>
+        <v>377</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="D133" s="7"/>
       <c r="E133" s="7" t="s">
-        <v>701</v>
+        <v>491</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>187</v>
+        <v>378</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>518</v>
+        <v>379</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
-        <v>243</v>
+        <v>481</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7" t="s">
-        <v>628</v>
+        <v>489</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>241</v>
+        <v>483</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>172</v>
+        <v>485</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>244</v>
+        <v>487</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>616</v>
+        <v>25</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>748</v>
+        <v>486</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="J135" s="14"/>
-      <c r="K135" s="14"/>
-      <c r="L135" s="14"/>
-      <c r="M135" s="14"/>
-      <c r="N135" s="14"/>
-      <c r="O135" s="14"/>
-      <c r="P135" s="14"/>
-      <c r="Q135" s="14"/>
-      <c r="R135" s="14"/>
-      <c r="S135" s="14"/>
-      <c r="T135" s="14"/>
-      <c r="U135" s="14"/>
-      <c r="V135" s="14"/>
-      <c r="W135" s="14"/>
-      <c r="X135" s="14"/>
-      <c r="Y135" s="14"/>
-      <c r="Z135" s="14"/>
-      <c r="AA135" s="14"/>
-    </row>
-    <row r="136" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="7" t="s">
-        <v>482</v>
+        <v>54</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D136" s="7"/>
       <c r="E136" s="7" t="s">
-        <v>725</v>
+        <v>653</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>483</v>
+        <v>56</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>761</v>
+        <v>57</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>484</v>
+        <v>58</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="s">
-        <v>391</v>
+        <v>113</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="D137" s="7"/>
       <c r="E137" s="7" t="s">
-        <v>702</v>
+        <v>654</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>392</v>
+        <v>114</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>393</v>
+        <v>115</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>394</v>
+        <v>116</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
-        <v>255</v>
+        <v>356</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>545</v>
+        <v>357</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>257</v>
+        <v>358</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>258</v>
+        <v>359</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7" t="s">
-        <v>698</v>
+        <v>655</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>324</v>
+        <v>693</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
-        <v>387</v>
+        <v>239</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7" t="s">
-        <v>703</v>
+        <v>656</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>388</v>
+        <v>240</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>389</v>
+        <v>694</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>390</v>
+        <v>241</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7" t="s">
-        <v>738</v>
+        <v>657</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7" t="s">
-        <v>515</v>
+        <v>658</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="143" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
-        <v>395</v>
+        <v>325</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7" t="s">
-        <v>516</v>
+        <v>659</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>397</v>
+        <v>327</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>398</v>
+        <v>328</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="144" spans="1:27" ht="15" x14ac:dyDescent="0.2">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="7" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7" t="s">
-        <v>514</v>
+        <v>660</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>510</v>
+        <v>338</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
-        <v>507</v>
+        <v>336</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7" t="s">
-        <v>739</v>
+        <v>661</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>509</v>
+        <v>337</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>511</v>
+        <v>338</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>513</v>
+        <v>339</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
-        <v>54</v>
+        <v>289</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>56</v>
+        <v>290</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>588</v>
+        <v>724</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="s">
-        <v>114</v>
+        <v>365</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7" t="s">
-        <v>705</v>
+        <v>663</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>115</v>
+        <v>366</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>116</v>
+        <v>367</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>117</v>
+        <v>368</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>800</v>
+        <v>739</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>374</v>
+        <v>144</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>375</v>
+        <v>145</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>376</v>
+        <v>146</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>800</v>
+        <v>725</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D149" s="7"/>
       <c r="E149" s="7" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>755</v>
+        <v>188</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>800</v>
+        <v>560</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D150" s="7"/>
       <c r="E150" s="7" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>756</v>
+        <v>287</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>800</v>
+        <v>561</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
-        <v>251</v>
+        <v>427</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7" t="s">
-        <v>709</v>
+        <v>763</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>253</v>
+        <v>428</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>254</v>
+        <v>429</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>801</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>25</v>
+        <v>586</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7" t="s">
-        <v>710</v>
+        <v>667</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>272</v>
+        <v>431</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>273</v>
+        <v>432</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>274</v>
+        <v>433</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>55</v>
-      </c>
+        <v>562</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="D153" s="7"/>
-      <c r="E153" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="I153" s="2" t="s">
-        <v>802</v>
-      </c>
+      <c r="G153" s="10"/>
+      <c r="H153" s="7"/>
     </row>
     <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="D154" s="7"/>
-      <c r="E154" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="I154" s="2" t="s">
-        <v>596</v>
-      </c>
+      <c r="G154" s="10"/>
+      <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D155" s="7"/>
-      <c r="E155" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="I155" s="2" t="s">
-        <v>803</v>
-      </c>
+      <c r="G155" s="10"/>
+      <c r="H155" s="7"/>
     </row>
     <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D156" s="7"/>
-      <c r="E156" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>803</v>
-      </c>
+      <c r="G156" s="10"/>
+      <c r="H156" s="7"/>
     </row>
     <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D157" s="7"/>
-      <c r="E157" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>759</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>555</v>
-      </c>
+      <c r="G157" s="10"/>
+      <c r="H157" s="7"/>
     </row>
     <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D158" s="7"/>
-      <c r="E158" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="H158" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>789</v>
-      </c>
+      <c r="G158" s="10"/>
+      <c r="H158" s="7"/>
     </row>
     <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D159" s="7"/>
-      <c r="E159" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G159" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>804</v>
-      </c>
+      <c r="G159" s="10"/>
+      <c r="H159" s="7"/>
     </row>
     <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="D160" s="7"/>
-      <c r="E160" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="G160" s="10"/>
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D161" s="7"/>
-      <c r="E161" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I161" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="G161" s="10"/>
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D162" s="7"/>
-      <c r="E162" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="G162" s="10"/>
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D163" s="7"/>
-      <c r="E163" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>68</v>
-      </c>
+      <c r="G163" s="10"/>
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D164" s="7"/>
-      <c r="E164" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="I164" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="G164" s="10"/>
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D165" s="7"/>
       <c r="G165" s="10"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D166" s="7"/>
       <c r="G166" s="10"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D167" s="7"/>
       <c r="G167" s="10"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D168" s="7"/>
       <c r="G168" s="10"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D169" s="7"/>
       <c r="G169" s="10"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D170" s="7"/>
       <c r="G170" s="10"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D171" s="7"/>
       <c r="G171" s="10"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D172" s="7"/>
       <c r="G172" s="10"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D173" s="7"/>
       <c r="G173" s="10"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D174" s="7"/>
       <c r="G174" s="10"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D175" s="7"/>
       <c r="G175" s="10"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:8" ht="15" x14ac:dyDescent="0.2">
       <c r="D176" s="7"/>
       <c r="G176" s="10"/>
       <c r="H176" s="7"/>
@@ -10441,137 +9939,54 @@
       <c r="G348" s="10"/>
       <c r="H348" s="7"/>
     </row>
-    <row r="349" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D349" s="7"/>
-      <c r="G349" s="10"/>
-      <c r="H349" s="7"/>
-    </row>
-    <row r="350" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D350" s="7"/>
-      <c r="G350" s="10"/>
-      <c r="H350" s="7"/>
-    </row>
-    <row r="351" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D351" s="7"/>
-      <c r="G351" s="10"/>
-      <c r="H351" s="7"/>
-    </row>
-    <row r="352" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D352" s="7"/>
-      <c r="G352" s="10"/>
-      <c r="H352" s="7"/>
-    </row>
-    <row r="353" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D353" s="7"/>
-      <c r="G353" s="10"/>
-      <c r="H353" s="7"/>
-    </row>
-    <row r="354" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D354" s="7"/>
-      <c r="G354" s="10"/>
-      <c r="H354" s="7"/>
-    </row>
-    <row r="355" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D355" s="7"/>
-      <c r="G355" s="10"/>
-      <c r="H355" s="7"/>
-    </row>
-    <row r="356" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D356" s="7"/>
-      <c r="G356" s="10"/>
-      <c r="H356" s="7"/>
-    </row>
-    <row r="357" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D357" s="7"/>
-      <c r="G357" s="10"/>
-      <c r="H357" s="7"/>
-    </row>
-    <row r="358" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D358" s="7"/>
-      <c r="G358" s="10"/>
-      <c r="H358" s="7"/>
-    </row>
-    <row r="359" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D359" s="7"/>
-      <c r="G359" s="10"/>
-      <c r="H359" s="7"/>
-    </row>
-    <row r="360" spans="4:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="D360" s="7"/>
-      <c r="G360" s="10"/>
-      <c r="H360" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I164" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I164">
-      <sortCondition ref="C1:C164"/>
+  <autoFilter ref="A1:I152" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I152">
+      <sortCondition ref="C1:C152"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E54 G131:G156">
-    <cfRule type="expression" dxfId="13" priority="3">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="G26:G31 G34:G49 E51:E65 G51:G63 G66:G70 G78:G122 E1:E49 G1:G24 G124:G145">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="expression" dxfId="12" priority="20">
-      <formula>E27&lt;&gt;E27</formula>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="expression" dxfId="7" priority="20">
+      <formula>E26&lt;&gt;E26</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="11" priority="29">
-      <formula>E34&lt;&gt;E34</formula>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="expression" dxfId="6" priority="29">
+      <formula>E31&lt;&gt;E31</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:E71 E83:E84 E98:E100 E110:E111 E114 E136 E141:E144">
-    <cfRule type="expression" dxfId="10" priority="33">
+  <conditionalFormatting sqref="E76:E77 E92:E94 E104:E105 E107 E126 E131:E134">
+    <cfRule type="expression" dxfId="5" priority="33">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102:E103">
-    <cfRule type="expression" dxfId="9" priority="32">
+  <conditionalFormatting sqref="E96:E97">
+    <cfRule type="expression" dxfId="4" priority="32">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="expression" dxfId="8" priority="31">
-      <formula>E103&lt;&gt;E103</formula>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="expression" dxfId="3" priority="31">
+      <formula>E97&lt;&gt;E97</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130">
-    <cfRule type="expression" dxfId="7" priority="27">
-      <formula>E130&lt;&gt;E130</formula>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>E123&lt;&gt;E123</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E157">
-    <cfRule type="expression" dxfId="6" priority="25">
-      <formula>E157&lt;&gt;E157</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="26">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G25">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G34">
-    <cfRule type="expression" dxfId="3" priority="11">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:G54">
-    <cfRule type="expression" dxfId="2" priority="22">
-      <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G69 G72:G77 G79:G82 G158:G164">
+  <conditionalFormatting sqref="G72:G75 G146:G152">
     <cfRule type="expression" dxfId="1" priority="24">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G85:G129 E128:E132 E154">
+  <conditionalFormatting sqref="E121:E125">
     <cfRule type="expression" dxfId="0" priority="19">
       <formula>"a1&lt;&gt;'pl list (sorted)'!A1"</formula>
     </cfRule>
